--- a/reference_files/Table1-HSMR.xlsx
+++ b/reference_files/Table1-HSMR.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="4350" windowWidth="15600" windowHeight="4395" tabRatio="837"/>
+    <workbookView xWindow="-15" yWindow="4350" windowWidth="15600" windowHeight="4395" tabRatio="837" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Table 1" sheetId="49" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="period_lookup" sheetId="37" r:id="rId5"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">funnel_data!$A$1:$S$1022</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'Chart 1'!$A$1:$AK$37</definedName>
     <definedName name="SPSS" localSheetId="1">#REF!</definedName>
     <definedName name="SPSS">#REF!</definedName>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="123">
   <si>
     <t>V217H</t>
   </si>
@@ -398,57 +399,6 @@
   <si>
     <t>lookup</t>
   </si>
-  <si>
-    <t>period</t>
-  </si>
-  <si>
-    <t>deaths</t>
-  </si>
-  <si>
-    <t>pred</t>
-  </si>
-  <si>
-    <t>pats</t>
-  </si>
-  <si>
-    <t>crd_rate</t>
-  </si>
-  <si>
-    <t>location_type</t>
-  </si>
-  <si>
-    <t>location</t>
-  </si>
-  <si>
-    <t>location_name</t>
-  </si>
-  <si>
-    <t>death_scot</t>
-  </si>
-  <si>
-    <t>pred_scot</t>
-  </si>
-  <si>
-    <t>pats_scot</t>
-  </si>
-  <si>
-    <t>smr_scot</t>
-  </si>
-  <si>
-    <t>st_err</t>
-  </si>
-  <si>
-    <t>uwl</t>
-  </si>
-  <si>
-    <t>ucl</t>
-  </si>
-  <si>
-    <t>lwl</t>
-  </si>
-  <si>
-    <t>lcl</t>
-  </si>
 </sst>
 </file>
 
@@ -458,7 +408,7 @@
     <numFmt numFmtId="164" formatCode="#.00"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="27" x14ac:knownFonts="1">
+  <fonts count="28" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -626,6 +576,12 @@
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -690,7 +646,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -772,27 +728,36 @@
     </xf>
     <xf numFmtId="1" fontId="14" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="14" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="14" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="4" fontId="18" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="3" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="22" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="18" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="4" fontId="23" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="2" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="14" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="17" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="17" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="17" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="4" fontId="19" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="1" fontId="17" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="19" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4552,7 +4517,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:AA84"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -4566,19 +4531,19 @@
     <row r="1" spans="1:27" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="47"/>
       <c r="B1" s="8"/>
-      <c r="C1" s="63" t="s">
+      <c r="C1" s="59" t="s">
         <v>73</v>
       </c>
-      <c r="D1" s="63"/>
-      <c r="E1" s="63"/>
-      <c r="F1" s="63"/>
-      <c r="G1" s="63"/>
-      <c r="H1" s="63"/>
-      <c r="I1" s="63"/>
-      <c r="J1" s="63"/>
-      <c r="K1" s="63"/>
-      <c r="L1" s="63"/>
-      <c r="M1" s="63"/>
+      <c r="D1" s="59"/>
+      <c r="E1" s="59"/>
+      <c r="F1" s="59"/>
+      <c r="G1" s="59"/>
+      <c r="H1" s="59"/>
+      <c r="I1" s="59"/>
+      <c r="J1" s="59"/>
+      <c r="K1" s="59"/>
+      <c r="L1" s="59"/>
+      <c r="M1" s="59"/>
     </row>
     <row r="2" spans="1:27" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="47"/>
@@ -4710,7 +4675,7 @@
         <f>VLOOKUP($B11&amp;$A$5,funnel_data!$A:$X,4,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="F11" s="59" t="e">
+      <c r="F11" s="56" t="e">
         <f>VLOOKUP($B11&amp;$A$5,funnel_data!$A:$X,6,FALSE)</f>
         <v>#N/A</v>
       </c>
@@ -4718,7 +4683,7 @@
         <f>VLOOKUP($B11&amp;$A$5,funnel_data!$A:$X,5,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="H11" s="59" t="e">
+      <c r="H11" s="56" t="e">
         <f>VLOOKUP($B11&amp;$A$5,funnel_data!$A:$X,7,FALSE)</f>
         <v>#N/A</v>
       </c>
@@ -5195,7 +5160,7 @@
         <f>VLOOKUP($B27&amp;$A$5,funnel_data!$A:$X,7,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="J27" s="56"/>
+      <c r="J27" s="54"/>
     </row>
     <row r="28" spans="1:10" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="49" t="s">
@@ -5227,7 +5192,7 @@
         <f>VLOOKUP($B28&amp;$A$5,funnel_data!$A:$X,7,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="J28" s="56"/>
+      <c r="J28" s="54"/>
     </row>
     <row r="29" spans="1:10" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="49" t="s">
@@ -6196,7 +6161,7 @@
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B61" s="30"/>
       <c r="C61" s="1" t="str">
-        <f>"Source: ISD Scotland (SMR01) linked dataset. Reflects the completeness of SMR01 submissions to ISD for individual hospitals as of " &amp; TEXT(funnel_data!F2,"dd mmm yyyy")</f>
+        <f>"Source: ISD Scotland (SMR01) linked dataset. Reflects the completeness of SMR01 submissions to ISD for individual hospitals as of " &amp; TEXT(funnel_data!L2,"dd mmm yyyy")</f>
         <v>Source: ISD Scotland (SMR01) linked dataset. Reflects the completeness of SMR01 submissions to ISD for individual hospitals as of 00 Jan 1900</v>
       </c>
     </row>
@@ -6216,7 +6181,7 @@
       </c>
     </row>
     <row r="65" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C65" s="57"/>
+      <c r="C65" s="55"/>
     </row>
     <row r="66" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B66" s="30"/>
@@ -6279,7 +6244,9 @@
   </sheetPr>
   <dimension ref="A1:AK121"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.28515625" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
@@ -6296,19 +6263,19 @@
   <sheetData>
     <row r="1" spans="1:36" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="8"/>
-      <c r="B1" s="63" t="s">
+      <c r="B1" s="59" t="s">
         <v>73</v>
       </c>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
-      <c r="E1" s="63"/>
-      <c r="F1" s="63"/>
-      <c r="G1" s="63"/>
-      <c r="H1" s="63"/>
-      <c r="I1" s="63"/>
-      <c r="J1" s="63"/>
-      <c r="K1" s="63"/>
-      <c r="L1" s="63"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
+      <c r="E1" s="59"/>
+      <c r="F1" s="59"/>
+      <c r="G1" s="59"/>
+      <c r="H1" s="59"/>
+      <c r="I1" s="59"/>
+      <c r="J1" s="59"/>
+      <c r="K1" s="59"/>
+      <c r="L1" s="59"/>
     </row>
     <row r="2" spans="1:36" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8"/>
@@ -6844,7 +6811,7 @@
     <row r="36" spans="1:37" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A36" s="3"/>
       <c r="B36" s="1" t="str">
-        <f>"Source: ISD Scotland (SMR01) linked dataset. Reflects the completeness of SMR01 submissions to ISD for individual hospitals as of " &amp; TEXT(funnel_data!F2,"dd mmm yyyy")</f>
+        <f>"Source: ISD Scotland (SMR01) linked dataset. Reflects the completeness of SMR01 submissions to ISD for individual hospitals as of " &amp; TEXT(funnel_data!L2,"dd mmm yyyy")</f>
         <v>Source: ISD Scotland (SMR01) linked dataset. Reflects the completeness of SMR01 submissions to ISD for individual hospitals as of 00 Jan 1900</v>
       </c>
       <c r="H36" s="3"/>
@@ -8624,1340 +8591,1340 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="80" spans="1:12" s="15" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A80" s="15">
+    <row r="80" spans="1:12" s="18" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A80" s="18">
         <v>32</v>
       </c>
-      <c r="B80" s="45" t="e">
+      <c r="B80" s="61" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
-      <c r="C80" s="52" t="e">
+      <c r="C80" s="62" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
-      <c r="D80" s="53" t="e">
+      <c r="D80" s="63" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
-      <c r="E80" s="53" t="e">
+      <c r="E80" s="63" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
-      <c r="F80" s="53" t="e">
+      <c r="F80" s="63" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
-      <c r="G80" s="53" t="e">
+      <c r="G80" s="63" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
-      <c r="H80" s="53" t="e">
+      <c r="H80" s="63" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
-      <c r="I80" s="53" t="e">
+      <c r="I80" s="63" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
-      <c r="J80" s="15" t="e">
+      <c r="J80" s="18" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
-      <c r="K80" s="15" t="e">
+      <c r="K80" s="18" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
-      <c r="L80" s="15" t="e">
+      <c r="L80" s="18" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="81" spans="1:23" s="15" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B81" s="45"/>
-      <c r="C81" s="54"/>
-      <c r="D81" s="54"/>
-      <c r="E81" s="54"/>
-      <c r="F81" s="54"/>
-      <c r="G81" s="54"/>
-      <c r="H81" s="54"/>
-      <c r="I81" s="54"/>
-    </row>
-    <row r="82" spans="1:23" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B82" s="15">
+    <row r="81" spans="1:23" s="18" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B81" s="61"/>
+      <c r="C81" s="64"/>
+      <c r="D81" s="64"/>
+      <c r="E81" s="64"/>
+      <c r="F81" s="64"/>
+      <c r="G81" s="64"/>
+      <c r="H81" s="64"/>
+      <c r="I81" s="64"/>
+    </row>
+    <row r="82" spans="1:23" s="18" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B82" s="18">
         <v>1</v>
       </c>
-      <c r="C82" s="50">
+      <c r="C82" s="65">
         <v>4</v>
       </c>
-      <c r="D82" s="50">
+      <c r="D82" s="65">
         <v>10</v>
       </c>
-      <c r="E82" s="50">
+      <c r="E82" s="65">
         <v>6</v>
       </c>
-      <c r="F82" s="50">
+      <c r="F82" s="65">
+        <v>18</v>
+      </c>
+      <c r="G82" s="65">
+        <v>20</v>
+      </c>
+      <c r="H82" s="65">
         <v>17</v>
       </c>
-      <c r="G82" s="50">
+      <c r="I82" s="66">
         <v>19</v>
       </c>
-      <c r="H82" s="50">
+      <c r="Q82" s="65"/>
+      <c r="R82" s="65"/>
+      <c r="S82" s="65"/>
+      <c r="T82" s="65"/>
+      <c r="U82" s="65"/>
+      <c r="V82" s="65"/>
+      <c r="W82" s="66"/>
+    </row>
+    <row r="83" spans="1:23" s="18" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B83" s="61" t="s">
+        <v>60</v>
+      </c>
+      <c r="C83" s="67" t="s">
+        <v>54</v>
+      </c>
+      <c r="D83" s="67" t="s">
+        <v>59</v>
+      </c>
+      <c r="E83" s="67" t="s">
+        <v>53</v>
+      </c>
+      <c r="F83" s="67" t="s">
+        <v>55</v>
+      </c>
+      <c r="G83" s="67" t="s">
+        <v>56</v>
+      </c>
+      <c r="H83" s="67" t="s">
+        <v>57</v>
+      </c>
+      <c r="I83" s="67" t="s">
+        <v>58</v>
+      </c>
+      <c r="P83" s="61"/>
+      <c r="Q83" s="67"/>
+      <c r="R83" s="67"/>
+      <c r="S83" s="67"/>
+      <c r="T83" s="67"/>
+      <c r="U83" s="67"/>
+      <c r="V83" s="67"/>
+      <c r="W83" s="67"/>
+    </row>
+    <row r="84" spans="1:23" s="18" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A84" s="18" t="e">
+        <f t="shared" ref="A84:A115" si="7">RANK(C84,$C$84:$C$115,1)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="B84" s="61" t="s">
+        <v>18</v>
+      </c>
+      <c r="C84" s="68" t="e">
+        <f>VLOOKUP($B84&amp;"3",funnel_data!$A:$X,C$82,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D84" s="68">
+        <v>1</v>
+      </c>
+      <c r="E84" s="68" t="e">
+        <f>VLOOKUP($B84&amp;"3",funnel_data!$A:$X,E$82,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F84" s="68" t="e">
+        <f>VLOOKUP($B84&amp;"3",funnel_data!$A:$X,F$82,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G84" s="68" t="e">
+        <f>VLOOKUP($B84&amp;"3",funnel_data!$A:$X,G$82,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H84" s="68" t="e">
+        <f>VLOOKUP($B84&amp;"3",funnel_data!$A:$X,H$82,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I84" s="68" t="e">
+        <f>VLOOKUP($B84&amp;"3",funnel_data!$A:$X,I$82,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="M84" s="69"/>
+      <c r="N84" s="69"/>
+    </row>
+    <row r="85" spans="1:23" s="18" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A85" s="18" t="e">
+        <f t="shared" si="7"/>
+        <v>#N/A</v>
+      </c>
+      <c r="B85" s="61" t="s">
+        <v>112</v>
+      </c>
+      <c r="C85" s="68" t="e">
+        <f>VLOOKUP($B85&amp;"3",funnel_data!$A:$X,C$82,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D85" s="68">
+        <v>1</v>
+      </c>
+      <c r="E85" s="68" t="e">
+        <f>VLOOKUP($B85&amp;"3",funnel_data!$A:$X,E$82,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F85" s="68" t="e">
+        <f>VLOOKUP($B85&amp;"3",funnel_data!$A:$X,F$82,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G85" s="68" t="e">
+        <f>VLOOKUP($B85&amp;"3",funnel_data!$A:$X,G$82,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H85" s="68" t="e">
+        <f>VLOOKUP($B85&amp;"3",funnel_data!$A:$X,H$82,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I85" s="68" t="e">
+        <f>VLOOKUP($B85&amp;"3",funnel_data!$A:$X,I$82,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="M85" s="69"/>
+      <c r="N85" s="69"/>
+    </row>
+    <row r="86" spans="1:23" s="18" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A86" s="18" t="e">
+        <f t="shared" si="7"/>
+        <v>#N/A</v>
+      </c>
+      <c r="B86" s="61" t="s">
+        <v>20</v>
+      </c>
+      <c r="C86" s="68" t="e">
+        <f>VLOOKUP($B86&amp;"3",funnel_data!$A:$X,C$82,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D86" s="68">
+        <v>1</v>
+      </c>
+      <c r="E86" s="68" t="e">
+        <f>VLOOKUP($B86&amp;"3",funnel_data!$A:$X,E$82,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F86" s="68" t="e">
+        <f>VLOOKUP($B86&amp;"3",funnel_data!$A:$X,F$82,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G86" s="68" t="e">
+        <f>VLOOKUP($B86&amp;"3",funnel_data!$A:$X,G$82,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H86" s="68" t="e">
+        <f>VLOOKUP($B86&amp;"3",funnel_data!$A:$X,H$82,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I86" s="68" t="e">
+        <f>VLOOKUP($B86&amp;"3",funnel_data!$A:$X,I$82,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="M86" s="69"/>
+      <c r="N86" s="69"/>
+    </row>
+    <row r="87" spans="1:23" s="18" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A87" s="18" t="e">
+        <f t="shared" si="7"/>
+        <v>#N/A</v>
+      </c>
+      <c r="B87" s="61" t="s">
+        <v>14</v>
+      </c>
+      <c r="C87" s="68" t="e">
+        <f>VLOOKUP($B87&amp;"3",funnel_data!$A:$X,C$82,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D87" s="68">
+        <v>1</v>
+      </c>
+      <c r="E87" s="68" t="e">
+        <f>VLOOKUP($B87&amp;"3",funnel_data!$A:$X,E$82,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F87" s="68" t="e">
+        <f>VLOOKUP($B87&amp;"3",funnel_data!$A:$X,F$82,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G87" s="68" t="e">
+        <f>VLOOKUP($B87&amp;"3",funnel_data!$A:$X,G$82,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H87" s="68" t="e">
+        <f>VLOOKUP($B87&amp;"3",funnel_data!$A:$X,H$82,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I87" s="68" t="e">
+        <f>VLOOKUP($B87&amp;"3",funnel_data!$A:$X,I$82,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="M87" s="69"/>
+      <c r="N87" s="69"/>
+    </row>
+    <row r="88" spans="1:23" s="18" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A88" s="18" t="e">
+        <f t="shared" si="7"/>
+        <v>#N/A</v>
+      </c>
+      <c r="B88" s="61" t="s">
+        <v>4</v>
+      </c>
+      <c r="C88" s="68" t="e">
+        <f>VLOOKUP($B88&amp;"3",funnel_data!$A:$X,C$82,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D88" s="68">
+        <v>1</v>
+      </c>
+      <c r="E88" s="68" t="e">
+        <f>VLOOKUP($B88&amp;"3",funnel_data!$A:$X,E$82,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F88" s="68" t="e">
+        <f>VLOOKUP($B88&amp;"3",funnel_data!$A:$X,F$82,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G88" s="68" t="e">
+        <f>VLOOKUP($B88&amp;"3",funnel_data!$A:$X,G$82,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H88" s="68" t="e">
+        <f>VLOOKUP($B88&amp;"3",funnel_data!$A:$X,H$82,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I88" s="68" t="e">
+        <f>VLOOKUP($B88&amp;"3",funnel_data!$A:$X,I$82,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="M88" s="69"/>
+      <c r="N88" s="69"/>
+    </row>
+    <row r="89" spans="1:23" s="18" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A89" s="18" t="e">
+        <f t="shared" si="7"/>
+        <v>#N/A</v>
+      </c>
+      <c r="B89" s="61" t="s">
+        <v>12</v>
+      </c>
+      <c r="C89" s="68" t="e">
+        <f>VLOOKUP($B89&amp;"3",funnel_data!$A:$X,C$82,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D89" s="68">
+        <v>1</v>
+      </c>
+      <c r="E89" s="68" t="e">
+        <f>VLOOKUP($B89&amp;"3",funnel_data!$A:$X,E$82,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F89" s="68" t="e">
+        <f>VLOOKUP($B89&amp;"3",funnel_data!$A:$X,F$82,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G89" s="68" t="e">
+        <f>VLOOKUP($B89&amp;"3",funnel_data!$A:$X,G$82,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H89" s="68" t="e">
+        <f>VLOOKUP($B89&amp;"3",funnel_data!$A:$X,H$82,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I89" s="68" t="e">
+        <f>VLOOKUP($B89&amp;"3",funnel_data!$A:$X,I$82,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="M89" s="69"/>
+      <c r="N89" s="69"/>
+    </row>
+    <row r="90" spans="1:23" s="18" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A90" s="18" t="e">
+        <f t="shared" si="7"/>
+        <v>#N/A</v>
+      </c>
+      <c r="B90" s="61" t="s">
+        <v>19</v>
+      </c>
+      <c r="C90" s="68" t="e">
+        <f>VLOOKUP($B90&amp;"3",funnel_data!$A:$X,C$82,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D90" s="68">
+        <v>1</v>
+      </c>
+      <c r="E90" s="68" t="e">
+        <f>VLOOKUP($B90&amp;"3",funnel_data!$A:$X,E$82,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F90" s="68" t="e">
+        <f>VLOOKUP($B90&amp;"3",funnel_data!$A:$X,F$82,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G90" s="68" t="e">
+        <f>VLOOKUP($B90&amp;"3",funnel_data!$A:$X,G$82,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H90" s="68" t="e">
+        <f>VLOOKUP($B90&amp;"3",funnel_data!$A:$X,H$82,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I90" s="68" t="e">
+        <f>VLOOKUP($B90&amp;"3",funnel_data!$A:$X,I$82,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="M90" s="69"/>
+      <c r="N90" s="69"/>
+    </row>
+    <row r="91" spans="1:23" s="18" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A91" s="18" t="e">
+        <f t="shared" si="7"/>
+        <v>#N/A</v>
+      </c>
+      <c r="B91" s="61" t="s">
+        <v>71</v>
+      </c>
+      <c r="C91" s="68" t="e">
+        <f>VLOOKUP($B91&amp;"3",funnel_data!$A:$X,C$82,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D91" s="68">
+        <v>1</v>
+      </c>
+      <c r="E91" s="68" t="e">
+        <f>VLOOKUP($B91&amp;"3",funnel_data!$A:$X,E$82,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F91" s="68" t="e">
+        <f>VLOOKUP($B91&amp;"3",funnel_data!$A:$X,F$82,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G91" s="68" t="e">
+        <f>VLOOKUP($B91&amp;"3",funnel_data!$A:$X,G$82,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H91" s="68" t="e">
+        <f>VLOOKUP($B91&amp;"3",funnel_data!$A:$X,H$82,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I91" s="68" t="e">
+        <f>VLOOKUP($B91&amp;"3",funnel_data!$A:$X,I$82,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="M91" s="69"/>
+      <c r="N91" s="69"/>
+    </row>
+    <row r="92" spans="1:23" s="18" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A92" s="18" t="e">
+        <f t="shared" si="7"/>
+        <v>#N/A</v>
+      </c>
+      <c r="B92" s="61" t="s">
+        <v>0</v>
+      </c>
+      <c r="C92" s="68" t="e">
+        <f>VLOOKUP($B92&amp;"3",funnel_data!$A:$X,C$82,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D92" s="68">
+        <v>1</v>
+      </c>
+      <c r="E92" s="68" t="e">
+        <f>VLOOKUP($B92&amp;"3",funnel_data!$A:$X,E$82,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F92" s="68" t="e">
+        <f>VLOOKUP($B92&amp;"3",funnel_data!$A:$X,F$82,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G92" s="68" t="e">
+        <f>VLOOKUP($B92&amp;"3",funnel_data!$A:$X,G$82,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H92" s="68" t="e">
+        <f>VLOOKUP($B92&amp;"3",funnel_data!$A:$X,H$82,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I92" s="68" t="e">
+        <f>VLOOKUP($B92&amp;"3",funnel_data!$A:$X,I$82,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="M92" s="69"/>
+      <c r="N92" s="69"/>
+    </row>
+    <row r="93" spans="1:23" s="18" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A93" s="18" t="e">
+        <f t="shared" si="7"/>
+        <v>#N/A</v>
+      </c>
+      <c r="B93" s="61" t="s">
+        <v>113</v>
+      </c>
+      <c r="C93" s="68" t="e">
+        <f>VLOOKUP($B93&amp;"3",funnel_data!$A:$X,C$82,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D93" s="68">
+        <v>1</v>
+      </c>
+      <c r="E93" s="68" t="e">
+        <f>VLOOKUP($B93&amp;"3",funnel_data!$A:$X,E$82,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F93" s="68" t="e">
+        <f>VLOOKUP($B93&amp;"3",funnel_data!$A:$X,F$82,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G93" s="68" t="e">
+        <f>VLOOKUP($B93&amp;"3",funnel_data!$A:$X,G$82,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H93" s="68" t="e">
+        <f>VLOOKUP($B93&amp;"3",funnel_data!$A:$X,H$82,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I93" s="68" t="e">
+        <f>VLOOKUP($B93&amp;"3",funnel_data!$A:$X,I$82,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="M93" s="69"/>
+      <c r="N93" s="69"/>
+    </row>
+    <row r="94" spans="1:23" s="18" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A94" s="18" t="e">
+        <f t="shared" si="7"/>
+        <v>#N/A</v>
+      </c>
+      <c r="B94" s="61" t="s">
+        <v>29</v>
+      </c>
+      <c r="C94" s="68" t="e">
+        <f>VLOOKUP($B94&amp;"3",funnel_data!$A:$X,C$82,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D94" s="68">
+        <v>1</v>
+      </c>
+      <c r="E94" s="68" t="e">
+        <f>VLOOKUP($B94&amp;"3",funnel_data!$A:$X,E$82,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F94" s="68" t="e">
+        <f>VLOOKUP($B94&amp;"3",funnel_data!$A:$X,F$82,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G94" s="68" t="e">
+        <f>VLOOKUP($B94&amp;"3",funnel_data!$A:$X,G$82,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H94" s="68" t="e">
+        <f>VLOOKUP($B94&amp;"3",funnel_data!$A:$X,H$82,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I94" s="68" t="e">
+        <f>VLOOKUP($B94&amp;"3",funnel_data!$A:$X,I$82,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="M94" s="69"/>
+      <c r="N94" s="69"/>
+    </row>
+    <row r="95" spans="1:23" s="18" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A95" s="18" t="e">
+        <f t="shared" si="7"/>
+        <v>#N/A</v>
+      </c>
+      <c r="B95" s="61" t="s">
+        <v>10</v>
+      </c>
+      <c r="C95" s="68" t="e">
+        <f>VLOOKUP($B95&amp;"3",funnel_data!$A:$X,C$82,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D95" s="68">
+        <v>1</v>
+      </c>
+      <c r="E95" s="68" t="e">
+        <f>VLOOKUP($B95&amp;"3",funnel_data!$A:$X,E$82,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F95" s="68" t="e">
+        <f>VLOOKUP($B95&amp;"3",funnel_data!$A:$X,F$82,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G95" s="68" t="e">
+        <f>VLOOKUP($B95&amp;"3",funnel_data!$A:$X,G$82,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H95" s="68" t="e">
+        <f>VLOOKUP($B95&amp;"3",funnel_data!$A:$X,H$82,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I95" s="68" t="e">
+        <f>VLOOKUP($B95&amp;"3",funnel_data!$A:$X,I$82,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="M95" s="69"/>
+      <c r="N95" s="69"/>
+    </row>
+    <row r="96" spans="1:23" s="18" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A96" s="18" t="e">
+        <f t="shared" si="7"/>
+        <v>#N/A</v>
+      </c>
+      <c r="B96" s="61" t="s">
+        <v>8</v>
+      </c>
+      <c r="C96" s="68" t="e">
+        <f>VLOOKUP($B96&amp;"3",funnel_data!$A:$X,C$82,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D96" s="68">
+        <v>1</v>
+      </c>
+      <c r="E96" s="68" t="e">
+        <f>VLOOKUP($B96&amp;"3",funnel_data!$A:$X,E$82,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F96" s="68" t="e">
+        <f>VLOOKUP($B96&amp;"3",funnel_data!$A:$X,F$82,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G96" s="68" t="e">
+        <f>VLOOKUP($B96&amp;"3",funnel_data!$A:$X,G$82,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H96" s="68" t="e">
+        <f>VLOOKUP($B96&amp;"3",funnel_data!$A:$X,H$82,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I96" s="68" t="e">
+        <f>VLOOKUP($B96&amp;"3",funnel_data!$A:$X,I$82,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="M96" s="69"/>
+      <c r="N96" s="69"/>
+    </row>
+    <row r="97" spans="1:14" s="18" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A97" s="18" t="e">
+        <f t="shared" si="7"/>
+        <v>#N/A</v>
+      </c>
+      <c r="B97" s="61" t="s">
+        <v>6</v>
+      </c>
+      <c r="C97" s="68" t="e">
+        <f>VLOOKUP($B97&amp;"3",funnel_data!$A:$X,C$82,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D97" s="68">
+        <v>1</v>
+      </c>
+      <c r="E97" s="68" t="e">
+        <f>VLOOKUP($B97&amp;"3",funnel_data!$A:$X,E$82,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F97" s="68" t="e">
+        <f>VLOOKUP($B97&amp;"3",funnel_data!$A:$X,F$82,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G97" s="68" t="e">
+        <f>VLOOKUP($B97&amp;"3",funnel_data!$A:$X,G$82,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H97" s="68" t="e">
+        <f>VLOOKUP($B97&amp;"3",funnel_data!$A:$X,H$82,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I97" s="68" t="e">
+        <f>VLOOKUP($B97&amp;"3",funnel_data!$A:$X,I$82,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="M97" s="69"/>
+      <c r="N97" s="69"/>
+    </row>
+    <row r="98" spans="1:14" s="18" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A98" s="18" t="e">
+        <f t="shared" si="7"/>
+        <v>#N/A</v>
+      </c>
+      <c r="B98" s="61" t="s">
+        <v>5</v>
+      </c>
+      <c r="C98" s="68" t="e">
+        <f>VLOOKUP($B98&amp;"3",funnel_data!$A:$X,C$82,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D98" s="68">
+        <v>1</v>
+      </c>
+      <c r="E98" s="68" t="e">
+        <f>VLOOKUP($B98&amp;"3",funnel_data!$A:$X,E$82,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F98" s="68" t="e">
+        <f>VLOOKUP($B98&amp;"3",funnel_data!$A:$X,F$82,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G98" s="68" t="e">
+        <f>VLOOKUP($B98&amp;"3",funnel_data!$A:$X,G$82,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H98" s="68" t="e">
+        <f>VLOOKUP($B98&amp;"3",funnel_data!$A:$X,H$82,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I98" s="68" t="e">
+        <f>VLOOKUP($B98&amp;"3",funnel_data!$A:$X,I$82,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="M98" s="69"/>
+      <c r="N98" s="69"/>
+    </row>
+    <row r="99" spans="1:14" s="18" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A99" s="18" t="e">
+        <f t="shared" si="7"/>
+        <v>#N/A</v>
+      </c>
+      <c r="B99" s="61" t="s">
+        <v>25</v>
+      </c>
+      <c r="C99" s="68" t="e">
+        <f>VLOOKUP($B99&amp;"3",funnel_data!$A:$X,C$82,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D99" s="68">
+        <v>1</v>
+      </c>
+      <c r="E99" s="68" t="e">
+        <f>VLOOKUP($B99&amp;"3",funnel_data!$A:$X,E$82,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F99" s="68" t="e">
+        <f>VLOOKUP($B99&amp;"3",funnel_data!$A:$X,F$82,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G99" s="68" t="e">
+        <f>VLOOKUP($B99&amp;"3",funnel_data!$A:$X,G$82,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H99" s="68" t="e">
+        <f>VLOOKUP($B99&amp;"3",funnel_data!$A:$X,H$82,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I99" s="68" t="e">
+        <f>VLOOKUP($B99&amp;"3",funnel_data!$A:$X,I$82,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="M99" s="69"/>
+      <c r="N99" s="69"/>
+    </row>
+    <row r="100" spans="1:14" s="18" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A100" s="18" t="e">
+        <f t="shared" si="7"/>
+        <v>#N/A</v>
+      </c>
+      <c r="B100" s="61" t="s">
+        <v>26</v>
+      </c>
+      <c r="C100" s="68" t="e">
+        <f>VLOOKUP($B100&amp;"3",funnel_data!$A:$X,C$82,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D100" s="68">
+        <v>1</v>
+      </c>
+      <c r="E100" s="68" t="e">
+        <f>VLOOKUP($B100&amp;"3",funnel_data!$A:$X,E$82,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F100" s="68" t="e">
+        <f>VLOOKUP($B100&amp;"3",funnel_data!$A:$X,F$82,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G100" s="68" t="e">
+        <f>VLOOKUP($B100&amp;"3",funnel_data!$A:$X,G$82,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H100" s="68" t="e">
+        <f>VLOOKUP($B100&amp;"3",funnel_data!$A:$X,H$82,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I100" s="68" t="e">
+        <f>VLOOKUP($B100&amp;"3",funnel_data!$A:$X,I$82,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="M100" s="69"/>
+      <c r="N100" s="69"/>
+    </row>
+    <row r="101" spans="1:14" s="18" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A101" s="18" t="e">
+        <f t="shared" si="7"/>
+        <v>#N/A</v>
+      </c>
+      <c r="B101" s="61" t="s">
+        <v>11</v>
+      </c>
+      <c r="C101" s="68" t="e">
+        <f>VLOOKUP($B101&amp;"3",funnel_data!$A:$X,C$82,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D101" s="68">
+        <v>1</v>
+      </c>
+      <c r="E101" s="68" t="e">
+        <f>VLOOKUP($B101&amp;"3",funnel_data!$A:$X,E$82,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F101" s="68" t="e">
+        <f>VLOOKUP($B101&amp;"3",funnel_data!$A:$X,F$82,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G101" s="68" t="e">
+        <f>VLOOKUP($B101&amp;"3",funnel_data!$A:$X,G$82,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H101" s="68" t="e">
+        <f>VLOOKUP($B101&amp;"3",funnel_data!$A:$X,H$82,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I101" s="68" t="e">
+        <f>VLOOKUP($B101&amp;"3",funnel_data!$A:$X,I$82,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="M101" s="69"/>
+      <c r="N101" s="69"/>
+    </row>
+    <row r="102" spans="1:14" s="18" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A102" s="18" t="e">
+        <f t="shared" si="7"/>
+        <v>#N/A</v>
+      </c>
+      <c r="B102" s="61" t="s">
+        <v>119</v>
+      </c>
+      <c r="C102" s="68" t="e">
+        <f>VLOOKUP($B102&amp;"3",funnel_data!$A:$X,C$82,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D102" s="68">
+        <v>1</v>
+      </c>
+      <c r="E102" s="68" t="e">
+        <f>VLOOKUP($B102&amp;"3",funnel_data!$A:$X,E$82,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F102" s="68" t="e">
+        <f>VLOOKUP($B102&amp;"3",funnel_data!$A:$X,F$82,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G102" s="68" t="e">
+        <f>VLOOKUP($B102&amp;"3",funnel_data!$A:$X,G$82,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H102" s="68" t="e">
+        <f>VLOOKUP($B102&amp;"3",funnel_data!$A:$X,H$82,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I102" s="68" t="e">
+        <f>VLOOKUP($B102&amp;"3",funnel_data!$A:$X,I$82,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="M102" s="69"/>
+      <c r="N102" s="69"/>
+    </row>
+    <row r="103" spans="1:14" s="18" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A103" s="18" t="e">
+        <f t="shared" si="7"/>
+        <v>#N/A</v>
+      </c>
+      <c r="B103" s="61" t="s">
+        <v>13</v>
+      </c>
+      <c r="C103" s="68" t="e">
+        <f>VLOOKUP($B103&amp;"3",funnel_data!$A:$X,C$82,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D103" s="68">
+        <v>1</v>
+      </c>
+      <c r="E103" s="68" t="e">
+        <f>VLOOKUP($B103&amp;"3",funnel_data!$A:$X,E$82,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F103" s="68" t="e">
+        <f>VLOOKUP($B103&amp;"3",funnel_data!$A:$X,F$82,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G103" s="68" t="e">
+        <f>VLOOKUP($B103&amp;"3",funnel_data!$A:$X,G$82,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H103" s="68" t="e">
+        <f>VLOOKUP($B103&amp;"3",funnel_data!$A:$X,H$82,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I103" s="68" t="e">
+        <f>VLOOKUP($B103&amp;"3",funnel_data!$A:$X,I$82,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="M103" s="69"/>
+      <c r="N103" s="69"/>
+    </row>
+    <row r="104" spans="1:14" s="18" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A104" s="18" t="e">
+        <f t="shared" si="7"/>
+        <v>#N/A</v>
+      </c>
+      <c r="B104" s="61" t="s">
+        <v>7</v>
+      </c>
+      <c r="C104" s="68" t="e">
+        <f>VLOOKUP($B104&amp;"3",funnel_data!$A:$X,C$82,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D104" s="68">
+        <v>1</v>
+      </c>
+      <c r="E104" s="68" t="e">
+        <f>VLOOKUP($B104&amp;"3",funnel_data!$A:$X,E$82,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F104" s="68" t="e">
+        <f>VLOOKUP($B104&amp;"3",funnel_data!$A:$X,F$82,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G104" s="68" t="e">
+        <f>VLOOKUP($B104&amp;"3",funnel_data!$A:$X,G$82,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H104" s="68" t="e">
+        <f>VLOOKUP($B104&amp;"3",funnel_data!$A:$X,H$82,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I104" s="68" t="e">
+        <f>VLOOKUP($B104&amp;"3",funnel_data!$A:$X,I$82,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="M104" s="69"/>
+      <c r="N104" s="69"/>
+    </row>
+    <row r="105" spans="1:14" s="18" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A105" s="18" t="e">
+        <f t="shared" si="7"/>
+        <v>#N/A</v>
+      </c>
+      <c r="B105" s="61" t="s">
+        <v>23</v>
+      </c>
+      <c r="C105" s="68" t="e">
+        <f>VLOOKUP($B105&amp;"3",funnel_data!$A:$X,C$82,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D105" s="68">
+        <v>1</v>
+      </c>
+      <c r="E105" s="68" t="e">
+        <f>VLOOKUP($B105&amp;"3",funnel_data!$A:$X,E$82,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F105" s="68" t="e">
+        <f>VLOOKUP($B105&amp;"3",funnel_data!$A:$X,F$82,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G105" s="68" t="e">
+        <f>VLOOKUP($B105&amp;"3",funnel_data!$A:$X,G$82,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H105" s="68" t="e">
+        <f>VLOOKUP($B105&amp;"3",funnel_data!$A:$X,H$82,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I105" s="68" t="e">
+        <f>VLOOKUP($B105&amp;"3",funnel_data!$A:$X,I$82,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="M105" s="69"/>
+      <c r="N105" s="69"/>
+    </row>
+    <row r="106" spans="1:14" s="18" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A106" s="18" t="e">
+        <f t="shared" si="7"/>
+        <v>#N/A</v>
+      </c>
+      <c r="B106" s="61" t="s">
+        <v>22</v>
+      </c>
+      <c r="C106" s="68" t="e">
+        <f>VLOOKUP($B106&amp;"3",funnel_data!$A:$X,C$82,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D106" s="68">
+        <v>1</v>
+      </c>
+      <c r="E106" s="68" t="e">
+        <f>VLOOKUP($B106&amp;"3",funnel_data!$A:$X,E$82,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F106" s="68" t="e">
+        <f>VLOOKUP($B106&amp;"3",funnel_data!$A:$X,F$82,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G106" s="68" t="e">
+        <f>VLOOKUP($B106&amp;"3",funnel_data!$A:$X,G$82,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H106" s="68" t="e">
+        <f>VLOOKUP($B106&amp;"3",funnel_data!$A:$X,H$82,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I106" s="68" t="e">
+        <f>VLOOKUP($B106&amp;"3",funnel_data!$A:$X,I$82,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="M106" s="69"/>
+      <c r="N106" s="69"/>
+    </row>
+    <row r="107" spans="1:14" s="18" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A107" s="18" t="e">
+        <f t="shared" si="7"/>
+        <v>#N/A</v>
+      </c>
+      <c r="B107" s="61" t="s">
+        <v>27</v>
+      </c>
+      <c r="C107" s="68" t="e">
+        <f>VLOOKUP($B107&amp;"3",funnel_data!$A:$X,C$82,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D107" s="68">
+        <v>1</v>
+      </c>
+      <c r="E107" s="68" t="e">
+        <f>VLOOKUP($B107&amp;"3",funnel_data!$A:$X,E$82,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F107" s="68" t="e">
+        <f>VLOOKUP($B107&amp;"3",funnel_data!$A:$X,F$82,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G107" s="68" t="e">
+        <f>VLOOKUP($B107&amp;"3",funnel_data!$A:$X,G$82,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H107" s="68" t="e">
+        <f>VLOOKUP($B107&amp;"3",funnel_data!$A:$X,H$82,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I107" s="68" t="e">
+        <f>VLOOKUP($B107&amp;"3",funnel_data!$A:$X,I$82,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="M107" s="69"/>
+      <c r="N107" s="69"/>
+    </row>
+    <row r="108" spans="1:14" s="18" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A108" s="18" t="e">
+        <f t="shared" si="7"/>
+        <v>#N/A</v>
+      </c>
+      <c r="B108" s="61" t="s">
+        <v>3</v>
+      </c>
+      <c r="C108" s="68" t="e">
+        <f>VLOOKUP($B108&amp;"3",funnel_data!$A:$X,C$82,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D108" s="68">
+        <v>1</v>
+      </c>
+      <c r="E108" s="68" t="e">
+        <f>VLOOKUP($B108&amp;"3",funnel_data!$A:$X,E$82,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F108" s="68" t="e">
+        <f>VLOOKUP($B108&amp;"3",funnel_data!$A:$X,F$82,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G108" s="68" t="e">
+        <f>VLOOKUP($B108&amp;"3",funnel_data!$A:$X,G$82,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H108" s="68" t="e">
+        <f>VLOOKUP($B108&amp;"3",funnel_data!$A:$X,H$82,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I108" s="68" t="e">
+        <f>VLOOKUP($B108&amp;"3",funnel_data!$A:$X,I$82,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="M108" s="69"/>
+      <c r="N108" s="69"/>
+    </row>
+    <row r="109" spans="1:14" s="18" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A109" s="18" t="e">
+        <f t="shared" si="7"/>
+        <v>#N/A</v>
+      </c>
+      <c r="B109" s="61" t="s">
+        <v>2</v>
+      </c>
+      <c r="C109" s="68" t="e">
+        <f>VLOOKUP($B109&amp;"3",funnel_data!$A:$X,C$82,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D109" s="68">
+        <v>1</v>
+      </c>
+      <c r="E109" s="68" t="e">
+        <f>VLOOKUP($B109&amp;"3",funnel_data!$A:$X,E$82,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F109" s="68" t="e">
+        <f>VLOOKUP($B109&amp;"3",funnel_data!$A:$X,F$82,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G109" s="68" t="e">
+        <f>VLOOKUP($B109&amp;"3",funnel_data!$A:$X,G$82,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H109" s="68" t="e">
+        <f>VLOOKUP($B109&amp;"3",funnel_data!$A:$X,H$82,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I109" s="68" t="e">
+        <f>VLOOKUP($B109&amp;"3",funnel_data!$A:$X,I$82,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="M109" s="69"/>
+      <c r="N109" s="69"/>
+    </row>
+    <row r="110" spans="1:14" s="18" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A110" s="18" t="e">
+        <f t="shared" si="7"/>
+        <v>#N/A</v>
+      </c>
+      <c r="B110" s="61" t="s">
         <v>16</v>
       </c>
-      <c r="I82" s="55">
-        <v>18</v>
-      </c>
-      <c r="Q82" s="50"/>
-      <c r="R82" s="50"/>
-      <c r="S82" s="50"/>
-      <c r="T82" s="50"/>
-      <c r="U82" s="50"/>
-      <c r="V82" s="50"/>
-      <c r="W82" s="55"/>
-    </row>
-    <row r="83" spans="1:23" s="15" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B83" s="45" t="s">
-        <v>60</v>
-      </c>
-      <c r="C83" s="51" t="s">
-        <v>54</v>
-      </c>
-      <c r="D83" s="51" t="s">
-        <v>59</v>
-      </c>
-      <c r="E83" s="51" t="s">
-        <v>53</v>
-      </c>
-      <c r="F83" s="51" t="s">
-        <v>55</v>
-      </c>
-      <c r="G83" s="51" t="s">
-        <v>56</v>
-      </c>
-      <c r="H83" s="51" t="s">
-        <v>57</v>
-      </c>
-      <c r="I83" s="51" t="s">
-        <v>58</v>
-      </c>
-      <c r="P83" s="45"/>
-      <c r="Q83" s="51"/>
-      <c r="R83" s="51"/>
-      <c r="S83" s="51"/>
-      <c r="T83" s="51"/>
-      <c r="U83" s="51"/>
-      <c r="V83" s="51"/>
-      <c r="W83" s="51"/>
-    </row>
-    <row r="84" spans="1:23" s="15" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A84" s="15" t="e">
-        <f t="shared" ref="A84:A115" si="7">RANK(C84,$C$84:$C$115,1)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="B84" s="45" t="s">
-        <v>18</v>
-      </c>
-      <c r="C84" s="64" t="e">
-        <f>VLOOKUP($B84&amp;"3",funnel_data!$A:$X,C$82,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D84" s="64">
+      <c r="C110" s="68" t="e">
+        <f>VLOOKUP($B110&amp;"3",funnel_data!$A:$X,C$82,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D110" s="68">
         <v>1</v>
       </c>
-      <c r="E84" s="64" t="e">
-        <f>VLOOKUP($B84&amp;"3",funnel_data!$A:$X,E$82,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F84" s="64" t="e">
-        <f>VLOOKUP($B84&amp;"3",funnel_data!$A:$X,F$82,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G84" s="64" t="e">
-        <f>VLOOKUP($B84&amp;"3",funnel_data!$A:$X,G$82,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H84" s="64" t="e">
-        <f>VLOOKUP($B84&amp;"3",funnel_data!$A:$X,H$82,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I84" s="64" t="e">
-        <f>VLOOKUP($B84&amp;"3",funnel_data!$A:$X,I$82,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="M84" s="58"/>
-      <c r="N84" s="58"/>
-    </row>
-    <row r="85" spans="1:23" s="15" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A85" s="15" t="e">
+      <c r="E110" s="68" t="e">
+        <f>VLOOKUP($B110&amp;"3",funnel_data!$A:$X,E$82,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F110" s="68" t="e">
+        <f>VLOOKUP($B110&amp;"3",funnel_data!$A:$X,F$82,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G110" s="68" t="e">
+        <f>VLOOKUP($B110&amp;"3",funnel_data!$A:$X,G$82,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H110" s="68" t="e">
+        <f>VLOOKUP($B110&amp;"3",funnel_data!$A:$X,H$82,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I110" s="68" t="e">
+        <f>VLOOKUP($B110&amp;"3",funnel_data!$A:$X,I$82,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="M110" s="69"/>
+      <c r="N110" s="69"/>
+    </row>
+    <row r="111" spans="1:14" s="18" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A111" s="18" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
-      <c r="B85" s="45" t="s">
-        <v>112</v>
-      </c>
-      <c r="C85" s="64" t="e">
-        <f>VLOOKUP($B85&amp;"3",funnel_data!$A:$X,C$82,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D85" s="64">
+      <c r="B111" s="61" t="s">
+        <v>15</v>
+      </c>
+      <c r="C111" s="68" t="e">
+        <f>VLOOKUP($B111&amp;"3",funnel_data!$A:$X,C$82,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D111" s="68">
         <v>1</v>
       </c>
-      <c r="E85" s="64" t="e">
-        <f>VLOOKUP($B85&amp;"3",funnel_data!$A:$X,E$82,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F85" s="64" t="e">
-        <f>VLOOKUP($B85&amp;"3",funnel_data!$A:$X,F$82,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G85" s="64" t="e">
-        <f>VLOOKUP($B85&amp;"3",funnel_data!$A:$X,G$82,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H85" s="64" t="e">
-        <f>VLOOKUP($B85&amp;"3",funnel_data!$A:$X,H$82,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I85" s="64" t="e">
-        <f>VLOOKUP($B85&amp;"3",funnel_data!$A:$X,I$82,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="M85" s="58"/>
-      <c r="N85" s="58"/>
-    </row>
-    <row r="86" spans="1:23" s="15" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A86" s="15" t="e">
+      <c r="E111" s="68" t="e">
+        <f>VLOOKUP($B111&amp;"3",funnel_data!$A:$X,E$82,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F111" s="68" t="e">
+        <f>VLOOKUP($B111&amp;"3",funnel_data!$A:$X,F$82,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G111" s="68" t="e">
+        <f>VLOOKUP($B111&amp;"3",funnel_data!$A:$X,G$82,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H111" s="68" t="e">
+        <f>VLOOKUP($B111&amp;"3",funnel_data!$A:$X,H$82,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I111" s="68" t="e">
+        <f>VLOOKUP($B111&amp;"3",funnel_data!$A:$X,I$82,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="112" spans="1:14" s="18" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A112" s="18" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
-      <c r="B86" s="45" t="s">
-        <v>20</v>
-      </c>
-      <c r="C86" s="64" t="e">
-        <f>VLOOKUP($B86&amp;"3",funnel_data!$A:$X,C$82,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D86" s="64">
+      <c r="B112" s="61" t="s">
+        <v>17</v>
+      </c>
+      <c r="C112" s="68" t="e">
+        <f>VLOOKUP($B112&amp;"3",funnel_data!$A:$X,C$82,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D112" s="68">
         <v>1</v>
       </c>
-      <c r="E86" s="64" t="e">
-        <f>VLOOKUP($B86&amp;"3",funnel_data!$A:$X,E$82,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F86" s="64" t="e">
-        <f>VLOOKUP($B86&amp;"3",funnel_data!$A:$X,F$82,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G86" s="64" t="e">
-        <f>VLOOKUP($B86&amp;"3",funnel_data!$A:$X,G$82,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H86" s="64" t="e">
-        <f>VLOOKUP($B86&amp;"3",funnel_data!$A:$X,H$82,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I86" s="64" t="e">
-        <f>VLOOKUP($B86&amp;"3",funnel_data!$A:$X,I$82,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="M86" s="58"/>
-      <c r="N86" s="58"/>
-    </row>
-    <row r="87" spans="1:23" s="15" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A87" s="15" t="e">
+      <c r="E112" s="68" t="e">
+        <f>VLOOKUP($B112&amp;"3",funnel_data!$A:$X,E$82,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F112" s="68" t="e">
+        <f>VLOOKUP($B112&amp;"3",funnel_data!$A:$X,F$82,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G112" s="68" t="e">
+        <f>VLOOKUP($B112&amp;"3",funnel_data!$A:$X,G$82,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H112" s="68" t="e">
+        <f>VLOOKUP($B112&amp;"3",funnel_data!$A:$X,H$82,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I112" s="68" t="e">
+        <f>VLOOKUP($B112&amp;"3",funnel_data!$A:$X,I$82,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9" s="18" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A113" s="18" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
-      <c r="B87" s="45" t="s">
-        <v>14</v>
-      </c>
-      <c r="C87" s="64" t="e">
-        <f>VLOOKUP($B87&amp;"3",funnel_data!$A:$X,C$82,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D87" s="64">
+      <c r="B113" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="C113" s="68" t="e">
+        <f>VLOOKUP($B113&amp;"3",funnel_data!$A:$X,C$82,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D113" s="68">
         <v>1</v>
       </c>
-      <c r="E87" s="64" t="e">
-        <f>VLOOKUP($B87&amp;"3",funnel_data!$A:$X,E$82,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F87" s="64" t="e">
-        <f>VLOOKUP($B87&amp;"3",funnel_data!$A:$X,F$82,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G87" s="64" t="e">
-        <f>VLOOKUP($B87&amp;"3",funnel_data!$A:$X,G$82,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H87" s="64" t="e">
-        <f>VLOOKUP($B87&amp;"3",funnel_data!$A:$X,H$82,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I87" s="64" t="e">
-        <f>VLOOKUP($B87&amp;"3",funnel_data!$A:$X,I$82,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="M87" s="58"/>
-      <c r="N87" s="58"/>
-    </row>
-    <row r="88" spans="1:23" s="15" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A88" s="15" t="e">
+      <c r="E113" s="68" t="e">
+        <f>VLOOKUP($B113&amp;"3",funnel_data!$A:$X,E$82,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F113" s="68" t="e">
+        <f>VLOOKUP($B113&amp;"3",funnel_data!$A:$X,F$82,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G113" s="68" t="e">
+        <f>VLOOKUP($B113&amp;"3",funnel_data!$A:$X,G$82,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H113" s="68" t="e">
+        <f>VLOOKUP($B113&amp;"3",funnel_data!$A:$X,H$82,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I113" s="68" t="e">
+        <f>VLOOKUP($B113&amp;"3",funnel_data!$A:$X,I$82,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9" s="18" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A114" s="18" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
-      <c r="B88" s="45" t="s">
-        <v>4</v>
-      </c>
-      <c r="C88" s="64" t="e">
-        <f>VLOOKUP($B88&amp;"3",funnel_data!$A:$X,C$82,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D88" s="64">
+      <c r="B114" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="C114" s="68" t="e">
+        <f>VLOOKUP($B114&amp;"3",funnel_data!$A:$X,C$82,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D114" s="68">
         <v>1</v>
       </c>
-      <c r="E88" s="64" t="e">
-        <f>VLOOKUP($B88&amp;"3",funnel_data!$A:$X,E$82,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F88" s="64" t="e">
-        <f>VLOOKUP($B88&amp;"3",funnel_data!$A:$X,F$82,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G88" s="64" t="e">
-        <f>VLOOKUP($B88&amp;"3",funnel_data!$A:$X,G$82,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H88" s="64" t="e">
-        <f>VLOOKUP($B88&amp;"3",funnel_data!$A:$X,H$82,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I88" s="64" t="e">
-        <f>VLOOKUP($B88&amp;"3",funnel_data!$A:$X,I$82,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="M88" s="58"/>
-      <c r="N88" s="58"/>
-    </row>
-    <row r="89" spans="1:23" s="15" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A89" s="15" t="e">
+      <c r="E114" s="68" t="e">
+        <f>VLOOKUP($B114&amp;"3",funnel_data!$A:$X,E$82,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F114" s="68" t="e">
+        <f>VLOOKUP($B114&amp;"3",funnel_data!$A:$X,F$82,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G114" s="68" t="e">
+        <f>VLOOKUP($B114&amp;"3",funnel_data!$A:$X,G$82,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H114" s="68" t="e">
+        <f>VLOOKUP($B114&amp;"3",funnel_data!$A:$X,H$82,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I114" s="68" t="e">
+        <f>VLOOKUP($B114&amp;"3",funnel_data!$A:$X,I$82,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9" s="18" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A115" s="18" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
-      <c r="B89" s="45" t="s">
-        <v>12</v>
-      </c>
-      <c r="C89" s="64" t="e">
-        <f>VLOOKUP($B89&amp;"3",funnel_data!$A:$X,C$82,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D89" s="64">
+      <c r="B115" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="C115" s="68" t="e">
+        <f>VLOOKUP($B115&amp;"3",funnel_data!$A:$X,C$82,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D115" s="68">
         <v>1</v>
       </c>
-      <c r="E89" s="64" t="e">
-        <f>VLOOKUP($B89&amp;"3",funnel_data!$A:$X,E$82,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F89" s="64" t="e">
-        <f>VLOOKUP($B89&amp;"3",funnel_data!$A:$X,F$82,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G89" s="64" t="e">
-        <f>VLOOKUP($B89&amp;"3",funnel_data!$A:$X,G$82,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H89" s="64" t="e">
-        <f>VLOOKUP($B89&amp;"3",funnel_data!$A:$X,H$82,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I89" s="64" t="e">
-        <f>VLOOKUP($B89&amp;"3",funnel_data!$A:$X,I$82,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="M89" s="58"/>
-      <c r="N89" s="58"/>
-    </row>
-    <row r="90" spans="1:23" s="15" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A90" s="15" t="e">
-        <f t="shared" si="7"/>
-        <v>#N/A</v>
-      </c>
-      <c r="B90" s="45" t="s">
-        <v>19</v>
-      </c>
-      <c r="C90" s="64" t="e">
-        <f>VLOOKUP($B90&amp;"3",funnel_data!$A:$X,C$82,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D90" s="64">
-        <v>1</v>
-      </c>
-      <c r="E90" s="64" t="e">
-        <f>VLOOKUP($B90&amp;"3",funnel_data!$A:$X,E$82,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F90" s="64" t="e">
-        <f>VLOOKUP($B90&amp;"3",funnel_data!$A:$X,F$82,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G90" s="64" t="e">
-        <f>VLOOKUP($B90&amp;"3",funnel_data!$A:$X,G$82,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H90" s="64" t="e">
-        <f>VLOOKUP($B90&amp;"3",funnel_data!$A:$X,H$82,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I90" s="64" t="e">
-        <f>VLOOKUP($B90&amp;"3",funnel_data!$A:$X,I$82,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="M90" s="58"/>
-      <c r="N90" s="58"/>
-    </row>
-    <row r="91" spans="1:23" s="15" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A91" s="15" t="e">
-        <f t="shared" si="7"/>
-        <v>#N/A</v>
-      </c>
-      <c r="B91" s="45" t="s">
-        <v>71</v>
-      </c>
-      <c r="C91" s="64" t="e">
-        <f>VLOOKUP($B91&amp;"3",funnel_data!$A:$X,C$82,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D91" s="64">
-        <v>1</v>
-      </c>
-      <c r="E91" s="64" t="e">
-        <f>VLOOKUP($B91&amp;"3",funnel_data!$A:$X,E$82,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F91" s="64" t="e">
-        <f>VLOOKUP($B91&amp;"3",funnel_data!$A:$X,F$82,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G91" s="64" t="e">
-        <f>VLOOKUP($B91&amp;"3",funnel_data!$A:$X,G$82,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H91" s="64" t="e">
-        <f>VLOOKUP($B91&amp;"3",funnel_data!$A:$X,H$82,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I91" s="64" t="e">
-        <f>VLOOKUP($B91&amp;"3",funnel_data!$A:$X,I$82,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="M91" s="58"/>
-      <c r="N91" s="58"/>
-    </row>
-    <row r="92" spans="1:23" s="15" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A92" s="15" t="e">
-        <f t="shared" si="7"/>
-        <v>#N/A</v>
-      </c>
-      <c r="B92" s="45" t="s">
-        <v>0</v>
-      </c>
-      <c r="C92" s="64" t="e">
-        <f>VLOOKUP($B92&amp;"3",funnel_data!$A:$X,C$82,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D92" s="64">
-        <v>1</v>
-      </c>
-      <c r="E92" s="64" t="e">
-        <f>VLOOKUP($B92&amp;"3",funnel_data!$A:$X,E$82,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F92" s="64" t="e">
-        <f>VLOOKUP($B92&amp;"3",funnel_data!$A:$X,F$82,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G92" s="64" t="e">
-        <f>VLOOKUP($B92&amp;"3",funnel_data!$A:$X,G$82,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H92" s="64" t="e">
-        <f>VLOOKUP($B92&amp;"3",funnel_data!$A:$X,H$82,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I92" s="64" t="e">
-        <f>VLOOKUP($B92&amp;"3",funnel_data!$A:$X,I$82,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="M92" s="58"/>
-      <c r="N92" s="58"/>
-    </row>
-    <row r="93" spans="1:23" s="15" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A93" s="15" t="e">
-        <f t="shared" si="7"/>
-        <v>#N/A</v>
-      </c>
-      <c r="B93" s="45" t="s">
-        <v>113</v>
-      </c>
-      <c r="C93" s="64" t="e">
-        <f>VLOOKUP($B93&amp;"3",funnel_data!$A:$X,C$82,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D93" s="64">
-        <v>1</v>
-      </c>
-      <c r="E93" s="64" t="e">
-        <f>VLOOKUP($B93&amp;"3",funnel_data!$A:$X,E$82,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F93" s="64" t="e">
-        <f>VLOOKUP($B93&amp;"3",funnel_data!$A:$X,F$82,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G93" s="64" t="e">
-        <f>VLOOKUP($B93&amp;"3",funnel_data!$A:$X,G$82,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H93" s="64" t="e">
-        <f>VLOOKUP($B93&amp;"3",funnel_data!$A:$X,H$82,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I93" s="64" t="e">
-        <f>VLOOKUP($B93&amp;"3",funnel_data!$A:$X,I$82,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="M93" s="58"/>
-      <c r="N93" s="58"/>
-    </row>
-    <row r="94" spans="1:23" s="15" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A94" s="15" t="e">
-        <f t="shared" si="7"/>
-        <v>#N/A</v>
-      </c>
-      <c r="B94" s="45" t="s">
-        <v>29</v>
-      </c>
-      <c r="C94" s="64" t="e">
-        <f>VLOOKUP($B94&amp;"3",funnel_data!$A:$X,C$82,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D94" s="64">
-        <v>1</v>
-      </c>
-      <c r="E94" s="64" t="e">
-        <f>VLOOKUP($B94&amp;"3",funnel_data!$A:$X,E$82,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F94" s="64" t="e">
-        <f>VLOOKUP($B94&amp;"3",funnel_data!$A:$X,F$82,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G94" s="64" t="e">
-        <f>VLOOKUP($B94&amp;"3",funnel_data!$A:$X,G$82,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H94" s="64" t="e">
-        <f>VLOOKUP($B94&amp;"3",funnel_data!$A:$X,H$82,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I94" s="64" t="e">
-        <f>VLOOKUP($B94&amp;"3",funnel_data!$A:$X,I$82,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="M94" s="58"/>
-      <c r="N94" s="58"/>
-    </row>
-    <row r="95" spans="1:23" s="15" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A95" s="15" t="e">
-        <f t="shared" si="7"/>
-        <v>#N/A</v>
-      </c>
-      <c r="B95" s="45" t="s">
-        <v>10</v>
-      </c>
-      <c r="C95" s="64" t="e">
-        <f>VLOOKUP($B95&amp;"3",funnel_data!$A:$X,C$82,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D95" s="64">
-        <v>1</v>
-      </c>
-      <c r="E95" s="64" t="e">
-        <f>VLOOKUP($B95&amp;"3",funnel_data!$A:$X,E$82,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F95" s="64" t="e">
-        <f>VLOOKUP($B95&amp;"3",funnel_data!$A:$X,F$82,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G95" s="64" t="e">
-        <f>VLOOKUP($B95&amp;"3",funnel_data!$A:$X,G$82,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H95" s="64" t="e">
-        <f>VLOOKUP($B95&amp;"3",funnel_data!$A:$X,H$82,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I95" s="64" t="e">
-        <f>VLOOKUP($B95&amp;"3",funnel_data!$A:$X,I$82,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="M95" s="58"/>
-      <c r="N95" s="58"/>
-    </row>
-    <row r="96" spans="1:23" s="15" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A96" s="15" t="e">
-        <f t="shared" si="7"/>
-        <v>#N/A</v>
-      </c>
-      <c r="B96" s="45" t="s">
-        <v>8</v>
-      </c>
-      <c r="C96" s="64" t="e">
-        <f>VLOOKUP($B96&amp;"3",funnel_data!$A:$X,C$82,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D96" s="64">
-        <v>1</v>
-      </c>
-      <c r="E96" s="64" t="e">
-        <f>VLOOKUP($B96&amp;"3",funnel_data!$A:$X,E$82,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F96" s="64" t="e">
-        <f>VLOOKUP($B96&amp;"3",funnel_data!$A:$X,F$82,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G96" s="64" t="e">
-        <f>VLOOKUP($B96&amp;"3",funnel_data!$A:$X,G$82,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H96" s="64" t="e">
-        <f>VLOOKUP($B96&amp;"3",funnel_data!$A:$X,H$82,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I96" s="64" t="e">
-        <f>VLOOKUP($B96&amp;"3",funnel_data!$A:$X,I$82,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="M96" s="58"/>
-      <c r="N96" s="58"/>
-    </row>
-    <row r="97" spans="1:14" s="15" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A97" s="15" t="e">
-        <f t="shared" si="7"/>
-        <v>#N/A</v>
-      </c>
-      <c r="B97" s="45" t="s">
-        <v>6</v>
-      </c>
-      <c r="C97" s="64" t="e">
-        <f>VLOOKUP($B97&amp;"3",funnel_data!$A:$X,C$82,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D97" s="64">
-        <v>1</v>
-      </c>
-      <c r="E97" s="64" t="e">
-        <f>VLOOKUP($B97&amp;"3",funnel_data!$A:$X,E$82,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F97" s="64" t="e">
-        <f>VLOOKUP($B97&amp;"3",funnel_data!$A:$X,F$82,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G97" s="64" t="e">
-        <f>VLOOKUP($B97&amp;"3",funnel_data!$A:$X,G$82,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H97" s="64" t="e">
-        <f>VLOOKUP($B97&amp;"3",funnel_data!$A:$X,H$82,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I97" s="64" t="e">
-        <f>VLOOKUP($B97&amp;"3",funnel_data!$A:$X,I$82,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="M97" s="58"/>
-      <c r="N97" s="58"/>
-    </row>
-    <row r="98" spans="1:14" s="15" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A98" s="15" t="e">
-        <f t="shared" si="7"/>
-        <v>#N/A</v>
-      </c>
-      <c r="B98" s="45" t="s">
-        <v>5</v>
-      </c>
-      <c r="C98" s="64" t="e">
-        <f>VLOOKUP($B98&amp;"3",funnel_data!$A:$X,C$82,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D98" s="64">
-        <v>1</v>
-      </c>
-      <c r="E98" s="64" t="e">
-        <f>VLOOKUP($B98&amp;"3",funnel_data!$A:$X,E$82,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F98" s="64" t="e">
-        <f>VLOOKUP($B98&amp;"3",funnel_data!$A:$X,F$82,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G98" s="64" t="e">
-        <f>VLOOKUP($B98&amp;"3",funnel_data!$A:$X,G$82,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H98" s="64" t="e">
-        <f>VLOOKUP($B98&amp;"3",funnel_data!$A:$X,H$82,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I98" s="64" t="e">
-        <f>VLOOKUP($B98&amp;"3",funnel_data!$A:$X,I$82,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="M98" s="58"/>
-      <c r="N98" s="58"/>
-    </row>
-    <row r="99" spans="1:14" s="15" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A99" s="15" t="e">
-        <f t="shared" si="7"/>
-        <v>#N/A</v>
-      </c>
-      <c r="B99" s="45" t="s">
-        <v>25</v>
-      </c>
-      <c r="C99" s="64" t="e">
-        <f>VLOOKUP($B99&amp;"3",funnel_data!$A:$X,C$82,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D99" s="64">
-        <v>1</v>
-      </c>
-      <c r="E99" s="64" t="e">
-        <f>VLOOKUP($B99&amp;"3",funnel_data!$A:$X,E$82,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F99" s="64" t="e">
-        <f>VLOOKUP($B99&amp;"3",funnel_data!$A:$X,F$82,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G99" s="64" t="e">
-        <f>VLOOKUP($B99&amp;"3",funnel_data!$A:$X,G$82,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H99" s="64" t="e">
-        <f>VLOOKUP($B99&amp;"3",funnel_data!$A:$X,H$82,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I99" s="64" t="e">
-        <f>VLOOKUP($B99&amp;"3",funnel_data!$A:$X,I$82,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="M99" s="58"/>
-      <c r="N99" s="58"/>
-    </row>
-    <row r="100" spans="1:14" s="15" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A100" s="15" t="e">
-        <f t="shared" si="7"/>
-        <v>#N/A</v>
-      </c>
-      <c r="B100" s="45" t="s">
-        <v>26</v>
-      </c>
-      <c r="C100" s="64" t="e">
-        <f>VLOOKUP($B100&amp;"3",funnel_data!$A:$X,C$82,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D100" s="64">
-        <v>1</v>
-      </c>
-      <c r="E100" s="64" t="e">
-        <f>VLOOKUP($B100&amp;"3",funnel_data!$A:$X,E$82,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F100" s="64" t="e">
-        <f>VLOOKUP($B100&amp;"3",funnel_data!$A:$X,F$82,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G100" s="64" t="e">
-        <f>VLOOKUP($B100&amp;"3",funnel_data!$A:$X,G$82,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H100" s="64" t="e">
-        <f>VLOOKUP($B100&amp;"3",funnel_data!$A:$X,H$82,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I100" s="64" t="e">
-        <f>VLOOKUP($B100&amp;"3",funnel_data!$A:$X,I$82,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="M100" s="58"/>
-      <c r="N100" s="58"/>
-    </row>
-    <row r="101" spans="1:14" s="15" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A101" s="15" t="e">
-        <f t="shared" si="7"/>
-        <v>#N/A</v>
-      </c>
-      <c r="B101" s="45" t="s">
-        <v>11</v>
-      </c>
-      <c r="C101" s="64" t="e">
-        <f>VLOOKUP($B101&amp;"3",funnel_data!$A:$X,C$82,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D101" s="64">
-        <v>1</v>
-      </c>
-      <c r="E101" s="64" t="e">
-        <f>VLOOKUP($B101&amp;"3",funnel_data!$A:$X,E$82,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F101" s="64" t="e">
-        <f>VLOOKUP($B101&amp;"3",funnel_data!$A:$X,F$82,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G101" s="64" t="e">
-        <f>VLOOKUP($B101&amp;"3",funnel_data!$A:$X,G$82,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H101" s="64" t="e">
-        <f>VLOOKUP($B101&amp;"3",funnel_data!$A:$X,H$82,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I101" s="64" t="e">
-        <f>VLOOKUP($B101&amp;"3",funnel_data!$A:$X,I$82,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="M101" s="58"/>
-      <c r="N101" s="58"/>
-    </row>
-    <row r="102" spans="1:14" s="15" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A102" s="15" t="e">
-        <f t="shared" si="7"/>
-        <v>#N/A</v>
-      </c>
-      <c r="B102" s="45" t="s">
-        <v>119</v>
-      </c>
-      <c r="C102" s="64" t="e">
-        <f>VLOOKUP($B102&amp;"3",funnel_data!$A:$X,C$82,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D102" s="64">
-        <v>1</v>
-      </c>
-      <c r="E102" s="64" t="e">
-        <f>VLOOKUP($B102&amp;"3",funnel_data!$A:$X,E$82,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F102" s="64" t="e">
-        <f>VLOOKUP($B102&amp;"3",funnel_data!$A:$X,F$82,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G102" s="64" t="e">
-        <f>VLOOKUP($B102&amp;"3",funnel_data!$A:$X,G$82,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H102" s="64" t="e">
-        <f>VLOOKUP($B102&amp;"3",funnel_data!$A:$X,H$82,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I102" s="64" t="e">
-        <f>VLOOKUP($B102&amp;"3",funnel_data!$A:$X,I$82,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="M102" s="58"/>
-      <c r="N102" s="58"/>
-    </row>
-    <row r="103" spans="1:14" s="15" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A103" s="15" t="e">
-        <f t="shared" si="7"/>
-        <v>#N/A</v>
-      </c>
-      <c r="B103" s="45" t="s">
-        <v>13</v>
-      </c>
-      <c r="C103" s="64" t="e">
-        <f>VLOOKUP($B103&amp;"3",funnel_data!$A:$X,C$82,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D103" s="64">
-        <v>1</v>
-      </c>
-      <c r="E103" s="64" t="e">
-        <f>VLOOKUP($B103&amp;"3",funnel_data!$A:$X,E$82,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F103" s="64" t="e">
-        <f>VLOOKUP($B103&amp;"3",funnel_data!$A:$X,F$82,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G103" s="64" t="e">
-        <f>VLOOKUP($B103&amp;"3",funnel_data!$A:$X,G$82,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H103" s="64" t="e">
-        <f>VLOOKUP($B103&amp;"3",funnel_data!$A:$X,H$82,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I103" s="64" t="e">
-        <f>VLOOKUP($B103&amp;"3",funnel_data!$A:$X,I$82,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="M103" s="58"/>
-      <c r="N103" s="58"/>
-    </row>
-    <row r="104" spans="1:14" s="15" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A104" s="15" t="e">
-        <f t="shared" si="7"/>
-        <v>#N/A</v>
-      </c>
-      <c r="B104" s="45" t="s">
-        <v>7</v>
-      </c>
-      <c r="C104" s="64" t="e">
-        <f>VLOOKUP($B104&amp;"3",funnel_data!$A:$X,C$82,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D104" s="64">
-        <v>1</v>
-      </c>
-      <c r="E104" s="64" t="e">
-        <f>VLOOKUP($B104&amp;"3",funnel_data!$A:$X,E$82,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F104" s="64" t="e">
-        <f>VLOOKUP($B104&amp;"3",funnel_data!$A:$X,F$82,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G104" s="64" t="e">
-        <f>VLOOKUP($B104&amp;"3",funnel_data!$A:$X,G$82,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H104" s="64" t="e">
-        <f>VLOOKUP($B104&amp;"3",funnel_data!$A:$X,H$82,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I104" s="64" t="e">
-        <f>VLOOKUP($B104&amp;"3",funnel_data!$A:$X,I$82,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="M104" s="58"/>
-      <c r="N104" s="58"/>
-    </row>
-    <row r="105" spans="1:14" s="15" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A105" s="15" t="e">
-        <f t="shared" si="7"/>
-        <v>#N/A</v>
-      </c>
-      <c r="B105" s="45" t="s">
-        <v>23</v>
-      </c>
-      <c r="C105" s="64" t="e">
-        <f>VLOOKUP($B105&amp;"3",funnel_data!$A:$X,C$82,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D105" s="64">
-        <v>1</v>
-      </c>
-      <c r="E105" s="64" t="e">
-        <f>VLOOKUP($B105&amp;"3",funnel_data!$A:$X,E$82,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F105" s="64" t="e">
-        <f>VLOOKUP($B105&amp;"3",funnel_data!$A:$X,F$82,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G105" s="64" t="e">
-        <f>VLOOKUP($B105&amp;"3",funnel_data!$A:$X,G$82,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H105" s="64" t="e">
-        <f>VLOOKUP($B105&amp;"3",funnel_data!$A:$X,H$82,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I105" s="64" t="e">
-        <f>VLOOKUP($B105&amp;"3",funnel_data!$A:$X,I$82,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="M105" s="58"/>
-      <c r="N105" s="58"/>
-    </row>
-    <row r="106" spans="1:14" s="15" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A106" s="15" t="e">
-        <f t="shared" si="7"/>
-        <v>#N/A</v>
-      </c>
-      <c r="B106" s="45" t="s">
-        <v>22</v>
-      </c>
-      <c r="C106" s="64" t="e">
-        <f>VLOOKUP($B106&amp;"3",funnel_data!$A:$X,C$82,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D106" s="64">
-        <v>1</v>
-      </c>
-      <c r="E106" s="64" t="e">
-        <f>VLOOKUP($B106&amp;"3",funnel_data!$A:$X,E$82,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F106" s="64" t="e">
-        <f>VLOOKUP($B106&amp;"3",funnel_data!$A:$X,F$82,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G106" s="64" t="e">
-        <f>VLOOKUP($B106&amp;"3",funnel_data!$A:$X,G$82,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H106" s="64" t="e">
-        <f>VLOOKUP($B106&amp;"3",funnel_data!$A:$X,H$82,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I106" s="64" t="e">
-        <f>VLOOKUP($B106&amp;"3",funnel_data!$A:$X,I$82,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="M106" s="58"/>
-      <c r="N106" s="58"/>
-    </row>
-    <row r="107" spans="1:14" s="15" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A107" s="15" t="e">
-        <f t="shared" si="7"/>
-        <v>#N/A</v>
-      </c>
-      <c r="B107" s="45" t="s">
-        <v>27</v>
-      </c>
-      <c r="C107" s="64" t="e">
-        <f>VLOOKUP($B107&amp;"3",funnel_data!$A:$X,C$82,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D107" s="64">
-        <v>1</v>
-      </c>
-      <c r="E107" s="64" t="e">
-        <f>VLOOKUP($B107&amp;"3",funnel_data!$A:$X,E$82,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F107" s="64" t="e">
-        <f>VLOOKUP($B107&amp;"3",funnel_data!$A:$X,F$82,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G107" s="64" t="e">
-        <f>VLOOKUP($B107&amp;"3",funnel_data!$A:$X,G$82,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H107" s="64" t="e">
-        <f>VLOOKUP($B107&amp;"3",funnel_data!$A:$X,H$82,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I107" s="64" t="e">
-        <f>VLOOKUP($B107&amp;"3",funnel_data!$A:$X,I$82,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="M107" s="58"/>
-      <c r="N107" s="58"/>
-    </row>
-    <row r="108" spans="1:14" s="15" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A108" s="15" t="e">
-        <f t="shared" si="7"/>
-        <v>#N/A</v>
-      </c>
-      <c r="B108" s="45" t="s">
-        <v>3</v>
-      </c>
-      <c r="C108" s="64" t="e">
-        <f>VLOOKUP($B108&amp;"3",funnel_data!$A:$X,C$82,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D108" s="64">
-        <v>1</v>
-      </c>
-      <c r="E108" s="64" t="e">
-        <f>VLOOKUP($B108&amp;"3",funnel_data!$A:$X,E$82,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F108" s="64" t="e">
-        <f>VLOOKUP($B108&amp;"3",funnel_data!$A:$X,F$82,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G108" s="64" t="e">
-        <f>VLOOKUP($B108&amp;"3",funnel_data!$A:$X,G$82,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H108" s="64" t="e">
-        <f>VLOOKUP($B108&amp;"3",funnel_data!$A:$X,H$82,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I108" s="64" t="e">
-        <f>VLOOKUP($B108&amp;"3",funnel_data!$A:$X,I$82,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="M108" s="58"/>
-      <c r="N108" s="58"/>
-    </row>
-    <row r="109" spans="1:14" s="15" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A109" s="15" t="e">
-        <f t="shared" si="7"/>
-        <v>#N/A</v>
-      </c>
-      <c r="B109" s="45" t="s">
-        <v>2</v>
-      </c>
-      <c r="C109" s="64" t="e">
-        <f>VLOOKUP($B109&amp;"3",funnel_data!$A:$X,C$82,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D109" s="64">
-        <v>1</v>
-      </c>
-      <c r="E109" s="64" t="e">
-        <f>VLOOKUP($B109&amp;"3",funnel_data!$A:$X,E$82,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F109" s="64" t="e">
-        <f>VLOOKUP($B109&amp;"3",funnel_data!$A:$X,F$82,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G109" s="64" t="e">
-        <f>VLOOKUP($B109&amp;"3",funnel_data!$A:$X,G$82,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H109" s="64" t="e">
-        <f>VLOOKUP($B109&amp;"3",funnel_data!$A:$X,H$82,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I109" s="64" t="e">
-        <f>VLOOKUP($B109&amp;"3",funnel_data!$A:$X,I$82,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="M109" s="58"/>
-      <c r="N109" s="58"/>
-    </row>
-    <row r="110" spans="1:14" s="15" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A110" s="15" t="e">
-        <f t="shared" si="7"/>
-        <v>#N/A</v>
-      </c>
-      <c r="B110" s="45" t="s">
-        <v>16</v>
-      </c>
-      <c r="C110" s="64" t="e">
-        <f>VLOOKUP($B110&amp;"3",funnel_data!$A:$X,C$82,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D110" s="64">
-        <v>1</v>
-      </c>
-      <c r="E110" s="64" t="e">
-        <f>VLOOKUP($B110&amp;"3",funnel_data!$A:$X,E$82,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F110" s="64" t="e">
-        <f>VLOOKUP($B110&amp;"3",funnel_data!$A:$X,F$82,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G110" s="64" t="e">
-        <f>VLOOKUP($B110&amp;"3",funnel_data!$A:$X,G$82,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H110" s="64" t="e">
-        <f>VLOOKUP($B110&amp;"3",funnel_data!$A:$X,H$82,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I110" s="64" t="e">
-        <f>VLOOKUP($B110&amp;"3",funnel_data!$A:$X,I$82,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="M110" s="58"/>
-      <c r="N110" s="58"/>
-    </row>
-    <row r="111" spans="1:14" s="15" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A111" s="15" t="e">
-        <f t="shared" si="7"/>
-        <v>#N/A</v>
-      </c>
-      <c r="B111" s="45" t="s">
-        <v>15</v>
-      </c>
-      <c r="C111" s="64" t="e">
-        <f>VLOOKUP($B111&amp;"3",funnel_data!$A:$X,C$82,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D111" s="64">
-        <v>1</v>
-      </c>
-      <c r="E111" s="64" t="e">
-        <f>VLOOKUP($B111&amp;"3",funnel_data!$A:$X,E$82,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F111" s="64" t="e">
-        <f>VLOOKUP($B111&amp;"3",funnel_data!$A:$X,F$82,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G111" s="64" t="e">
-        <f>VLOOKUP($B111&amp;"3",funnel_data!$A:$X,G$82,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H111" s="64" t="e">
-        <f>VLOOKUP($B111&amp;"3",funnel_data!$A:$X,H$82,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I111" s="64" t="e">
-        <f>VLOOKUP($B111&amp;"3",funnel_data!$A:$X,I$82,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="112" spans="1:14" s="15" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A112" s="15" t="e">
-        <f t="shared" si="7"/>
-        <v>#N/A</v>
-      </c>
-      <c r="B112" s="45" t="s">
-        <v>17</v>
-      </c>
-      <c r="C112" s="64" t="e">
-        <f>VLOOKUP($B112&amp;"3",funnel_data!$A:$X,C$82,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D112" s="64">
-        <v>1</v>
-      </c>
-      <c r="E112" s="64" t="e">
-        <f>VLOOKUP($B112&amp;"3",funnel_data!$A:$X,E$82,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F112" s="64" t="e">
-        <f>VLOOKUP($B112&amp;"3",funnel_data!$A:$X,F$82,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G112" s="64" t="e">
-        <f>VLOOKUP($B112&amp;"3",funnel_data!$A:$X,G$82,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H112" s="64" t="e">
-        <f>VLOOKUP($B112&amp;"3",funnel_data!$A:$X,H$82,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I112" s="64" t="e">
-        <f>VLOOKUP($B112&amp;"3",funnel_data!$A:$X,I$82,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="113" spans="1:9" s="15" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A113" s="15" t="e">
-        <f t="shared" si="7"/>
-        <v>#N/A</v>
-      </c>
-      <c r="B113" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="C113" s="64" t="e">
-        <f>VLOOKUP($B113&amp;"3",funnel_data!$A:$X,C$82,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D113" s="64">
-        <v>1</v>
-      </c>
-      <c r="E113" s="64" t="e">
-        <f>VLOOKUP($B113&amp;"3",funnel_data!$A:$X,E$82,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F113" s="64" t="e">
-        <f>VLOOKUP($B113&amp;"3",funnel_data!$A:$X,F$82,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G113" s="64" t="e">
-        <f>VLOOKUP($B113&amp;"3",funnel_data!$A:$X,G$82,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H113" s="64" t="e">
-        <f>VLOOKUP($B113&amp;"3",funnel_data!$A:$X,H$82,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I113" s="64" t="e">
-        <f>VLOOKUP($B113&amp;"3",funnel_data!$A:$X,I$82,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="114" spans="1:9" s="15" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A114" s="15" t="e">
-        <f t="shared" si="7"/>
-        <v>#N/A</v>
-      </c>
-      <c r="B114" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="C114" s="64" t="e">
-        <f>VLOOKUP($B114&amp;"3",funnel_data!$A:$X,C$82,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D114" s="64">
-        <v>1</v>
-      </c>
-      <c r="E114" s="64" t="e">
-        <f>VLOOKUP($B114&amp;"3",funnel_data!$A:$X,E$82,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F114" s="64" t="e">
-        <f>VLOOKUP($B114&amp;"3",funnel_data!$A:$X,F$82,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G114" s="64" t="e">
-        <f>VLOOKUP($B114&amp;"3",funnel_data!$A:$X,G$82,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H114" s="64" t="e">
-        <f>VLOOKUP($B114&amp;"3",funnel_data!$A:$X,H$82,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I114" s="64" t="e">
-        <f>VLOOKUP($B114&amp;"3",funnel_data!$A:$X,I$82,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="115" spans="1:9" s="15" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A115" s="15" t="e">
-        <f t="shared" si="7"/>
-        <v>#N/A</v>
-      </c>
-      <c r="B115" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="C115" s="64" t="e">
-        <f>VLOOKUP($B115&amp;"3",funnel_data!$A:$X,C$82,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D115" s="64">
-        <v>1</v>
-      </c>
-      <c r="E115" s="64" t="e">
+      <c r="E115" s="68" t="e">
         <f>VLOOKUP($B115&amp;"3",funnel_data!$A:$X,E$82,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="F115" s="64" t="e">
+      <c r="F115" s="68" t="e">
         <f>VLOOKUP($B115&amp;"3",funnel_data!$A:$X,F$82,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="G115" s="64" t="e">
+      <c r="G115" s="68" t="e">
         <f>VLOOKUP($B115&amp;"3",funnel_data!$A:$X,G$82,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="H115" s="64" t="e">
+      <c r="H115" s="68" t="e">
         <f>VLOOKUP($B115&amp;"3",funnel_data!$A:$X,H$82,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="I115" s="64" t="e">
+      <c r="I115" s="68" t="e">
         <f>VLOOKUP($B115&amp;"3",funnel_data!$A:$X,I$82,FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="116" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="117" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="116" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="117" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="118" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="119" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="120" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.2"/>
@@ -9992,3340 +9959,3967 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet7"/>
-  <dimension ref="A1:S1022"/>
+  <dimension ref="A1:R1022"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="6" max="6" width="10.28515625" customWidth="1"/>
-    <col min="15" max="15" width="9.140625" style="61"/>
+    <col min="15" max="15" width="9.140625" style="58"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>122</v>
       </c>
-      <c r="B1" t="s">
-        <v>123</v>
-      </c>
-      <c r="C1" t="s">
-        <v>124</v>
-      </c>
-      <c r="D1" t="s">
-        <v>125</v>
-      </c>
-      <c r="E1" t="s">
-        <v>126</v>
-      </c>
-      <c r="F1" t="s">
-        <v>53</v>
-      </c>
-      <c r="G1" t="s">
-        <v>127</v>
-      </c>
-      <c r="H1" t="s">
-        <v>128</v>
-      </c>
-      <c r="I1" t="s">
-        <v>129</v>
-      </c>
-      <c r="J1" t="s">
-        <v>130</v>
-      </c>
-      <c r="K1" t="s">
-        <v>131</v>
-      </c>
-      <c r="L1" t="s">
-        <v>132</v>
-      </c>
-      <c r="M1" t="s">
-        <v>133</v>
-      </c>
-      <c r="N1" t="s">
-        <v>134</v>
-      </c>
-      <c r="O1" s="61" t="s">
-        <v>135</v>
-      </c>
-      <c r="P1" t="s">
-        <v>136</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>137</v>
-      </c>
-      <c r="R1" t="s">
-        <v>138</v>
-      </c>
-      <c r="S1" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="O1"/>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" t="str">
         <f>I2&amp;B2</f>
         <v/>
       </c>
-      <c r="O2" s="62"/>
-      <c r="P2" s="60"/>
-      <c r="Q2" s="60"/>
-      <c r="R2" s="60"/>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="L2" s="60"/>
+      <c r="O2"/>
+      <c r="Q2" s="57"/>
+      <c r="R2" s="57"/>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" t="str">
         <f t="shared" ref="A3:A66" si="0">I3&amp;B3</f>
         <v/>
       </c>
-      <c r="O3" s="62"/>
-      <c r="P3" s="60"/>
-      <c r="Q3" s="60"/>
-      <c r="R3" s="60"/>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="L3" s="60"/>
+      <c r="O3"/>
+      <c r="Q3" s="57"/>
+      <c r="R3" s="57"/>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="O4" s="62"/>
-      <c r="P4" s="60"/>
-      <c r="Q4" s="60"/>
-      <c r="R4" s="60"/>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="L4" s="60"/>
+      <c r="O4"/>
+      <c r="Q4" s="57"/>
+      <c r="R4" s="57"/>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="O5" s="62"/>
-      <c r="P5" s="60"/>
-      <c r="Q5" s="60"/>
-      <c r="R5" s="60"/>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="L5" s="60"/>
+      <c r="O5"/>
+      <c r="Q5" s="57"/>
+      <c r="R5" s="57"/>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="O6" s="62"/>
-      <c r="P6" s="60"/>
-      <c r="Q6" s="60"/>
-      <c r="R6" s="60"/>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="L6" s="60"/>
+      <c r="O6"/>
+      <c r="Q6" s="57"/>
+      <c r="R6" s="57"/>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="O7" s="62"/>
-      <c r="P7" s="60"/>
-      <c r="Q7" s="60"/>
-      <c r="R7" s="60"/>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="L7" s="60"/>
+      <c r="O7"/>
+      <c r="Q7" s="57"/>
+      <c r="R7" s="57"/>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="O8" s="62"/>
-      <c r="P8" s="60"/>
-      <c r="Q8" s="60"/>
-      <c r="R8" s="60"/>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="L8" s="60"/>
+      <c r="O8"/>
+      <c r="Q8" s="57"/>
+      <c r="R8" s="57"/>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="O9" s="62"/>
-      <c r="P9" s="60"/>
-      <c r="Q9" s="60"/>
-      <c r="R9" s="60"/>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="L9" s="60"/>
+      <c r="O9"/>
+      <c r="Q9" s="57"/>
+      <c r="R9" s="57"/>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="O10" s="62"/>
-      <c r="P10" s="60"/>
-      <c r="Q10" s="60"/>
-      <c r="R10" s="60"/>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="L10" s="60"/>
+      <c r="O10"/>
+      <c r="Q10" s="57"/>
+      <c r="R10" s="57"/>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="O11" s="62"/>
-      <c r="P11" s="60"/>
-      <c r="Q11" s="60"/>
-      <c r="R11" s="60"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="L11" s="60"/>
+      <c r="O11"/>
+      <c r="Q11" s="57"/>
+      <c r="R11" s="57"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="O12" s="62"/>
-      <c r="P12" s="60"/>
-      <c r="Q12" s="60"/>
-      <c r="R12" s="60"/>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="L12" s="60"/>
+      <c r="O12"/>
+      <c r="Q12" s="57"/>
+      <c r="R12" s="57"/>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="O13" s="62"/>
-      <c r="P13" s="60"/>
-      <c r="Q13" s="60"/>
-      <c r="R13" s="60"/>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="L13" s="60"/>
+      <c r="O13"/>
+      <c r="Q13" s="57"/>
+      <c r="R13" s="57"/>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="O14" s="62"/>
-      <c r="P14" s="60"/>
-      <c r="Q14" s="60"/>
-      <c r="R14" s="60"/>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="L14" s="60"/>
+      <c r="O14"/>
+      <c r="Q14" s="57"/>
+      <c r="R14" s="57"/>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="O15" s="62"/>
-      <c r="P15" s="60"/>
-      <c r="Q15" s="60"/>
-      <c r="R15" s="60"/>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="L15" s="60"/>
+      <c r="O15"/>
+      <c r="Q15" s="57"/>
+      <c r="R15" s="57"/>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="O16" s="62"/>
-      <c r="P16" s="60"/>
-      <c r="Q16" s="60"/>
-      <c r="R16" s="60"/>
+      <c r="L16" s="60"/>
+      <c r="O16"/>
+      <c r="Q16" s="57"/>
+      <c r="R16" s="57"/>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="O17" s="62"/>
-      <c r="P17" s="60"/>
-      <c r="Q17" s="60"/>
-      <c r="R17" s="60"/>
+      <c r="L17" s="60"/>
+      <c r="O17"/>
+      <c r="Q17" s="57"/>
+      <c r="R17" s="57"/>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="O18" s="62"/>
-      <c r="P18" s="60"/>
-      <c r="Q18" s="60"/>
-      <c r="R18" s="60"/>
+      <c r="L18" s="60"/>
+      <c r="O18"/>
+      <c r="Q18" s="57"/>
+      <c r="R18" s="57"/>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="O19" s="62"/>
-      <c r="P19" s="60"/>
-      <c r="Q19" s="60"/>
-      <c r="R19" s="60"/>
+      <c r="L19" s="60"/>
+      <c r="O19"/>
+      <c r="Q19" s="57"/>
+      <c r="R19" s="57"/>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A20" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="O20" s="62"/>
-      <c r="P20" s="60"/>
-      <c r="Q20" s="60"/>
-      <c r="R20" s="60"/>
+      <c r="L20" s="60"/>
+      <c r="O20"/>
+      <c r="Q20" s="57"/>
+      <c r="R20" s="57"/>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A21" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="O21" s="62"/>
-      <c r="P21" s="60"/>
-      <c r="Q21" s="60"/>
-      <c r="R21" s="60"/>
+      <c r="L21" s="60"/>
+      <c r="O21"/>
+      <c r="Q21" s="57"/>
+      <c r="R21" s="57"/>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A22" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="O22" s="62"/>
-      <c r="P22" s="60"/>
-      <c r="Q22" s="60"/>
-      <c r="R22" s="60"/>
+      <c r="L22" s="60"/>
+      <c r="O22"/>
+      <c r="Q22" s="57"/>
+      <c r="R22" s="57"/>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A23" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="O23" s="62"/>
-      <c r="P23" s="60"/>
-      <c r="Q23" s="60"/>
-      <c r="R23" s="60"/>
+      <c r="L23" s="60"/>
+      <c r="O23"/>
+      <c r="Q23" s="57"/>
+      <c r="R23" s="57"/>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A24" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="O24" s="62"/>
-      <c r="P24" s="60"/>
-      <c r="Q24" s="60"/>
-      <c r="R24" s="60"/>
+      <c r="L24" s="60"/>
+      <c r="O24"/>
+      <c r="Q24" s="57"/>
+      <c r="R24" s="57"/>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A25" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="O25" s="62"/>
-      <c r="P25" s="60"/>
-      <c r="Q25" s="60"/>
-      <c r="R25" s="60"/>
+      <c r="L25" s="60"/>
+      <c r="O25"/>
+      <c r="Q25" s="57"/>
+      <c r="R25" s="57"/>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A26" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="O26" s="62"/>
-      <c r="P26" s="60"/>
-      <c r="Q26" s="60"/>
-      <c r="R26" s="60"/>
+      <c r="L26" s="60"/>
+      <c r="O26"/>
+      <c r="Q26" s="57"/>
+      <c r="R26" s="57"/>
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A27" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="O27" s="62"/>
-      <c r="P27" s="60"/>
-      <c r="Q27" s="60"/>
-      <c r="R27" s="60"/>
+      <c r="L27" s="60"/>
+      <c r="O27"/>
+      <c r="Q27" s="57"/>
+      <c r="R27" s="57"/>
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A28" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="O28" s="62"/>
-      <c r="P28" s="60"/>
-      <c r="Q28" s="60"/>
-      <c r="R28" s="60"/>
+      <c r="L28" s="60"/>
+      <c r="O28"/>
+      <c r="Q28" s="57"/>
+      <c r="R28" s="57"/>
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A29" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="O29" s="62"/>
-      <c r="P29" s="60"/>
-      <c r="Q29" s="60"/>
-      <c r="R29" s="60"/>
+      <c r="L29" s="60"/>
+      <c r="O29"/>
+      <c r="Q29" s="57"/>
+      <c r="R29" s="57"/>
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A30" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="O30" s="62"/>
-      <c r="P30" s="60"/>
-      <c r="Q30" s="60"/>
-      <c r="R30" s="60"/>
+      <c r="L30" s="60"/>
+      <c r="O30"/>
+      <c r="Q30" s="57"/>
+      <c r="R30" s="57"/>
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A31" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="O31" s="62"/>
-      <c r="P31" s="60"/>
-      <c r="Q31" s="60"/>
-      <c r="R31" s="60"/>
+      <c r="L31" s="60"/>
+      <c r="O31"/>
+      <c r="Q31" s="57"/>
+      <c r="R31" s="57"/>
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A32" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="O32" s="62"/>
-      <c r="P32" s="60"/>
-      <c r="Q32" s="60"/>
-      <c r="R32" s="60"/>
+      <c r="L32" s="60"/>
+      <c r="O32"/>
+      <c r="Q32" s="57"/>
+      <c r="R32" s="57"/>
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A33" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="O33" s="62"/>
-      <c r="P33" s="60"/>
-      <c r="Q33" s="60"/>
-      <c r="R33" s="60"/>
+      <c r="L33" s="60"/>
+      <c r="O33"/>
+      <c r="Q33" s="57"/>
+      <c r="R33" s="57"/>
     </row>
     <row r="34" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A34" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="O34" s="62"/>
-      <c r="P34" s="60"/>
-      <c r="Q34" s="60"/>
-      <c r="R34" s="60"/>
+      <c r="L34" s="60"/>
+      <c r="O34"/>
+      <c r="Q34" s="57"/>
+      <c r="R34" s="57"/>
     </row>
     <row r="35" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A35" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="O35" s="62"/>
-      <c r="P35" s="60"/>
-      <c r="Q35" s="60"/>
-      <c r="R35" s="60"/>
+      <c r="L35" s="60"/>
+      <c r="O35"/>
+      <c r="Q35" s="57"/>
+      <c r="R35" s="57"/>
     </row>
     <row r="36" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A36" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="O36" s="62"/>
-      <c r="P36" s="60"/>
-      <c r="Q36" s="60"/>
-      <c r="R36" s="60"/>
+      <c r="L36" s="60"/>
+      <c r="O36"/>
+      <c r="Q36" s="57"/>
+      <c r="R36" s="57"/>
     </row>
     <row r="37" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A37" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="O37" s="62"/>
-      <c r="P37" s="60"/>
-      <c r="Q37" s="60"/>
-      <c r="R37" s="60"/>
+      <c r="L37" s="60"/>
+      <c r="O37"/>
+      <c r="Q37" s="57"/>
+      <c r="R37" s="57"/>
     </row>
     <row r="38" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A38" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="O38" s="62"/>
-      <c r="P38" s="60"/>
-      <c r="Q38" s="60"/>
-      <c r="R38" s="60"/>
+      <c r="L38" s="60"/>
+      <c r="O38"/>
+      <c r="Q38" s="57"/>
+      <c r="R38" s="57"/>
     </row>
     <row r="39" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A39" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="O39" s="62"/>
-      <c r="P39" s="60"/>
-      <c r="Q39" s="60"/>
-      <c r="R39" s="60"/>
+      <c r="L39" s="60"/>
+      <c r="O39"/>
+      <c r="Q39" s="57"/>
+      <c r="R39" s="57"/>
     </row>
     <row r="40" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A40" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="O40" s="62"/>
-      <c r="P40" s="60"/>
-      <c r="Q40" s="60"/>
-      <c r="R40" s="60"/>
+      <c r="L40" s="60"/>
+      <c r="O40"/>
+      <c r="Q40" s="57"/>
+      <c r="R40" s="57"/>
     </row>
     <row r="41" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A41" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="O41" s="62"/>
-      <c r="P41" s="60"/>
-      <c r="Q41" s="60"/>
-      <c r="R41" s="60"/>
+      <c r="L41" s="60"/>
+      <c r="O41"/>
+      <c r="Q41" s="57"/>
+      <c r="R41" s="57"/>
     </row>
     <row r="42" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A42" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="O42" s="62"/>
-      <c r="P42" s="60"/>
-      <c r="Q42" s="60"/>
-      <c r="R42" s="60"/>
+      <c r="L42" s="60"/>
+      <c r="O42"/>
+      <c r="Q42" s="57"/>
+      <c r="R42" s="57"/>
     </row>
     <row r="43" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A43" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="O43" s="62"/>
-      <c r="P43" s="60"/>
-      <c r="Q43" s="60"/>
-      <c r="R43" s="60"/>
+      <c r="L43" s="60"/>
+      <c r="O43"/>
+      <c r="Q43" s="57"/>
+      <c r="R43" s="57"/>
     </row>
     <row r="44" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A44" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="O44" s="62"/>
-      <c r="P44" s="60"/>
-      <c r="Q44" s="60"/>
-      <c r="R44" s="60"/>
+      <c r="L44" s="60"/>
+      <c r="O44"/>
+      <c r="Q44" s="57"/>
+      <c r="R44" s="57"/>
     </row>
     <row r="45" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A45" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="O45" s="62"/>
-      <c r="P45" s="60"/>
-      <c r="Q45" s="60"/>
-      <c r="R45" s="60"/>
+      <c r="L45" s="60"/>
+      <c r="O45"/>
+      <c r="Q45" s="57"/>
+      <c r="R45" s="57"/>
     </row>
     <row r="46" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A46" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="O46" s="62"/>
-      <c r="P46" s="60"/>
-      <c r="Q46" s="60"/>
-      <c r="R46" s="60"/>
+      <c r="L46" s="60"/>
+      <c r="O46"/>
+      <c r="Q46" s="57"/>
+      <c r="R46" s="57"/>
     </row>
     <row r="47" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A47" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="O47" s="62"/>
-      <c r="P47" s="60"/>
-      <c r="Q47" s="60"/>
-      <c r="R47" s="60"/>
+      <c r="L47" s="60"/>
+      <c r="O47"/>
+      <c r="Q47" s="57"/>
+      <c r="R47" s="57"/>
     </row>
     <row r="48" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A48" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="O48" s="62"/>
-      <c r="P48" s="60"/>
-      <c r="Q48" s="60"/>
-      <c r="R48" s="60"/>
+      <c r="L48" s="60"/>
+      <c r="O48"/>
+      <c r="Q48" s="57"/>
+      <c r="R48" s="57"/>
     </row>
     <row r="49" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A49" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="O49" s="62"/>
-      <c r="P49" s="60"/>
-      <c r="Q49" s="60"/>
-      <c r="R49" s="60"/>
+      <c r="L49" s="60"/>
+      <c r="O49"/>
+      <c r="Q49" s="57"/>
+      <c r="R49" s="57"/>
     </row>
     <row r="50" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A50" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="O50" s="62"/>
-      <c r="P50" s="60"/>
-      <c r="Q50" s="60"/>
-      <c r="R50" s="60"/>
+      <c r="L50" s="60"/>
+      <c r="O50"/>
+      <c r="Q50" s="57"/>
+      <c r="R50" s="57"/>
     </row>
     <row r="51" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A51" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="O51" s="62"/>
-      <c r="P51" s="60"/>
-      <c r="Q51" s="60"/>
-      <c r="R51" s="60"/>
+      <c r="L51" s="60"/>
+      <c r="O51"/>
+      <c r="Q51" s="57"/>
+      <c r="R51" s="57"/>
     </row>
     <row r="52" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A52" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="O52" s="62"/>
-      <c r="P52" s="60"/>
-      <c r="Q52" s="60"/>
-      <c r="R52" s="60"/>
+      <c r="L52" s="60"/>
+      <c r="O52"/>
+      <c r="Q52" s="57"/>
+      <c r="R52" s="57"/>
     </row>
     <row r="53" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A53" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="O53" s="62"/>
-      <c r="P53" s="60"/>
-      <c r="Q53" s="60"/>
-      <c r="R53" s="60"/>
+      <c r="L53" s="60"/>
+      <c r="O53"/>
+      <c r="Q53" s="57"/>
+      <c r="R53" s="57"/>
     </row>
     <row r="54" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A54" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="O54" s="62"/>
-      <c r="P54" s="60"/>
-      <c r="Q54" s="60"/>
-      <c r="R54" s="60"/>
+      <c r="L54" s="60"/>
+      <c r="O54"/>
+      <c r="Q54" s="57"/>
+      <c r="R54" s="57"/>
     </row>
     <row r="55" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A55" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="O55" s="62"/>
-      <c r="P55" s="60"/>
-      <c r="Q55" s="60"/>
-      <c r="R55" s="60"/>
+      <c r="L55" s="60"/>
+      <c r="O55"/>
+      <c r="Q55" s="57"/>
+      <c r="R55" s="57"/>
     </row>
     <row r="56" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A56" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="O56" s="62"/>
-      <c r="P56" s="60"/>
-      <c r="Q56" s="60"/>
-      <c r="R56" s="60"/>
+      <c r="L56" s="60"/>
+      <c r="O56"/>
+      <c r="Q56" s="57"/>
+      <c r="R56" s="57"/>
     </row>
     <row r="57" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A57" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="O57" s="62"/>
-      <c r="P57" s="60"/>
-      <c r="Q57" s="60"/>
-      <c r="R57" s="60"/>
+      <c r="L57" s="60"/>
+      <c r="O57"/>
+      <c r="Q57" s="57"/>
+      <c r="R57" s="57"/>
     </row>
     <row r="58" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A58" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="O58" s="62"/>
-      <c r="P58" s="60"/>
-      <c r="Q58" s="60"/>
-      <c r="R58" s="60"/>
+      <c r="L58" s="60"/>
+      <c r="O58"/>
+      <c r="Q58" s="57"/>
+      <c r="R58" s="57"/>
     </row>
     <row r="59" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A59" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="O59" s="62"/>
-      <c r="P59" s="60"/>
-      <c r="Q59" s="60"/>
-      <c r="R59" s="60"/>
+      <c r="L59" s="60"/>
+      <c r="O59"/>
+      <c r="Q59" s="57"/>
+      <c r="R59" s="57"/>
     </row>
     <row r="60" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A60" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="O60" s="62"/>
-      <c r="P60" s="60"/>
-      <c r="Q60" s="60"/>
-      <c r="R60" s="60"/>
+      <c r="L60" s="60"/>
+      <c r="O60"/>
+      <c r="Q60" s="57"/>
+      <c r="R60" s="57"/>
     </row>
     <row r="61" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A61" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="O61" s="62"/>
-      <c r="P61" s="60"/>
-      <c r="Q61" s="60"/>
-      <c r="R61" s="60"/>
+      <c r="L61" s="60"/>
+      <c r="O61"/>
+      <c r="Q61" s="57"/>
+      <c r="R61" s="57"/>
     </row>
     <row r="62" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A62" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="O62" s="62"/>
-      <c r="P62" s="60"/>
-      <c r="Q62" s="60"/>
-      <c r="R62" s="60"/>
+      <c r="L62" s="60"/>
+      <c r="O62"/>
+      <c r="Q62" s="57"/>
+      <c r="R62" s="57"/>
     </row>
     <row r="63" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A63" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="O63" s="62"/>
-      <c r="P63" s="60"/>
-      <c r="Q63" s="60"/>
-      <c r="R63" s="60"/>
+      <c r="L63" s="60"/>
+      <c r="O63"/>
+      <c r="Q63" s="57"/>
+      <c r="R63" s="57"/>
     </row>
     <row r="64" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A64" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="O64" s="62"/>
-      <c r="P64" s="60"/>
-      <c r="Q64" s="60"/>
-      <c r="R64" s="60"/>
+      <c r="L64" s="60"/>
+      <c r="O64"/>
+      <c r="Q64" s="57"/>
+      <c r="R64" s="57"/>
     </row>
     <row r="65" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A65" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="O65" s="62"/>
-      <c r="P65" s="60"/>
-      <c r="Q65" s="60"/>
-      <c r="R65" s="60"/>
+      <c r="L65" s="60"/>
+      <c r="O65"/>
+      <c r="Q65" s="57"/>
+      <c r="R65" s="57"/>
     </row>
     <row r="66" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A66" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="O66" s="62"/>
-      <c r="P66" s="60"/>
-      <c r="Q66" s="60"/>
-      <c r="R66" s="60"/>
+      <c r="L66" s="60"/>
+      <c r="O66"/>
+      <c r="Q66" s="57"/>
+      <c r="R66" s="57"/>
     </row>
     <row r="67" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A67" t="str">
         <f t="shared" ref="A67:A130" si="1">I67&amp;B67</f>
         <v/>
       </c>
-      <c r="O67" s="62"/>
-      <c r="P67" s="60"/>
-      <c r="Q67" s="60"/>
-      <c r="R67" s="60"/>
+      <c r="L67" s="60"/>
+      <c r="O67"/>
+      <c r="Q67" s="57"/>
+      <c r="R67" s="57"/>
     </row>
     <row r="68" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A68" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="O68" s="62"/>
-      <c r="P68" s="60"/>
-      <c r="Q68" s="60"/>
-      <c r="R68" s="60"/>
+      <c r="L68" s="60"/>
+      <c r="O68"/>
+      <c r="Q68" s="57"/>
+      <c r="R68" s="57"/>
     </row>
     <row r="69" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A69" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="O69" s="62"/>
-      <c r="P69" s="60"/>
-      <c r="Q69" s="60"/>
-      <c r="R69" s="60"/>
+      <c r="L69" s="60"/>
+      <c r="O69"/>
+      <c r="Q69" s="57"/>
+      <c r="R69" s="57"/>
     </row>
     <row r="70" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A70" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="O70" s="62"/>
-      <c r="P70" s="60"/>
-      <c r="Q70" s="60"/>
-      <c r="R70" s="60"/>
+      <c r="L70" s="60"/>
+      <c r="O70"/>
+      <c r="Q70" s="57"/>
+      <c r="R70" s="57"/>
     </row>
     <row r="71" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A71" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="O71" s="62"/>
-      <c r="P71" s="60"/>
-      <c r="Q71" s="60"/>
-      <c r="R71" s="60"/>
+      <c r="L71" s="60"/>
+      <c r="O71"/>
+      <c r="Q71" s="57"/>
+      <c r="R71" s="57"/>
     </row>
     <row r="72" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A72" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="O72" s="62"/>
-      <c r="P72" s="60"/>
-      <c r="Q72" s="60"/>
-      <c r="R72" s="60"/>
+      <c r="L72" s="60"/>
+      <c r="O72"/>
+      <c r="Q72" s="57"/>
+      <c r="R72" s="57"/>
     </row>
     <row r="73" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A73" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="O73" s="62"/>
-      <c r="P73" s="60"/>
-      <c r="Q73" s="60"/>
-      <c r="R73" s="60"/>
+      <c r="L73" s="60"/>
+      <c r="O73"/>
+      <c r="Q73" s="57"/>
+      <c r="R73" s="57"/>
     </row>
     <row r="74" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A74" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="O74" s="62"/>
-      <c r="P74" s="60"/>
-      <c r="Q74" s="60"/>
-      <c r="R74" s="60"/>
+      <c r="L74" s="60"/>
+      <c r="O74"/>
+      <c r="Q74" s="57"/>
+      <c r="R74" s="57"/>
     </row>
     <row r="75" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A75" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="O75" s="62"/>
-      <c r="P75" s="60"/>
-      <c r="Q75" s="60"/>
-      <c r="R75" s="60"/>
+      <c r="L75" s="60"/>
+      <c r="O75"/>
+      <c r="Q75" s="57"/>
+      <c r="R75" s="57"/>
     </row>
     <row r="76" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A76" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="O76" s="62"/>
-      <c r="P76" s="60"/>
-      <c r="Q76" s="60"/>
-      <c r="R76" s="60"/>
+      <c r="L76" s="60"/>
+      <c r="O76"/>
+      <c r="Q76" s="57"/>
+      <c r="R76" s="57"/>
     </row>
     <row r="77" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A77" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="O77" s="62"/>
-      <c r="P77" s="60"/>
-      <c r="Q77" s="60"/>
-      <c r="R77" s="60"/>
+      <c r="L77" s="60"/>
+      <c r="O77"/>
+      <c r="Q77" s="57"/>
+      <c r="R77" s="57"/>
     </row>
     <row r="78" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A78" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="O78" s="62"/>
-      <c r="P78" s="60"/>
-      <c r="Q78" s="60"/>
-      <c r="R78" s="60"/>
+      <c r="L78" s="60"/>
+      <c r="O78"/>
+      <c r="Q78" s="57"/>
+      <c r="R78" s="57"/>
     </row>
     <row r="79" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A79" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="O79" s="62"/>
-      <c r="P79" s="60"/>
-      <c r="Q79" s="60"/>
-      <c r="R79" s="60"/>
+      <c r="L79" s="60"/>
+      <c r="O79"/>
+      <c r="Q79" s="57"/>
+      <c r="R79" s="57"/>
     </row>
     <row r="80" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A80" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="O80" s="62"/>
-      <c r="P80" s="60"/>
-      <c r="Q80" s="60"/>
-      <c r="R80" s="60"/>
+      <c r="L80" s="60"/>
+      <c r="O80"/>
+      <c r="Q80" s="57"/>
+      <c r="R80" s="57"/>
     </row>
     <row r="81" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A81" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="O81" s="62"/>
-      <c r="P81" s="60"/>
-      <c r="Q81" s="60"/>
-      <c r="R81" s="60"/>
+      <c r="L81" s="60"/>
+      <c r="O81"/>
+      <c r="Q81" s="57"/>
+      <c r="R81" s="57"/>
     </row>
     <row r="82" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A82" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="O82" s="62"/>
-      <c r="P82" s="60"/>
-      <c r="Q82" s="60"/>
-      <c r="R82" s="60"/>
+      <c r="L82" s="60"/>
+      <c r="O82"/>
+      <c r="Q82" s="57"/>
+      <c r="R82" s="57"/>
     </row>
     <row r="83" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A83" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="O83" s="62"/>
-      <c r="P83" s="60"/>
-      <c r="Q83" s="60"/>
-      <c r="R83" s="60"/>
+      <c r="L83" s="60"/>
+      <c r="O83"/>
+      <c r="Q83" s="57"/>
+      <c r="R83" s="57"/>
     </row>
     <row r="84" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A84" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="O84" s="62"/>
-      <c r="P84" s="60"/>
-      <c r="Q84" s="60"/>
-      <c r="R84" s="60"/>
+      <c r="L84" s="60"/>
+      <c r="O84"/>
+      <c r="Q84" s="57"/>
+      <c r="R84" s="57"/>
     </row>
     <row r="85" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A85" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="O85" s="62"/>
-      <c r="P85" s="60"/>
-      <c r="Q85" s="60"/>
-      <c r="R85" s="60"/>
+      <c r="L85" s="60"/>
+      <c r="O85"/>
+      <c r="Q85" s="57"/>
+      <c r="R85" s="57"/>
     </row>
     <row r="86" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A86" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="O86" s="62"/>
-      <c r="P86" s="60"/>
-      <c r="Q86" s="60"/>
-      <c r="R86" s="60"/>
+      <c r="L86" s="60"/>
+      <c r="O86"/>
+      <c r="Q86" s="57"/>
+      <c r="R86" s="57"/>
     </row>
     <row r="87" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A87" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="O87" s="62"/>
-      <c r="P87" s="60"/>
-      <c r="Q87" s="60"/>
-      <c r="R87" s="60"/>
+      <c r="L87" s="60"/>
+      <c r="O87"/>
+      <c r="Q87" s="57"/>
+      <c r="R87" s="57"/>
     </row>
     <row r="88" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A88" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="O88" s="62"/>
-      <c r="P88" s="60"/>
-      <c r="Q88" s="60"/>
-      <c r="R88" s="60"/>
+      <c r="L88" s="60"/>
+      <c r="O88"/>
+      <c r="Q88" s="57"/>
+      <c r="R88" s="57"/>
     </row>
     <row r="89" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A89" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="O89" s="62"/>
-      <c r="P89" s="60"/>
-      <c r="Q89" s="60"/>
-      <c r="R89" s="60"/>
+      <c r="L89" s="60"/>
+      <c r="O89"/>
+      <c r="Q89" s="57"/>
+      <c r="R89" s="57"/>
     </row>
     <row r="90" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A90" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="O90" s="62"/>
-      <c r="P90" s="60"/>
-      <c r="Q90" s="60"/>
-      <c r="R90" s="60"/>
+      <c r="L90" s="60"/>
+      <c r="O90"/>
+      <c r="Q90" s="57"/>
+      <c r="R90" s="57"/>
     </row>
     <row r="91" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A91" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="O91" s="62"/>
-      <c r="P91" s="60"/>
-      <c r="Q91" s="60"/>
-      <c r="R91" s="60"/>
+      <c r="L91" s="60"/>
+      <c r="O91"/>
+      <c r="Q91" s="57"/>
+      <c r="R91" s="57"/>
     </row>
     <row r="92" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A92" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="O92" s="62"/>
-      <c r="P92" s="60"/>
-      <c r="Q92" s="60"/>
-      <c r="R92" s="60"/>
+      <c r="L92" s="60"/>
+      <c r="O92"/>
+      <c r="Q92" s="57"/>
+      <c r="R92" s="57"/>
     </row>
     <row r="93" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A93" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="O93" s="62"/>
-      <c r="P93" s="60"/>
-      <c r="Q93" s="60"/>
-      <c r="R93" s="60"/>
+      <c r="L93" s="60"/>
+      <c r="O93"/>
+      <c r="Q93" s="57"/>
+      <c r="R93" s="57"/>
     </row>
     <row r="94" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A94" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="O94" s="62"/>
-      <c r="P94" s="60"/>
-      <c r="Q94" s="60"/>
-      <c r="R94" s="60"/>
+      <c r="L94" s="60"/>
+      <c r="O94"/>
+      <c r="Q94" s="57"/>
+      <c r="R94" s="57"/>
     </row>
     <row r="95" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A95" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="O95" s="62"/>
-      <c r="P95" s="60"/>
-      <c r="Q95" s="60"/>
-      <c r="R95" s="60"/>
+      <c r="L95" s="60"/>
+      <c r="O95"/>
+      <c r="Q95" s="57"/>
+      <c r="R95" s="57"/>
     </row>
     <row r="96" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A96" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="O96" s="62"/>
-      <c r="P96" s="60"/>
-      <c r="Q96" s="60"/>
-      <c r="R96" s="60"/>
+      <c r="L96" s="60"/>
+      <c r="O96"/>
+      <c r="Q96" s="57"/>
+      <c r="R96" s="57"/>
     </row>
     <row r="97" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A97" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="O97" s="62"/>
-      <c r="P97" s="60"/>
-      <c r="Q97" s="60"/>
-      <c r="R97" s="60"/>
+      <c r="L97" s="60"/>
+      <c r="O97"/>
+      <c r="Q97" s="57"/>
+      <c r="R97" s="57"/>
     </row>
     <row r="98" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A98" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="O98" s="62"/>
-      <c r="P98" s="60"/>
-      <c r="Q98" s="60"/>
-      <c r="R98" s="60"/>
+      <c r="L98" s="60"/>
+      <c r="O98"/>
+      <c r="Q98" s="57"/>
+      <c r="R98" s="57"/>
     </row>
     <row r="99" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A99" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="O99" s="62"/>
-      <c r="P99" s="60"/>
-      <c r="Q99" s="60"/>
-      <c r="R99" s="60"/>
+      <c r="L99" s="60"/>
+      <c r="O99"/>
+      <c r="Q99" s="57"/>
+      <c r="R99" s="57"/>
     </row>
     <row r="100" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A100" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="O100" s="62"/>
-      <c r="P100" s="60"/>
-      <c r="Q100" s="60"/>
-      <c r="R100" s="60"/>
+      <c r="L100" s="60"/>
+      <c r="O100"/>
+      <c r="Q100" s="57"/>
+      <c r="R100" s="57"/>
     </row>
     <row r="101" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A101" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="O101" s="62"/>
-      <c r="P101" s="60"/>
-      <c r="Q101" s="60"/>
-      <c r="R101" s="60"/>
+      <c r="L101" s="60"/>
+      <c r="O101"/>
+      <c r="Q101" s="57"/>
+      <c r="R101" s="57"/>
     </row>
     <row r="102" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A102" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="O102" s="62"/>
-      <c r="P102" s="60"/>
-      <c r="Q102" s="60"/>
-      <c r="R102" s="60"/>
+      <c r="L102" s="60"/>
+      <c r="O102"/>
+      <c r="Q102" s="57"/>
+      <c r="R102" s="57"/>
     </row>
     <row r="103" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A103" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="O103" s="62"/>
-      <c r="P103" s="60"/>
-      <c r="Q103" s="60"/>
-      <c r="R103" s="60"/>
+      <c r="L103" s="60"/>
+      <c r="O103"/>
+      <c r="Q103" s="57"/>
+      <c r="R103" s="57"/>
     </row>
     <row r="104" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A104" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="O104" s="62"/>
-      <c r="P104" s="60"/>
-      <c r="Q104" s="60"/>
-      <c r="R104" s="60"/>
+      <c r="L104" s="60"/>
+      <c r="O104"/>
+      <c r="Q104" s="57"/>
+      <c r="R104" s="57"/>
     </row>
     <row r="105" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A105" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="O105" s="62"/>
-      <c r="P105" s="60"/>
-      <c r="Q105" s="60"/>
-      <c r="R105" s="60"/>
+      <c r="L105" s="60"/>
+      <c r="O105"/>
+      <c r="Q105" s="57"/>
+      <c r="R105" s="57"/>
     </row>
     <row r="106" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A106" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="O106" s="62"/>
-      <c r="P106" s="60"/>
-      <c r="Q106" s="60"/>
-      <c r="R106" s="60"/>
+      <c r="L106" s="60"/>
+      <c r="O106"/>
+      <c r="Q106" s="57"/>
+      <c r="R106" s="57"/>
     </row>
     <row r="107" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A107" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="O107" s="62"/>
-      <c r="P107" s="60"/>
-      <c r="Q107" s="60"/>
-      <c r="R107" s="60"/>
+      <c r="L107" s="60"/>
+      <c r="O107"/>
+      <c r="Q107" s="57"/>
+      <c r="R107" s="57"/>
     </row>
     <row r="108" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A108" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="O108" s="62"/>
-      <c r="P108" s="60"/>
-      <c r="Q108" s="60"/>
-      <c r="R108" s="60"/>
+      <c r="L108" s="60"/>
+      <c r="O108"/>
+      <c r="Q108" s="57"/>
+      <c r="R108" s="57"/>
     </row>
     <row r="109" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A109" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="O109" s="62"/>
-      <c r="P109" s="60"/>
-      <c r="Q109" s="60"/>
-      <c r="R109" s="60"/>
+      <c r="L109" s="60"/>
+      <c r="O109"/>
+      <c r="Q109" s="57"/>
+      <c r="R109" s="57"/>
     </row>
     <row r="110" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A110" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="O110" s="62"/>
-      <c r="P110" s="60"/>
-      <c r="Q110" s="60"/>
-      <c r="R110" s="60"/>
+      <c r="L110" s="60"/>
+      <c r="O110"/>
+      <c r="Q110" s="57"/>
+      <c r="R110" s="57"/>
     </row>
     <row r="111" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A111" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="O111" s="62"/>
-      <c r="P111" s="60"/>
-      <c r="Q111" s="60"/>
-      <c r="R111" s="60"/>
+      <c r="L111" s="60"/>
+      <c r="O111"/>
+      <c r="Q111" s="57"/>
+      <c r="R111" s="57"/>
     </row>
     <row r="112" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A112" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="O112" s="62"/>
-      <c r="P112" s="60"/>
-      <c r="Q112" s="60"/>
-      <c r="R112" s="60"/>
+      <c r="L112" s="60"/>
+      <c r="O112"/>
+      <c r="Q112" s="57"/>
+      <c r="R112" s="57"/>
     </row>
     <row r="113" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A113" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="O113" s="62"/>
-      <c r="P113" s="60"/>
-      <c r="Q113" s="60"/>
-      <c r="R113" s="60"/>
+      <c r="L113" s="60"/>
+      <c r="O113"/>
+      <c r="Q113" s="57"/>
+      <c r="R113" s="57"/>
     </row>
     <row r="114" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A114" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="O114" s="62"/>
-      <c r="P114" s="60"/>
-      <c r="Q114" s="60"/>
-      <c r="R114" s="60"/>
+      <c r="L114" s="60"/>
+      <c r="O114"/>
+      <c r="Q114" s="57"/>
+      <c r="R114" s="57"/>
     </row>
     <row r="115" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A115" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="O115" s="62"/>
-      <c r="P115" s="60"/>
-      <c r="Q115" s="60"/>
-      <c r="R115" s="60"/>
+      <c r="L115" s="60"/>
+      <c r="O115"/>
+      <c r="Q115" s="57"/>
+      <c r="R115" s="57"/>
     </row>
     <row r="116" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A116" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="O116" s="62"/>
-      <c r="P116" s="60"/>
-      <c r="Q116" s="60"/>
-      <c r="R116" s="60"/>
+      <c r="L116" s="60"/>
+      <c r="O116"/>
+      <c r="Q116" s="57"/>
+      <c r="R116" s="57"/>
     </row>
     <row r="117" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A117" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="O117" s="62"/>
-      <c r="P117" s="60"/>
-      <c r="Q117" s="60"/>
-      <c r="R117" s="60"/>
+      <c r="L117" s="60"/>
+      <c r="O117"/>
+      <c r="Q117" s="57"/>
+      <c r="R117" s="57"/>
     </row>
     <row r="118" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A118" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="O118" s="62"/>
-      <c r="P118" s="60"/>
-      <c r="Q118" s="60"/>
-      <c r="R118" s="60"/>
+      <c r="L118" s="60"/>
+      <c r="O118"/>
+      <c r="Q118" s="57"/>
+      <c r="R118" s="57"/>
     </row>
     <row r="119" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A119" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="O119" s="62"/>
-      <c r="P119" s="60"/>
-      <c r="Q119" s="60"/>
-      <c r="R119" s="60"/>
+      <c r="L119" s="60"/>
+      <c r="O119"/>
+      <c r="Q119" s="57"/>
+      <c r="R119" s="57"/>
     </row>
     <row r="120" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A120" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="O120" s="62"/>
-      <c r="P120" s="60"/>
-      <c r="Q120" s="60"/>
-      <c r="R120" s="60"/>
+      <c r="L120" s="60"/>
+      <c r="O120"/>
+      <c r="Q120" s="57"/>
+      <c r="R120" s="57"/>
     </row>
     <row r="121" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A121" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="O121" s="62"/>
-      <c r="P121" s="60"/>
-      <c r="Q121" s="60"/>
-      <c r="R121" s="60"/>
+      <c r="L121" s="60"/>
+      <c r="O121"/>
+      <c r="Q121" s="57"/>
+      <c r="R121" s="57"/>
     </row>
     <row r="122" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A122" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="O122" s="62"/>
-      <c r="P122" s="60"/>
-      <c r="Q122" s="60"/>
-      <c r="R122" s="60"/>
+      <c r="L122" s="60"/>
+      <c r="O122"/>
+      <c r="Q122" s="57"/>
+      <c r="R122" s="57"/>
     </row>
     <row r="123" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A123" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="O123" s="62"/>
-      <c r="P123" s="60"/>
-      <c r="Q123" s="60"/>
-      <c r="R123" s="60"/>
+      <c r="L123" s="60"/>
+      <c r="O123"/>
+      <c r="Q123" s="57"/>
+      <c r="R123" s="57"/>
     </row>
     <row r="124" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A124" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="O124" s="62"/>
-      <c r="P124" s="60"/>
-      <c r="Q124" s="60"/>
-      <c r="R124" s="60"/>
+      <c r="L124" s="60"/>
+      <c r="O124"/>
+      <c r="Q124" s="57"/>
+      <c r="R124" s="57"/>
     </row>
     <row r="125" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A125" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
+      <c r="L125" s="60"/>
+      <c r="O125"/>
     </row>
     <row r="126" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A126" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
+      <c r="L126" s="60"/>
+      <c r="O126"/>
     </row>
     <row r="127" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A127" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
+      <c r="L127" s="60"/>
+      <c r="O127"/>
     </row>
     <row r="128" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A128" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-    </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="L128" s="60"/>
+      <c r="O128"/>
+    </row>
+    <row r="129" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A129" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-    </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="L129" s="60"/>
+      <c r="O129"/>
+    </row>
+    <row r="130" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A130" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-    </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="L130" s="60"/>
+      <c r="O130"/>
+    </row>
+    <row r="131" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A131" t="str">
         <f t="shared" ref="A131:A194" si="2">I131&amp;B131</f>
         <v/>
       </c>
-    </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="L131" s="60"/>
+      <c r="O131"/>
+    </row>
+    <row r="132" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A132" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-    </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="L132" s="60"/>
+      <c r="O132"/>
+    </row>
+    <row r="133" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A133" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-    </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="L133" s="60"/>
+      <c r="O133"/>
+    </row>
+    <row r="134" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A134" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-    </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="L134" s="60"/>
+      <c r="O134"/>
+    </row>
+    <row r="135" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A135" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-    </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="L135" s="60"/>
+      <c r="O135"/>
+    </row>
+    <row r="136" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A136" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-    </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="L136" s="60"/>
+      <c r="O136"/>
+    </row>
+    <row r="137" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A137" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-    </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="L137" s="60"/>
+      <c r="O137"/>
+    </row>
+    <row r="138" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A138" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-    </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="L138" s="60"/>
+      <c r="O138"/>
+    </row>
+    <row r="139" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A139" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-    </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="L139" s="60"/>
+      <c r="O139"/>
+    </row>
+    <row r="140" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A140" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-    </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="L140" s="60"/>
+      <c r="O140"/>
+    </row>
+    <row r="141" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A141" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-    </row>
-    <row r="142" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="L141" s="60"/>
+      <c r="O141"/>
+    </row>
+    <row r="142" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A142" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-    </row>
-    <row r="143" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="L142" s="60"/>
+      <c r="O142"/>
+    </row>
+    <row r="143" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A143" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-    </row>
-    <row r="144" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="L143" s="60"/>
+      <c r="O143"/>
+    </row>
+    <row r="144" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A144" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-    </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="L144" s="60"/>
+      <c r="O144"/>
+    </row>
+    <row r="145" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A145" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-    </row>
-    <row r="146" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="L145" s="60"/>
+      <c r="O145"/>
+    </row>
+    <row r="146" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A146" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-    </row>
-    <row r="147" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="L146" s="60"/>
+      <c r="O146"/>
+    </row>
+    <row r="147" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A147" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-    </row>
-    <row r="148" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="L147" s="60"/>
+      <c r="O147"/>
+    </row>
+    <row r="148" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A148" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-    </row>
-    <row r="149" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="L148" s="60"/>
+      <c r="O148"/>
+    </row>
+    <row r="149" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A149" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-    </row>
-    <row r="150" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="L149" s="60"/>
+      <c r="O149"/>
+    </row>
+    <row r="150" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A150" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-    </row>
-    <row r="151" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="L150" s="60"/>
+      <c r="O150"/>
+    </row>
+    <row r="151" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A151" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-    </row>
-    <row r="152" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="L151" s="60"/>
+      <c r="O151"/>
+    </row>
+    <row r="152" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A152" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-    </row>
-    <row r="153" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="L152" s="60"/>
+      <c r="O152"/>
+    </row>
+    <row r="153" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A153" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-    </row>
-    <row r="154" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="L153" s="60"/>
+      <c r="O153"/>
+    </row>
+    <row r="154" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A154" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-    </row>
-    <row r="155" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="L154" s="60"/>
+      <c r="O154"/>
+    </row>
+    <row r="155" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A155" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-    </row>
-    <row r="156" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="L155" s="60"/>
+      <c r="O155"/>
+    </row>
+    <row r="156" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A156" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-    </row>
-    <row r="157" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="L156" s="60"/>
+      <c r="O156"/>
+    </row>
+    <row r="157" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A157" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-    </row>
-    <row r="158" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="L157" s="60"/>
+      <c r="O157"/>
+    </row>
+    <row r="158" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A158" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-    </row>
-    <row r="159" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="L158" s="60"/>
+      <c r="O158"/>
+    </row>
+    <row r="159" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A159" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-    </row>
-    <row r="160" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="L159" s="60"/>
+      <c r="O159"/>
+    </row>
+    <row r="160" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A160" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-    </row>
-    <row r="161" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="L160" s="60"/>
+      <c r="O160"/>
+    </row>
+    <row r="161" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A161" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-    </row>
-    <row r="162" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="L161" s="60"/>
+      <c r="O161"/>
+    </row>
+    <row r="162" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A162" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-    </row>
-    <row r="163" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="L162" s="60"/>
+      <c r="O162"/>
+    </row>
+    <row r="163" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A163" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-    </row>
-    <row r="164" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="L163" s="60"/>
+      <c r="O163"/>
+    </row>
+    <row r="164" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A164" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-    </row>
-    <row r="165" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="L164" s="60"/>
+      <c r="O164"/>
+    </row>
+    <row r="165" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A165" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-    </row>
-    <row r="166" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="L165" s="60"/>
+      <c r="O165"/>
+    </row>
+    <row r="166" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A166" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-    </row>
-    <row r="167" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="L166" s="60"/>
+      <c r="O166"/>
+    </row>
+    <row r="167" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A167" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-    </row>
-    <row r="168" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="L167" s="60"/>
+      <c r="O167"/>
+    </row>
+    <row r="168" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A168" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-    </row>
-    <row r="169" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="L168" s="60"/>
+      <c r="O168"/>
+    </row>
+    <row r="169" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A169" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-    </row>
-    <row r="170" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="L169" s="60"/>
+      <c r="O169"/>
+    </row>
+    <row r="170" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A170" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-    </row>
-    <row r="171" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="L170" s="60"/>
+      <c r="O170"/>
+    </row>
+    <row r="171" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A171" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-    </row>
-    <row r="172" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="L171" s="60"/>
+      <c r="O171"/>
+    </row>
+    <row r="172" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A172" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-    </row>
-    <row r="173" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="L172" s="60"/>
+      <c r="O172"/>
+    </row>
+    <row r="173" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A173" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-    </row>
-    <row r="174" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="L173" s="60"/>
+      <c r="O173"/>
+    </row>
+    <row r="174" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A174" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-    </row>
-    <row r="175" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="L174" s="60"/>
+      <c r="O174"/>
+    </row>
+    <row r="175" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A175" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-    </row>
-    <row r="176" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="L175" s="60"/>
+      <c r="O175"/>
+    </row>
+    <row r="176" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A176" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-    </row>
-    <row r="177" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="L176" s="60"/>
+      <c r="O176"/>
+    </row>
+    <row r="177" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A177" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-    </row>
-    <row r="178" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="L177" s="60"/>
+      <c r="O177"/>
+    </row>
+    <row r="178" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A178" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-    </row>
-    <row r="179" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="L178" s="60"/>
+      <c r="O178"/>
+    </row>
+    <row r="179" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A179" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-    </row>
-    <row r="180" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="L179" s="60"/>
+      <c r="O179"/>
+    </row>
+    <row r="180" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A180" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-    </row>
-    <row r="181" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="L180" s="60"/>
+      <c r="O180"/>
+    </row>
+    <row r="181" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A181" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-    </row>
-    <row r="182" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="L181" s="60"/>
+      <c r="O181"/>
+    </row>
+    <row r="182" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A182" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-    </row>
-    <row r="183" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="L182" s="60"/>
+      <c r="O182"/>
+    </row>
+    <row r="183" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A183" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-    </row>
-    <row r="184" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="L183" s="60"/>
+      <c r="O183"/>
+    </row>
+    <row r="184" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A184" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-    </row>
-    <row r="185" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="L184" s="60"/>
+      <c r="O184"/>
+    </row>
+    <row r="185" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A185" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-    </row>
-    <row r="186" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="L185" s="60"/>
+      <c r="O185"/>
+    </row>
+    <row r="186" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A186" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-    </row>
-    <row r="187" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="L186" s="60"/>
+      <c r="O186"/>
+    </row>
+    <row r="187" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A187" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-    </row>
-    <row r="188" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="L187" s="60"/>
+      <c r="O187"/>
+    </row>
+    <row r="188" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A188" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-    </row>
-    <row r="189" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="L188" s="60"/>
+      <c r="O188"/>
+    </row>
+    <row r="189" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A189" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-    </row>
-    <row r="190" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="L189" s="60"/>
+      <c r="O189"/>
+    </row>
+    <row r="190" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A190" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-    </row>
-    <row r="191" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="L190" s="60"/>
+      <c r="O190"/>
+    </row>
+    <row r="191" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A191" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-    </row>
-    <row r="192" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="L191" s="60"/>
+      <c r="O191"/>
+    </row>
+    <row r="192" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A192" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-    </row>
-    <row r="193" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="L192" s="60"/>
+      <c r="O192"/>
+    </row>
+    <row r="193" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A193" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-    </row>
-    <row r="194" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="L193" s="60"/>
+      <c r="O193"/>
+    </row>
+    <row r="194" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A194" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-    </row>
-    <row r="195" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="L194" s="60"/>
+      <c r="O194"/>
+    </row>
+    <row r="195" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A195" t="str">
         <f t="shared" ref="A195:A258" si="3">I195&amp;B195</f>
         <v/>
       </c>
-    </row>
-    <row r="196" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="L195" s="60"/>
+      <c r="O195"/>
+    </row>
+    <row r="196" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A196" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-    </row>
-    <row r="197" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="L196" s="60"/>
+      <c r="O196"/>
+    </row>
+    <row r="197" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A197" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-    </row>
-    <row r="198" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="L197" s="60"/>
+      <c r="O197"/>
+    </row>
+    <row r="198" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A198" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-    </row>
-    <row r="199" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="L198" s="60"/>
+      <c r="O198"/>
+    </row>
+    <row r="199" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A199" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-    </row>
-    <row r="200" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="L199" s="60"/>
+      <c r="O199"/>
+    </row>
+    <row r="200" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A200" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-    </row>
-    <row r="201" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="L200" s="60"/>
+      <c r="O200"/>
+    </row>
+    <row r="201" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A201" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-    </row>
-    <row r="202" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="L201" s="60"/>
+      <c r="O201"/>
+    </row>
+    <row r="202" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A202" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-    </row>
-    <row r="203" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="L202" s="60"/>
+      <c r="O202"/>
+    </row>
+    <row r="203" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A203" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-    </row>
-    <row r="204" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="L203" s="60"/>
+      <c r="O203"/>
+    </row>
+    <row r="204" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A204" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-    </row>
-    <row r="205" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="L204" s="60"/>
+      <c r="O204"/>
+    </row>
+    <row r="205" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A205" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-    </row>
-    <row r="206" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="L205" s="60"/>
+      <c r="O205"/>
+    </row>
+    <row r="206" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A206" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-    </row>
-    <row r="207" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="L206" s="60"/>
+      <c r="O206"/>
+    </row>
+    <row r="207" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A207" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-    </row>
-    <row r="208" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="L207" s="60"/>
+      <c r="O207"/>
+    </row>
+    <row r="208" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A208" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-    </row>
-    <row r="209" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="L208" s="60"/>
+      <c r="O208"/>
+    </row>
+    <row r="209" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A209" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-    </row>
-    <row r="210" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="L209" s="60"/>
+      <c r="O209"/>
+    </row>
+    <row r="210" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A210" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-    </row>
-    <row r="211" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="L210" s="60"/>
+      <c r="O210"/>
+    </row>
+    <row r="211" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A211" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-    </row>
-    <row r="212" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="L211" s="60"/>
+      <c r="O211"/>
+    </row>
+    <row r="212" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A212" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-    </row>
-    <row r="213" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="L212" s="60"/>
+      <c r="O212"/>
+    </row>
+    <row r="213" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A213" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-    </row>
-    <row r="214" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="L213" s="60"/>
+      <c r="O213"/>
+    </row>
+    <row r="214" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A214" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-    </row>
-    <row r="215" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="L214" s="60"/>
+      <c r="O214"/>
+    </row>
+    <row r="215" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A215" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-    </row>
-    <row r="216" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="L215" s="60"/>
+      <c r="O215"/>
+    </row>
+    <row r="216" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A216" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-    </row>
-    <row r="217" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="L216" s="60"/>
+      <c r="O216"/>
+    </row>
+    <row r="217" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A217" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-    </row>
-    <row r="218" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="L217" s="60"/>
+      <c r="O217"/>
+    </row>
+    <row r="218" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A218" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-    </row>
-    <row r="219" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="L218" s="60"/>
+      <c r="O218"/>
+    </row>
+    <row r="219" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A219" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-    </row>
-    <row r="220" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="L219" s="60"/>
+      <c r="O219"/>
+    </row>
+    <row r="220" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A220" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-    </row>
-    <row r="221" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="L220" s="60"/>
+      <c r="O220"/>
+    </row>
+    <row r="221" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A221" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-    </row>
-    <row r="222" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="L221" s="60"/>
+      <c r="O221"/>
+    </row>
+    <row r="222" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A222" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-    </row>
-    <row r="223" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="L222" s="60"/>
+      <c r="O222"/>
+    </row>
+    <row r="223" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A223" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-    </row>
-    <row r="224" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="L223" s="60"/>
+      <c r="O223"/>
+    </row>
+    <row r="224" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A224" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-    </row>
-    <row r="225" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="L224" s="60"/>
+      <c r="O224"/>
+    </row>
+    <row r="225" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A225" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-    </row>
-    <row r="226" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="L225" s="60"/>
+      <c r="O225"/>
+    </row>
+    <row r="226" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A226" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-    </row>
-    <row r="227" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="L226" s="60"/>
+      <c r="O226"/>
+    </row>
+    <row r="227" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A227" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-    </row>
-    <row r="228" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="L227" s="60"/>
+      <c r="O227"/>
+    </row>
+    <row r="228" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A228" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-    </row>
-    <row r="229" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="L228" s="60"/>
+      <c r="O228"/>
+    </row>
+    <row r="229" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A229" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-    </row>
-    <row r="230" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="L229" s="60"/>
+      <c r="O229"/>
+    </row>
+    <row r="230" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A230" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-    </row>
-    <row r="231" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="L230" s="60"/>
+      <c r="O230"/>
+    </row>
+    <row r="231" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A231" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-    </row>
-    <row r="232" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="L231" s="60"/>
+      <c r="O231"/>
+    </row>
+    <row r="232" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A232" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-    </row>
-    <row r="233" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="L232" s="60"/>
+      <c r="O232"/>
+    </row>
+    <row r="233" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A233" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-    </row>
-    <row r="234" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="L233" s="60"/>
+      <c r="O233"/>
+    </row>
+    <row r="234" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A234" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-    </row>
-    <row r="235" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="L234" s="60"/>
+      <c r="O234"/>
+    </row>
+    <row r="235" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A235" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-    </row>
-    <row r="236" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="L235" s="60"/>
+      <c r="O235"/>
+    </row>
+    <row r="236" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A236" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-    </row>
-    <row r="237" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="L236" s="60"/>
+      <c r="O236"/>
+    </row>
+    <row r="237" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A237" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-    </row>
-    <row r="238" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="L237" s="60"/>
+      <c r="O237"/>
+    </row>
+    <row r="238" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A238" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-    </row>
-    <row r="239" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="L238" s="60"/>
+      <c r="O238"/>
+    </row>
+    <row r="239" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A239" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-    </row>
-    <row r="240" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="L239" s="60"/>
+      <c r="O239"/>
+    </row>
+    <row r="240" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A240" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-    </row>
-    <row r="241" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="L240" s="60"/>
+      <c r="O240"/>
+    </row>
+    <row r="241" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A241" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-    </row>
-    <row r="242" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="L241" s="60"/>
+      <c r="O241"/>
+    </row>
+    <row r="242" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A242" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-    </row>
-    <row r="243" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="L242" s="60"/>
+      <c r="O242"/>
+    </row>
+    <row r="243" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A243" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-    </row>
-    <row r="244" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="L243" s="60"/>
+      <c r="O243"/>
+    </row>
+    <row r="244" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A244" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-    </row>
-    <row r="245" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="L244" s="60"/>
+      <c r="O244"/>
+    </row>
+    <row r="245" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A245" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-    </row>
-    <row r="246" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="L245" s="60"/>
+      <c r="O245"/>
+    </row>
+    <row r="246" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A246" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-    </row>
-    <row r="247" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="L246" s="60"/>
+      <c r="O246"/>
+    </row>
+    <row r="247" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A247" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-    </row>
-    <row r="248" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="L247" s="60"/>
+      <c r="O247"/>
+    </row>
+    <row r="248" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A248" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-    </row>
-    <row r="249" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="L248" s="60"/>
+      <c r="O248"/>
+    </row>
+    <row r="249" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A249" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-    </row>
-    <row r="250" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="L249" s="60"/>
+      <c r="O249"/>
+    </row>
+    <row r="250" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A250" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-    </row>
-    <row r="251" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="L250" s="60"/>
+      <c r="O250"/>
+    </row>
+    <row r="251" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A251" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-    </row>
-    <row r="252" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="L251" s="60"/>
+      <c r="O251"/>
+    </row>
+    <row r="252" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A252" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-    </row>
-    <row r="253" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="L252" s="60"/>
+      <c r="O252"/>
+    </row>
+    <row r="253" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A253" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-    </row>
-    <row r="254" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="L253" s="60"/>
+      <c r="O253"/>
+    </row>
+    <row r="254" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A254" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-    </row>
-    <row r="255" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="L254" s="60"/>
+      <c r="O254"/>
+    </row>
+    <row r="255" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A255" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-    </row>
-    <row r="256" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="L255" s="60"/>
+      <c r="O255"/>
+    </row>
+    <row r="256" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A256" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-    </row>
-    <row r="257" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="L256" s="60"/>
+      <c r="O256"/>
+    </row>
+    <row r="257" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A257" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-    </row>
-    <row r="258" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="L257" s="60"/>
+      <c r="O257"/>
+    </row>
+    <row r="258" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A258" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-    </row>
-    <row r="259" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="L258" s="60"/>
+      <c r="O258"/>
+    </row>
+    <row r="259" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A259" t="str">
         <f t="shared" ref="A259:A322" si="4">I259&amp;B259</f>
         <v/>
       </c>
-    </row>
-    <row r="260" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="L259" s="60"/>
+      <c r="O259"/>
+    </row>
+    <row r="260" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A260" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-    </row>
-    <row r="261" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="L260" s="60"/>
+      <c r="O260"/>
+    </row>
+    <row r="261" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A261" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-    </row>
-    <row r="262" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="L261" s="60"/>
+      <c r="O261"/>
+    </row>
+    <row r="262" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A262" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-    </row>
-    <row r="263" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="L262" s="60"/>
+      <c r="O262"/>
+    </row>
+    <row r="263" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A263" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-    </row>
-    <row r="264" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="L263" s="60"/>
+      <c r="O263"/>
+    </row>
+    <row r="264" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A264" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-    </row>
-    <row r="265" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="L264" s="60"/>
+      <c r="O264"/>
+    </row>
+    <row r="265" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A265" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-    </row>
-    <row r="266" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="L265" s="60"/>
+      <c r="O265"/>
+    </row>
+    <row r="266" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A266" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-    </row>
-    <row r="267" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="L266" s="60"/>
+      <c r="O266"/>
+    </row>
+    <row r="267" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A267" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-    </row>
-    <row r="268" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="L267" s="60"/>
+      <c r="O267"/>
+    </row>
+    <row r="268" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A268" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-    </row>
-    <row r="269" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="L268" s="60"/>
+      <c r="O268"/>
+    </row>
+    <row r="269" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A269" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-    </row>
-    <row r="270" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="L269" s="60"/>
+      <c r="O269"/>
+    </row>
+    <row r="270" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A270" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-    </row>
-    <row r="271" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="L270" s="60"/>
+      <c r="O270"/>
+    </row>
+    <row r="271" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A271" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-    </row>
-    <row r="272" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="L271" s="60"/>
+      <c r="O271"/>
+    </row>
+    <row r="272" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A272" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-    </row>
-    <row r="273" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="L272" s="60"/>
+      <c r="O272"/>
+    </row>
+    <row r="273" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A273" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-    </row>
-    <row r="274" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="L273" s="60"/>
+      <c r="O273"/>
+    </row>
+    <row r="274" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A274" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-    </row>
-    <row r="275" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="L274" s="60"/>
+      <c r="O274"/>
+    </row>
+    <row r="275" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A275" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-    </row>
-    <row r="276" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="L275" s="60"/>
+      <c r="O275"/>
+    </row>
+    <row r="276" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A276" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-    </row>
-    <row r="277" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="L276" s="60"/>
+      <c r="O276"/>
+    </row>
+    <row r="277" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A277" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-    </row>
-    <row r="278" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="L277" s="60"/>
+      <c r="O277"/>
+    </row>
+    <row r="278" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A278" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-    </row>
-    <row r="279" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="L278" s="60"/>
+      <c r="O278"/>
+    </row>
+    <row r="279" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A279" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-    </row>
-    <row r="280" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="L279" s="60"/>
+      <c r="O279"/>
+    </row>
+    <row r="280" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A280" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-    </row>
-    <row r="281" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="L280" s="60"/>
+      <c r="O280"/>
+    </row>
+    <row r="281" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A281" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-    </row>
-    <row r="282" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="L281" s="60"/>
+      <c r="O281"/>
+    </row>
+    <row r="282" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A282" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-    </row>
-    <row r="283" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="L282" s="60"/>
+      <c r="O282"/>
+    </row>
+    <row r="283" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A283" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-    </row>
-    <row r="284" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="L283" s="60"/>
+      <c r="O283"/>
+    </row>
+    <row r="284" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A284" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-    </row>
-    <row r="285" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="L284" s="60"/>
+      <c r="O284"/>
+    </row>
+    <row r="285" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A285" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-    </row>
-    <row r="286" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="L285" s="60"/>
+      <c r="O285"/>
+    </row>
+    <row r="286" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A286" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-    </row>
-    <row r="287" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="L286" s="60"/>
+      <c r="O286"/>
+    </row>
+    <row r="287" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A287" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-    </row>
-    <row r="288" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="L287" s="60"/>
+      <c r="O287"/>
+    </row>
+    <row r="288" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A288" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-    </row>
-    <row r="289" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="L288" s="60"/>
+      <c r="O288"/>
+    </row>
+    <row r="289" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A289" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-    </row>
-    <row r="290" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="L289" s="60"/>
+      <c r="O289"/>
+    </row>
+    <row r="290" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A290" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-    </row>
-    <row r="291" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="L290" s="60"/>
+      <c r="O290"/>
+    </row>
+    <row r="291" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A291" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-    </row>
-    <row r="292" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="L291" s="60"/>
+      <c r="O291"/>
+    </row>
+    <row r="292" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A292" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-    </row>
-    <row r="293" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="L292" s="60"/>
+      <c r="O292"/>
+    </row>
+    <row r="293" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A293" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-    </row>
-    <row r="294" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="L293" s="60"/>
+      <c r="O293"/>
+    </row>
+    <row r="294" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A294" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-    </row>
-    <row r="295" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="L294" s="60"/>
+      <c r="O294"/>
+    </row>
+    <row r="295" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A295" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-    </row>
-    <row r="296" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="L295" s="60"/>
+      <c r="O295"/>
+    </row>
+    <row r="296" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A296" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-    </row>
-    <row r="297" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="L296" s="60"/>
+      <c r="O296"/>
+    </row>
+    <row r="297" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A297" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-    </row>
-    <row r="298" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="L297" s="60"/>
+      <c r="O297"/>
+    </row>
+    <row r="298" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A298" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-    </row>
-    <row r="299" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="L298" s="60"/>
+      <c r="O298"/>
+    </row>
+    <row r="299" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A299" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-    </row>
-    <row r="300" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="L299" s="60"/>
+      <c r="O299"/>
+    </row>
+    <row r="300" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A300" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-    </row>
-    <row r="301" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="L300" s="60"/>
+      <c r="O300"/>
+    </row>
+    <row r="301" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A301" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-    </row>
-    <row r="302" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="L301" s="60"/>
+      <c r="O301"/>
+    </row>
+    <row r="302" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A302" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-    </row>
-    <row r="303" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="L302" s="60"/>
+      <c r="O302"/>
+    </row>
+    <row r="303" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A303" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-    </row>
-    <row r="304" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="L303" s="60"/>
+      <c r="O303"/>
+    </row>
+    <row r="304" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A304" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-    </row>
-    <row r="305" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="L304" s="60"/>
+      <c r="O304"/>
+    </row>
+    <row r="305" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A305" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-    </row>
-    <row r="306" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="L305" s="60"/>
+      <c r="O305"/>
+    </row>
+    <row r="306" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A306" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-    </row>
-    <row r="307" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="L306" s="60"/>
+      <c r="O306"/>
+    </row>
+    <row r="307" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A307" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-    </row>
-    <row r="308" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="L307" s="60"/>
+      <c r="O307"/>
+    </row>
+    <row r="308" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A308" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-    </row>
-    <row r="309" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="L308" s="60"/>
+      <c r="O308"/>
+    </row>
+    <row r="309" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A309" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-    </row>
-    <row r="310" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="L309" s="60"/>
+      <c r="O309"/>
+    </row>
+    <row r="310" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A310" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-    </row>
-    <row r="311" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="L310" s="60"/>
+      <c r="O310"/>
+    </row>
+    <row r="311" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A311" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-    </row>
-    <row r="312" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="L311" s="60"/>
+      <c r="O311"/>
+    </row>
+    <row r="312" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A312" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-    </row>
-    <row r="313" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="L312" s="60"/>
+      <c r="O312"/>
+    </row>
+    <row r="313" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A313" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-    </row>
-    <row r="314" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="L313" s="60"/>
+      <c r="O313"/>
+    </row>
+    <row r="314" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A314" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-    </row>
-    <row r="315" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="L314" s="60"/>
+      <c r="O314"/>
+    </row>
+    <row r="315" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A315" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-    </row>
-    <row r="316" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="L315" s="60"/>
+      <c r="O315"/>
+    </row>
+    <row r="316" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A316" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-    </row>
-    <row r="317" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="L316" s="60"/>
+      <c r="O316"/>
+    </row>
+    <row r="317" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A317" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-    </row>
-    <row r="318" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="L317" s="60"/>
+      <c r="O317"/>
+    </row>
+    <row r="318" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A318" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-    </row>
-    <row r="319" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="L318" s="60"/>
+      <c r="O318"/>
+    </row>
+    <row r="319" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A319" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-    </row>
-    <row r="320" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="L319" s="60"/>
+      <c r="O319"/>
+    </row>
+    <row r="320" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A320" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-    </row>
-    <row r="321" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="L320" s="60"/>
+      <c r="O320"/>
+    </row>
+    <row r="321" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A321" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-    </row>
-    <row r="322" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="L321" s="60"/>
+      <c r="O321"/>
+    </row>
+    <row r="322" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A322" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-    </row>
-    <row r="323" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="L322" s="60"/>
+      <c r="O322"/>
+    </row>
+    <row r="323" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A323" t="str">
         <f t="shared" ref="A323:A386" si="5">I323&amp;B323</f>
         <v/>
       </c>
-    </row>
-    <row r="324" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="L323" s="60"/>
+      <c r="O323"/>
+    </row>
+    <row r="324" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A324" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-    </row>
-    <row r="325" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="L324" s="60"/>
+      <c r="O324"/>
+    </row>
+    <row r="325" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A325" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-    </row>
-    <row r="326" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="L325" s="60"/>
+      <c r="O325"/>
+    </row>
+    <row r="326" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A326" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-    </row>
-    <row r="327" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="L326" s="60"/>
+      <c r="O326"/>
+    </row>
+    <row r="327" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A327" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-    </row>
-    <row r="328" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="L327" s="60"/>
+      <c r="O327"/>
+    </row>
+    <row r="328" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A328" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-    </row>
-    <row r="329" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="L328" s="60"/>
+      <c r="O328"/>
+    </row>
+    <row r="329" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A329" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-    </row>
-    <row r="330" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="L329" s="60"/>
+      <c r="O329"/>
+    </row>
+    <row r="330" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A330" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-    </row>
-    <row r="331" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="L330" s="60"/>
+      <c r="O330"/>
+    </row>
+    <row r="331" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A331" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-    </row>
-    <row r="332" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="L331" s="60"/>
+      <c r="O331"/>
+    </row>
+    <row r="332" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A332" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-    </row>
-    <row r="333" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="L332" s="60"/>
+      <c r="O332"/>
+    </row>
+    <row r="333" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A333" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-    </row>
-    <row r="334" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="L333" s="60"/>
+      <c r="O333"/>
+    </row>
+    <row r="334" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A334" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-    </row>
-    <row r="335" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="L334" s="60"/>
+      <c r="O334"/>
+    </row>
+    <row r="335" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A335" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-    </row>
-    <row r="336" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="L335" s="60"/>
+      <c r="O335"/>
+    </row>
+    <row r="336" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A336" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-    </row>
-    <row r="337" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="L336" s="60"/>
+      <c r="O336"/>
+    </row>
+    <row r="337" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A337" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-    </row>
-    <row r="338" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="L337" s="60"/>
+      <c r="O337"/>
+    </row>
+    <row r="338" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A338" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-    </row>
-    <row r="339" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="L338" s="60"/>
+      <c r="O338"/>
+    </row>
+    <row r="339" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A339" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-    </row>
-    <row r="340" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="L339" s="60"/>
+      <c r="O339"/>
+    </row>
+    <row r="340" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A340" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-    </row>
-    <row r="341" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="L340" s="60"/>
+      <c r="O340"/>
+    </row>
+    <row r="341" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A341" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-    </row>
-    <row r="342" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="L341" s="60"/>
+      <c r="O341"/>
+    </row>
+    <row r="342" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A342" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-    </row>
-    <row r="343" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="L342" s="60"/>
+      <c r="O342"/>
+    </row>
+    <row r="343" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A343" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-    </row>
-    <row r="344" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="L343" s="60"/>
+      <c r="O343"/>
+    </row>
+    <row r="344" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A344" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-    </row>
-    <row r="345" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="L344" s="60"/>
+      <c r="O344"/>
+    </row>
+    <row r="345" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A345" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-    </row>
-    <row r="346" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="L345" s="60"/>
+      <c r="O345"/>
+    </row>
+    <row r="346" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A346" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-    </row>
-    <row r="347" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="L346" s="60"/>
+      <c r="O346"/>
+    </row>
+    <row r="347" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A347" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-    </row>
-    <row r="348" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="L347" s="60"/>
+      <c r="O347"/>
+    </row>
+    <row r="348" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A348" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-    </row>
-    <row r="349" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="L348" s="60"/>
+      <c r="O348"/>
+    </row>
+    <row r="349" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A349" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-    </row>
-    <row r="350" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="L349" s="60"/>
+      <c r="O349"/>
+    </row>
+    <row r="350" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A350" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-    </row>
-    <row r="351" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="L350" s="60"/>
+      <c r="O350"/>
+    </row>
+    <row r="351" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A351" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-    </row>
-    <row r="352" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="L351" s="60"/>
+      <c r="O351"/>
+    </row>
+    <row r="352" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A352" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-    </row>
-    <row r="353" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="L352" s="60"/>
+      <c r="O352"/>
+    </row>
+    <row r="353" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A353" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-    </row>
-    <row r="354" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="L353" s="60"/>
+      <c r="O353"/>
+    </row>
+    <row r="354" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A354" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-    </row>
-    <row r="355" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="L354" s="60"/>
+      <c r="O354"/>
+    </row>
+    <row r="355" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A355" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-    </row>
-    <row r="356" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="L355" s="60"/>
+      <c r="O355"/>
+    </row>
+    <row r="356" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A356" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-    </row>
-    <row r="357" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="L356" s="60"/>
+      <c r="O356"/>
+    </row>
+    <row r="357" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A357" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-    </row>
-    <row r="358" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="L357" s="60"/>
+      <c r="O357"/>
+    </row>
+    <row r="358" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A358" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-    </row>
-    <row r="359" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="L358" s="60"/>
+      <c r="O358"/>
+    </row>
+    <row r="359" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A359" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-    </row>
-    <row r="360" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="L359" s="60"/>
+      <c r="O359"/>
+    </row>
+    <row r="360" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A360" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-    </row>
-    <row r="361" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="L360" s="60"/>
+      <c r="O360"/>
+    </row>
+    <row r="361" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A361" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-    </row>
-    <row r="362" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="L361" s="60"/>
+      <c r="O361"/>
+    </row>
+    <row r="362" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A362" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-    </row>
-    <row r="363" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="L362" s="60"/>
+      <c r="O362"/>
+    </row>
+    <row r="363" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A363" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-    </row>
-    <row r="364" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="L363" s="60"/>
+      <c r="O363"/>
+    </row>
+    <row r="364" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A364" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-    </row>
-    <row r="365" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="L364" s="60"/>
+      <c r="O364"/>
+    </row>
+    <row r="365" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A365" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-    </row>
-    <row r="366" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="L365" s="60"/>
+      <c r="O365"/>
+    </row>
+    <row r="366" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A366" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-    </row>
-    <row r="367" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="L366" s="60"/>
+      <c r="O366"/>
+    </row>
+    <row r="367" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A367" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-    </row>
-    <row r="368" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="L367" s="60"/>
+      <c r="O367"/>
+    </row>
+    <row r="368" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A368" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-    </row>
-    <row r="369" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="L368" s="60"/>
+      <c r="O368"/>
+    </row>
+    <row r="369" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A369" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-    </row>
-    <row r="370" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="L369" s="60"/>
+      <c r="O369"/>
+    </row>
+    <row r="370" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A370" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-    </row>
-    <row r="371" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="L370" s="60"/>
+      <c r="O370"/>
+    </row>
+    <row r="371" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A371" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-    </row>
-    <row r="372" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="L371" s="60"/>
+      <c r="O371"/>
+    </row>
+    <row r="372" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A372" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-    </row>
-    <row r="373" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="L372" s="60"/>
+      <c r="O372"/>
+    </row>
+    <row r="373" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A373" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-    </row>
-    <row r="374" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="L373" s="60"/>
+      <c r="O373"/>
+    </row>
+    <row r="374" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A374" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-    </row>
-    <row r="375" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="L374" s="60"/>
+      <c r="O374"/>
+    </row>
+    <row r="375" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A375" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-    </row>
-    <row r="376" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="L375" s="60"/>
+      <c r="O375"/>
+    </row>
+    <row r="376" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A376" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-    </row>
-    <row r="377" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="L376" s="60"/>
+      <c r="O376"/>
+    </row>
+    <row r="377" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A377" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-    </row>
-    <row r="378" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="L377" s="60"/>
+      <c r="O377"/>
+    </row>
+    <row r="378" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A378" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-    </row>
-    <row r="379" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="L378" s="60"/>
+      <c r="O378"/>
+    </row>
+    <row r="379" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A379" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-    </row>
-    <row r="380" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="L379" s="60"/>
+      <c r="O379"/>
+    </row>
+    <row r="380" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A380" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-    </row>
-    <row r="381" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="L380" s="60"/>
+      <c r="O380"/>
+    </row>
+    <row r="381" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A381" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-    </row>
-    <row r="382" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="L381" s="60"/>
+      <c r="O381"/>
+    </row>
+    <row r="382" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A382" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-    </row>
-    <row r="383" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="L382" s="60"/>
+      <c r="O382"/>
+    </row>
+    <row r="383" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A383" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-    </row>
-    <row r="384" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="L383" s="60"/>
+      <c r="O383"/>
+    </row>
+    <row r="384" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A384" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-    </row>
-    <row r="385" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="L384" s="60"/>
+      <c r="O384"/>
+    </row>
+    <row r="385" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A385" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-    </row>
-    <row r="386" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="L385" s="60"/>
+      <c r="O385"/>
+    </row>
+    <row r="386" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A386" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-    </row>
-    <row r="387" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="L386" s="60"/>
+      <c r="O386"/>
+    </row>
+    <row r="387" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A387" t="str">
         <f t="shared" ref="A387:A450" si="6">I387&amp;B387</f>
         <v/>
       </c>
-    </row>
-    <row r="388" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="L387" s="60"/>
+      <c r="O387"/>
+    </row>
+    <row r="388" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A388" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-    </row>
-    <row r="389" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="L388" s="60"/>
+      <c r="O388"/>
+    </row>
+    <row r="389" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A389" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-    </row>
-    <row r="390" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="L389" s="60"/>
+      <c r="O389"/>
+    </row>
+    <row r="390" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A390" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-    </row>
-    <row r="391" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="L390" s="60"/>
+      <c r="O390"/>
+    </row>
+    <row r="391" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A391" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-    </row>
-    <row r="392" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="L391" s="60"/>
+      <c r="O391"/>
+    </row>
+    <row r="392" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A392" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-    </row>
-    <row r="393" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="L392" s="60"/>
+      <c r="O392"/>
+    </row>
+    <row r="393" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A393" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-    </row>
-    <row r="394" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="L393" s="60"/>
+      <c r="O393"/>
+    </row>
+    <row r="394" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A394" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-    </row>
-    <row r="395" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="L394" s="60"/>
+      <c r="O394"/>
+    </row>
+    <row r="395" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A395" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-    </row>
-    <row r="396" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="L395" s="60"/>
+      <c r="O395"/>
+    </row>
+    <row r="396" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A396" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-    </row>
-    <row r="397" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="L396" s="60"/>
+      <c r="O396"/>
+    </row>
+    <row r="397" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A397" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-    </row>
-    <row r="398" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="L397" s="60"/>
+      <c r="O397"/>
+    </row>
+    <row r="398" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A398" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-    </row>
-    <row r="399" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="L398" s="60"/>
+      <c r="O398"/>
+    </row>
+    <row r="399" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A399" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-    </row>
-    <row r="400" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="L399" s="60"/>
+      <c r="O399"/>
+    </row>
+    <row r="400" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A400" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-    </row>
-    <row r="401" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="L400" s="60"/>
+      <c r="O400"/>
+    </row>
+    <row r="401" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A401" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-    </row>
-    <row r="402" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="L401" s="60"/>
+      <c r="O401"/>
+    </row>
+    <row r="402" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A402" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-    </row>
-    <row r="403" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="L402" s="60"/>
+      <c r="O402"/>
+    </row>
+    <row r="403" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A403" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-    </row>
-    <row r="404" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="L403" s="60"/>
+      <c r="O403"/>
+    </row>
+    <row r="404" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A404" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-    </row>
-    <row r="405" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="L404" s="60"/>
+      <c r="O404"/>
+    </row>
+    <row r="405" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A405" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-    </row>
-    <row r="406" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="L405" s="60"/>
+      <c r="O405"/>
+    </row>
+    <row r="406" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A406" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-    </row>
-    <row r="407" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="L406" s="60"/>
+      <c r="O406"/>
+    </row>
+    <row r="407" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A407" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-    </row>
-    <row r="408" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="L407" s="60"/>
+      <c r="O407"/>
+    </row>
+    <row r="408" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A408" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-    </row>
-    <row r="409" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="L408" s="60"/>
+      <c r="O408"/>
+    </row>
+    <row r="409" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A409" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-    </row>
-    <row r="410" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="L409" s="60"/>
+      <c r="O409"/>
+    </row>
+    <row r="410" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A410" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-    </row>
-    <row r="411" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="L410" s="60"/>
+      <c r="O410"/>
+    </row>
+    <row r="411" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A411" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-    </row>
-    <row r="412" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="L411" s="60"/>
+      <c r="O411"/>
+    </row>
+    <row r="412" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A412" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-    </row>
-    <row r="413" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="L412" s="60"/>
+      <c r="O412"/>
+    </row>
+    <row r="413" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A413" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-    </row>
-    <row r="414" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="L413" s="60"/>
+      <c r="O413"/>
+    </row>
+    <row r="414" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A414" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-    </row>
-    <row r="415" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="L414" s="60"/>
+      <c r="O414"/>
+    </row>
+    <row r="415" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A415" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-    </row>
-    <row r="416" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="L415" s="60"/>
+      <c r="O415"/>
+    </row>
+    <row r="416" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A416" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-    </row>
-    <row r="417" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="L416" s="60"/>
+      <c r="O416"/>
+    </row>
+    <row r="417" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A417" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-    </row>
-    <row r="418" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="L417" s="60"/>
+      <c r="O417"/>
+    </row>
+    <row r="418" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A418" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-    </row>
-    <row r="419" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="L418" s="60"/>
+      <c r="O418"/>
+    </row>
+    <row r="419" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A419" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-    </row>
-    <row r="420" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="L419" s="60"/>
+      <c r="O419"/>
+    </row>
+    <row r="420" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A420" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-    </row>
-    <row r="421" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="L420" s="60"/>
+      <c r="O420"/>
+    </row>
+    <row r="421" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A421" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-    </row>
-    <row r="422" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="L421" s="60"/>
+      <c r="O421"/>
+    </row>
+    <row r="422" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A422" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-    </row>
-    <row r="423" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="L422" s="60"/>
+      <c r="O422"/>
+    </row>
+    <row r="423" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A423" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-    </row>
-    <row r="424" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="L423" s="60"/>
+      <c r="O423"/>
+    </row>
+    <row r="424" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A424" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-    </row>
-    <row r="425" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="L424" s="60"/>
+      <c r="O424"/>
+    </row>
+    <row r="425" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A425" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-    </row>
-    <row r="426" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="L425" s="60"/>
+      <c r="O425"/>
+    </row>
+    <row r="426" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A426" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-    </row>
-    <row r="427" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="L426" s="60"/>
+      <c r="O426"/>
+    </row>
+    <row r="427" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A427" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-    </row>
-    <row r="428" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="L427" s="60"/>
+      <c r="O427"/>
+    </row>
+    <row r="428" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A428" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-    </row>
-    <row r="429" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="L428" s="60"/>
+      <c r="O428"/>
+    </row>
+    <row r="429" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A429" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-    </row>
-    <row r="430" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="L429" s="60"/>
+      <c r="O429"/>
+    </row>
+    <row r="430" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A430" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-    </row>
-    <row r="431" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="L430" s="60"/>
+      <c r="O430"/>
+    </row>
+    <row r="431" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A431" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-    </row>
-    <row r="432" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="L431" s="60"/>
+      <c r="O431"/>
+    </row>
+    <row r="432" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A432" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-    </row>
-    <row r="433" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="L432" s="60"/>
+      <c r="O432"/>
+    </row>
+    <row r="433" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A433" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-    </row>
-    <row r="434" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="L433" s="60"/>
+      <c r="O433"/>
+    </row>
+    <row r="434" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A434" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-    </row>
-    <row r="435" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="L434" s="60"/>
+      <c r="O434"/>
+    </row>
+    <row r="435" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A435" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-    </row>
-    <row r="436" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="L435" s="60"/>
+      <c r="O435"/>
+    </row>
+    <row r="436" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A436" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-    </row>
-    <row r="437" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="L436" s="60"/>
+      <c r="O436"/>
+    </row>
+    <row r="437" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A437" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-    </row>
-    <row r="438" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="L437" s="60"/>
+      <c r="O437"/>
+    </row>
+    <row r="438" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A438" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-    </row>
-    <row r="439" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="L438" s="60"/>
+      <c r="O438"/>
+    </row>
+    <row r="439" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A439" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-    </row>
-    <row r="440" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="L439" s="60"/>
+      <c r="O439"/>
+    </row>
+    <row r="440" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A440" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-    </row>
-    <row r="441" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="L440" s="60"/>
+      <c r="O440"/>
+    </row>
+    <row r="441" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A441" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-    </row>
-    <row r="442" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="L441" s="60"/>
+      <c r="O441"/>
+    </row>
+    <row r="442" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A442" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-    </row>
-    <row r="443" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="L442" s="60"/>
+      <c r="O442"/>
+    </row>
+    <row r="443" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A443" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-    </row>
-    <row r="444" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="L443" s="60"/>
+      <c r="O443"/>
+    </row>
+    <row r="444" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A444" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-    </row>
-    <row r="445" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="L444" s="60"/>
+      <c r="O444"/>
+    </row>
+    <row r="445" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A445" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-    </row>
-    <row r="446" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="L445" s="60"/>
+      <c r="O445"/>
+    </row>
+    <row r="446" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A446" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-    </row>
-    <row r="447" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="L446" s="60"/>
+      <c r="O446"/>
+    </row>
+    <row r="447" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A447" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-    </row>
-    <row r="448" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="L447" s="60"/>
+      <c r="O447"/>
+    </row>
+    <row r="448" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A448" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-    </row>
-    <row r="449" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="L448" s="60"/>
+      <c r="O448"/>
+    </row>
+    <row r="449" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A449" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-    </row>
-    <row r="450" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="L449" s="60"/>
+      <c r="O449"/>
+    </row>
+    <row r="450" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A450" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-    </row>
-    <row r="451" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="L450" s="60"/>
+      <c r="O450"/>
+    </row>
+    <row r="451" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A451" t="str">
         <f t="shared" ref="A451:A514" si="7">I451&amp;B451</f>
         <v/>
       </c>
-    </row>
-    <row r="452" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="L451" s="60"/>
+      <c r="O451"/>
+    </row>
+    <row r="452" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A452" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-    </row>
-    <row r="453" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="L452" s="60"/>
+      <c r="O452"/>
+    </row>
+    <row r="453" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A453" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-    </row>
-    <row r="454" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="L453" s="60"/>
+      <c r="O453"/>
+    </row>
+    <row r="454" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A454" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-    </row>
-    <row r="455" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="L454" s="60"/>
+      <c r="O454"/>
+    </row>
+    <row r="455" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A455" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-    </row>
-    <row r="456" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="L455" s="60"/>
+      <c r="O455"/>
+    </row>
+    <row r="456" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A456" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-    </row>
-    <row r="457" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="L456" s="60"/>
+      <c r="O456"/>
+    </row>
+    <row r="457" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A457" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-    </row>
-    <row r="458" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="L457" s="60"/>
+      <c r="O457"/>
+    </row>
+    <row r="458" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A458" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-    </row>
-    <row r="459" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="L458" s="60"/>
+      <c r="O458"/>
+    </row>
+    <row r="459" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A459" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-    </row>
-    <row r="460" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="L459" s="60"/>
+      <c r="O459"/>
+    </row>
+    <row r="460" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A460" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-    </row>
-    <row r="461" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="L460" s="60"/>
+      <c r="O460"/>
+    </row>
+    <row r="461" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A461" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-    </row>
-    <row r="462" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="L461" s="60"/>
+      <c r="O461"/>
+    </row>
+    <row r="462" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A462" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-    </row>
-    <row r="463" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="L462" s="60"/>
+      <c r="O462"/>
+    </row>
+    <row r="463" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A463" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-    </row>
-    <row r="464" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="L463" s="60"/>
+      <c r="O463"/>
+    </row>
+    <row r="464" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A464" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -16680,6 +17274,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:S1022"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/reference_files/Table1-HSMR.xlsx
+++ b/reference_files/Table1-HSMR.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="4350" windowWidth="15600" windowHeight="4395" tabRatio="837" activeTab="2"/>
+    <workbookView xWindow="-15" yWindow="4350" windowWidth="15600" windowHeight="4395" tabRatio="837"/>
   </bookViews>
   <sheets>
     <sheet name="Table 1" sheetId="49" r:id="rId1"/>
@@ -408,7 +408,7 @@
     <numFmt numFmtId="164" formatCode="#.00"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="28" x14ac:knownFonts="1">
+  <fonts count="27" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -576,12 +576,6 @@
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -646,7 +640,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -735,29 +729,26 @@
     <xf numFmtId="4" fontId="23" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="1" fontId="17" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="17" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="17" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="14" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="4" fontId="19" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="18" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="18" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="1" fontId="17" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="14" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="2" fontId="19" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="18" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3661,7 +3652,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp1.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Drop" dropStyle="combo" dx="16" fmlaLink="$A$5" fmlaRange="period_lookup!$A$1:$A$9" noThreeD="1" sel="1" val="0"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Drop" dropStyle="combo" dx="16" fmlaLink="$A$5" fmlaRange="period_lookup!$A$1:$A$9" noThreeD="1" sel="3" val="0"/>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4517,7 +4508,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:AA84"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -4531,19 +4522,19 @@
     <row r="1" spans="1:27" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="47"/>
       <c r="B1" s="8"/>
-      <c r="C1" s="59" t="s">
+      <c r="C1" s="60" t="s">
         <v>73</v>
       </c>
-      <c r="D1" s="59"/>
-      <c r="E1" s="59"/>
-      <c r="F1" s="59"/>
-      <c r="G1" s="59"/>
-      <c r="H1" s="59"/>
-      <c r="I1" s="59"/>
-      <c r="J1" s="59"/>
-      <c r="K1" s="59"/>
-      <c r="L1" s="59"/>
-      <c r="M1" s="59"/>
+      <c r="D1" s="60"/>
+      <c r="E1" s="60"/>
+      <c r="F1" s="60"/>
+      <c r="G1" s="60"/>
+      <c r="H1" s="60"/>
+      <c r="I1" s="60"/>
+      <c r="J1" s="60"/>
+      <c r="K1" s="60"/>
+      <c r="L1" s="60"/>
+      <c r="M1" s="60"/>
     </row>
     <row r="2" spans="1:27" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="47"/>
@@ -4611,7 +4602,7 @@
     </row>
     <row r="5" spans="1:27" s="16" customFormat="1" ht="5.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="48">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B5" s="15"/>
     </row>
@@ -6244,9 +6235,7 @@
   </sheetPr>
   <dimension ref="A1:AK121"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
-    </sheetView>
+    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.28515625" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
@@ -6263,19 +6252,19 @@
   <sheetData>
     <row r="1" spans="1:36" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="8"/>
-      <c r="B1" s="59" t="s">
+      <c r="B1" s="60" t="s">
         <v>73</v>
       </c>
-      <c r="C1" s="59"/>
-      <c r="D1" s="59"/>
-      <c r="E1" s="59"/>
-      <c r="F1" s="59"/>
-      <c r="G1" s="59"/>
-      <c r="H1" s="59"/>
-      <c r="I1" s="59"/>
-      <c r="J1" s="59"/>
-      <c r="K1" s="59"/>
-      <c r="L1" s="59"/>
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
+      <c r="E1" s="60"/>
+      <c r="F1" s="60"/>
+      <c r="G1" s="60"/>
+      <c r="H1" s="60"/>
+      <c r="I1" s="60"/>
+      <c r="J1" s="60"/>
+      <c r="K1" s="60"/>
+      <c r="L1" s="60"/>
     </row>
     <row r="2" spans="1:36" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8"/>
@@ -8591,1334 +8580,1334 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="80" spans="1:12" s="18" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A80" s="18">
+    <row r="80" spans="1:12" s="15" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A80" s="15">
         <v>32</v>
       </c>
-      <c r="B80" s="61" t="e">
+      <c r="B80" s="45" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
-      <c r="C80" s="62" t="e">
+      <c r="C80" s="52" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
-      <c r="D80" s="63" t="e">
+      <c r="D80" s="53" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
-      <c r="E80" s="63" t="e">
+      <c r="E80" s="53" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
-      <c r="F80" s="63" t="e">
+      <c r="F80" s="53" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
-      <c r="G80" s="63" t="e">
+      <c r="G80" s="53" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
-      <c r="H80" s="63" t="e">
+      <c r="H80" s="53" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
-      <c r="I80" s="63" t="e">
+      <c r="I80" s="53" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
-      <c r="J80" s="18" t="e">
+      <c r="J80" s="15" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
-      <c r="K80" s="18" t="e">
+      <c r="K80" s="15" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
-      <c r="L80" s="18" t="e">
+      <c r="L80" s="15" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="81" spans="1:23" s="18" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B81" s="61"/>
-      <c r="C81" s="64"/>
-      <c r="D81" s="64"/>
-      <c r="E81" s="64"/>
-      <c r="F81" s="64"/>
-      <c r="G81" s="64"/>
-      <c r="H81" s="64"/>
-      <c r="I81" s="64"/>
-    </row>
-    <row r="82" spans="1:23" s="18" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B82" s="18">
+    <row r="81" spans="1:23" s="15" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B81" s="45"/>
+      <c r="C81" s="61"/>
+      <c r="D81" s="61"/>
+      <c r="E81" s="61"/>
+      <c r="F81" s="61"/>
+      <c r="G81" s="61"/>
+      <c r="H81" s="61"/>
+      <c r="I81" s="61"/>
+    </row>
+    <row r="82" spans="1:23" s="15" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B82" s="15">
         <v>1</v>
       </c>
-      <c r="C82" s="65">
+      <c r="C82" s="62">
         <v>4</v>
       </c>
-      <c r="D82" s="65">
+      <c r="D82" s="62">
         <v>10</v>
       </c>
-      <c r="E82" s="65">
+      <c r="E82" s="62">
         <v>6</v>
       </c>
-      <c r="F82" s="65">
+      <c r="F82" s="62">
+        <v>19</v>
+      </c>
+      <c r="G82" s="62">
+        <v>21</v>
+      </c>
+      <c r="H82" s="62">
         <v>18</v>
       </c>
-      <c r="G82" s="65">
+      <c r="I82" s="63">
         <v>20</v>
       </c>
-      <c r="H82" s="65">
+      <c r="Q82" s="50"/>
+      <c r="R82" s="50"/>
+      <c r="S82" s="50"/>
+      <c r="T82" s="50"/>
+      <c r="U82" s="50"/>
+      <c r="V82" s="50"/>
+      <c r="W82" s="64"/>
+    </row>
+    <row r="83" spans="1:23" s="15" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B83" s="45" t="s">
+        <v>60</v>
+      </c>
+      <c r="C83" s="51" t="s">
+        <v>54</v>
+      </c>
+      <c r="D83" s="51" t="s">
+        <v>59</v>
+      </c>
+      <c r="E83" s="51" t="s">
+        <v>53</v>
+      </c>
+      <c r="F83" s="51" t="s">
+        <v>55</v>
+      </c>
+      <c r="G83" s="51" t="s">
+        <v>56</v>
+      </c>
+      <c r="H83" s="51" t="s">
+        <v>57</v>
+      </c>
+      <c r="I83" s="51" t="s">
+        <v>58</v>
+      </c>
+      <c r="P83" s="45"/>
+      <c r="Q83" s="51"/>
+      <c r="R83" s="51"/>
+      <c r="S83" s="51"/>
+      <c r="T83" s="51"/>
+      <c r="U83" s="51"/>
+      <c r="V83" s="51"/>
+      <c r="W83" s="51"/>
+    </row>
+    <row r="84" spans="1:23" s="15" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A84" s="15" t="e">
+        <f t="shared" ref="A84:A115" si="7">RANK(C84,$C$84:$C$115,1)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="B84" s="45" t="s">
+        <v>18</v>
+      </c>
+      <c r="C84" s="65" t="e">
+        <f>VLOOKUP($B84&amp;"3",funnel_data!$A:$X,C$82,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D84" s="65">
+        <v>1</v>
+      </c>
+      <c r="E84" s="65" t="e">
+        <f>VLOOKUP($B84&amp;"3",funnel_data!$A:$X,E$82,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F84" s="65" t="e">
+        <f>VLOOKUP($B84&amp;"3",funnel_data!$A:$X,F$82,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G84" s="65" t="e">
+        <f>VLOOKUP($B84&amp;"3",funnel_data!$A:$X,G$82,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H84" s="65" t="e">
+        <f>VLOOKUP($B84&amp;"3",funnel_data!$A:$X,H$82,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I84" s="65" t="e">
+        <f>VLOOKUP($B84&amp;"3",funnel_data!$A:$X,I$82,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="M84" s="66"/>
+      <c r="N84" s="66"/>
+    </row>
+    <row r="85" spans="1:23" s="15" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A85" s="15" t="e">
+        <f t="shared" si="7"/>
+        <v>#N/A</v>
+      </c>
+      <c r="B85" s="45" t="s">
+        <v>112</v>
+      </c>
+      <c r="C85" s="65" t="e">
+        <f>VLOOKUP($B85&amp;"3",funnel_data!$A:$X,C$82,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D85" s="65">
+        <v>1</v>
+      </c>
+      <c r="E85" s="65" t="e">
+        <f>VLOOKUP($B85&amp;"3",funnel_data!$A:$X,E$82,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F85" s="65" t="e">
+        <f>VLOOKUP($B85&amp;"3",funnel_data!$A:$X,F$82,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G85" s="65" t="e">
+        <f>VLOOKUP($B85&amp;"3",funnel_data!$A:$X,G$82,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H85" s="65" t="e">
+        <f>VLOOKUP($B85&amp;"3",funnel_data!$A:$X,H$82,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I85" s="65" t="e">
+        <f>VLOOKUP($B85&amp;"3",funnel_data!$A:$X,I$82,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="M85" s="66"/>
+      <c r="N85" s="66"/>
+    </row>
+    <row r="86" spans="1:23" s="15" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A86" s="15" t="e">
+        <f t="shared" si="7"/>
+        <v>#N/A</v>
+      </c>
+      <c r="B86" s="45" t="s">
+        <v>20</v>
+      </c>
+      <c r="C86" s="65" t="e">
+        <f>VLOOKUP($B86&amp;"3",funnel_data!$A:$X,C$82,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D86" s="65">
+        <v>1</v>
+      </c>
+      <c r="E86" s="65" t="e">
+        <f>VLOOKUP($B86&amp;"3",funnel_data!$A:$X,E$82,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F86" s="65" t="e">
+        <f>VLOOKUP($B86&amp;"3",funnel_data!$A:$X,F$82,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G86" s="65" t="e">
+        <f>VLOOKUP($B86&amp;"3",funnel_data!$A:$X,G$82,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H86" s="65" t="e">
+        <f>VLOOKUP($B86&amp;"3",funnel_data!$A:$X,H$82,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I86" s="65" t="e">
+        <f>VLOOKUP($B86&amp;"3",funnel_data!$A:$X,I$82,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="M86" s="66"/>
+      <c r="N86" s="66"/>
+    </row>
+    <row r="87" spans="1:23" s="15" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A87" s="15" t="e">
+        <f t="shared" si="7"/>
+        <v>#N/A</v>
+      </c>
+      <c r="B87" s="45" t="s">
+        <v>14</v>
+      </c>
+      <c r="C87" s="65" t="e">
+        <f>VLOOKUP($B87&amp;"3",funnel_data!$A:$X,C$82,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D87" s="65">
+        <v>1</v>
+      </c>
+      <c r="E87" s="65" t="e">
+        <f>VLOOKUP($B87&amp;"3",funnel_data!$A:$X,E$82,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F87" s="65" t="e">
+        <f>VLOOKUP($B87&amp;"3",funnel_data!$A:$X,F$82,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G87" s="65" t="e">
+        <f>VLOOKUP($B87&amp;"3",funnel_data!$A:$X,G$82,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H87" s="65" t="e">
+        <f>VLOOKUP($B87&amp;"3",funnel_data!$A:$X,H$82,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I87" s="65" t="e">
+        <f>VLOOKUP($B87&amp;"3",funnel_data!$A:$X,I$82,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="M87" s="66"/>
+      <c r="N87" s="66"/>
+    </row>
+    <row r="88" spans="1:23" s="15" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A88" s="15" t="e">
+        <f t="shared" si="7"/>
+        <v>#N/A</v>
+      </c>
+      <c r="B88" s="45" t="s">
+        <v>4</v>
+      </c>
+      <c r="C88" s="65" t="e">
+        <f>VLOOKUP($B88&amp;"3",funnel_data!$A:$X,C$82,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D88" s="65">
+        <v>1</v>
+      </c>
+      <c r="E88" s="65" t="e">
+        <f>VLOOKUP($B88&amp;"3",funnel_data!$A:$X,E$82,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F88" s="65" t="e">
+        <f>VLOOKUP($B88&amp;"3",funnel_data!$A:$X,F$82,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G88" s="65" t="e">
+        <f>VLOOKUP($B88&amp;"3",funnel_data!$A:$X,G$82,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H88" s="65" t="e">
+        <f>VLOOKUP($B88&amp;"3",funnel_data!$A:$X,H$82,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I88" s="65" t="e">
+        <f>VLOOKUP($B88&amp;"3",funnel_data!$A:$X,I$82,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="M88" s="66"/>
+      <c r="N88" s="66"/>
+    </row>
+    <row r="89" spans="1:23" s="15" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A89" s="15" t="e">
+        <f t="shared" si="7"/>
+        <v>#N/A</v>
+      </c>
+      <c r="B89" s="45" t="s">
+        <v>12</v>
+      </c>
+      <c r="C89" s="65" t="e">
+        <f>VLOOKUP($B89&amp;"3",funnel_data!$A:$X,C$82,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D89" s="65">
+        <v>1</v>
+      </c>
+      <c r="E89" s="65" t="e">
+        <f>VLOOKUP($B89&amp;"3",funnel_data!$A:$X,E$82,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F89" s="65" t="e">
+        <f>VLOOKUP($B89&amp;"3",funnel_data!$A:$X,F$82,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G89" s="65" t="e">
+        <f>VLOOKUP($B89&amp;"3",funnel_data!$A:$X,G$82,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H89" s="65" t="e">
+        <f>VLOOKUP($B89&amp;"3",funnel_data!$A:$X,H$82,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I89" s="65" t="e">
+        <f>VLOOKUP($B89&amp;"3",funnel_data!$A:$X,I$82,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="M89" s="66"/>
+      <c r="N89" s="66"/>
+    </row>
+    <row r="90" spans="1:23" s="15" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A90" s="15" t="e">
+        <f t="shared" si="7"/>
+        <v>#N/A</v>
+      </c>
+      <c r="B90" s="45" t="s">
+        <v>19</v>
+      </c>
+      <c r="C90" s="65" t="e">
+        <f>VLOOKUP($B90&amp;"3",funnel_data!$A:$X,C$82,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D90" s="65">
+        <v>1</v>
+      </c>
+      <c r="E90" s="65" t="e">
+        <f>VLOOKUP($B90&amp;"3",funnel_data!$A:$X,E$82,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F90" s="65" t="e">
+        <f>VLOOKUP($B90&amp;"3",funnel_data!$A:$X,F$82,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G90" s="65" t="e">
+        <f>VLOOKUP($B90&amp;"3",funnel_data!$A:$X,G$82,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H90" s="65" t="e">
+        <f>VLOOKUP($B90&amp;"3",funnel_data!$A:$X,H$82,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I90" s="65" t="e">
+        <f>VLOOKUP($B90&amp;"3",funnel_data!$A:$X,I$82,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="M90" s="66"/>
+      <c r="N90" s="66"/>
+    </row>
+    <row r="91" spans="1:23" s="15" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A91" s="15" t="e">
+        <f t="shared" si="7"/>
+        <v>#N/A</v>
+      </c>
+      <c r="B91" s="45" t="s">
+        <v>71</v>
+      </c>
+      <c r="C91" s="65" t="e">
+        <f>VLOOKUP($B91&amp;"3",funnel_data!$A:$X,C$82,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D91" s="65">
+        <v>1</v>
+      </c>
+      <c r="E91" s="65" t="e">
+        <f>VLOOKUP($B91&amp;"3",funnel_data!$A:$X,E$82,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F91" s="65" t="e">
+        <f>VLOOKUP($B91&amp;"3",funnel_data!$A:$X,F$82,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G91" s="65" t="e">
+        <f>VLOOKUP($B91&amp;"3",funnel_data!$A:$X,G$82,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H91" s="65" t="e">
+        <f>VLOOKUP($B91&amp;"3",funnel_data!$A:$X,H$82,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I91" s="65" t="e">
+        <f>VLOOKUP($B91&amp;"3",funnel_data!$A:$X,I$82,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="M91" s="66"/>
+      <c r="N91" s="66"/>
+    </row>
+    <row r="92" spans="1:23" s="15" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A92" s="15" t="e">
+        <f t="shared" si="7"/>
+        <v>#N/A</v>
+      </c>
+      <c r="B92" s="45" t="s">
+        <v>0</v>
+      </c>
+      <c r="C92" s="65" t="e">
+        <f>VLOOKUP($B92&amp;"3",funnel_data!$A:$X,C$82,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D92" s="65">
+        <v>1</v>
+      </c>
+      <c r="E92" s="65" t="e">
+        <f>VLOOKUP($B92&amp;"3",funnel_data!$A:$X,E$82,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F92" s="65" t="e">
+        <f>VLOOKUP($B92&amp;"3",funnel_data!$A:$X,F$82,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G92" s="65" t="e">
+        <f>VLOOKUP($B92&amp;"3",funnel_data!$A:$X,G$82,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H92" s="65" t="e">
+        <f>VLOOKUP($B92&amp;"3",funnel_data!$A:$X,H$82,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I92" s="65" t="e">
+        <f>VLOOKUP($B92&amp;"3",funnel_data!$A:$X,I$82,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="M92" s="66"/>
+      <c r="N92" s="66"/>
+    </row>
+    <row r="93" spans="1:23" s="15" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A93" s="15" t="e">
+        <f t="shared" si="7"/>
+        <v>#N/A</v>
+      </c>
+      <c r="B93" s="45" t="s">
+        <v>113</v>
+      </c>
+      <c r="C93" s="65" t="e">
+        <f>VLOOKUP($B93&amp;"3",funnel_data!$A:$X,C$82,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D93" s="65">
+        <v>1</v>
+      </c>
+      <c r="E93" s="65" t="e">
+        <f>VLOOKUP($B93&amp;"3",funnel_data!$A:$X,E$82,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F93" s="65" t="e">
+        <f>VLOOKUP($B93&amp;"3",funnel_data!$A:$X,F$82,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G93" s="65" t="e">
+        <f>VLOOKUP($B93&amp;"3",funnel_data!$A:$X,G$82,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H93" s="65" t="e">
+        <f>VLOOKUP($B93&amp;"3",funnel_data!$A:$X,H$82,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I93" s="65" t="e">
+        <f>VLOOKUP($B93&amp;"3",funnel_data!$A:$X,I$82,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="M93" s="66"/>
+      <c r="N93" s="66"/>
+    </row>
+    <row r="94" spans="1:23" s="15" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A94" s="15" t="e">
+        <f t="shared" si="7"/>
+        <v>#N/A</v>
+      </c>
+      <c r="B94" s="45" t="s">
+        <v>29</v>
+      </c>
+      <c r="C94" s="65" t="e">
+        <f>VLOOKUP($B94&amp;"3",funnel_data!$A:$X,C$82,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D94" s="65">
+        <v>1</v>
+      </c>
+      <c r="E94" s="65" t="e">
+        <f>VLOOKUP($B94&amp;"3",funnel_data!$A:$X,E$82,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F94" s="65" t="e">
+        <f>VLOOKUP($B94&amp;"3",funnel_data!$A:$X,F$82,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G94" s="65" t="e">
+        <f>VLOOKUP($B94&amp;"3",funnel_data!$A:$X,G$82,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H94" s="65" t="e">
+        <f>VLOOKUP($B94&amp;"3",funnel_data!$A:$X,H$82,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I94" s="65" t="e">
+        <f>VLOOKUP($B94&amp;"3",funnel_data!$A:$X,I$82,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="M94" s="66"/>
+      <c r="N94" s="66"/>
+    </row>
+    <row r="95" spans="1:23" s="15" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A95" s="15" t="e">
+        <f t="shared" si="7"/>
+        <v>#N/A</v>
+      </c>
+      <c r="B95" s="45" t="s">
+        <v>10</v>
+      </c>
+      <c r="C95" s="65" t="e">
+        <f>VLOOKUP($B95&amp;"3",funnel_data!$A:$X,C$82,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D95" s="65">
+        <v>1</v>
+      </c>
+      <c r="E95" s="65" t="e">
+        <f>VLOOKUP($B95&amp;"3",funnel_data!$A:$X,E$82,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F95" s="65" t="e">
+        <f>VLOOKUP($B95&amp;"3",funnel_data!$A:$X,F$82,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G95" s="65" t="e">
+        <f>VLOOKUP($B95&amp;"3",funnel_data!$A:$X,G$82,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H95" s="65" t="e">
+        <f>VLOOKUP($B95&amp;"3",funnel_data!$A:$X,H$82,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I95" s="65" t="e">
+        <f>VLOOKUP($B95&amp;"3",funnel_data!$A:$X,I$82,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="M95" s="66"/>
+      <c r="N95" s="66"/>
+    </row>
+    <row r="96" spans="1:23" s="15" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A96" s="15" t="e">
+        <f t="shared" si="7"/>
+        <v>#N/A</v>
+      </c>
+      <c r="B96" s="45" t="s">
+        <v>8</v>
+      </c>
+      <c r="C96" s="65" t="e">
+        <f>VLOOKUP($B96&amp;"3",funnel_data!$A:$X,C$82,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D96" s="65">
+        <v>1</v>
+      </c>
+      <c r="E96" s="65" t="e">
+        <f>VLOOKUP($B96&amp;"3",funnel_data!$A:$X,E$82,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F96" s="65" t="e">
+        <f>VLOOKUP($B96&amp;"3",funnel_data!$A:$X,F$82,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G96" s="65" t="e">
+        <f>VLOOKUP($B96&amp;"3",funnel_data!$A:$X,G$82,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H96" s="65" t="e">
+        <f>VLOOKUP($B96&amp;"3",funnel_data!$A:$X,H$82,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I96" s="65" t="e">
+        <f>VLOOKUP($B96&amp;"3",funnel_data!$A:$X,I$82,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="M96" s="66"/>
+      <c r="N96" s="66"/>
+    </row>
+    <row r="97" spans="1:14" s="15" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A97" s="15" t="e">
+        <f t="shared" si="7"/>
+        <v>#N/A</v>
+      </c>
+      <c r="B97" s="45" t="s">
+        <v>6</v>
+      </c>
+      <c r="C97" s="65" t="e">
+        <f>VLOOKUP($B97&amp;"3",funnel_data!$A:$X,C$82,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D97" s="65">
+        <v>1</v>
+      </c>
+      <c r="E97" s="65" t="e">
+        <f>VLOOKUP($B97&amp;"3",funnel_data!$A:$X,E$82,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F97" s="65" t="e">
+        <f>VLOOKUP($B97&amp;"3",funnel_data!$A:$X,F$82,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G97" s="65" t="e">
+        <f>VLOOKUP($B97&amp;"3",funnel_data!$A:$X,G$82,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H97" s="65" t="e">
+        <f>VLOOKUP($B97&amp;"3",funnel_data!$A:$X,H$82,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I97" s="65" t="e">
+        <f>VLOOKUP($B97&amp;"3",funnel_data!$A:$X,I$82,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="M97" s="66"/>
+      <c r="N97" s="66"/>
+    </row>
+    <row r="98" spans="1:14" s="15" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A98" s="15" t="e">
+        <f t="shared" si="7"/>
+        <v>#N/A</v>
+      </c>
+      <c r="B98" s="45" t="s">
+        <v>5</v>
+      </c>
+      <c r="C98" s="65" t="e">
+        <f>VLOOKUP($B98&amp;"3",funnel_data!$A:$X,C$82,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D98" s="65">
+        <v>1</v>
+      </c>
+      <c r="E98" s="65" t="e">
+        <f>VLOOKUP($B98&amp;"3",funnel_data!$A:$X,E$82,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F98" s="65" t="e">
+        <f>VLOOKUP($B98&amp;"3",funnel_data!$A:$X,F$82,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G98" s="65" t="e">
+        <f>VLOOKUP($B98&amp;"3",funnel_data!$A:$X,G$82,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H98" s="65" t="e">
+        <f>VLOOKUP($B98&amp;"3",funnel_data!$A:$X,H$82,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I98" s="65" t="e">
+        <f>VLOOKUP($B98&amp;"3",funnel_data!$A:$X,I$82,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="M98" s="66"/>
+      <c r="N98" s="66"/>
+    </row>
+    <row r="99" spans="1:14" s="15" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A99" s="15" t="e">
+        <f t="shared" si="7"/>
+        <v>#N/A</v>
+      </c>
+      <c r="B99" s="45" t="s">
+        <v>25</v>
+      </c>
+      <c r="C99" s="65" t="e">
+        <f>VLOOKUP($B99&amp;"3",funnel_data!$A:$X,C$82,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D99" s="65">
+        <v>1</v>
+      </c>
+      <c r="E99" s="65" t="e">
+        <f>VLOOKUP($B99&amp;"3",funnel_data!$A:$X,E$82,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F99" s="65" t="e">
+        <f>VLOOKUP($B99&amp;"3",funnel_data!$A:$X,F$82,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G99" s="65" t="e">
+        <f>VLOOKUP($B99&amp;"3",funnel_data!$A:$X,G$82,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H99" s="65" t="e">
+        <f>VLOOKUP($B99&amp;"3",funnel_data!$A:$X,H$82,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I99" s="65" t="e">
+        <f>VLOOKUP($B99&amp;"3",funnel_data!$A:$X,I$82,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="M99" s="66"/>
+      <c r="N99" s="66"/>
+    </row>
+    <row r="100" spans="1:14" s="15" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A100" s="15" t="e">
+        <f t="shared" si="7"/>
+        <v>#N/A</v>
+      </c>
+      <c r="B100" s="45" t="s">
+        <v>26</v>
+      </c>
+      <c r="C100" s="65" t="e">
+        <f>VLOOKUP($B100&amp;"3",funnel_data!$A:$X,C$82,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D100" s="65">
+        <v>1</v>
+      </c>
+      <c r="E100" s="65" t="e">
+        <f>VLOOKUP($B100&amp;"3",funnel_data!$A:$X,E$82,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F100" s="65" t="e">
+        <f>VLOOKUP($B100&amp;"3",funnel_data!$A:$X,F$82,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G100" s="65" t="e">
+        <f>VLOOKUP($B100&amp;"3",funnel_data!$A:$X,G$82,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H100" s="65" t="e">
+        <f>VLOOKUP($B100&amp;"3",funnel_data!$A:$X,H$82,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I100" s="65" t="e">
+        <f>VLOOKUP($B100&amp;"3",funnel_data!$A:$X,I$82,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="M100" s="66"/>
+      <c r="N100" s="66"/>
+    </row>
+    <row r="101" spans="1:14" s="15" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A101" s="15" t="e">
+        <f t="shared" si="7"/>
+        <v>#N/A</v>
+      </c>
+      <c r="B101" s="45" t="s">
+        <v>11</v>
+      </c>
+      <c r="C101" s="65" t="e">
+        <f>VLOOKUP($B101&amp;"3",funnel_data!$A:$X,C$82,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D101" s="65">
+        <v>1</v>
+      </c>
+      <c r="E101" s="65" t="e">
+        <f>VLOOKUP($B101&amp;"3",funnel_data!$A:$X,E$82,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F101" s="65" t="e">
+        <f>VLOOKUP($B101&amp;"3",funnel_data!$A:$X,F$82,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G101" s="65" t="e">
+        <f>VLOOKUP($B101&amp;"3",funnel_data!$A:$X,G$82,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H101" s="65" t="e">
+        <f>VLOOKUP($B101&amp;"3",funnel_data!$A:$X,H$82,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I101" s="65" t="e">
+        <f>VLOOKUP($B101&amp;"3",funnel_data!$A:$X,I$82,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="M101" s="66"/>
+      <c r="N101" s="66"/>
+    </row>
+    <row r="102" spans="1:14" s="15" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A102" s="15" t="e">
+        <f t="shared" si="7"/>
+        <v>#N/A</v>
+      </c>
+      <c r="B102" s="45" t="s">
+        <v>119</v>
+      </c>
+      <c r="C102" s="65" t="e">
+        <f>VLOOKUP($B102&amp;"3",funnel_data!$A:$X,C$82,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D102" s="65">
+        <v>1</v>
+      </c>
+      <c r="E102" s="65" t="e">
+        <f>VLOOKUP($B102&amp;"3",funnel_data!$A:$X,E$82,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F102" s="65" t="e">
+        <f>VLOOKUP($B102&amp;"3",funnel_data!$A:$X,F$82,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G102" s="65" t="e">
+        <f>VLOOKUP($B102&amp;"3",funnel_data!$A:$X,G$82,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H102" s="65" t="e">
+        <f>VLOOKUP($B102&amp;"3",funnel_data!$A:$X,H$82,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I102" s="65" t="e">
+        <f>VLOOKUP($B102&amp;"3",funnel_data!$A:$X,I$82,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="M102" s="66"/>
+      <c r="N102" s="66"/>
+    </row>
+    <row r="103" spans="1:14" s="15" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A103" s="15" t="e">
+        <f t="shared" si="7"/>
+        <v>#N/A</v>
+      </c>
+      <c r="B103" s="45" t="s">
+        <v>13</v>
+      </c>
+      <c r="C103" s="65" t="e">
+        <f>VLOOKUP($B103&amp;"3",funnel_data!$A:$X,C$82,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D103" s="65">
+        <v>1</v>
+      </c>
+      <c r="E103" s="65" t="e">
+        <f>VLOOKUP($B103&amp;"3",funnel_data!$A:$X,E$82,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F103" s="65" t="e">
+        <f>VLOOKUP($B103&amp;"3",funnel_data!$A:$X,F$82,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G103" s="65" t="e">
+        <f>VLOOKUP($B103&amp;"3",funnel_data!$A:$X,G$82,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H103" s="65" t="e">
+        <f>VLOOKUP($B103&amp;"3",funnel_data!$A:$X,H$82,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I103" s="65" t="e">
+        <f>VLOOKUP($B103&amp;"3",funnel_data!$A:$X,I$82,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="M103" s="66"/>
+      <c r="N103" s="66"/>
+    </row>
+    <row r="104" spans="1:14" s="15" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A104" s="15" t="e">
+        <f t="shared" si="7"/>
+        <v>#N/A</v>
+      </c>
+      <c r="B104" s="45" t="s">
+        <v>7</v>
+      </c>
+      <c r="C104" s="65" t="e">
+        <f>VLOOKUP($B104&amp;"3",funnel_data!$A:$X,C$82,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D104" s="65">
+        <v>1</v>
+      </c>
+      <c r="E104" s="65" t="e">
+        <f>VLOOKUP($B104&amp;"3",funnel_data!$A:$X,E$82,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F104" s="65" t="e">
+        <f>VLOOKUP($B104&amp;"3",funnel_data!$A:$X,F$82,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G104" s="65" t="e">
+        <f>VLOOKUP($B104&amp;"3",funnel_data!$A:$X,G$82,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H104" s="65" t="e">
+        <f>VLOOKUP($B104&amp;"3",funnel_data!$A:$X,H$82,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I104" s="65" t="e">
+        <f>VLOOKUP($B104&amp;"3",funnel_data!$A:$X,I$82,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="M104" s="66"/>
+      <c r="N104" s="66"/>
+    </row>
+    <row r="105" spans="1:14" s="15" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A105" s="15" t="e">
+        <f t="shared" si="7"/>
+        <v>#N/A</v>
+      </c>
+      <c r="B105" s="45" t="s">
+        <v>23</v>
+      </c>
+      <c r="C105" s="65" t="e">
+        <f>VLOOKUP($B105&amp;"3",funnel_data!$A:$X,C$82,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D105" s="65">
+        <v>1</v>
+      </c>
+      <c r="E105" s="65" t="e">
+        <f>VLOOKUP($B105&amp;"3",funnel_data!$A:$X,E$82,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F105" s="65" t="e">
+        <f>VLOOKUP($B105&amp;"3",funnel_data!$A:$X,F$82,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G105" s="65" t="e">
+        <f>VLOOKUP($B105&amp;"3",funnel_data!$A:$X,G$82,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H105" s="65" t="e">
+        <f>VLOOKUP($B105&amp;"3",funnel_data!$A:$X,H$82,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I105" s="65" t="e">
+        <f>VLOOKUP($B105&amp;"3",funnel_data!$A:$X,I$82,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="M105" s="66"/>
+      <c r="N105" s="66"/>
+    </row>
+    <row r="106" spans="1:14" s="15" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A106" s="15" t="e">
+        <f t="shared" si="7"/>
+        <v>#N/A</v>
+      </c>
+      <c r="B106" s="45" t="s">
+        <v>22</v>
+      </c>
+      <c r="C106" s="65" t="e">
+        <f>VLOOKUP($B106&amp;"3",funnel_data!$A:$X,C$82,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D106" s="65">
+        <v>1</v>
+      </c>
+      <c r="E106" s="65" t="e">
+        <f>VLOOKUP($B106&amp;"3",funnel_data!$A:$X,E$82,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F106" s="65" t="e">
+        <f>VLOOKUP($B106&amp;"3",funnel_data!$A:$X,F$82,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G106" s="65" t="e">
+        <f>VLOOKUP($B106&amp;"3",funnel_data!$A:$X,G$82,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H106" s="65" t="e">
+        <f>VLOOKUP($B106&amp;"3",funnel_data!$A:$X,H$82,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I106" s="65" t="e">
+        <f>VLOOKUP($B106&amp;"3",funnel_data!$A:$X,I$82,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="M106" s="66"/>
+      <c r="N106" s="66"/>
+    </row>
+    <row r="107" spans="1:14" s="15" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A107" s="15" t="e">
+        <f t="shared" si="7"/>
+        <v>#N/A</v>
+      </c>
+      <c r="B107" s="45" t="s">
+        <v>27</v>
+      </c>
+      <c r="C107" s="65" t="e">
+        <f>VLOOKUP($B107&amp;"3",funnel_data!$A:$X,C$82,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D107" s="65">
+        <v>1</v>
+      </c>
+      <c r="E107" s="65" t="e">
+        <f>VLOOKUP($B107&amp;"3",funnel_data!$A:$X,E$82,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F107" s="65" t="e">
+        <f>VLOOKUP($B107&amp;"3",funnel_data!$A:$X,F$82,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G107" s="65" t="e">
+        <f>VLOOKUP($B107&amp;"3",funnel_data!$A:$X,G$82,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H107" s="65" t="e">
+        <f>VLOOKUP($B107&amp;"3",funnel_data!$A:$X,H$82,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I107" s="65" t="e">
+        <f>VLOOKUP($B107&amp;"3",funnel_data!$A:$X,I$82,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="M107" s="66"/>
+      <c r="N107" s="66"/>
+    </row>
+    <row r="108" spans="1:14" s="15" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A108" s="15" t="e">
+        <f t="shared" si="7"/>
+        <v>#N/A</v>
+      </c>
+      <c r="B108" s="45" t="s">
+        <v>3</v>
+      </c>
+      <c r="C108" s="65" t="e">
+        <f>VLOOKUP($B108&amp;"3",funnel_data!$A:$X,C$82,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D108" s="65">
+        <v>1</v>
+      </c>
+      <c r="E108" s="65" t="e">
+        <f>VLOOKUP($B108&amp;"3",funnel_data!$A:$X,E$82,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F108" s="65" t="e">
+        <f>VLOOKUP($B108&amp;"3",funnel_data!$A:$X,F$82,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G108" s="65" t="e">
+        <f>VLOOKUP($B108&amp;"3",funnel_data!$A:$X,G$82,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H108" s="65" t="e">
+        <f>VLOOKUP($B108&amp;"3",funnel_data!$A:$X,H$82,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I108" s="65" t="e">
+        <f>VLOOKUP($B108&amp;"3",funnel_data!$A:$X,I$82,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="M108" s="66"/>
+      <c r="N108" s="66"/>
+    </row>
+    <row r="109" spans="1:14" s="15" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A109" s="15" t="e">
+        <f t="shared" si="7"/>
+        <v>#N/A</v>
+      </c>
+      <c r="B109" s="45" t="s">
+        <v>2</v>
+      </c>
+      <c r="C109" s="65" t="e">
+        <f>VLOOKUP($B109&amp;"3",funnel_data!$A:$X,C$82,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D109" s="65">
+        <v>1</v>
+      </c>
+      <c r="E109" s="65" t="e">
+        <f>VLOOKUP($B109&amp;"3",funnel_data!$A:$X,E$82,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F109" s="65" t="e">
+        <f>VLOOKUP($B109&amp;"3",funnel_data!$A:$X,F$82,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G109" s="65" t="e">
+        <f>VLOOKUP($B109&amp;"3",funnel_data!$A:$X,G$82,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H109" s="65" t="e">
+        <f>VLOOKUP($B109&amp;"3",funnel_data!$A:$X,H$82,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I109" s="65" t="e">
+        <f>VLOOKUP($B109&amp;"3",funnel_data!$A:$X,I$82,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="M109" s="66"/>
+      <c r="N109" s="66"/>
+    </row>
+    <row r="110" spans="1:14" s="15" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A110" s="15" t="e">
+        <f t="shared" si="7"/>
+        <v>#N/A</v>
+      </c>
+      <c r="B110" s="45" t="s">
+        <v>16</v>
+      </c>
+      <c r="C110" s="65" t="e">
+        <f>VLOOKUP($B110&amp;"3",funnel_data!$A:$X,C$82,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D110" s="65">
+        <v>1</v>
+      </c>
+      <c r="E110" s="65" t="e">
+        <f>VLOOKUP($B110&amp;"3",funnel_data!$A:$X,E$82,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F110" s="65" t="e">
+        <f>VLOOKUP($B110&amp;"3",funnel_data!$A:$X,F$82,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G110" s="65" t="e">
+        <f>VLOOKUP($B110&amp;"3",funnel_data!$A:$X,G$82,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H110" s="65" t="e">
+        <f>VLOOKUP($B110&amp;"3",funnel_data!$A:$X,H$82,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I110" s="65" t="e">
+        <f>VLOOKUP($B110&amp;"3",funnel_data!$A:$X,I$82,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="M110" s="66"/>
+      <c r="N110" s="66"/>
+    </row>
+    <row r="111" spans="1:14" s="15" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A111" s="15" t="e">
+        <f t="shared" si="7"/>
+        <v>#N/A</v>
+      </c>
+      <c r="B111" s="45" t="s">
+        <v>15</v>
+      </c>
+      <c r="C111" s="65" t="e">
+        <f>VLOOKUP($B111&amp;"3",funnel_data!$A:$X,C$82,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D111" s="65">
+        <v>1</v>
+      </c>
+      <c r="E111" s="65" t="e">
+        <f>VLOOKUP($B111&amp;"3",funnel_data!$A:$X,E$82,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F111" s="65" t="e">
+        <f>VLOOKUP($B111&amp;"3",funnel_data!$A:$X,F$82,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G111" s="65" t="e">
+        <f>VLOOKUP($B111&amp;"3",funnel_data!$A:$X,G$82,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H111" s="65" t="e">
+        <f>VLOOKUP($B111&amp;"3",funnel_data!$A:$X,H$82,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I111" s="65" t="e">
+        <f>VLOOKUP($B111&amp;"3",funnel_data!$A:$X,I$82,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="112" spans="1:14" s="15" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A112" s="15" t="e">
+        <f t="shared" si="7"/>
+        <v>#N/A</v>
+      </c>
+      <c r="B112" s="45" t="s">
         <v>17</v>
       </c>
-      <c r="I82" s="66">
-        <v>19</v>
-      </c>
-      <c r="Q82" s="65"/>
-      <c r="R82" s="65"/>
-      <c r="S82" s="65"/>
-      <c r="T82" s="65"/>
-      <c r="U82" s="65"/>
-      <c r="V82" s="65"/>
-      <c r="W82" s="66"/>
-    </row>
-    <row r="83" spans="1:23" s="18" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B83" s="61" t="s">
-        <v>60</v>
-      </c>
-      <c r="C83" s="67" t="s">
-        <v>54</v>
-      </c>
-      <c r="D83" s="67" t="s">
-        <v>59</v>
-      </c>
-      <c r="E83" s="67" t="s">
-        <v>53</v>
-      </c>
-      <c r="F83" s="67" t="s">
-        <v>55</v>
-      </c>
-      <c r="G83" s="67" t="s">
-        <v>56</v>
-      </c>
-      <c r="H83" s="67" t="s">
-        <v>57</v>
-      </c>
-      <c r="I83" s="67" t="s">
-        <v>58</v>
-      </c>
-      <c r="P83" s="61"/>
-      <c r="Q83" s="67"/>
-      <c r="R83" s="67"/>
-      <c r="S83" s="67"/>
-      <c r="T83" s="67"/>
-      <c r="U83" s="67"/>
-      <c r="V83" s="67"/>
-      <c r="W83" s="67"/>
-    </row>
-    <row r="84" spans="1:23" s="18" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A84" s="18" t="e">
-        <f t="shared" ref="A84:A115" si="7">RANK(C84,$C$84:$C$115,1)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="B84" s="61" t="s">
-        <v>18</v>
-      </c>
-      <c r="C84" s="68" t="e">
-        <f>VLOOKUP($B84&amp;"3",funnel_data!$A:$X,C$82,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D84" s="68">
+      <c r="C112" s="65" t="e">
+        <f>VLOOKUP($B112&amp;"3",funnel_data!$A:$X,C$82,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D112" s="65">
         <v>1</v>
       </c>
-      <c r="E84" s="68" t="e">
-        <f>VLOOKUP($B84&amp;"3",funnel_data!$A:$X,E$82,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F84" s="68" t="e">
-        <f>VLOOKUP($B84&amp;"3",funnel_data!$A:$X,F$82,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G84" s="68" t="e">
-        <f>VLOOKUP($B84&amp;"3",funnel_data!$A:$X,G$82,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H84" s="68" t="e">
-        <f>VLOOKUP($B84&amp;"3",funnel_data!$A:$X,H$82,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I84" s="68" t="e">
-        <f>VLOOKUP($B84&amp;"3",funnel_data!$A:$X,I$82,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="M84" s="69"/>
-      <c r="N84" s="69"/>
-    </row>
-    <row r="85" spans="1:23" s="18" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A85" s="18" t="e">
+      <c r="E112" s="65" t="e">
+        <f>VLOOKUP($B112&amp;"3",funnel_data!$A:$X,E$82,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F112" s="65" t="e">
+        <f>VLOOKUP($B112&amp;"3",funnel_data!$A:$X,F$82,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G112" s="65" t="e">
+        <f>VLOOKUP($B112&amp;"3",funnel_data!$A:$X,G$82,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H112" s="65" t="e">
+        <f>VLOOKUP($B112&amp;"3",funnel_data!$A:$X,H$82,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I112" s="65" t="e">
+        <f>VLOOKUP($B112&amp;"3",funnel_data!$A:$X,I$82,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9" s="15" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A113" s="15" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
-      <c r="B85" s="61" t="s">
-        <v>112</v>
-      </c>
-      <c r="C85" s="68" t="e">
-        <f>VLOOKUP($B85&amp;"3",funnel_data!$A:$X,C$82,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D85" s="68">
+      <c r="B113" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="C113" s="65" t="e">
+        <f>VLOOKUP($B113&amp;"3",funnel_data!$A:$X,C$82,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D113" s="65">
         <v>1</v>
       </c>
-      <c r="E85" s="68" t="e">
-        <f>VLOOKUP($B85&amp;"3",funnel_data!$A:$X,E$82,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F85" s="68" t="e">
-        <f>VLOOKUP($B85&amp;"3",funnel_data!$A:$X,F$82,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G85" s="68" t="e">
-        <f>VLOOKUP($B85&amp;"3",funnel_data!$A:$X,G$82,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H85" s="68" t="e">
-        <f>VLOOKUP($B85&amp;"3",funnel_data!$A:$X,H$82,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I85" s="68" t="e">
-        <f>VLOOKUP($B85&amp;"3",funnel_data!$A:$X,I$82,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="M85" s="69"/>
-      <c r="N85" s="69"/>
-    </row>
-    <row r="86" spans="1:23" s="18" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A86" s="18" t="e">
+      <c r="E113" s="65" t="e">
+        <f>VLOOKUP($B113&amp;"3",funnel_data!$A:$X,E$82,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F113" s="65" t="e">
+        <f>VLOOKUP($B113&amp;"3",funnel_data!$A:$X,F$82,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G113" s="65" t="e">
+        <f>VLOOKUP($B113&amp;"3",funnel_data!$A:$X,G$82,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H113" s="65" t="e">
+        <f>VLOOKUP($B113&amp;"3",funnel_data!$A:$X,H$82,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I113" s="65" t="e">
+        <f>VLOOKUP($B113&amp;"3",funnel_data!$A:$X,I$82,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9" s="15" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A114" s="15" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
-      <c r="B86" s="61" t="s">
-        <v>20</v>
-      </c>
-      <c r="C86" s="68" t="e">
-        <f>VLOOKUP($B86&amp;"3",funnel_data!$A:$X,C$82,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D86" s="68">
+      <c r="B114" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="C114" s="65" t="e">
+        <f>VLOOKUP($B114&amp;"3",funnel_data!$A:$X,C$82,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D114" s="65">
         <v>1</v>
       </c>
-      <c r="E86" s="68" t="e">
-        <f>VLOOKUP($B86&amp;"3",funnel_data!$A:$X,E$82,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F86" s="68" t="e">
-        <f>VLOOKUP($B86&amp;"3",funnel_data!$A:$X,F$82,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G86" s="68" t="e">
-        <f>VLOOKUP($B86&amp;"3",funnel_data!$A:$X,G$82,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H86" s="68" t="e">
-        <f>VLOOKUP($B86&amp;"3",funnel_data!$A:$X,H$82,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I86" s="68" t="e">
-        <f>VLOOKUP($B86&amp;"3",funnel_data!$A:$X,I$82,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="M86" s="69"/>
-      <c r="N86" s="69"/>
-    </row>
-    <row r="87" spans="1:23" s="18" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A87" s="18" t="e">
+      <c r="E114" s="65" t="e">
+        <f>VLOOKUP($B114&amp;"3",funnel_data!$A:$X,E$82,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F114" s="65" t="e">
+        <f>VLOOKUP($B114&amp;"3",funnel_data!$A:$X,F$82,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G114" s="65" t="e">
+        <f>VLOOKUP($B114&amp;"3",funnel_data!$A:$X,G$82,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H114" s="65" t="e">
+        <f>VLOOKUP($B114&amp;"3",funnel_data!$A:$X,H$82,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I114" s="65" t="e">
+        <f>VLOOKUP($B114&amp;"3",funnel_data!$A:$X,I$82,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9" s="15" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A115" s="15" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
-      <c r="B87" s="61" t="s">
-        <v>14</v>
-      </c>
-      <c r="C87" s="68" t="e">
-        <f>VLOOKUP($B87&amp;"3",funnel_data!$A:$X,C$82,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D87" s="68">
+      <c r="B115" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="C115" s="65" t="e">
+        <f>VLOOKUP($B115&amp;"3",funnel_data!$A:$X,C$82,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D115" s="65">
         <v>1</v>
       </c>
-      <c r="E87" s="68" t="e">
-        <f>VLOOKUP($B87&amp;"3",funnel_data!$A:$X,E$82,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F87" s="68" t="e">
-        <f>VLOOKUP($B87&amp;"3",funnel_data!$A:$X,F$82,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G87" s="68" t="e">
-        <f>VLOOKUP($B87&amp;"3",funnel_data!$A:$X,G$82,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H87" s="68" t="e">
-        <f>VLOOKUP($B87&amp;"3",funnel_data!$A:$X,H$82,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I87" s="68" t="e">
-        <f>VLOOKUP($B87&amp;"3",funnel_data!$A:$X,I$82,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="M87" s="69"/>
-      <c r="N87" s="69"/>
-    </row>
-    <row r="88" spans="1:23" s="18" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A88" s="18" t="e">
-        <f t="shared" si="7"/>
-        <v>#N/A</v>
-      </c>
-      <c r="B88" s="61" t="s">
-        <v>4</v>
-      </c>
-      <c r="C88" s="68" t="e">
-        <f>VLOOKUP($B88&amp;"3",funnel_data!$A:$X,C$82,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D88" s="68">
-        <v>1</v>
-      </c>
-      <c r="E88" s="68" t="e">
-        <f>VLOOKUP($B88&amp;"3",funnel_data!$A:$X,E$82,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F88" s="68" t="e">
-        <f>VLOOKUP($B88&amp;"3",funnel_data!$A:$X,F$82,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G88" s="68" t="e">
-        <f>VLOOKUP($B88&amp;"3",funnel_data!$A:$X,G$82,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H88" s="68" t="e">
-        <f>VLOOKUP($B88&amp;"3",funnel_data!$A:$X,H$82,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I88" s="68" t="e">
-        <f>VLOOKUP($B88&amp;"3",funnel_data!$A:$X,I$82,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="M88" s="69"/>
-      <c r="N88" s="69"/>
-    </row>
-    <row r="89" spans="1:23" s="18" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A89" s="18" t="e">
-        <f t="shared" si="7"/>
-        <v>#N/A</v>
-      </c>
-      <c r="B89" s="61" t="s">
-        <v>12</v>
-      </c>
-      <c r="C89" s="68" t="e">
-        <f>VLOOKUP($B89&amp;"3",funnel_data!$A:$X,C$82,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D89" s="68">
-        <v>1</v>
-      </c>
-      <c r="E89" s="68" t="e">
-        <f>VLOOKUP($B89&amp;"3",funnel_data!$A:$X,E$82,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F89" s="68" t="e">
-        <f>VLOOKUP($B89&amp;"3",funnel_data!$A:$X,F$82,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G89" s="68" t="e">
-        <f>VLOOKUP($B89&amp;"3",funnel_data!$A:$X,G$82,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H89" s="68" t="e">
-        <f>VLOOKUP($B89&amp;"3",funnel_data!$A:$X,H$82,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I89" s="68" t="e">
-        <f>VLOOKUP($B89&amp;"3",funnel_data!$A:$X,I$82,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="M89" s="69"/>
-      <c r="N89" s="69"/>
-    </row>
-    <row r="90" spans="1:23" s="18" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A90" s="18" t="e">
-        <f t="shared" si="7"/>
-        <v>#N/A</v>
-      </c>
-      <c r="B90" s="61" t="s">
-        <v>19</v>
-      </c>
-      <c r="C90" s="68" t="e">
-        <f>VLOOKUP($B90&amp;"3",funnel_data!$A:$X,C$82,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D90" s="68">
-        <v>1</v>
-      </c>
-      <c r="E90" s="68" t="e">
-        <f>VLOOKUP($B90&amp;"3",funnel_data!$A:$X,E$82,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F90" s="68" t="e">
-        <f>VLOOKUP($B90&amp;"3",funnel_data!$A:$X,F$82,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G90" s="68" t="e">
-        <f>VLOOKUP($B90&amp;"3",funnel_data!$A:$X,G$82,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H90" s="68" t="e">
-        <f>VLOOKUP($B90&amp;"3",funnel_data!$A:$X,H$82,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I90" s="68" t="e">
-        <f>VLOOKUP($B90&amp;"3",funnel_data!$A:$X,I$82,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="M90" s="69"/>
-      <c r="N90" s="69"/>
-    </row>
-    <row r="91" spans="1:23" s="18" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A91" s="18" t="e">
-        <f t="shared" si="7"/>
-        <v>#N/A</v>
-      </c>
-      <c r="B91" s="61" t="s">
-        <v>71</v>
-      </c>
-      <c r="C91" s="68" t="e">
-        <f>VLOOKUP($B91&amp;"3",funnel_data!$A:$X,C$82,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D91" s="68">
-        <v>1</v>
-      </c>
-      <c r="E91" s="68" t="e">
-        <f>VLOOKUP($B91&amp;"3",funnel_data!$A:$X,E$82,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F91" s="68" t="e">
-        <f>VLOOKUP($B91&amp;"3",funnel_data!$A:$X,F$82,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G91" s="68" t="e">
-        <f>VLOOKUP($B91&amp;"3",funnel_data!$A:$X,G$82,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H91" s="68" t="e">
-        <f>VLOOKUP($B91&amp;"3",funnel_data!$A:$X,H$82,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I91" s="68" t="e">
-        <f>VLOOKUP($B91&amp;"3",funnel_data!$A:$X,I$82,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="M91" s="69"/>
-      <c r="N91" s="69"/>
-    </row>
-    <row r="92" spans="1:23" s="18" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A92" s="18" t="e">
-        <f t="shared" si="7"/>
-        <v>#N/A</v>
-      </c>
-      <c r="B92" s="61" t="s">
-        <v>0</v>
-      </c>
-      <c r="C92" s="68" t="e">
-        <f>VLOOKUP($B92&amp;"3",funnel_data!$A:$X,C$82,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D92" s="68">
-        <v>1</v>
-      </c>
-      <c r="E92" s="68" t="e">
-        <f>VLOOKUP($B92&amp;"3",funnel_data!$A:$X,E$82,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F92" s="68" t="e">
-        <f>VLOOKUP($B92&amp;"3",funnel_data!$A:$X,F$82,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G92" s="68" t="e">
-        <f>VLOOKUP($B92&amp;"3",funnel_data!$A:$X,G$82,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H92" s="68" t="e">
-        <f>VLOOKUP($B92&amp;"3",funnel_data!$A:$X,H$82,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I92" s="68" t="e">
-        <f>VLOOKUP($B92&amp;"3",funnel_data!$A:$X,I$82,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="M92" s="69"/>
-      <c r="N92" s="69"/>
-    </row>
-    <row r="93" spans="1:23" s="18" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A93" s="18" t="e">
-        <f t="shared" si="7"/>
-        <v>#N/A</v>
-      </c>
-      <c r="B93" s="61" t="s">
-        <v>113</v>
-      </c>
-      <c r="C93" s="68" t="e">
-        <f>VLOOKUP($B93&amp;"3",funnel_data!$A:$X,C$82,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D93" s="68">
-        <v>1</v>
-      </c>
-      <c r="E93" s="68" t="e">
-        <f>VLOOKUP($B93&amp;"3",funnel_data!$A:$X,E$82,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F93" s="68" t="e">
-        <f>VLOOKUP($B93&amp;"3",funnel_data!$A:$X,F$82,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G93" s="68" t="e">
-        <f>VLOOKUP($B93&amp;"3",funnel_data!$A:$X,G$82,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H93" s="68" t="e">
-        <f>VLOOKUP($B93&amp;"3",funnel_data!$A:$X,H$82,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I93" s="68" t="e">
-        <f>VLOOKUP($B93&amp;"3",funnel_data!$A:$X,I$82,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="M93" s="69"/>
-      <c r="N93" s="69"/>
-    </row>
-    <row r="94" spans="1:23" s="18" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A94" s="18" t="e">
-        <f t="shared" si="7"/>
-        <v>#N/A</v>
-      </c>
-      <c r="B94" s="61" t="s">
-        <v>29</v>
-      </c>
-      <c r="C94" s="68" t="e">
-        <f>VLOOKUP($B94&amp;"3",funnel_data!$A:$X,C$82,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D94" s="68">
-        <v>1</v>
-      </c>
-      <c r="E94" s="68" t="e">
-        <f>VLOOKUP($B94&amp;"3",funnel_data!$A:$X,E$82,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F94" s="68" t="e">
-        <f>VLOOKUP($B94&amp;"3",funnel_data!$A:$X,F$82,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G94" s="68" t="e">
-        <f>VLOOKUP($B94&amp;"3",funnel_data!$A:$X,G$82,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H94" s="68" t="e">
-        <f>VLOOKUP($B94&amp;"3",funnel_data!$A:$X,H$82,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I94" s="68" t="e">
-        <f>VLOOKUP($B94&amp;"3",funnel_data!$A:$X,I$82,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="M94" s="69"/>
-      <c r="N94" s="69"/>
-    </row>
-    <row r="95" spans="1:23" s="18" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A95" s="18" t="e">
-        <f t="shared" si="7"/>
-        <v>#N/A</v>
-      </c>
-      <c r="B95" s="61" t="s">
-        <v>10</v>
-      </c>
-      <c r="C95" s="68" t="e">
-        <f>VLOOKUP($B95&amp;"3",funnel_data!$A:$X,C$82,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D95" s="68">
-        <v>1</v>
-      </c>
-      <c r="E95" s="68" t="e">
-        <f>VLOOKUP($B95&amp;"3",funnel_data!$A:$X,E$82,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F95" s="68" t="e">
-        <f>VLOOKUP($B95&amp;"3",funnel_data!$A:$X,F$82,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G95" s="68" t="e">
-        <f>VLOOKUP($B95&amp;"3",funnel_data!$A:$X,G$82,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H95" s="68" t="e">
-        <f>VLOOKUP($B95&amp;"3",funnel_data!$A:$X,H$82,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I95" s="68" t="e">
-        <f>VLOOKUP($B95&amp;"3",funnel_data!$A:$X,I$82,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="M95" s="69"/>
-      <c r="N95" s="69"/>
-    </row>
-    <row r="96" spans="1:23" s="18" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A96" s="18" t="e">
-        <f t="shared" si="7"/>
-        <v>#N/A</v>
-      </c>
-      <c r="B96" s="61" t="s">
-        <v>8</v>
-      </c>
-      <c r="C96" s="68" t="e">
-        <f>VLOOKUP($B96&amp;"3",funnel_data!$A:$X,C$82,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D96" s="68">
-        <v>1</v>
-      </c>
-      <c r="E96" s="68" t="e">
-        <f>VLOOKUP($B96&amp;"3",funnel_data!$A:$X,E$82,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F96" s="68" t="e">
-        <f>VLOOKUP($B96&amp;"3",funnel_data!$A:$X,F$82,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G96" s="68" t="e">
-        <f>VLOOKUP($B96&amp;"3",funnel_data!$A:$X,G$82,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H96" s="68" t="e">
-        <f>VLOOKUP($B96&amp;"3",funnel_data!$A:$X,H$82,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I96" s="68" t="e">
-        <f>VLOOKUP($B96&amp;"3",funnel_data!$A:$X,I$82,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="M96" s="69"/>
-      <c r="N96" s="69"/>
-    </row>
-    <row r="97" spans="1:14" s="18" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A97" s="18" t="e">
-        <f t="shared" si="7"/>
-        <v>#N/A</v>
-      </c>
-      <c r="B97" s="61" t="s">
-        <v>6</v>
-      </c>
-      <c r="C97" s="68" t="e">
-        <f>VLOOKUP($B97&amp;"3",funnel_data!$A:$X,C$82,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D97" s="68">
-        <v>1</v>
-      </c>
-      <c r="E97" s="68" t="e">
-        <f>VLOOKUP($B97&amp;"3",funnel_data!$A:$X,E$82,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F97" s="68" t="e">
-        <f>VLOOKUP($B97&amp;"3",funnel_data!$A:$X,F$82,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G97" s="68" t="e">
-        <f>VLOOKUP($B97&amp;"3",funnel_data!$A:$X,G$82,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H97" s="68" t="e">
-        <f>VLOOKUP($B97&amp;"3",funnel_data!$A:$X,H$82,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I97" s="68" t="e">
-        <f>VLOOKUP($B97&amp;"3",funnel_data!$A:$X,I$82,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="M97" s="69"/>
-      <c r="N97" s="69"/>
-    </row>
-    <row r="98" spans="1:14" s="18" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A98" s="18" t="e">
-        <f t="shared" si="7"/>
-        <v>#N/A</v>
-      </c>
-      <c r="B98" s="61" t="s">
-        <v>5</v>
-      </c>
-      <c r="C98" s="68" t="e">
-        <f>VLOOKUP($B98&amp;"3",funnel_data!$A:$X,C$82,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D98" s="68">
-        <v>1</v>
-      </c>
-      <c r="E98" s="68" t="e">
-        <f>VLOOKUP($B98&amp;"3",funnel_data!$A:$X,E$82,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F98" s="68" t="e">
-        <f>VLOOKUP($B98&amp;"3",funnel_data!$A:$X,F$82,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G98" s="68" t="e">
-        <f>VLOOKUP($B98&amp;"3",funnel_data!$A:$X,G$82,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H98" s="68" t="e">
-        <f>VLOOKUP($B98&amp;"3",funnel_data!$A:$X,H$82,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I98" s="68" t="e">
-        <f>VLOOKUP($B98&amp;"3",funnel_data!$A:$X,I$82,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="M98" s="69"/>
-      <c r="N98" s="69"/>
-    </row>
-    <row r="99" spans="1:14" s="18" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A99" s="18" t="e">
-        <f t="shared" si="7"/>
-        <v>#N/A</v>
-      </c>
-      <c r="B99" s="61" t="s">
-        <v>25</v>
-      </c>
-      <c r="C99" s="68" t="e">
-        <f>VLOOKUP($B99&amp;"3",funnel_data!$A:$X,C$82,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D99" s="68">
-        <v>1</v>
-      </c>
-      <c r="E99" s="68" t="e">
-        <f>VLOOKUP($B99&amp;"3",funnel_data!$A:$X,E$82,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F99" s="68" t="e">
-        <f>VLOOKUP($B99&amp;"3",funnel_data!$A:$X,F$82,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G99" s="68" t="e">
-        <f>VLOOKUP($B99&amp;"3",funnel_data!$A:$X,G$82,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H99" s="68" t="e">
-        <f>VLOOKUP($B99&amp;"3",funnel_data!$A:$X,H$82,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I99" s="68" t="e">
-        <f>VLOOKUP($B99&amp;"3",funnel_data!$A:$X,I$82,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="M99" s="69"/>
-      <c r="N99" s="69"/>
-    </row>
-    <row r="100" spans="1:14" s="18" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A100" s="18" t="e">
-        <f t="shared" si="7"/>
-        <v>#N/A</v>
-      </c>
-      <c r="B100" s="61" t="s">
-        <v>26</v>
-      </c>
-      <c r="C100" s="68" t="e">
-        <f>VLOOKUP($B100&amp;"3",funnel_data!$A:$X,C$82,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D100" s="68">
-        <v>1</v>
-      </c>
-      <c r="E100" s="68" t="e">
-        <f>VLOOKUP($B100&amp;"3",funnel_data!$A:$X,E$82,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F100" s="68" t="e">
-        <f>VLOOKUP($B100&amp;"3",funnel_data!$A:$X,F$82,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G100" s="68" t="e">
-        <f>VLOOKUP($B100&amp;"3",funnel_data!$A:$X,G$82,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H100" s="68" t="e">
-        <f>VLOOKUP($B100&amp;"3",funnel_data!$A:$X,H$82,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I100" s="68" t="e">
-        <f>VLOOKUP($B100&amp;"3",funnel_data!$A:$X,I$82,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="M100" s="69"/>
-      <c r="N100" s="69"/>
-    </row>
-    <row r="101" spans="1:14" s="18" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A101" s="18" t="e">
-        <f t="shared" si="7"/>
-        <v>#N/A</v>
-      </c>
-      <c r="B101" s="61" t="s">
-        <v>11</v>
-      </c>
-      <c r="C101" s="68" t="e">
-        <f>VLOOKUP($B101&amp;"3",funnel_data!$A:$X,C$82,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D101" s="68">
-        <v>1</v>
-      </c>
-      <c r="E101" s="68" t="e">
-        <f>VLOOKUP($B101&amp;"3",funnel_data!$A:$X,E$82,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F101" s="68" t="e">
-        <f>VLOOKUP($B101&amp;"3",funnel_data!$A:$X,F$82,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G101" s="68" t="e">
-        <f>VLOOKUP($B101&amp;"3",funnel_data!$A:$X,G$82,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H101" s="68" t="e">
-        <f>VLOOKUP($B101&amp;"3",funnel_data!$A:$X,H$82,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I101" s="68" t="e">
-        <f>VLOOKUP($B101&amp;"3",funnel_data!$A:$X,I$82,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="M101" s="69"/>
-      <c r="N101" s="69"/>
-    </row>
-    <row r="102" spans="1:14" s="18" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A102" s="18" t="e">
-        <f t="shared" si="7"/>
-        <v>#N/A</v>
-      </c>
-      <c r="B102" s="61" t="s">
-        <v>119</v>
-      </c>
-      <c r="C102" s="68" t="e">
-        <f>VLOOKUP($B102&amp;"3",funnel_data!$A:$X,C$82,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D102" s="68">
-        <v>1</v>
-      </c>
-      <c r="E102" s="68" t="e">
-        <f>VLOOKUP($B102&amp;"3",funnel_data!$A:$X,E$82,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F102" s="68" t="e">
-        <f>VLOOKUP($B102&amp;"3",funnel_data!$A:$X,F$82,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G102" s="68" t="e">
-        <f>VLOOKUP($B102&amp;"3",funnel_data!$A:$X,G$82,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H102" s="68" t="e">
-        <f>VLOOKUP($B102&amp;"3",funnel_data!$A:$X,H$82,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I102" s="68" t="e">
-        <f>VLOOKUP($B102&amp;"3",funnel_data!$A:$X,I$82,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="M102" s="69"/>
-      <c r="N102" s="69"/>
-    </row>
-    <row r="103" spans="1:14" s="18" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A103" s="18" t="e">
-        <f t="shared" si="7"/>
-        <v>#N/A</v>
-      </c>
-      <c r="B103" s="61" t="s">
-        <v>13</v>
-      </c>
-      <c r="C103" s="68" t="e">
-        <f>VLOOKUP($B103&amp;"3",funnel_data!$A:$X,C$82,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D103" s="68">
-        <v>1</v>
-      </c>
-      <c r="E103" s="68" t="e">
-        <f>VLOOKUP($B103&amp;"3",funnel_data!$A:$X,E$82,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F103" s="68" t="e">
-        <f>VLOOKUP($B103&amp;"3",funnel_data!$A:$X,F$82,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G103" s="68" t="e">
-        <f>VLOOKUP($B103&amp;"3",funnel_data!$A:$X,G$82,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H103" s="68" t="e">
-        <f>VLOOKUP($B103&amp;"3",funnel_data!$A:$X,H$82,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I103" s="68" t="e">
-        <f>VLOOKUP($B103&amp;"3",funnel_data!$A:$X,I$82,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="M103" s="69"/>
-      <c r="N103" s="69"/>
-    </row>
-    <row r="104" spans="1:14" s="18" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A104" s="18" t="e">
-        <f t="shared" si="7"/>
-        <v>#N/A</v>
-      </c>
-      <c r="B104" s="61" t="s">
-        <v>7</v>
-      </c>
-      <c r="C104" s="68" t="e">
-        <f>VLOOKUP($B104&amp;"3",funnel_data!$A:$X,C$82,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D104" s="68">
-        <v>1</v>
-      </c>
-      <c r="E104" s="68" t="e">
-        <f>VLOOKUP($B104&amp;"3",funnel_data!$A:$X,E$82,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F104" s="68" t="e">
-        <f>VLOOKUP($B104&amp;"3",funnel_data!$A:$X,F$82,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G104" s="68" t="e">
-        <f>VLOOKUP($B104&amp;"3",funnel_data!$A:$X,G$82,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H104" s="68" t="e">
-        <f>VLOOKUP($B104&amp;"3",funnel_data!$A:$X,H$82,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I104" s="68" t="e">
-        <f>VLOOKUP($B104&amp;"3",funnel_data!$A:$X,I$82,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="M104" s="69"/>
-      <c r="N104" s="69"/>
-    </row>
-    <row r="105" spans="1:14" s="18" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A105" s="18" t="e">
-        <f t="shared" si="7"/>
-        <v>#N/A</v>
-      </c>
-      <c r="B105" s="61" t="s">
-        <v>23</v>
-      </c>
-      <c r="C105" s="68" t="e">
-        <f>VLOOKUP($B105&amp;"3",funnel_data!$A:$X,C$82,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D105" s="68">
-        <v>1</v>
-      </c>
-      <c r="E105" s="68" t="e">
-        <f>VLOOKUP($B105&amp;"3",funnel_data!$A:$X,E$82,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F105" s="68" t="e">
-        <f>VLOOKUP($B105&amp;"3",funnel_data!$A:$X,F$82,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G105" s="68" t="e">
-        <f>VLOOKUP($B105&amp;"3",funnel_data!$A:$X,G$82,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H105" s="68" t="e">
-        <f>VLOOKUP($B105&amp;"3",funnel_data!$A:$X,H$82,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I105" s="68" t="e">
-        <f>VLOOKUP($B105&amp;"3",funnel_data!$A:$X,I$82,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="M105" s="69"/>
-      <c r="N105" s="69"/>
-    </row>
-    <row r="106" spans="1:14" s="18" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A106" s="18" t="e">
-        <f t="shared" si="7"/>
-        <v>#N/A</v>
-      </c>
-      <c r="B106" s="61" t="s">
-        <v>22</v>
-      </c>
-      <c r="C106" s="68" t="e">
-        <f>VLOOKUP($B106&amp;"3",funnel_data!$A:$X,C$82,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D106" s="68">
-        <v>1</v>
-      </c>
-      <c r="E106" s="68" t="e">
-        <f>VLOOKUP($B106&amp;"3",funnel_data!$A:$X,E$82,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F106" s="68" t="e">
-        <f>VLOOKUP($B106&amp;"3",funnel_data!$A:$X,F$82,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G106" s="68" t="e">
-        <f>VLOOKUP($B106&amp;"3",funnel_data!$A:$X,G$82,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H106" s="68" t="e">
-        <f>VLOOKUP($B106&amp;"3",funnel_data!$A:$X,H$82,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I106" s="68" t="e">
-        <f>VLOOKUP($B106&amp;"3",funnel_data!$A:$X,I$82,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="M106" s="69"/>
-      <c r="N106" s="69"/>
-    </row>
-    <row r="107" spans="1:14" s="18" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A107" s="18" t="e">
-        <f t="shared" si="7"/>
-        <v>#N/A</v>
-      </c>
-      <c r="B107" s="61" t="s">
-        <v>27</v>
-      </c>
-      <c r="C107" s="68" t="e">
-        <f>VLOOKUP($B107&amp;"3",funnel_data!$A:$X,C$82,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D107" s="68">
-        <v>1</v>
-      </c>
-      <c r="E107" s="68" t="e">
-        <f>VLOOKUP($B107&amp;"3",funnel_data!$A:$X,E$82,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F107" s="68" t="e">
-        <f>VLOOKUP($B107&amp;"3",funnel_data!$A:$X,F$82,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G107" s="68" t="e">
-        <f>VLOOKUP($B107&amp;"3",funnel_data!$A:$X,G$82,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H107" s="68" t="e">
-        <f>VLOOKUP($B107&amp;"3",funnel_data!$A:$X,H$82,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I107" s="68" t="e">
-        <f>VLOOKUP($B107&amp;"3",funnel_data!$A:$X,I$82,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="M107" s="69"/>
-      <c r="N107" s="69"/>
-    </row>
-    <row r="108" spans="1:14" s="18" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A108" s="18" t="e">
-        <f t="shared" si="7"/>
-        <v>#N/A</v>
-      </c>
-      <c r="B108" s="61" t="s">
-        <v>3</v>
-      </c>
-      <c r="C108" s="68" t="e">
-        <f>VLOOKUP($B108&amp;"3",funnel_data!$A:$X,C$82,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D108" s="68">
-        <v>1</v>
-      </c>
-      <c r="E108" s="68" t="e">
-        <f>VLOOKUP($B108&amp;"3",funnel_data!$A:$X,E$82,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F108" s="68" t="e">
-        <f>VLOOKUP($B108&amp;"3",funnel_data!$A:$X,F$82,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G108" s="68" t="e">
-        <f>VLOOKUP($B108&amp;"3",funnel_data!$A:$X,G$82,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H108" s="68" t="e">
-        <f>VLOOKUP($B108&amp;"3",funnel_data!$A:$X,H$82,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I108" s="68" t="e">
-        <f>VLOOKUP($B108&amp;"3",funnel_data!$A:$X,I$82,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="M108" s="69"/>
-      <c r="N108" s="69"/>
-    </row>
-    <row r="109" spans="1:14" s="18" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A109" s="18" t="e">
-        <f t="shared" si="7"/>
-        <v>#N/A</v>
-      </c>
-      <c r="B109" s="61" t="s">
-        <v>2</v>
-      </c>
-      <c r="C109" s="68" t="e">
-        <f>VLOOKUP($B109&amp;"3",funnel_data!$A:$X,C$82,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D109" s="68">
-        <v>1</v>
-      </c>
-      <c r="E109" s="68" t="e">
-        <f>VLOOKUP($B109&amp;"3",funnel_data!$A:$X,E$82,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F109" s="68" t="e">
-        <f>VLOOKUP($B109&amp;"3",funnel_data!$A:$X,F$82,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G109" s="68" t="e">
-        <f>VLOOKUP($B109&amp;"3",funnel_data!$A:$X,G$82,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H109" s="68" t="e">
-        <f>VLOOKUP($B109&amp;"3",funnel_data!$A:$X,H$82,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I109" s="68" t="e">
-        <f>VLOOKUP($B109&amp;"3",funnel_data!$A:$X,I$82,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="M109" s="69"/>
-      <c r="N109" s="69"/>
-    </row>
-    <row r="110" spans="1:14" s="18" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A110" s="18" t="e">
-        <f t="shared" si="7"/>
-        <v>#N/A</v>
-      </c>
-      <c r="B110" s="61" t="s">
-        <v>16</v>
-      </c>
-      <c r="C110" s="68" t="e">
-        <f>VLOOKUP($B110&amp;"3",funnel_data!$A:$X,C$82,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D110" s="68">
-        <v>1</v>
-      </c>
-      <c r="E110" s="68" t="e">
-        <f>VLOOKUP($B110&amp;"3",funnel_data!$A:$X,E$82,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F110" s="68" t="e">
-        <f>VLOOKUP($B110&amp;"3",funnel_data!$A:$X,F$82,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G110" s="68" t="e">
-        <f>VLOOKUP($B110&amp;"3",funnel_data!$A:$X,G$82,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H110" s="68" t="e">
-        <f>VLOOKUP($B110&amp;"3",funnel_data!$A:$X,H$82,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I110" s="68" t="e">
-        <f>VLOOKUP($B110&amp;"3",funnel_data!$A:$X,I$82,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="M110" s="69"/>
-      <c r="N110" s="69"/>
-    </row>
-    <row r="111" spans="1:14" s="18" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A111" s="18" t="e">
-        <f t="shared" si="7"/>
-        <v>#N/A</v>
-      </c>
-      <c r="B111" s="61" t="s">
-        <v>15</v>
-      </c>
-      <c r="C111" s="68" t="e">
-        <f>VLOOKUP($B111&amp;"3",funnel_data!$A:$X,C$82,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D111" s="68">
-        <v>1</v>
-      </c>
-      <c r="E111" s="68" t="e">
-        <f>VLOOKUP($B111&amp;"3",funnel_data!$A:$X,E$82,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F111" s="68" t="e">
-        <f>VLOOKUP($B111&amp;"3",funnel_data!$A:$X,F$82,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G111" s="68" t="e">
-        <f>VLOOKUP($B111&amp;"3",funnel_data!$A:$X,G$82,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H111" s="68" t="e">
-        <f>VLOOKUP($B111&amp;"3",funnel_data!$A:$X,H$82,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I111" s="68" t="e">
-        <f>VLOOKUP($B111&amp;"3",funnel_data!$A:$X,I$82,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="112" spans="1:14" s="18" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A112" s="18" t="e">
-        <f t="shared" si="7"/>
-        <v>#N/A</v>
-      </c>
-      <c r="B112" s="61" t="s">
-        <v>17</v>
-      </c>
-      <c r="C112" s="68" t="e">
-        <f>VLOOKUP($B112&amp;"3",funnel_data!$A:$X,C$82,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D112" s="68">
-        <v>1</v>
-      </c>
-      <c r="E112" s="68" t="e">
-        <f>VLOOKUP($B112&amp;"3",funnel_data!$A:$X,E$82,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F112" s="68" t="e">
-        <f>VLOOKUP($B112&amp;"3",funnel_data!$A:$X,F$82,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G112" s="68" t="e">
-        <f>VLOOKUP($B112&amp;"3",funnel_data!$A:$X,G$82,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H112" s="68" t="e">
-        <f>VLOOKUP($B112&amp;"3",funnel_data!$A:$X,H$82,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I112" s="68" t="e">
-        <f>VLOOKUP($B112&amp;"3",funnel_data!$A:$X,I$82,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="113" spans="1:9" s="18" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A113" s="18" t="e">
-        <f t="shared" si="7"/>
-        <v>#N/A</v>
-      </c>
-      <c r="B113" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="C113" s="68" t="e">
-        <f>VLOOKUP($B113&amp;"3",funnel_data!$A:$X,C$82,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D113" s="68">
-        <v>1</v>
-      </c>
-      <c r="E113" s="68" t="e">
-        <f>VLOOKUP($B113&amp;"3",funnel_data!$A:$X,E$82,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F113" s="68" t="e">
-        <f>VLOOKUP($B113&amp;"3",funnel_data!$A:$X,F$82,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G113" s="68" t="e">
-        <f>VLOOKUP($B113&amp;"3",funnel_data!$A:$X,G$82,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H113" s="68" t="e">
-        <f>VLOOKUP($B113&amp;"3",funnel_data!$A:$X,H$82,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I113" s="68" t="e">
-        <f>VLOOKUP($B113&amp;"3",funnel_data!$A:$X,I$82,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="114" spans="1:9" s="18" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A114" s="18" t="e">
-        <f t="shared" si="7"/>
-        <v>#N/A</v>
-      </c>
-      <c r="B114" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="C114" s="68" t="e">
-        <f>VLOOKUP($B114&amp;"3",funnel_data!$A:$X,C$82,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D114" s="68">
-        <v>1</v>
-      </c>
-      <c r="E114" s="68" t="e">
-        <f>VLOOKUP($B114&amp;"3",funnel_data!$A:$X,E$82,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F114" s="68" t="e">
-        <f>VLOOKUP($B114&amp;"3",funnel_data!$A:$X,F$82,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G114" s="68" t="e">
-        <f>VLOOKUP($B114&amp;"3",funnel_data!$A:$X,G$82,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H114" s="68" t="e">
-        <f>VLOOKUP($B114&amp;"3",funnel_data!$A:$X,H$82,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I114" s="68" t="e">
-        <f>VLOOKUP($B114&amp;"3",funnel_data!$A:$X,I$82,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="115" spans="1:9" s="18" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A115" s="18" t="e">
-        <f t="shared" si="7"/>
-        <v>#N/A</v>
-      </c>
-      <c r="B115" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="C115" s="68" t="e">
-        <f>VLOOKUP($B115&amp;"3",funnel_data!$A:$X,C$82,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D115" s="68">
-        <v>1</v>
-      </c>
-      <c r="E115" s="68" t="e">
+      <c r="E115" s="65" t="e">
         <f>VLOOKUP($B115&amp;"3",funnel_data!$A:$X,E$82,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="F115" s="68" t="e">
+      <c r="F115" s="65" t="e">
         <f>VLOOKUP($B115&amp;"3",funnel_data!$A:$X,F$82,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="G115" s="68" t="e">
+      <c r="G115" s="65" t="e">
         <f>VLOOKUP($B115&amp;"3",funnel_data!$A:$X,G$82,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="H115" s="68" t="e">
+      <c r="H115" s="65" t="e">
         <f>VLOOKUP($B115&amp;"3",funnel_data!$A:$X,H$82,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="I115" s="68" t="e">
+      <c r="I115" s="65" t="e">
         <f>VLOOKUP($B115&amp;"3",funnel_data!$A:$X,I$82,FALSE)</f>
         <v>#N/A</v>
       </c>
@@ -9961,8 +9950,8 @@
   <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:R1022"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A1022"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9979,20 +9968,20 @@
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" t="str">
-        <f>I2&amp;B2</f>
-        <v/>
-      </c>
-      <c r="L2" s="60"/>
+        <f>J2&amp;B2</f>
+        <v/>
+      </c>
+      <c r="L2" s="59"/>
       <c r="O2"/>
       <c r="Q2" s="57"/>
       <c r="R2" s="57"/>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" t="str">
-        <f t="shared" ref="A3:A66" si="0">I3&amp;B3</f>
-        <v/>
-      </c>
-      <c r="L3" s="60"/>
+        <f t="shared" ref="A3:A66" si="0">J3&amp;B3</f>
+        <v/>
+      </c>
+      <c r="L3" s="59"/>
       <c r="O3"/>
       <c r="Q3" s="57"/>
       <c r="R3" s="57"/>
@@ -10002,7 +9991,7 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="L4" s="60"/>
+      <c r="L4" s="59"/>
       <c r="O4"/>
       <c r="Q4" s="57"/>
       <c r="R4" s="57"/>
@@ -10012,7 +10001,7 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="L5" s="60"/>
+      <c r="L5" s="59"/>
       <c r="O5"/>
       <c r="Q5" s="57"/>
       <c r="R5" s="57"/>
@@ -10022,7 +10011,7 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="L6" s="60"/>
+      <c r="L6" s="59"/>
       <c r="O6"/>
       <c r="Q6" s="57"/>
       <c r="R6" s="57"/>
@@ -10032,7 +10021,7 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="L7" s="60"/>
+      <c r="L7" s="59"/>
       <c r="O7"/>
       <c r="Q7" s="57"/>
       <c r="R7" s="57"/>
@@ -10042,7 +10031,7 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="L8" s="60"/>
+      <c r="L8" s="59"/>
       <c r="O8"/>
       <c r="Q8" s="57"/>
       <c r="R8" s="57"/>
@@ -10052,7 +10041,7 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="L9" s="60"/>
+      <c r="L9" s="59"/>
       <c r="O9"/>
       <c r="Q9" s="57"/>
       <c r="R9" s="57"/>
@@ -10062,7 +10051,7 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="L10" s="60"/>
+      <c r="L10" s="59"/>
       <c r="O10"/>
       <c r="Q10" s="57"/>
       <c r="R10" s="57"/>
@@ -10072,7 +10061,7 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="L11" s="60"/>
+      <c r="L11" s="59"/>
       <c r="O11"/>
       <c r="Q11" s="57"/>
       <c r="R11" s="57"/>
@@ -10082,7 +10071,7 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="L12" s="60"/>
+      <c r="L12" s="59"/>
       <c r="O12"/>
       <c r="Q12" s="57"/>
       <c r="R12" s="57"/>
@@ -10092,7 +10081,7 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="L13" s="60"/>
+      <c r="L13" s="59"/>
       <c r="O13"/>
       <c r="Q13" s="57"/>
       <c r="R13" s="57"/>
@@ -10102,7 +10091,7 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="L14" s="60"/>
+      <c r="L14" s="59"/>
       <c r="O14"/>
       <c r="Q14" s="57"/>
       <c r="R14" s="57"/>
@@ -10112,7 +10101,7 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="L15" s="60"/>
+      <c r="L15" s="59"/>
       <c r="O15"/>
       <c r="Q15" s="57"/>
       <c r="R15" s="57"/>
@@ -10122,7 +10111,7 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="L16" s="60"/>
+      <c r="L16" s="59"/>
       <c r="O16"/>
       <c r="Q16" s="57"/>
       <c r="R16" s="57"/>
@@ -10132,7 +10121,7 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="L17" s="60"/>
+      <c r="L17" s="59"/>
       <c r="O17"/>
       <c r="Q17" s="57"/>
       <c r="R17" s="57"/>
@@ -10142,7 +10131,7 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="L18" s="60"/>
+      <c r="L18" s="59"/>
       <c r="O18"/>
       <c r="Q18" s="57"/>
       <c r="R18" s="57"/>
@@ -10152,7 +10141,7 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="L19" s="60"/>
+      <c r="L19" s="59"/>
       <c r="O19"/>
       <c r="Q19" s="57"/>
       <c r="R19" s="57"/>
@@ -10162,7 +10151,7 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="L20" s="60"/>
+      <c r="L20" s="59"/>
       <c r="O20"/>
       <c r="Q20" s="57"/>
       <c r="R20" s="57"/>
@@ -10172,7 +10161,7 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="L21" s="60"/>
+      <c r="L21" s="59"/>
       <c r="O21"/>
       <c r="Q21" s="57"/>
       <c r="R21" s="57"/>
@@ -10182,7 +10171,7 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="L22" s="60"/>
+      <c r="L22" s="59"/>
       <c r="O22"/>
       <c r="Q22" s="57"/>
       <c r="R22" s="57"/>
@@ -10192,7 +10181,7 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="L23" s="60"/>
+      <c r="L23" s="59"/>
       <c r="O23"/>
       <c r="Q23" s="57"/>
       <c r="R23" s="57"/>
@@ -10202,7 +10191,7 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="L24" s="60"/>
+      <c r="L24" s="59"/>
       <c r="O24"/>
       <c r="Q24" s="57"/>
       <c r="R24" s="57"/>
@@ -10212,7 +10201,7 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="L25" s="60"/>
+      <c r="L25" s="59"/>
       <c r="O25"/>
       <c r="Q25" s="57"/>
       <c r="R25" s="57"/>
@@ -10222,7 +10211,7 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="L26" s="60"/>
+      <c r="L26" s="59"/>
       <c r="O26"/>
       <c r="Q26" s="57"/>
       <c r="R26" s="57"/>
@@ -10232,7 +10221,7 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="L27" s="60"/>
+      <c r="L27" s="59"/>
       <c r="O27"/>
       <c r="Q27" s="57"/>
       <c r="R27" s="57"/>
@@ -10242,7 +10231,7 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="L28" s="60"/>
+      <c r="L28" s="59"/>
       <c r="O28"/>
       <c r="Q28" s="57"/>
       <c r="R28" s="57"/>
@@ -10252,7 +10241,7 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="L29" s="60"/>
+      <c r="L29" s="59"/>
       <c r="O29"/>
       <c r="Q29" s="57"/>
       <c r="R29" s="57"/>
@@ -10262,7 +10251,7 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="L30" s="60"/>
+      <c r="L30" s="59"/>
       <c r="O30"/>
       <c r="Q30" s="57"/>
       <c r="R30" s="57"/>
@@ -10272,7 +10261,7 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="L31" s="60"/>
+      <c r="L31" s="59"/>
       <c r="O31"/>
       <c r="Q31" s="57"/>
       <c r="R31" s="57"/>
@@ -10282,7 +10271,7 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="L32" s="60"/>
+      <c r="L32" s="59"/>
       <c r="O32"/>
       <c r="Q32" s="57"/>
       <c r="R32" s="57"/>
@@ -10292,7 +10281,7 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="L33" s="60"/>
+      <c r="L33" s="59"/>
       <c r="O33"/>
       <c r="Q33" s="57"/>
       <c r="R33" s="57"/>
@@ -10302,7 +10291,7 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="L34" s="60"/>
+      <c r="L34" s="59"/>
       <c r="O34"/>
       <c r="Q34" s="57"/>
       <c r="R34" s="57"/>
@@ -10312,7 +10301,7 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="L35" s="60"/>
+      <c r="L35" s="59"/>
       <c r="O35"/>
       <c r="Q35" s="57"/>
       <c r="R35" s="57"/>
@@ -10322,7 +10311,7 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="L36" s="60"/>
+      <c r="L36" s="59"/>
       <c r="O36"/>
       <c r="Q36" s="57"/>
       <c r="R36" s="57"/>
@@ -10332,7 +10321,7 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="L37" s="60"/>
+      <c r="L37" s="59"/>
       <c r="O37"/>
       <c r="Q37" s="57"/>
       <c r="R37" s="57"/>
@@ -10342,7 +10331,7 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="L38" s="60"/>
+      <c r="L38" s="59"/>
       <c r="O38"/>
       <c r="Q38" s="57"/>
       <c r="R38" s="57"/>
@@ -10352,7 +10341,7 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="L39" s="60"/>
+      <c r="L39" s="59"/>
       <c r="O39"/>
       <c r="Q39" s="57"/>
       <c r="R39" s="57"/>
@@ -10362,7 +10351,7 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="L40" s="60"/>
+      <c r="L40" s="59"/>
       <c r="O40"/>
       <c r="Q40" s="57"/>
       <c r="R40" s="57"/>
@@ -10372,7 +10361,7 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="L41" s="60"/>
+      <c r="L41" s="59"/>
       <c r="O41"/>
       <c r="Q41" s="57"/>
       <c r="R41" s="57"/>
@@ -10382,7 +10371,7 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="L42" s="60"/>
+      <c r="L42" s="59"/>
       <c r="O42"/>
       <c r="Q42" s="57"/>
       <c r="R42" s="57"/>
@@ -10392,7 +10381,7 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="L43" s="60"/>
+      <c r="L43" s="59"/>
       <c r="O43"/>
       <c r="Q43" s="57"/>
       <c r="R43" s="57"/>
@@ -10402,7 +10391,7 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="L44" s="60"/>
+      <c r="L44" s="59"/>
       <c r="O44"/>
       <c r="Q44" s="57"/>
       <c r="R44" s="57"/>
@@ -10412,7 +10401,7 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="L45" s="60"/>
+      <c r="L45" s="59"/>
       <c r="O45"/>
       <c r="Q45" s="57"/>
       <c r="R45" s="57"/>
@@ -10422,7 +10411,7 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="L46" s="60"/>
+      <c r="L46" s="59"/>
       <c r="O46"/>
       <c r="Q46" s="57"/>
       <c r="R46" s="57"/>
@@ -10432,7 +10421,7 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="L47" s="60"/>
+      <c r="L47" s="59"/>
       <c r="O47"/>
       <c r="Q47" s="57"/>
       <c r="R47" s="57"/>
@@ -10442,7 +10431,7 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="L48" s="60"/>
+      <c r="L48" s="59"/>
       <c r="O48"/>
       <c r="Q48" s="57"/>
       <c r="R48" s="57"/>
@@ -10452,7 +10441,7 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="L49" s="60"/>
+      <c r="L49" s="59"/>
       <c r="O49"/>
       <c r="Q49" s="57"/>
       <c r="R49" s="57"/>
@@ -10462,7 +10451,7 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="L50" s="60"/>
+      <c r="L50" s="59"/>
       <c r="O50"/>
       <c r="Q50" s="57"/>
       <c r="R50" s="57"/>
@@ -10472,7 +10461,7 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="L51" s="60"/>
+      <c r="L51" s="59"/>
       <c r="O51"/>
       <c r="Q51" s="57"/>
       <c r="R51" s="57"/>
@@ -10482,7 +10471,7 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="L52" s="60"/>
+      <c r="L52" s="59"/>
       <c r="O52"/>
       <c r="Q52" s="57"/>
       <c r="R52" s="57"/>
@@ -10492,7 +10481,7 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="L53" s="60"/>
+      <c r="L53" s="59"/>
       <c r="O53"/>
       <c r="Q53" s="57"/>
       <c r="R53" s="57"/>
@@ -10502,7 +10491,7 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="L54" s="60"/>
+      <c r="L54" s="59"/>
       <c r="O54"/>
       <c r="Q54" s="57"/>
       <c r="R54" s="57"/>
@@ -10512,7 +10501,7 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="L55" s="60"/>
+      <c r="L55" s="59"/>
       <c r="O55"/>
       <c r="Q55" s="57"/>
       <c r="R55" s="57"/>
@@ -10522,7 +10511,7 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="L56" s="60"/>
+      <c r="L56" s="59"/>
       <c r="O56"/>
       <c r="Q56" s="57"/>
       <c r="R56" s="57"/>
@@ -10532,7 +10521,7 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="L57" s="60"/>
+      <c r="L57" s="59"/>
       <c r="O57"/>
       <c r="Q57" s="57"/>
       <c r="R57" s="57"/>
@@ -10542,7 +10531,7 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="L58" s="60"/>
+      <c r="L58" s="59"/>
       <c r="O58"/>
       <c r="Q58" s="57"/>
       <c r="R58" s="57"/>
@@ -10552,7 +10541,7 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="L59" s="60"/>
+      <c r="L59" s="59"/>
       <c r="O59"/>
       <c r="Q59" s="57"/>
       <c r="R59" s="57"/>
@@ -10562,7 +10551,7 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="L60" s="60"/>
+      <c r="L60" s="59"/>
       <c r="O60"/>
       <c r="Q60" s="57"/>
       <c r="R60" s="57"/>
@@ -10572,7 +10561,7 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="L61" s="60"/>
+      <c r="L61" s="59"/>
       <c r="O61"/>
       <c r="Q61" s="57"/>
       <c r="R61" s="57"/>
@@ -10582,7 +10571,7 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="L62" s="60"/>
+      <c r="L62" s="59"/>
       <c r="O62"/>
       <c r="Q62" s="57"/>
       <c r="R62" s="57"/>
@@ -10592,7 +10581,7 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="L63" s="60"/>
+      <c r="L63" s="59"/>
       <c r="O63"/>
       <c r="Q63" s="57"/>
       <c r="R63" s="57"/>
@@ -10602,7 +10591,7 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="L64" s="60"/>
+      <c r="L64" s="59"/>
       <c r="O64"/>
       <c r="Q64" s="57"/>
       <c r="R64" s="57"/>
@@ -10612,7 +10601,7 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="L65" s="60"/>
+      <c r="L65" s="59"/>
       <c r="O65"/>
       <c r="Q65" s="57"/>
       <c r="R65" s="57"/>
@@ -10622,17 +10611,17 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="L66" s="60"/>
+      <c r="L66" s="59"/>
       <c r="O66"/>
       <c r="Q66" s="57"/>
       <c r="R66" s="57"/>
     </row>
     <row r="67" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A67" t="str">
-        <f t="shared" ref="A67:A130" si="1">I67&amp;B67</f>
-        <v/>
-      </c>
-      <c r="L67" s="60"/>
+        <f t="shared" ref="A67:A130" si="1">J67&amp;B67</f>
+        <v/>
+      </c>
+      <c r="L67" s="59"/>
       <c r="O67"/>
       <c r="Q67" s="57"/>
       <c r="R67" s="57"/>
@@ -10642,7 +10631,7 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="L68" s="60"/>
+      <c r="L68" s="59"/>
       <c r="O68"/>
       <c r="Q68" s="57"/>
       <c r="R68" s="57"/>
@@ -10652,7 +10641,7 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="L69" s="60"/>
+      <c r="L69" s="59"/>
       <c r="O69"/>
       <c r="Q69" s="57"/>
       <c r="R69" s="57"/>
@@ -10662,7 +10651,7 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="L70" s="60"/>
+      <c r="L70" s="59"/>
       <c r="O70"/>
       <c r="Q70" s="57"/>
       <c r="R70" s="57"/>
@@ -10672,7 +10661,7 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="L71" s="60"/>
+      <c r="L71" s="59"/>
       <c r="O71"/>
       <c r="Q71" s="57"/>
       <c r="R71" s="57"/>
@@ -10682,7 +10671,7 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="L72" s="60"/>
+      <c r="L72" s="59"/>
       <c r="O72"/>
       <c r="Q72" s="57"/>
       <c r="R72" s="57"/>
@@ -10692,7 +10681,7 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="L73" s="60"/>
+      <c r="L73" s="59"/>
       <c r="O73"/>
       <c r="Q73" s="57"/>
       <c r="R73" s="57"/>
@@ -10702,7 +10691,7 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="L74" s="60"/>
+      <c r="L74" s="59"/>
       <c r="O74"/>
       <c r="Q74" s="57"/>
       <c r="R74" s="57"/>
@@ -10712,7 +10701,7 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="L75" s="60"/>
+      <c r="L75" s="59"/>
       <c r="O75"/>
       <c r="Q75" s="57"/>
       <c r="R75" s="57"/>
@@ -10722,7 +10711,7 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="L76" s="60"/>
+      <c r="L76" s="59"/>
       <c r="O76"/>
       <c r="Q76" s="57"/>
       <c r="R76" s="57"/>
@@ -10732,7 +10721,7 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="L77" s="60"/>
+      <c r="L77" s="59"/>
       <c r="O77"/>
       <c r="Q77" s="57"/>
       <c r="R77" s="57"/>
@@ -10742,7 +10731,7 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="L78" s="60"/>
+      <c r="L78" s="59"/>
       <c r="O78"/>
       <c r="Q78" s="57"/>
       <c r="R78" s="57"/>
@@ -10752,7 +10741,7 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="L79" s="60"/>
+      <c r="L79" s="59"/>
       <c r="O79"/>
       <c r="Q79" s="57"/>
       <c r="R79" s="57"/>
@@ -10762,7 +10751,7 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="L80" s="60"/>
+      <c r="L80" s="59"/>
       <c r="O80"/>
       <c r="Q80" s="57"/>
       <c r="R80" s="57"/>
@@ -10772,7 +10761,7 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="L81" s="60"/>
+      <c r="L81" s="59"/>
       <c r="O81"/>
       <c r="Q81" s="57"/>
       <c r="R81" s="57"/>
@@ -10782,7 +10771,7 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="L82" s="60"/>
+      <c r="L82" s="59"/>
       <c r="O82"/>
       <c r="Q82" s="57"/>
       <c r="R82" s="57"/>
@@ -10792,7 +10781,7 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="L83" s="60"/>
+      <c r="L83" s="59"/>
       <c r="O83"/>
       <c r="Q83" s="57"/>
       <c r="R83" s="57"/>
@@ -10802,7 +10791,7 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="L84" s="60"/>
+      <c r="L84" s="59"/>
       <c r="O84"/>
       <c r="Q84" s="57"/>
       <c r="R84" s="57"/>
@@ -10812,7 +10801,7 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="L85" s="60"/>
+      <c r="L85" s="59"/>
       <c r="O85"/>
       <c r="Q85" s="57"/>
       <c r="R85" s="57"/>
@@ -10822,7 +10811,7 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="L86" s="60"/>
+      <c r="L86" s="59"/>
       <c r="O86"/>
       <c r="Q86" s="57"/>
       <c r="R86" s="57"/>
@@ -10832,7 +10821,7 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="L87" s="60"/>
+      <c r="L87" s="59"/>
       <c r="O87"/>
       <c r="Q87" s="57"/>
       <c r="R87" s="57"/>
@@ -10842,7 +10831,7 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="L88" s="60"/>
+      <c r="L88" s="59"/>
       <c r="O88"/>
       <c r="Q88" s="57"/>
       <c r="R88" s="57"/>
@@ -10852,7 +10841,7 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="L89" s="60"/>
+      <c r="L89" s="59"/>
       <c r="O89"/>
       <c r="Q89" s="57"/>
       <c r="R89" s="57"/>
@@ -10862,7 +10851,7 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="L90" s="60"/>
+      <c r="L90" s="59"/>
       <c r="O90"/>
       <c r="Q90" s="57"/>
       <c r="R90" s="57"/>
@@ -10872,7 +10861,7 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="L91" s="60"/>
+      <c r="L91" s="59"/>
       <c r="O91"/>
       <c r="Q91" s="57"/>
       <c r="R91" s="57"/>
@@ -10882,7 +10871,7 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="L92" s="60"/>
+      <c r="L92" s="59"/>
       <c r="O92"/>
       <c r="Q92" s="57"/>
       <c r="R92" s="57"/>
@@ -10892,7 +10881,7 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="L93" s="60"/>
+      <c r="L93" s="59"/>
       <c r="O93"/>
       <c r="Q93" s="57"/>
       <c r="R93" s="57"/>
@@ -10902,7 +10891,7 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="L94" s="60"/>
+      <c r="L94" s="59"/>
       <c r="O94"/>
       <c r="Q94" s="57"/>
       <c r="R94" s="57"/>
@@ -10912,7 +10901,7 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="L95" s="60"/>
+      <c r="L95" s="59"/>
       <c r="O95"/>
       <c r="Q95" s="57"/>
       <c r="R95" s="57"/>
@@ -10922,7 +10911,7 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="L96" s="60"/>
+      <c r="L96" s="59"/>
       <c r="O96"/>
       <c r="Q96" s="57"/>
       <c r="R96" s="57"/>
@@ -10932,7 +10921,7 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="L97" s="60"/>
+      <c r="L97" s="59"/>
       <c r="O97"/>
       <c r="Q97" s="57"/>
       <c r="R97" s="57"/>
@@ -10942,7 +10931,7 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="L98" s="60"/>
+      <c r="L98" s="59"/>
       <c r="O98"/>
       <c r="Q98" s="57"/>
       <c r="R98" s="57"/>
@@ -10952,7 +10941,7 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="L99" s="60"/>
+      <c r="L99" s="59"/>
       <c r="O99"/>
       <c r="Q99" s="57"/>
       <c r="R99" s="57"/>
@@ -10962,7 +10951,7 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="L100" s="60"/>
+      <c r="L100" s="59"/>
       <c r="O100"/>
       <c r="Q100" s="57"/>
       <c r="R100" s="57"/>
@@ -10972,7 +10961,7 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="L101" s="60"/>
+      <c r="L101" s="59"/>
       <c r="O101"/>
       <c r="Q101" s="57"/>
       <c r="R101" s="57"/>
@@ -10982,7 +10971,7 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="L102" s="60"/>
+      <c r="L102" s="59"/>
       <c r="O102"/>
       <c r="Q102" s="57"/>
       <c r="R102" s="57"/>
@@ -10992,7 +10981,7 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="L103" s="60"/>
+      <c r="L103" s="59"/>
       <c r="O103"/>
       <c r="Q103" s="57"/>
       <c r="R103" s="57"/>
@@ -11002,7 +10991,7 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="L104" s="60"/>
+      <c r="L104" s="59"/>
       <c r="O104"/>
       <c r="Q104" s="57"/>
       <c r="R104" s="57"/>
@@ -11012,7 +11001,7 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="L105" s="60"/>
+      <c r="L105" s="59"/>
       <c r="O105"/>
       <c r="Q105" s="57"/>
       <c r="R105" s="57"/>
@@ -11022,7 +11011,7 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="L106" s="60"/>
+      <c r="L106" s="59"/>
       <c r="O106"/>
       <c r="Q106" s="57"/>
       <c r="R106" s="57"/>
@@ -11032,7 +11021,7 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="L107" s="60"/>
+      <c r="L107" s="59"/>
       <c r="O107"/>
       <c r="Q107" s="57"/>
       <c r="R107" s="57"/>
@@ -11042,7 +11031,7 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="L108" s="60"/>
+      <c r="L108" s="59"/>
       <c r="O108"/>
       <c r="Q108" s="57"/>
       <c r="R108" s="57"/>
@@ -11052,7 +11041,7 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="L109" s="60"/>
+      <c r="L109" s="59"/>
       <c r="O109"/>
       <c r="Q109" s="57"/>
       <c r="R109" s="57"/>
@@ -11062,7 +11051,7 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="L110" s="60"/>
+      <c r="L110" s="59"/>
       <c r="O110"/>
       <c r="Q110" s="57"/>
       <c r="R110" s="57"/>
@@ -11072,7 +11061,7 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="L111" s="60"/>
+      <c r="L111" s="59"/>
       <c r="O111"/>
       <c r="Q111" s="57"/>
       <c r="R111" s="57"/>
@@ -11082,7 +11071,7 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="L112" s="60"/>
+      <c r="L112" s="59"/>
       <c r="O112"/>
       <c r="Q112" s="57"/>
       <c r="R112" s="57"/>
@@ -11092,7 +11081,7 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="L113" s="60"/>
+      <c r="L113" s="59"/>
       <c r="O113"/>
       <c r="Q113" s="57"/>
       <c r="R113" s="57"/>
@@ -11102,7 +11091,7 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="L114" s="60"/>
+      <c r="L114" s="59"/>
       <c r="O114"/>
       <c r="Q114" s="57"/>
       <c r="R114" s="57"/>
@@ -11112,7 +11101,7 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="L115" s="60"/>
+      <c r="L115" s="59"/>
       <c r="O115"/>
       <c r="Q115" s="57"/>
       <c r="R115" s="57"/>
@@ -11122,7 +11111,7 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="L116" s="60"/>
+      <c r="L116" s="59"/>
       <c r="O116"/>
       <c r="Q116" s="57"/>
       <c r="R116" s="57"/>
@@ -11132,7 +11121,7 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="L117" s="60"/>
+      <c r="L117" s="59"/>
       <c r="O117"/>
       <c r="Q117" s="57"/>
       <c r="R117" s="57"/>
@@ -11142,7 +11131,7 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="L118" s="60"/>
+      <c r="L118" s="59"/>
       <c r="O118"/>
       <c r="Q118" s="57"/>
       <c r="R118" s="57"/>
@@ -11152,7 +11141,7 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="L119" s="60"/>
+      <c r="L119" s="59"/>
       <c r="O119"/>
       <c r="Q119" s="57"/>
       <c r="R119" s="57"/>
@@ -11162,7 +11151,7 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="L120" s="60"/>
+      <c r="L120" s="59"/>
       <c r="O120"/>
       <c r="Q120" s="57"/>
       <c r="R120" s="57"/>
@@ -11172,7 +11161,7 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="L121" s="60"/>
+      <c r="L121" s="59"/>
       <c r="O121"/>
       <c r="Q121" s="57"/>
       <c r="R121" s="57"/>
@@ -11182,7 +11171,7 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="L122" s="60"/>
+      <c r="L122" s="59"/>
       <c r="O122"/>
       <c r="Q122" s="57"/>
       <c r="R122" s="57"/>
@@ -11192,7 +11181,7 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="L123" s="60"/>
+      <c r="L123" s="59"/>
       <c r="O123"/>
       <c r="Q123" s="57"/>
       <c r="R123" s="57"/>
@@ -11202,7 +11191,7 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="L124" s="60"/>
+      <c r="L124" s="59"/>
       <c r="O124"/>
       <c r="Q124" s="57"/>
       <c r="R124" s="57"/>
@@ -11212,7 +11201,7 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="L125" s="60"/>
+      <c r="L125" s="59"/>
       <c r="O125"/>
     </row>
     <row r="126" spans="1:18" x14ac:dyDescent="0.25">
@@ -11220,7 +11209,7 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="L126" s="60"/>
+      <c r="L126" s="59"/>
       <c r="O126"/>
     </row>
     <row r="127" spans="1:18" x14ac:dyDescent="0.25">
@@ -11228,7 +11217,7 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="L127" s="60"/>
+      <c r="L127" s="59"/>
       <c r="O127"/>
     </row>
     <row r="128" spans="1:18" x14ac:dyDescent="0.25">
@@ -11236,7 +11225,7 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="L128" s="60"/>
+      <c r="L128" s="59"/>
       <c r="O128"/>
     </row>
     <row r="129" spans="1:15" x14ac:dyDescent="0.25">
@@ -11244,7 +11233,7 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="L129" s="60"/>
+      <c r="L129" s="59"/>
       <c r="O129"/>
     </row>
     <row r="130" spans="1:15" x14ac:dyDescent="0.25">
@@ -11252,15 +11241,15 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="L130" s="60"/>
+      <c r="L130" s="59"/>
       <c r="O130"/>
     </row>
     <row r="131" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A131" t="str">
-        <f t="shared" ref="A131:A194" si="2">I131&amp;B131</f>
-        <v/>
-      </c>
-      <c r="L131" s="60"/>
+        <f t="shared" ref="A131:A194" si="2">J131&amp;B131</f>
+        <v/>
+      </c>
+      <c r="L131" s="59"/>
       <c r="O131"/>
     </row>
     <row r="132" spans="1:15" x14ac:dyDescent="0.25">
@@ -11268,7 +11257,7 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="L132" s="60"/>
+      <c r="L132" s="59"/>
       <c r="O132"/>
     </row>
     <row r="133" spans="1:15" x14ac:dyDescent="0.25">
@@ -11276,7 +11265,7 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="L133" s="60"/>
+      <c r="L133" s="59"/>
       <c r="O133"/>
     </row>
     <row r="134" spans="1:15" x14ac:dyDescent="0.25">
@@ -11284,7 +11273,7 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="L134" s="60"/>
+      <c r="L134" s="59"/>
       <c r="O134"/>
     </row>
     <row r="135" spans="1:15" x14ac:dyDescent="0.25">
@@ -11292,7 +11281,7 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="L135" s="60"/>
+      <c r="L135" s="59"/>
       <c r="O135"/>
     </row>
     <row r="136" spans="1:15" x14ac:dyDescent="0.25">
@@ -11300,7 +11289,7 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="L136" s="60"/>
+      <c r="L136" s="59"/>
       <c r="O136"/>
     </row>
     <row r="137" spans="1:15" x14ac:dyDescent="0.25">
@@ -11308,7 +11297,7 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="L137" s="60"/>
+      <c r="L137" s="59"/>
       <c r="O137"/>
     </row>
     <row r="138" spans="1:15" x14ac:dyDescent="0.25">
@@ -11316,7 +11305,7 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="L138" s="60"/>
+      <c r="L138" s="59"/>
       <c r="O138"/>
     </row>
     <row r="139" spans="1:15" x14ac:dyDescent="0.25">
@@ -11324,7 +11313,7 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="L139" s="60"/>
+      <c r="L139" s="59"/>
       <c r="O139"/>
     </row>
     <row r="140" spans="1:15" x14ac:dyDescent="0.25">
@@ -11332,7 +11321,7 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="L140" s="60"/>
+      <c r="L140" s="59"/>
       <c r="O140"/>
     </row>
     <row r="141" spans="1:15" x14ac:dyDescent="0.25">
@@ -11340,7 +11329,7 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="L141" s="60"/>
+      <c r="L141" s="59"/>
       <c r="O141"/>
     </row>
     <row r="142" spans="1:15" x14ac:dyDescent="0.25">
@@ -11348,7 +11337,7 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="L142" s="60"/>
+      <c r="L142" s="59"/>
       <c r="O142"/>
     </row>
     <row r="143" spans="1:15" x14ac:dyDescent="0.25">
@@ -11356,7 +11345,7 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="L143" s="60"/>
+      <c r="L143" s="59"/>
       <c r="O143"/>
     </row>
     <row r="144" spans="1:15" x14ac:dyDescent="0.25">
@@ -11364,7 +11353,7 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="L144" s="60"/>
+      <c r="L144" s="59"/>
       <c r="O144"/>
     </row>
     <row r="145" spans="1:15" x14ac:dyDescent="0.25">
@@ -11372,7 +11361,7 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="L145" s="60"/>
+      <c r="L145" s="59"/>
       <c r="O145"/>
     </row>
     <row r="146" spans="1:15" x14ac:dyDescent="0.25">
@@ -11380,7 +11369,7 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="L146" s="60"/>
+      <c r="L146" s="59"/>
       <c r="O146"/>
     </row>
     <row r="147" spans="1:15" x14ac:dyDescent="0.25">
@@ -11388,7 +11377,7 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="L147" s="60"/>
+      <c r="L147" s="59"/>
       <c r="O147"/>
     </row>
     <row r="148" spans="1:15" x14ac:dyDescent="0.25">
@@ -11396,7 +11385,7 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="L148" s="60"/>
+      <c r="L148" s="59"/>
       <c r="O148"/>
     </row>
     <row r="149" spans="1:15" x14ac:dyDescent="0.25">
@@ -11404,7 +11393,7 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="L149" s="60"/>
+      <c r="L149" s="59"/>
       <c r="O149"/>
     </row>
     <row r="150" spans="1:15" x14ac:dyDescent="0.25">
@@ -11412,7 +11401,7 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="L150" s="60"/>
+      <c r="L150" s="59"/>
       <c r="O150"/>
     </row>
     <row r="151" spans="1:15" x14ac:dyDescent="0.25">
@@ -11420,7 +11409,7 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="L151" s="60"/>
+      <c r="L151" s="59"/>
       <c r="O151"/>
     </row>
     <row r="152" spans="1:15" x14ac:dyDescent="0.25">
@@ -11428,7 +11417,7 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="L152" s="60"/>
+      <c r="L152" s="59"/>
       <c r="O152"/>
     </row>
     <row r="153" spans="1:15" x14ac:dyDescent="0.25">
@@ -11436,7 +11425,7 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="L153" s="60"/>
+      <c r="L153" s="59"/>
       <c r="O153"/>
     </row>
     <row r="154" spans="1:15" x14ac:dyDescent="0.25">
@@ -11444,7 +11433,7 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="L154" s="60"/>
+      <c r="L154" s="59"/>
       <c r="O154"/>
     </row>
     <row r="155" spans="1:15" x14ac:dyDescent="0.25">
@@ -11452,7 +11441,7 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="L155" s="60"/>
+      <c r="L155" s="59"/>
       <c r="O155"/>
     </row>
     <row r="156" spans="1:15" x14ac:dyDescent="0.25">
@@ -11460,7 +11449,7 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="L156" s="60"/>
+      <c r="L156" s="59"/>
       <c r="O156"/>
     </row>
     <row r="157" spans="1:15" x14ac:dyDescent="0.25">
@@ -11468,7 +11457,7 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="L157" s="60"/>
+      <c r="L157" s="59"/>
       <c r="O157"/>
     </row>
     <row r="158" spans="1:15" x14ac:dyDescent="0.25">
@@ -11476,7 +11465,7 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="L158" s="60"/>
+      <c r="L158" s="59"/>
       <c r="O158"/>
     </row>
     <row r="159" spans="1:15" x14ac:dyDescent="0.25">
@@ -11484,7 +11473,7 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="L159" s="60"/>
+      <c r="L159" s="59"/>
       <c r="O159"/>
     </row>
     <row r="160" spans="1:15" x14ac:dyDescent="0.25">
@@ -11492,7 +11481,7 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="L160" s="60"/>
+      <c r="L160" s="59"/>
       <c r="O160"/>
     </row>
     <row r="161" spans="1:15" x14ac:dyDescent="0.25">
@@ -11500,7 +11489,7 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="L161" s="60"/>
+      <c r="L161" s="59"/>
       <c r="O161"/>
     </row>
     <row r="162" spans="1:15" x14ac:dyDescent="0.25">
@@ -11508,7 +11497,7 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="L162" s="60"/>
+      <c r="L162" s="59"/>
       <c r="O162"/>
     </row>
     <row r="163" spans="1:15" x14ac:dyDescent="0.25">
@@ -11516,7 +11505,7 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="L163" s="60"/>
+      <c r="L163" s="59"/>
       <c r="O163"/>
     </row>
     <row r="164" spans="1:15" x14ac:dyDescent="0.25">
@@ -11524,7 +11513,7 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="L164" s="60"/>
+      <c r="L164" s="59"/>
       <c r="O164"/>
     </row>
     <row r="165" spans="1:15" x14ac:dyDescent="0.25">
@@ -11532,7 +11521,7 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="L165" s="60"/>
+      <c r="L165" s="59"/>
       <c r="O165"/>
     </row>
     <row r="166" spans="1:15" x14ac:dyDescent="0.25">
@@ -11540,7 +11529,7 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="L166" s="60"/>
+      <c r="L166" s="59"/>
       <c r="O166"/>
     </row>
     <row r="167" spans="1:15" x14ac:dyDescent="0.25">
@@ -11548,7 +11537,7 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="L167" s="60"/>
+      <c r="L167" s="59"/>
       <c r="O167"/>
     </row>
     <row r="168" spans="1:15" x14ac:dyDescent="0.25">
@@ -11556,7 +11545,7 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="L168" s="60"/>
+      <c r="L168" s="59"/>
       <c r="O168"/>
     </row>
     <row r="169" spans="1:15" x14ac:dyDescent="0.25">
@@ -11564,7 +11553,7 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="L169" s="60"/>
+      <c r="L169" s="59"/>
       <c r="O169"/>
     </row>
     <row r="170" spans="1:15" x14ac:dyDescent="0.25">
@@ -11572,7 +11561,7 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="L170" s="60"/>
+      <c r="L170" s="59"/>
       <c r="O170"/>
     </row>
     <row r="171" spans="1:15" x14ac:dyDescent="0.25">
@@ -11580,7 +11569,7 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="L171" s="60"/>
+      <c r="L171" s="59"/>
       <c r="O171"/>
     </row>
     <row r="172" spans="1:15" x14ac:dyDescent="0.25">
@@ -11588,7 +11577,7 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="L172" s="60"/>
+      <c r="L172" s="59"/>
       <c r="O172"/>
     </row>
     <row r="173" spans="1:15" x14ac:dyDescent="0.25">
@@ -11596,7 +11585,7 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="L173" s="60"/>
+      <c r="L173" s="59"/>
       <c r="O173"/>
     </row>
     <row r="174" spans="1:15" x14ac:dyDescent="0.25">
@@ -11604,7 +11593,7 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="L174" s="60"/>
+      <c r="L174" s="59"/>
       <c r="O174"/>
     </row>
     <row r="175" spans="1:15" x14ac:dyDescent="0.25">
@@ -11612,7 +11601,7 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="L175" s="60"/>
+      <c r="L175" s="59"/>
       <c r="O175"/>
     </row>
     <row r="176" spans="1:15" x14ac:dyDescent="0.25">
@@ -11620,7 +11609,7 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="L176" s="60"/>
+      <c r="L176" s="59"/>
       <c r="O176"/>
     </row>
     <row r="177" spans="1:15" x14ac:dyDescent="0.25">
@@ -11628,7 +11617,7 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="L177" s="60"/>
+      <c r="L177" s="59"/>
       <c r="O177"/>
     </row>
     <row r="178" spans="1:15" x14ac:dyDescent="0.25">
@@ -11636,7 +11625,7 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="L178" s="60"/>
+      <c r="L178" s="59"/>
       <c r="O178"/>
     </row>
     <row r="179" spans="1:15" x14ac:dyDescent="0.25">
@@ -11644,7 +11633,7 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="L179" s="60"/>
+      <c r="L179" s="59"/>
       <c r="O179"/>
     </row>
     <row r="180" spans="1:15" x14ac:dyDescent="0.25">
@@ -11652,7 +11641,7 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="L180" s="60"/>
+      <c r="L180" s="59"/>
       <c r="O180"/>
     </row>
     <row r="181" spans="1:15" x14ac:dyDescent="0.25">
@@ -11660,7 +11649,7 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="L181" s="60"/>
+      <c r="L181" s="59"/>
       <c r="O181"/>
     </row>
     <row r="182" spans="1:15" x14ac:dyDescent="0.25">
@@ -11668,7 +11657,7 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="L182" s="60"/>
+      <c r="L182" s="59"/>
       <c r="O182"/>
     </row>
     <row r="183" spans="1:15" x14ac:dyDescent="0.25">
@@ -11676,7 +11665,7 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="L183" s="60"/>
+      <c r="L183" s="59"/>
       <c r="O183"/>
     </row>
     <row r="184" spans="1:15" x14ac:dyDescent="0.25">
@@ -11684,7 +11673,7 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="L184" s="60"/>
+      <c r="L184" s="59"/>
       <c r="O184"/>
     </row>
     <row r="185" spans="1:15" x14ac:dyDescent="0.25">
@@ -11692,7 +11681,7 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="L185" s="60"/>
+      <c r="L185" s="59"/>
       <c r="O185"/>
     </row>
     <row r="186" spans="1:15" x14ac:dyDescent="0.25">
@@ -11700,7 +11689,7 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="L186" s="60"/>
+      <c r="L186" s="59"/>
       <c r="O186"/>
     </row>
     <row r="187" spans="1:15" x14ac:dyDescent="0.25">
@@ -11708,7 +11697,7 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="L187" s="60"/>
+      <c r="L187" s="59"/>
       <c r="O187"/>
     </row>
     <row r="188" spans="1:15" x14ac:dyDescent="0.25">
@@ -11716,7 +11705,7 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="L188" s="60"/>
+      <c r="L188" s="59"/>
       <c r="O188"/>
     </row>
     <row r="189" spans="1:15" x14ac:dyDescent="0.25">
@@ -11724,7 +11713,7 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="L189" s="60"/>
+      <c r="L189" s="59"/>
       <c r="O189"/>
     </row>
     <row r="190" spans="1:15" x14ac:dyDescent="0.25">
@@ -11732,7 +11721,7 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="L190" s="60"/>
+      <c r="L190" s="59"/>
       <c r="O190"/>
     </row>
     <row r="191" spans="1:15" x14ac:dyDescent="0.25">
@@ -11740,7 +11729,7 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="L191" s="60"/>
+      <c r="L191" s="59"/>
       <c r="O191"/>
     </row>
     <row r="192" spans="1:15" x14ac:dyDescent="0.25">
@@ -11748,7 +11737,7 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="L192" s="60"/>
+      <c r="L192" s="59"/>
       <c r="O192"/>
     </row>
     <row r="193" spans="1:15" x14ac:dyDescent="0.25">
@@ -11756,7 +11745,7 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="L193" s="60"/>
+      <c r="L193" s="59"/>
       <c r="O193"/>
     </row>
     <row r="194" spans="1:15" x14ac:dyDescent="0.25">
@@ -11764,15 +11753,15 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="L194" s="60"/>
+      <c r="L194" s="59"/>
       <c r="O194"/>
     </row>
     <row r="195" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A195" t="str">
-        <f t="shared" ref="A195:A258" si="3">I195&amp;B195</f>
-        <v/>
-      </c>
-      <c r="L195" s="60"/>
+        <f t="shared" ref="A195:A258" si="3">J195&amp;B195</f>
+        <v/>
+      </c>
+      <c r="L195" s="59"/>
       <c r="O195"/>
     </row>
     <row r="196" spans="1:15" x14ac:dyDescent="0.25">
@@ -11780,7 +11769,7 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="L196" s="60"/>
+      <c r="L196" s="59"/>
       <c r="O196"/>
     </row>
     <row r="197" spans="1:15" x14ac:dyDescent="0.25">
@@ -11788,7 +11777,7 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="L197" s="60"/>
+      <c r="L197" s="59"/>
       <c r="O197"/>
     </row>
     <row r="198" spans="1:15" x14ac:dyDescent="0.25">
@@ -11796,7 +11785,7 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="L198" s="60"/>
+      <c r="L198" s="59"/>
       <c r="O198"/>
     </row>
     <row r="199" spans="1:15" x14ac:dyDescent="0.25">
@@ -11804,7 +11793,7 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="L199" s="60"/>
+      <c r="L199" s="59"/>
       <c r="O199"/>
     </row>
     <row r="200" spans="1:15" x14ac:dyDescent="0.25">
@@ -11812,7 +11801,7 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="L200" s="60"/>
+      <c r="L200" s="59"/>
       <c r="O200"/>
     </row>
     <row r="201" spans="1:15" x14ac:dyDescent="0.25">
@@ -11820,7 +11809,7 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="L201" s="60"/>
+      <c r="L201" s="59"/>
       <c r="O201"/>
     </row>
     <row r="202" spans="1:15" x14ac:dyDescent="0.25">
@@ -11828,7 +11817,7 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="L202" s="60"/>
+      <c r="L202" s="59"/>
       <c r="O202"/>
     </row>
     <row r="203" spans="1:15" x14ac:dyDescent="0.25">
@@ -11836,7 +11825,7 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="L203" s="60"/>
+      <c r="L203" s="59"/>
       <c r="O203"/>
     </row>
     <row r="204" spans="1:15" x14ac:dyDescent="0.25">
@@ -11844,7 +11833,7 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="L204" s="60"/>
+      <c r="L204" s="59"/>
       <c r="O204"/>
     </row>
     <row r="205" spans="1:15" x14ac:dyDescent="0.25">
@@ -11852,7 +11841,7 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="L205" s="60"/>
+      <c r="L205" s="59"/>
       <c r="O205"/>
     </row>
     <row r="206" spans="1:15" x14ac:dyDescent="0.25">
@@ -11860,7 +11849,7 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="L206" s="60"/>
+      <c r="L206" s="59"/>
       <c r="O206"/>
     </row>
     <row r="207" spans="1:15" x14ac:dyDescent="0.25">
@@ -11868,7 +11857,7 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="L207" s="60"/>
+      <c r="L207" s="59"/>
       <c r="O207"/>
     </row>
     <row r="208" spans="1:15" x14ac:dyDescent="0.25">
@@ -11876,7 +11865,7 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="L208" s="60"/>
+      <c r="L208" s="59"/>
       <c r="O208"/>
     </row>
     <row r="209" spans="1:15" x14ac:dyDescent="0.25">
@@ -11884,7 +11873,7 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="L209" s="60"/>
+      <c r="L209" s="59"/>
       <c r="O209"/>
     </row>
     <row r="210" spans="1:15" x14ac:dyDescent="0.25">
@@ -11892,7 +11881,7 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="L210" s="60"/>
+      <c r="L210" s="59"/>
       <c r="O210"/>
     </row>
     <row r="211" spans="1:15" x14ac:dyDescent="0.25">
@@ -11900,7 +11889,7 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="L211" s="60"/>
+      <c r="L211" s="59"/>
       <c r="O211"/>
     </row>
     <row r="212" spans="1:15" x14ac:dyDescent="0.25">
@@ -11908,7 +11897,7 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="L212" s="60"/>
+      <c r="L212" s="59"/>
       <c r="O212"/>
     </row>
     <row r="213" spans="1:15" x14ac:dyDescent="0.25">
@@ -11916,7 +11905,7 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="L213" s="60"/>
+      <c r="L213" s="59"/>
       <c r="O213"/>
     </row>
     <row r="214" spans="1:15" x14ac:dyDescent="0.25">
@@ -11924,7 +11913,7 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="L214" s="60"/>
+      <c r="L214" s="59"/>
       <c r="O214"/>
     </row>
     <row r="215" spans="1:15" x14ac:dyDescent="0.25">
@@ -11932,7 +11921,7 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="L215" s="60"/>
+      <c r="L215" s="59"/>
       <c r="O215"/>
     </row>
     <row r="216" spans="1:15" x14ac:dyDescent="0.25">
@@ -11940,7 +11929,7 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="L216" s="60"/>
+      <c r="L216" s="59"/>
       <c r="O216"/>
     </row>
     <row r="217" spans="1:15" x14ac:dyDescent="0.25">
@@ -11948,7 +11937,7 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="L217" s="60"/>
+      <c r="L217" s="59"/>
       <c r="O217"/>
     </row>
     <row r="218" spans="1:15" x14ac:dyDescent="0.25">
@@ -11956,7 +11945,7 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="L218" s="60"/>
+      <c r="L218" s="59"/>
       <c r="O218"/>
     </row>
     <row r="219" spans="1:15" x14ac:dyDescent="0.25">
@@ -11964,7 +11953,7 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="L219" s="60"/>
+      <c r="L219" s="59"/>
       <c r="O219"/>
     </row>
     <row r="220" spans="1:15" x14ac:dyDescent="0.25">
@@ -11972,7 +11961,7 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="L220" s="60"/>
+      <c r="L220" s="59"/>
       <c r="O220"/>
     </row>
     <row r="221" spans="1:15" x14ac:dyDescent="0.25">
@@ -11980,7 +11969,7 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="L221" s="60"/>
+      <c r="L221" s="59"/>
       <c r="O221"/>
     </row>
     <row r="222" spans="1:15" x14ac:dyDescent="0.25">
@@ -11988,7 +11977,7 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="L222" s="60"/>
+      <c r="L222" s="59"/>
       <c r="O222"/>
     </row>
     <row r="223" spans="1:15" x14ac:dyDescent="0.25">
@@ -11996,7 +11985,7 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="L223" s="60"/>
+      <c r="L223" s="59"/>
       <c r="O223"/>
     </row>
     <row r="224" spans="1:15" x14ac:dyDescent="0.25">
@@ -12004,7 +11993,7 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="L224" s="60"/>
+      <c r="L224" s="59"/>
       <c r="O224"/>
     </row>
     <row r="225" spans="1:15" x14ac:dyDescent="0.25">
@@ -12012,7 +12001,7 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="L225" s="60"/>
+      <c r="L225" s="59"/>
       <c r="O225"/>
     </row>
     <row r="226" spans="1:15" x14ac:dyDescent="0.25">
@@ -12020,7 +12009,7 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="L226" s="60"/>
+      <c r="L226" s="59"/>
       <c r="O226"/>
     </row>
     <row r="227" spans="1:15" x14ac:dyDescent="0.25">
@@ -12028,7 +12017,7 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="L227" s="60"/>
+      <c r="L227" s="59"/>
       <c r="O227"/>
     </row>
     <row r="228" spans="1:15" x14ac:dyDescent="0.25">
@@ -12036,7 +12025,7 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="L228" s="60"/>
+      <c r="L228" s="59"/>
       <c r="O228"/>
     </row>
     <row r="229" spans="1:15" x14ac:dyDescent="0.25">
@@ -12044,7 +12033,7 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="L229" s="60"/>
+      <c r="L229" s="59"/>
       <c r="O229"/>
     </row>
     <row r="230" spans="1:15" x14ac:dyDescent="0.25">
@@ -12052,7 +12041,7 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="L230" s="60"/>
+      <c r="L230" s="59"/>
       <c r="O230"/>
     </row>
     <row r="231" spans="1:15" x14ac:dyDescent="0.25">
@@ -12060,7 +12049,7 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="L231" s="60"/>
+      <c r="L231" s="59"/>
       <c r="O231"/>
     </row>
     <row r="232" spans="1:15" x14ac:dyDescent="0.25">
@@ -12068,7 +12057,7 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="L232" s="60"/>
+      <c r="L232" s="59"/>
       <c r="O232"/>
     </row>
     <row r="233" spans="1:15" x14ac:dyDescent="0.25">
@@ -12076,7 +12065,7 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="L233" s="60"/>
+      <c r="L233" s="59"/>
       <c r="O233"/>
     </row>
     <row r="234" spans="1:15" x14ac:dyDescent="0.25">
@@ -12084,7 +12073,7 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="L234" s="60"/>
+      <c r="L234" s="59"/>
       <c r="O234"/>
     </row>
     <row r="235" spans="1:15" x14ac:dyDescent="0.25">
@@ -12092,7 +12081,7 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="L235" s="60"/>
+      <c r="L235" s="59"/>
       <c r="O235"/>
     </row>
     <row r="236" spans="1:15" x14ac:dyDescent="0.25">
@@ -12100,7 +12089,7 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="L236" s="60"/>
+      <c r="L236" s="59"/>
       <c r="O236"/>
     </row>
     <row r="237" spans="1:15" x14ac:dyDescent="0.25">
@@ -12108,7 +12097,7 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="L237" s="60"/>
+      <c r="L237" s="59"/>
       <c r="O237"/>
     </row>
     <row r="238" spans="1:15" x14ac:dyDescent="0.25">
@@ -12116,7 +12105,7 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="L238" s="60"/>
+      <c r="L238" s="59"/>
       <c r="O238"/>
     </row>
     <row r="239" spans="1:15" x14ac:dyDescent="0.25">
@@ -12124,7 +12113,7 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="L239" s="60"/>
+      <c r="L239" s="59"/>
       <c r="O239"/>
     </row>
     <row r="240" spans="1:15" x14ac:dyDescent="0.25">
@@ -12132,7 +12121,7 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="L240" s="60"/>
+      <c r="L240" s="59"/>
       <c r="O240"/>
     </row>
     <row r="241" spans="1:15" x14ac:dyDescent="0.25">
@@ -12140,7 +12129,7 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="L241" s="60"/>
+      <c r="L241" s="59"/>
       <c r="O241"/>
     </row>
     <row r="242" spans="1:15" x14ac:dyDescent="0.25">
@@ -12148,7 +12137,7 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="L242" s="60"/>
+      <c r="L242" s="59"/>
       <c r="O242"/>
     </row>
     <row r="243" spans="1:15" x14ac:dyDescent="0.25">
@@ -12156,7 +12145,7 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="L243" s="60"/>
+      <c r="L243" s="59"/>
       <c r="O243"/>
     </row>
     <row r="244" spans="1:15" x14ac:dyDescent="0.25">
@@ -12164,7 +12153,7 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="L244" s="60"/>
+      <c r="L244" s="59"/>
       <c r="O244"/>
     </row>
     <row r="245" spans="1:15" x14ac:dyDescent="0.25">
@@ -12172,7 +12161,7 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="L245" s="60"/>
+      <c r="L245" s="59"/>
       <c r="O245"/>
     </row>
     <row r="246" spans="1:15" x14ac:dyDescent="0.25">
@@ -12180,7 +12169,7 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="L246" s="60"/>
+      <c r="L246" s="59"/>
       <c r="O246"/>
     </row>
     <row r="247" spans="1:15" x14ac:dyDescent="0.25">
@@ -12188,7 +12177,7 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="L247" s="60"/>
+      <c r="L247" s="59"/>
       <c r="O247"/>
     </row>
     <row r="248" spans="1:15" x14ac:dyDescent="0.25">
@@ -12196,7 +12185,7 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="L248" s="60"/>
+      <c r="L248" s="59"/>
       <c r="O248"/>
     </row>
     <row r="249" spans="1:15" x14ac:dyDescent="0.25">
@@ -12204,7 +12193,7 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="L249" s="60"/>
+      <c r="L249" s="59"/>
       <c r="O249"/>
     </row>
     <row r="250" spans="1:15" x14ac:dyDescent="0.25">
@@ -12212,7 +12201,7 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="L250" s="60"/>
+      <c r="L250" s="59"/>
       <c r="O250"/>
     </row>
     <row r="251" spans="1:15" x14ac:dyDescent="0.25">
@@ -12220,7 +12209,7 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="L251" s="60"/>
+      <c r="L251" s="59"/>
       <c r="O251"/>
     </row>
     <row r="252" spans="1:15" x14ac:dyDescent="0.25">
@@ -12228,7 +12217,7 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="L252" s="60"/>
+      <c r="L252" s="59"/>
       <c r="O252"/>
     </row>
     <row r="253" spans="1:15" x14ac:dyDescent="0.25">
@@ -12236,7 +12225,7 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="L253" s="60"/>
+      <c r="L253" s="59"/>
       <c r="O253"/>
     </row>
     <row r="254" spans="1:15" x14ac:dyDescent="0.25">
@@ -12244,7 +12233,7 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="L254" s="60"/>
+      <c r="L254" s="59"/>
       <c r="O254"/>
     </row>
     <row r="255" spans="1:15" x14ac:dyDescent="0.25">
@@ -12252,7 +12241,7 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="L255" s="60"/>
+      <c r="L255" s="59"/>
       <c r="O255"/>
     </row>
     <row r="256" spans="1:15" x14ac:dyDescent="0.25">
@@ -12260,7 +12249,7 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="L256" s="60"/>
+      <c r="L256" s="59"/>
       <c r="O256"/>
     </row>
     <row r="257" spans="1:15" x14ac:dyDescent="0.25">
@@ -12268,7 +12257,7 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="L257" s="60"/>
+      <c r="L257" s="59"/>
       <c r="O257"/>
     </row>
     <row r="258" spans="1:15" x14ac:dyDescent="0.25">
@@ -12276,15 +12265,15 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="L258" s="60"/>
+      <c r="L258" s="59"/>
       <c r="O258"/>
     </row>
     <row r="259" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A259" t="str">
-        <f t="shared" ref="A259:A322" si="4">I259&amp;B259</f>
-        <v/>
-      </c>
-      <c r="L259" s="60"/>
+        <f t="shared" ref="A259:A322" si="4">J259&amp;B259</f>
+        <v/>
+      </c>
+      <c r="L259" s="59"/>
       <c r="O259"/>
     </row>
     <row r="260" spans="1:15" x14ac:dyDescent="0.25">
@@ -12292,7 +12281,7 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="L260" s="60"/>
+      <c r="L260" s="59"/>
       <c r="O260"/>
     </row>
     <row r="261" spans="1:15" x14ac:dyDescent="0.25">
@@ -12300,7 +12289,7 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="L261" s="60"/>
+      <c r="L261" s="59"/>
       <c r="O261"/>
     </row>
     <row r="262" spans="1:15" x14ac:dyDescent="0.25">
@@ -12308,7 +12297,7 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="L262" s="60"/>
+      <c r="L262" s="59"/>
       <c r="O262"/>
     </row>
     <row r="263" spans="1:15" x14ac:dyDescent="0.25">
@@ -12316,7 +12305,7 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="L263" s="60"/>
+      <c r="L263" s="59"/>
       <c r="O263"/>
     </row>
     <row r="264" spans="1:15" x14ac:dyDescent="0.25">
@@ -12324,7 +12313,7 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="L264" s="60"/>
+      <c r="L264" s="59"/>
       <c r="O264"/>
     </row>
     <row r="265" spans="1:15" x14ac:dyDescent="0.25">
@@ -12332,7 +12321,7 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="L265" s="60"/>
+      <c r="L265" s="59"/>
       <c r="O265"/>
     </row>
     <row r="266" spans="1:15" x14ac:dyDescent="0.25">
@@ -12340,7 +12329,7 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="L266" s="60"/>
+      <c r="L266" s="59"/>
       <c r="O266"/>
     </row>
     <row r="267" spans="1:15" x14ac:dyDescent="0.25">
@@ -12348,7 +12337,7 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="L267" s="60"/>
+      <c r="L267" s="59"/>
       <c r="O267"/>
     </row>
     <row r="268" spans="1:15" x14ac:dyDescent="0.25">
@@ -12356,7 +12345,7 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="L268" s="60"/>
+      <c r="L268" s="59"/>
       <c r="O268"/>
     </row>
     <row r="269" spans="1:15" x14ac:dyDescent="0.25">
@@ -12364,7 +12353,7 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="L269" s="60"/>
+      <c r="L269" s="59"/>
       <c r="O269"/>
     </row>
     <row r="270" spans="1:15" x14ac:dyDescent="0.25">
@@ -12372,7 +12361,7 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="L270" s="60"/>
+      <c r="L270" s="59"/>
       <c r="O270"/>
     </row>
     <row r="271" spans="1:15" x14ac:dyDescent="0.25">
@@ -12380,7 +12369,7 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="L271" s="60"/>
+      <c r="L271" s="59"/>
       <c r="O271"/>
     </row>
     <row r="272" spans="1:15" x14ac:dyDescent="0.25">
@@ -12388,7 +12377,7 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="L272" s="60"/>
+      <c r="L272" s="59"/>
       <c r="O272"/>
     </row>
     <row r="273" spans="1:15" x14ac:dyDescent="0.25">
@@ -12396,7 +12385,7 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="L273" s="60"/>
+      <c r="L273" s="59"/>
       <c r="O273"/>
     </row>
     <row r="274" spans="1:15" x14ac:dyDescent="0.25">
@@ -12404,7 +12393,7 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="L274" s="60"/>
+      <c r="L274" s="59"/>
       <c r="O274"/>
     </row>
     <row r="275" spans="1:15" x14ac:dyDescent="0.25">
@@ -12412,7 +12401,7 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="L275" s="60"/>
+      <c r="L275" s="59"/>
       <c r="O275"/>
     </row>
     <row r="276" spans="1:15" x14ac:dyDescent="0.25">
@@ -12420,7 +12409,7 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="L276" s="60"/>
+      <c r="L276" s="59"/>
       <c r="O276"/>
     </row>
     <row r="277" spans="1:15" x14ac:dyDescent="0.25">
@@ -12428,7 +12417,7 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="L277" s="60"/>
+      <c r="L277" s="59"/>
       <c r="O277"/>
     </row>
     <row r="278" spans="1:15" x14ac:dyDescent="0.25">
@@ -12436,7 +12425,7 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="L278" s="60"/>
+      <c r="L278" s="59"/>
       <c r="O278"/>
     </row>
     <row r="279" spans="1:15" x14ac:dyDescent="0.25">
@@ -12444,7 +12433,7 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="L279" s="60"/>
+      <c r="L279" s="59"/>
       <c r="O279"/>
     </row>
     <row r="280" spans="1:15" x14ac:dyDescent="0.25">
@@ -12452,7 +12441,7 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="L280" s="60"/>
+      <c r="L280" s="59"/>
       <c r="O280"/>
     </row>
     <row r="281" spans="1:15" x14ac:dyDescent="0.25">
@@ -12460,7 +12449,7 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="L281" s="60"/>
+      <c r="L281" s="59"/>
       <c r="O281"/>
     </row>
     <row r="282" spans="1:15" x14ac:dyDescent="0.25">
@@ -12468,7 +12457,7 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="L282" s="60"/>
+      <c r="L282" s="59"/>
       <c r="O282"/>
     </row>
     <row r="283" spans="1:15" x14ac:dyDescent="0.25">
@@ -12476,7 +12465,7 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="L283" s="60"/>
+      <c r="L283" s="59"/>
       <c r="O283"/>
     </row>
     <row r="284" spans="1:15" x14ac:dyDescent="0.25">
@@ -12484,7 +12473,7 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="L284" s="60"/>
+      <c r="L284" s="59"/>
       <c r="O284"/>
     </row>
     <row r="285" spans="1:15" x14ac:dyDescent="0.25">
@@ -12492,7 +12481,7 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="L285" s="60"/>
+      <c r="L285" s="59"/>
       <c r="O285"/>
     </row>
     <row r="286" spans="1:15" x14ac:dyDescent="0.25">
@@ -12500,7 +12489,7 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="L286" s="60"/>
+      <c r="L286" s="59"/>
       <c r="O286"/>
     </row>
     <row r="287" spans="1:15" x14ac:dyDescent="0.25">
@@ -12508,7 +12497,7 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="L287" s="60"/>
+      <c r="L287" s="59"/>
       <c r="O287"/>
     </row>
     <row r="288" spans="1:15" x14ac:dyDescent="0.25">
@@ -12516,7 +12505,7 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="L288" s="60"/>
+      <c r="L288" s="59"/>
       <c r="O288"/>
     </row>
     <row r="289" spans="1:15" x14ac:dyDescent="0.25">
@@ -12524,7 +12513,7 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="L289" s="60"/>
+      <c r="L289" s="59"/>
       <c r="O289"/>
     </row>
     <row r="290" spans="1:15" x14ac:dyDescent="0.25">
@@ -12532,7 +12521,7 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="L290" s="60"/>
+      <c r="L290" s="59"/>
       <c r="O290"/>
     </row>
     <row r="291" spans="1:15" x14ac:dyDescent="0.25">
@@ -12540,7 +12529,7 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="L291" s="60"/>
+      <c r="L291" s="59"/>
       <c r="O291"/>
     </row>
     <row r="292" spans="1:15" x14ac:dyDescent="0.25">
@@ -12548,7 +12537,7 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="L292" s="60"/>
+      <c r="L292" s="59"/>
       <c r="O292"/>
     </row>
     <row r="293" spans="1:15" x14ac:dyDescent="0.25">
@@ -12556,7 +12545,7 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="L293" s="60"/>
+      <c r="L293" s="59"/>
       <c r="O293"/>
     </row>
     <row r="294" spans="1:15" x14ac:dyDescent="0.25">
@@ -12564,7 +12553,7 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="L294" s="60"/>
+      <c r="L294" s="59"/>
       <c r="O294"/>
     </row>
     <row r="295" spans="1:15" x14ac:dyDescent="0.25">
@@ -12572,7 +12561,7 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="L295" s="60"/>
+      <c r="L295" s="59"/>
       <c r="O295"/>
     </row>
     <row r="296" spans="1:15" x14ac:dyDescent="0.25">
@@ -12580,7 +12569,7 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="L296" s="60"/>
+      <c r="L296" s="59"/>
       <c r="O296"/>
     </row>
     <row r="297" spans="1:15" x14ac:dyDescent="0.25">
@@ -12588,7 +12577,7 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="L297" s="60"/>
+      <c r="L297" s="59"/>
       <c r="O297"/>
     </row>
     <row r="298" spans="1:15" x14ac:dyDescent="0.25">
@@ -12596,7 +12585,7 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="L298" s="60"/>
+      <c r="L298" s="59"/>
       <c r="O298"/>
     </row>
     <row r="299" spans="1:15" x14ac:dyDescent="0.25">
@@ -12604,7 +12593,7 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="L299" s="60"/>
+      <c r="L299" s="59"/>
       <c r="O299"/>
     </row>
     <row r="300" spans="1:15" x14ac:dyDescent="0.25">
@@ -12612,7 +12601,7 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="L300" s="60"/>
+      <c r="L300" s="59"/>
       <c r="O300"/>
     </row>
     <row r="301" spans="1:15" x14ac:dyDescent="0.25">
@@ -12620,7 +12609,7 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="L301" s="60"/>
+      <c r="L301" s="59"/>
       <c r="O301"/>
     </row>
     <row r="302" spans="1:15" x14ac:dyDescent="0.25">
@@ -12628,7 +12617,7 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="L302" s="60"/>
+      <c r="L302" s="59"/>
       <c r="O302"/>
     </row>
     <row r="303" spans="1:15" x14ac:dyDescent="0.25">
@@ -12636,7 +12625,7 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="L303" s="60"/>
+      <c r="L303" s="59"/>
       <c r="O303"/>
     </row>
     <row r="304" spans="1:15" x14ac:dyDescent="0.25">
@@ -12644,7 +12633,7 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="L304" s="60"/>
+      <c r="L304" s="59"/>
       <c r="O304"/>
     </row>
     <row r="305" spans="1:15" x14ac:dyDescent="0.25">
@@ -12652,7 +12641,7 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="L305" s="60"/>
+      <c r="L305" s="59"/>
       <c r="O305"/>
     </row>
     <row r="306" spans="1:15" x14ac:dyDescent="0.25">
@@ -12660,7 +12649,7 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="L306" s="60"/>
+      <c r="L306" s="59"/>
       <c r="O306"/>
     </row>
     <row r="307" spans="1:15" x14ac:dyDescent="0.25">
@@ -12668,7 +12657,7 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="L307" s="60"/>
+      <c r="L307" s="59"/>
       <c r="O307"/>
     </row>
     <row r="308" spans="1:15" x14ac:dyDescent="0.25">
@@ -12676,7 +12665,7 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="L308" s="60"/>
+      <c r="L308" s="59"/>
       <c r="O308"/>
     </row>
     <row r="309" spans="1:15" x14ac:dyDescent="0.25">
@@ -12684,7 +12673,7 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="L309" s="60"/>
+      <c r="L309" s="59"/>
       <c r="O309"/>
     </row>
     <row r="310" spans="1:15" x14ac:dyDescent="0.25">
@@ -12692,7 +12681,7 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="L310" s="60"/>
+      <c r="L310" s="59"/>
       <c r="O310"/>
     </row>
     <row r="311" spans="1:15" x14ac:dyDescent="0.25">
@@ -12700,7 +12689,7 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="L311" s="60"/>
+      <c r="L311" s="59"/>
       <c r="O311"/>
     </row>
     <row r="312" spans="1:15" x14ac:dyDescent="0.25">
@@ -12708,7 +12697,7 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="L312" s="60"/>
+      <c r="L312" s="59"/>
       <c r="O312"/>
     </row>
     <row r="313" spans="1:15" x14ac:dyDescent="0.25">
@@ -12716,7 +12705,7 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="L313" s="60"/>
+      <c r="L313" s="59"/>
       <c r="O313"/>
     </row>
     <row r="314" spans="1:15" x14ac:dyDescent="0.25">
@@ -12724,7 +12713,7 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="L314" s="60"/>
+      <c r="L314" s="59"/>
       <c r="O314"/>
     </row>
     <row r="315" spans="1:15" x14ac:dyDescent="0.25">
@@ -12732,7 +12721,7 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="L315" s="60"/>
+      <c r="L315" s="59"/>
       <c r="O315"/>
     </row>
     <row r="316" spans="1:15" x14ac:dyDescent="0.25">
@@ -12740,7 +12729,7 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="L316" s="60"/>
+      <c r="L316" s="59"/>
       <c r="O316"/>
     </row>
     <row r="317" spans="1:15" x14ac:dyDescent="0.25">
@@ -12748,7 +12737,7 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="L317" s="60"/>
+      <c r="L317" s="59"/>
       <c r="O317"/>
     </row>
     <row r="318" spans="1:15" x14ac:dyDescent="0.25">
@@ -12756,7 +12745,7 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="L318" s="60"/>
+      <c r="L318" s="59"/>
       <c r="O318"/>
     </row>
     <row r="319" spans="1:15" x14ac:dyDescent="0.25">
@@ -12764,7 +12753,7 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="L319" s="60"/>
+      <c r="L319" s="59"/>
       <c r="O319"/>
     </row>
     <row r="320" spans="1:15" x14ac:dyDescent="0.25">
@@ -12772,7 +12761,7 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="L320" s="60"/>
+      <c r="L320" s="59"/>
       <c r="O320"/>
     </row>
     <row r="321" spans="1:15" x14ac:dyDescent="0.25">
@@ -12780,7 +12769,7 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="L321" s="60"/>
+      <c r="L321" s="59"/>
       <c r="O321"/>
     </row>
     <row r="322" spans="1:15" x14ac:dyDescent="0.25">
@@ -12788,15 +12777,15 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="L322" s="60"/>
+      <c r="L322" s="59"/>
       <c r="O322"/>
     </row>
     <row r="323" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A323" t="str">
-        <f t="shared" ref="A323:A386" si="5">I323&amp;B323</f>
-        <v/>
-      </c>
-      <c r="L323" s="60"/>
+        <f t="shared" ref="A323:A386" si="5">J323&amp;B323</f>
+        <v/>
+      </c>
+      <c r="L323" s="59"/>
       <c r="O323"/>
     </row>
     <row r="324" spans="1:15" x14ac:dyDescent="0.25">
@@ -12804,7 +12793,7 @@
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="L324" s="60"/>
+      <c r="L324" s="59"/>
       <c r="O324"/>
     </row>
     <row r="325" spans="1:15" x14ac:dyDescent="0.25">
@@ -12812,7 +12801,7 @@
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="L325" s="60"/>
+      <c r="L325" s="59"/>
       <c r="O325"/>
     </row>
     <row r="326" spans="1:15" x14ac:dyDescent="0.25">
@@ -12820,7 +12809,7 @@
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="L326" s="60"/>
+      <c r="L326" s="59"/>
       <c r="O326"/>
     </row>
     <row r="327" spans="1:15" x14ac:dyDescent="0.25">
@@ -12828,7 +12817,7 @@
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="L327" s="60"/>
+      <c r="L327" s="59"/>
       <c r="O327"/>
     </row>
     <row r="328" spans="1:15" x14ac:dyDescent="0.25">
@@ -12836,7 +12825,7 @@
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="L328" s="60"/>
+      <c r="L328" s="59"/>
       <c r="O328"/>
     </row>
     <row r="329" spans="1:15" x14ac:dyDescent="0.25">
@@ -12844,7 +12833,7 @@
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="L329" s="60"/>
+      <c r="L329" s="59"/>
       <c r="O329"/>
     </row>
     <row r="330" spans="1:15" x14ac:dyDescent="0.25">
@@ -12852,7 +12841,7 @@
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="L330" s="60"/>
+      <c r="L330" s="59"/>
       <c r="O330"/>
     </row>
     <row r="331" spans="1:15" x14ac:dyDescent="0.25">
@@ -12860,7 +12849,7 @@
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="L331" s="60"/>
+      <c r="L331" s="59"/>
       <c r="O331"/>
     </row>
     <row r="332" spans="1:15" x14ac:dyDescent="0.25">
@@ -12868,7 +12857,7 @@
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="L332" s="60"/>
+      <c r="L332" s="59"/>
       <c r="O332"/>
     </row>
     <row r="333" spans="1:15" x14ac:dyDescent="0.25">
@@ -12876,7 +12865,7 @@
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="L333" s="60"/>
+      <c r="L333" s="59"/>
       <c r="O333"/>
     </row>
     <row r="334" spans="1:15" x14ac:dyDescent="0.25">
@@ -12884,7 +12873,7 @@
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="L334" s="60"/>
+      <c r="L334" s="59"/>
       <c r="O334"/>
     </row>
     <row r="335" spans="1:15" x14ac:dyDescent="0.25">
@@ -12892,7 +12881,7 @@
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="L335" s="60"/>
+      <c r="L335" s="59"/>
       <c r="O335"/>
     </row>
     <row r="336" spans="1:15" x14ac:dyDescent="0.25">
@@ -12900,7 +12889,7 @@
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="L336" s="60"/>
+      <c r="L336" s="59"/>
       <c r="O336"/>
     </row>
     <row r="337" spans="1:15" x14ac:dyDescent="0.25">
@@ -12908,7 +12897,7 @@
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="L337" s="60"/>
+      <c r="L337" s="59"/>
       <c r="O337"/>
     </row>
     <row r="338" spans="1:15" x14ac:dyDescent="0.25">
@@ -12916,7 +12905,7 @@
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="L338" s="60"/>
+      <c r="L338" s="59"/>
       <c r="O338"/>
     </row>
     <row r="339" spans="1:15" x14ac:dyDescent="0.25">
@@ -12924,7 +12913,7 @@
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="L339" s="60"/>
+      <c r="L339" s="59"/>
       <c r="O339"/>
     </row>
     <row r="340" spans="1:15" x14ac:dyDescent="0.25">
@@ -12932,7 +12921,7 @@
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="L340" s="60"/>
+      <c r="L340" s="59"/>
       <c r="O340"/>
     </row>
     <row r="341" spans="1:15" x14ac:dyDescent="0.25">
@@ -12940,7 +12929,7 @@
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="L341" s="60"/>
+      <c r="L341" s="59"/>
       <c r="O341"/>
     </row>
     <row r="342" spans="1:15" x14ac:dyDescent="0.25">
@@ -12948,7 +12937,7 @@
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="L342" s="60"/>
+      <c r="L342" s="59"/>
       <c r="O342"/>
     </row>
     <row r="343" spans="1:15" x14ac:dyDescent="0.25">
@@ -12956,7 +12945,7 @@
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="L343" s="60"/>
+      <c r="L343" s="59"/>
       <c r="O343"/>
     </row>
     <row r="344" spans="1:15" x14ac:dyDescent="0.25">
@@ -12964,7 +12953,7 @@
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="L344" s="60"/>
+      <c r="L344" s="59"/>
       <c r="O344"/>
     </row>
     <row r="345" spans="1:15" x14ac:dyDescent="0.25">
@@ -12972,7 +12961,7 @@
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="L345" s="60"/>
+      <c r="L345" s="59"/>
       <c r="O345"/>
     </row>
     <row r="346" spans="1:15" x14ac:dyDescent="0.25">
@@ -12980,7 +12969,7 @@
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="L346" s="60"/>
+      <c r="L346" s="59"/>
       <c r="O346"/>
     </row>
     <row r="347" spans="1:15" x14ac:dyDescent="0.25">
@@ -12988,7 +12977,7 @@
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="L347" s="60"/>
+      <c r="L347" s="59"/>
       <c r="O347"/>
     </row>
     <row r="348" spans="1:15" x14ac:dyDescent="0.25">
@@ -12996,7 +12985,7 @@
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="L348" s="60"/>
+      <c r="L348" s="59"/>
       <c r="O348"/>
     </row>
     <row r="349" spans="1:15" x14ac:dyDescent="0.25">
@@ -13004,7 +12993,7 @@
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="L349" s="60"/>
+      <c r="L349" s="59"/>
       <c r="O349"/>
     </row>
     <row r="350" spans="1:15" x14ac:dyDescent="0.25">
@@ -13012,7 +13001,7 @@
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="L350" s="60"/>
+      <c r="L350" s="59"/>
       <c r="O350"/>
     </row>
     <row r="351" spans="1:15" x14ac:dyDescent="0.25">
@@ -13020,7 +13009,7 @@
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="L351" s="60"/>
+      <c r="L351" s="59"/>
       <c r="O351"/>
     </row>
     <row r="352" spans="1:15" x14ac:dyDescent="0.25">
@@ -13028,7 +13017,7 @@
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="L352" s="60"/>
+      <c r="L352" s="59"/>
       <c r="O352"/>
     </row>
     <row r="353" spans="1:15" x14ac:dyDescent="0.25">
@@ -13036,7 +13025,7 @@
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="L353" s="60"/>
+      <c r="L353" s="59"/>
       <c r="O353"/>
     </row>
     <row r="354" spans="1:15" x14ac:dyDescent="0.25">
@@ -13044,7 +13033,7 @@
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="L354" s="60"/>
+      <c r="L354" s="59"/>
       <c r="O354"/>
     </row>
     <row r="355" spans="1:15" x14ac:dyDescent="0.25">
@@ -13052,7 +13041,7 @@
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="L355" s="60"/>
+      <c r="L355" s="59"/>
       <c r="O355"/>
     </row>
     <row r="356" spans="1:15" x14ac:dyDescent="0.25">
@@ -13060,7 +13049,7 @@
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="L356" s="60"/>
+      <c r="L356" s="59"/>
       <c r="O356"/>
     </row>
     <row r="357" spans="1:15" x14ac:dyDescent="0.25">
@@ -13068,7 +13057,7 @@
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="L357" s="60"/>
+      <c r="L357" s="59"/>
       <c r="O357"/>
     </row>
     <row r="358" spans="1:15" x14ac:dyDescent="0.25">
@@ -13076,7 +13065,7 @@
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="L358" s="60"/>
+      <c r="L358" s="59"/>
       <c r="O358"/>
     </row>
     <row r="359" spans="1:15" x14ac:dyDescent="0.25">
@@ -13084,7 +13073,7 @@
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="L359" s="60"/>
+      <c r="L359" s="59"/>
       <c r="O359"/>
     </row>
     <row r="360" spans="1:15" x14ac:dyDescent="0.25">
@@ -13092,7 +13081,7 @@
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="L360" s="60"/>
+      <c r="L360" s="59"/>
       <c r="O360"/>
     </row>
     <row r="361" spans="1:15" x14ac:dyDescent="0.25">
@@ -13100,7 +13089,7 @@
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="L361" s="60"/>
+      <c r="L361" s="59"/>
       <c r="O361"/>
     </row>
     <row r="362" spans="1:15" x14ac:dyDescent="0.25">
@@ -13108,7 +13097,7 @@
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="L362" s="60"/>
+      <c r="L362" s="59"/>
       <c r="O362"/>
     </row>
     <row r="363" spans="1:15" x14ac:dyDescent="0.25">
@@ -13116,7 +13105,7 @@
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="L363" s="60"/>
+      <c r="L363" s="59"/>
       <c r="O363"/>
     </row>
     <row r="364" spans="1:15" x14ac:dyDescent="0.25">
@@ -13124,7 +13113,7 @@
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="L364" s="60"/>
+      <c r="L364" s="59"/>
       <c r="O364"/>
     </row>
     <row r="365" spans="1:15" x14ac:dyDescent="0.25">
@@ -13132,7 +13121,7 @@
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="L365" s="60"/>
+      <c r="L365" s="59"/>
       <c r="O365"/>
     </row>
     <row r="366" spans="1:15" x14ac:dyDescent="0.25">
@@ -13140,7 +13129,7 @@
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="L366" s="60"/>
+      <c r="L366" s="59"/>
       <c r="O366"/>
     </row>
     <row r="367" spans="1:15" x14ac:dyDescent="0.25">
@@ -13148,7 +13137,7 @@
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="L367" s="60"/>
+      <c r="L367" s="59"/>
       <c r="O367"/>
     </row>
     <row r="368" spans="1:15" x14ac:dyDescent="0.25">
@@ -13156,7 +13145,7 @@
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="L368" s="60"/>
+      <c r="L368" s="59"/>
       <c r="O368"/>
     </row>
     <row r="369" spans="1:15" x14ac:dyDescent="0.25">
@@ -13164,7 +13153,7 @@
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="L369" s="60"/>
+      <c r="L369" s="59"/>
       <c r="O369"/>
     </row>
     <row r="370" spans="1:15" x14ac:dyDescent="0.25">
@@ -13172,7 +13161,7 @@
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="L370" s="60"/>
+      <c r="L370" s="59"/>
       <c r="O370"/>
     </row>
     <row r="371" spans="1:15" x14ac:dyDescent="0.25">
@@ -13180,7 +13169,7 @@
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="L371" s="60"/>
+      <c r="L371" s="59"/>
       <c r="O371"/>
     </row>
     <row r="372" spans="1:15" x14ac:dyDescent="0.25">
@@ -13188,7 +13177,7 @@
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="L372" s="60"/>
+      <c r="L372" s="59"/>
       <c r="O372"/>
     </row>
     <row r="373" spans="1:15" x14ac:dyDescent="0.25">
@@ -13196,7 +13185,7 @@
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="L373" s="60"/>
+      <c r="L373" s="59"/>
       <c r="O373"/>
     </row>
     <row r="374" spans="1:15" x14ac:dyDescent="0.25">
@@ -13204,7 +13193,7 @@
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="L374" s="60"/>
+      <c r="L374" s="59"/>
       <c r="O374"/>
     </row>
     <row r="375" spans="1:15" x14ac:dyDescent="0.25">
@@ -13212,7 +13201,7 @@
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="L375" s="60"/>
+      <c r="L375" s="59"/>
       <c r="O375"/>
     </row>
     <row r="376" spans="1:15" x14ac:dyDescent="0.25">
@@ -13220,7 +13209,7 @@
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="L376" s="60"/>
+      <c r="L376" s="59"/>
       <c r="O376"/>
     </row>
     <row r="377" spans="1:15" x14ac:dyDescent="0.25">
@@ -13228,7 +13217,7 @@
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="L377" s="60"/>
+      <c r="L377" s="59"/>
       <c r="O377"/>
     </row>
     <row r="378" spans="1:15" x14ac:dyDescent="0.25">
@@ -13236,7 +13225,7 @@
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="L378" s="60"/>
+      <c r="L378" s="59"/>
       <c r="O378"/>
     </row>
     <row r="379" spans="1:15" x14ac:dyDescent="0.25">
@@ -13244,7 +13233,7 @@
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="L379" s="60"/>
+      <c r="L379" s="59"/>
       <c r="O379"/>
     </row>
     <row r="380" spans="1:15" x14ac:dyDescent="0.25">
@@ -13252,7 +13241,7 @@
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="L380" s="60"/>
+      <c r="L380" s="59"/>
       <c r="O380"/>
     </row>
     <row r="381" spans="1:15" x14ac:dyDescent="0.25">
@@ -13260,7 +13249,7 @@
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="L381" s="60"/>
+      <c r="L381" s="59"/>
       <c r="O381"/>
     </row>
     <row r="382" spans="1:15" x14ac:dyDescent="0.25">
@@ -13268,7 +13257,7 @@
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="L382" s="60"/>
+      <c r="L382" s="59"/>
       <c r="O382"/>
     </row>
     <row r="383" spans="1:15" x14ac:dyDescent="0.25">
@@ -13276,7 +13265,7 @@
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="L383" s="60"/>
+      <c r="L383" s="59"/>
       <c r="O383"/>
     </row>
     <row r="384" spans="1:15" x14ac:dyDescent="0.25">
@@ -13284,7 +13273,7 @@
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="L384" s="60"/>
+      <c r="L384" s="59"/>
       <c r="O384"/>
     </row>
     <row r="385" spans="1:15" x14ac:dyDescent="0.25">
@@ -13292,7 +13281,7 @@
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="L385" s="60"/>
+      <c r="L385" s="59"/>
       <c r="O385"/>
     </row>
     <row r="386" spans="1:15" x14ac:dyDescent="0.25">
@@ -13300,15 +13289,15 @@
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="L386" s="60"/>
+      <c r="L386" s="59"/>
       <c r="O386"/>
     </row>
     <row r="387" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A387" t="str">
-        <f t="shared" ref="A387:A450" si="6">I387&amp;B387</f>
-        <v/>
-      </c>
-      <c r="L387" s="60"/>
+        <f t="shared" ref="A387:A450" si="6">J387&amp;B387</f>
+        <v/>
+      </c>
+      <c r="L387" s="59"/>
       <c r="O387"/>
     </row>
     <row r="388" spans="1:15" x14ac:dyDescent="0.25">
@@ -13316,7 +13305,7 @@
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="L388" s="60"/>
+      <c r="L388" s="59"/>
       <c r="O388"/>
     </row>
     <row r="389" spans="1:15" x14ac:dyDescent="0.25">
@@ -13324,7 +13313,7 @@
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="L389" s="60"/>
+      <c r="L389" s="59"/>
       <c r="O389"/>
     </row>
     <row r="390" spans="1:15" x14ac:dyDescent="0.25">
@@ -13332,7 +13321,7 @@
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="L390" s="60"/>
+      <c r="L390" s="59"/>
       <c r="O390"/>
     </row>
     <row r="391" spans="1:15" x14ac:dyDescent="0.25">
@@ -13340,7 +13329,7 @@
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="L391" s="60"/>
+      <c r="L391" s="59"/>
       <c r="O391"/>
     </row>
     <row r="392" spans="1:15" x14ac:dyDescent="0.25">
@@ -13348,7 +13337,7 @@
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="L392" s="60"/>
+      <c r="L392" s="59"/>
       <c r="O392"/>
     </row>
     <row r="393" spans="1:15" x14ac:dyDescent="0.25">
@@ -13356,7 +13345,7 @@
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="L393" s="60"/>
+      <c r="L393" s="59"/>
       <c r="O393"/>
     </row>
     <row r="394" spans="1:15" x14ac:dyDescent="0.25">
@@ -13364,7 +13353,7 @@
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="L394" s="60"/>
+      <c r="L394" s="59"/>
       <c r="O394"/>
     </row>
     <row r="395" spans="1:15" x14ac:dyDescent="0.25">
@@ -13372,7 +13361,7 @@
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="L395" s="60"/>
+      <c r="L395" s="59"/>
       <c r="O395"/>
     </row>
     <row r="396" spans="1:15" x14ac:dyDescent="0.25">
@@ -13380,7 +13369,7 @@
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="L396" s="60"/>
+      <c r="L396" s="59"/>
       <c r="O396"/>
     </row>
     <row r="397" spans="1:15" x14ac:dyDescent="0.25">
@@ -13388,7 +13377,7 @@
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="L397" s="60"/>
+      <c r="L397" s="59"/>
       <c r="O397"/>
     </row>
     <row r="398" spans="1:15" x14ac:dyDescent="0.25">
@@ -13396,7 +13385,7 @@
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="L398" s="60"/>
+      <c r="L398" s="59"/>
       <c r="O398"/>
     </row>
     <row r="399" spans="1:15" x14ac:dyDescent="0.25">
@@ -13404,7 +13393,7 @@
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="L399" s="60"/>
+      <c r="L399" s="59"/>
       <c r="O399"/>
     </row>
     <row r="400" spans="1:15" x14ac:dyDescent="0.25">
@@ -13412,7 +13401,7 @@
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="L400" s="60"/>
+      <c r="L400" s="59"/>
       <c r="O400"/>
     </row>
     <row r="401" spans="1:15" x14ac:dyDescent="0.25">
@@ -13420,7 +13409,7 @@
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="L401" s="60"/>
+      <c r="L401" s="59"/>
       <c r="O401"/>
     </row>
     <row r="402" spans="1:15" x14ac:dyDescent="0.25">
@@ -13428,7 +13417,7 @@
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="L402" s="60"/>
+      <c r="L402" s="59"/>
       <c r="O402"/>
     </row>
     <row r="403" spans="1:15" x14ac:dyDescent="0.25">
@@ -13436,7 +13425,7 @@
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="L403" s="60"/>
+      <c r="L403" s="59"/>
       <c r="O403"/>
     </row>
     <row r="404" spans="1:15" x14ac:dyDescent="0.25">
@@ -13444,7 +13433,7 @@
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="L404" s="60"/>
+      <c r="L404" s="59"/>
       <c r="O404"/>
     </row>
     <row r="405" spans="1:15" x14ac:dyDescent="0.25">
@@ -13452,7 +13441,7 @@
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="L405" s="60"/>
+      <c r="L405" s="59"/>
       <c r="O405"/>
     </row>
     <row r="406" spans="1:15" x14ac:dyDescent="0.25">
@@ -13460,7 +13449,7 @@
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="L406" s="60"/>
+      <c r="L406" s="59"/>
       <c r="O406"/>
     </row>
     <row r="407" spans="1:15" x14ac:dyDescent="0.25">
@@ -13468,7 +13457,7 @@
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="L407" s="60"/>
+      <c r="L407" s="59"/>
       <c r="O407"/>
     </row>
     <row r="408" spans="1:15" x14ac:dyDescent="0.25">
@@ -13476,7 +13465,7 @@
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="L408" s="60"/>
+      <c r="L408" s="59"/>
       <c r="O408"/>
     </row>
     <row r="409" spans="1:15" x14ac:dyDescent="0.25">
@@ -13484,7 +13473,7 @@
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="L409" s="60"/>
+      <c r="L409" s="59"/>
       <c r="O409"/>
     </row>
     <row r="410" spans="1:15" x14ac:dyDescent="0.25">
@@ -13492,7 +13481,7 @@
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="L410" s="60"/>
+      <c r="L410" s="59"/>
       <c r="O410"/>
     </row>
     <row r="411" spans="1:15" x14ac:dyDescent="0.25">
@@ -13500,7 +13489,7 @@
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="L411" s="60"/>
+      <c r="L411" s="59"/>
       <c r="O411"/>
     </row>
     <row r="412" spans="1:15" x14ac:dyDescent="0.25">
@@ -13508,7 +13497,7 @@
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="L412" s="60"/>
+      <c r="L412" s="59"/>
       <c r="O412"/>
     </row>
     <row r="413" spans="1:15" x14ac:dyDescent="0.25">
@@ -13516,7 +13505,7 @@
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="L413" s="60"/>
+      <c r="L413" s="59"/>
       <c r="O413"/>
     </row>
     <row r="414" spans="1:15" x14ac:dyDescent="0.25">
@@ -13524,7 +13513,7 @@
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="L414" s="60"/>
+      <c r="L414" s="59"/>
       <c r="O414"/>
     </row>
     <row r="415" spans="1:15" x14ac:dyDescent="0.25">
@@ -13532,7 +13521,7 @@
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="L415" s="60"/>
+      <c r="L415" s="59"/>
       <c r="O415"/>
     </row>
     <row r="416" spans="1:15" x14ac:dyDescent="0.25">
@@ -13540,7 +13529,7 @@
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="L416" s="60"/>
+      <c r="L416" s="59"/>
       <c r="O416"/>
     </row>
     <row r="417" spans="1:15" x14ac:dyDescent="0.25">
@@ -13548,7 +13537,7 @@
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="L417" s="60"/>
+      <c r="L417" s="59"/>
       <c r="O417"/>
     </row>
     <row r="418" spans="1:15" x14ac:dyDescent="0.25">
@@ -13556,7 +13545,7 @@
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="L418" s="60"/>
+      <c r="L418" s="59"/>
       <c r="O418"/>
     </row>
     <row r="419" spans="1:15" x14ac:dyDescent="0.25">
@@ -13564,7 +13553,7 @@
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="L419" s="60"/>
+      <c r="L419" s="59"/>
       <c r="O419"/>
     </row>
     <row r="420" spans="1:15" x14ac:dyDescent="0.25">
@@ -13572,7 +13561,7 @@
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="L420" s="60"/>
+      <c r="L420" s="59"/>
       <c r="O420"/>
     </row>
     <row r="421" spans="1:15" x14ac:dyDescent="0.25">
@@ -13580,7 +13569,7 @@
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="L421" s="60"/>
+      <c r="L421" s="59"/>
       <c r="O421"/>
     </row>
     <row r="422" spans="1:15" x14ac:dyDescent="0.25">
@@ -13588,7 +13577,7 @@
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="L422" s="60"/>
+      <c r="L422" s="59"/>
       <c r="O422"/>
     </row>
     <row r="423" spans="1:15" x14ac:dyDescent="0.25">
@@ -13596,7 +13585,7 @@
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="L423" s="60"/>
+      <c r="L423" s="59"/>
       <c r="O423"/>
     </row>
     <row r="424" spans="1:15" x14ac:dyDescent="0.25">
@@ -13604,7 +13593,7 @@
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="L424" s="60"/>
+      <c r="L424" s="59"/>
       <c r="O424"/>
     </row>
     <row r="425" spans="1:15" x14ac:dyDescent="0.25">
@@ -13612,7 +13601,7 @@
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="L425" s="60"/>
+      <c r="L425" s="59"/>
       <c r="O425"/>
     </row>
     <row r="426" spans="1:15" x14ac:dyDescent="0.25">
@@ -13620,7 +13609,7 @@
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="L426" s="60"/>
+      <c r="L426" s="59"/>
       <c r="O426"/>
     </row>
     <row r="427" spans="1:15" x14ac:dyDescent="0.25">
@@ -13628,7 +13617,7 @@
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="L427" s="60"/>
+      <c r="L427" s="59"/>
       <c r="O427"/>
     </row>
     <row r="428" spans="1:15" x14ac:dyDescent="0.25">
@@ -13636,7 +13625,7 @@
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="L428" s="60"/>
+      <c r="L428" s="59"/>
       <c r="O428"/>
     </row>
     <row r="429" spans="1:15" x14ac:dyDescent="0.25">
@@ -13644,7 +13633,7 @@
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="L429" s="60"/>
+      <c r="L429" s="59"/>
       <c r="O429"/>
     </row>
     <row r="430" spans="1:15" x14ac:dyDescent="0.25">
@@ -13652,7 +13641,7 @@
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="L430" s="60"/>
+      <c r="L430" s="59"/>
       <c r="O430"/>
     </row>
     <row r="431" spans="1:15" x14ac:dyDescent="0.25">
@@ -13660,7 +13649,7 @@
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="L431" s="60"/>
+      <c r="L431" s="59"/>
       <c r="O431"/>
     </row>
     <row r="432" spans="1:15" x14ac:dyDescent="0.25">
@@ -13668,7 +13657,7 @@
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="L432" s="60"/>
+      <c r="L432" s="59"/>
       <c r="O432"/>
     </row>
     <row r="433" spans="1:15" x14ac:dyDescent="0.25">
@@ -13676,7 +13665,7 @@
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="L433" s="60"/>
+      <c r="L433" s="59"/>
       <c r="O433"/>
     </row>
     <row r="434" spans="1:15" x14ac:dyDescent="0.25">
@@ -13684,7 +13673,7 @@
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="L434" s="60"/>
+      <c r="L434" s="59"/>
       <c r="O434"/>
     </row>
     <row r="435" spans="1:15" x14ac:dyDescent="0.25">
@@ -13692,7 +13681,7 @@
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="L435" s="60"/>
+      <c r="L435" s="59"/>
       <c r="O435"/>
     </row>
     <row r="436" spans="1:15" x14ac:dyDescent="0.25">
@@ -13700,7 +13689,7 @@
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="L436" s="60"/>
+      <c r="L436" s="59"/>
       <c r="O436"/>
     </row>
     <row r="437" spans="1:15" x14ac:dyDescent="0.25">
@@ -13708,7 +13697,7 @@
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="L437" s="60"/>
+      <c r="L437" s="59"/>
       <c r="O437"/>
     </row>
     <row r="438" spans="1:15" x14ac:dyDescent="0.25">
@@ -13716,7 +13705,7 @@
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="L438" s="60"/>
+      <c r="L438" s="59"/>
       <c r="O438"/>
     </row>
     <row r="439" spans="1:15" x14ac:dyDescent="0.25">
@@ -13724,7 +13713,7 @@
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="L439" s="60"/>
+      <c r="L439" s="59"/>
       <c r="O439"/>
     </row>
     <row r="440" spans="1:15" x14ac:dyDescent="0.25">
@@ -13732,7 +13721,7 @@
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="L440" s="60"/>
+      <c r="L440" s="59"/>
       <c r="O440"/>
     </row>
     <row r="441" spans="1:15" x14ac:dyDescent="0.25">
@@ -13740,7 +13729,7 @@
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="L441" s="60"/>
+      <c r="L441" s="59"/>
       <c r="O441"/>
     </row>
     <row r="442" spans="1:15" x14ac:dyDescent="0.25">
@@ -13748,7 +13737,7 @@
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="L442" s="60"/>
+      <c r="L442" s="59"/>
       <c r="O442"/>
     </row>
     <row r="443" spans="1:15" x14ac:dyDescent="0.25">
@@ -13756,7 +13745,7 @@
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="L443" s="60"/>
+      <c r="L443" s="59"/>
       <c r="O443"/>
     </row>
     <row r="444" spans="1:15" x14ac:dyDescent="0.25">
@@ -13764,7 +13753,7 @@
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="L444" s="60"/>
+      <c r="L444" s="59"/>
       <c r="O444"/>
     </row>
     <row r="445" spans="1:15" x14ac:dyDescent="0.25">
@@ -13772,7 +13761,7 @@
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="L445" s="60"/>
+      <c r="L445" s="59"/>
       <c r="O445"/>
     </row>
     <row r="446" spans="1:15" x14ac:dyDescent="0.25">
@@ -13780,7 +13769,7 @@
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="L446" s="60"/>
+      <c r="L446" s="59"/>
       <c r="O446"/>
     </row>
     <row r="447" spans="1:15" x14ac:dyDescent="0.25">
@@ -13788,7 +13777,7 @@
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="L447" s="60"/>
+      <c r="L447" s="59"/>
       <c r="O447"/>
     </row>
     <row r="448" spans="1:15" x14ac:dyDescent="0.25">
@@ -13796,7 +13785,7 @@
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="L448" s="60"/>
+      <c r="L448" s="59"/>
       <c r="O448"/>
     </row>
     <row r="449" spans="1:15" x14ac:dyDescent="0.25">
@@ -13804,7 +13793,7 @@
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="L449" s="60"/>
+      <c r="L449" s="59"/>
       <c r="O449"/>
     </row>
     <row r="450" spans="1:15" x14ac:dyDescent="0.25">
@@ -13812,15 +13801,15 @@
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="L450" s="60"/>
+      <c r="L450" s="59"/>
       <c r="O450"/>
     </row>
     <row r="451" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A451" t="str">
-        <f t="shared" ref="A451:A514" si="7">I451&amp;B451</f>
-        <v/>
-      </c>
-      <c r="L451" s="60"/>
+        <f t="shared" ref="A451:A514" si="7">J451&amp;B451</f>
+        <v/>
+      </c>
+      <c r="L451" s="59"/>
       <c r="O451"/>
     </row>
     <row r="452" spans="1:15" x14ac:dyDescent="0.25">
@@ -13828,7 +13817,7 @@
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="L452" s="60"/>
+      <c r="L452" s="59"/>
       <c r="O452"/>
     </row>
     <row r="453" spans="1:15" x14ac:dyDescent="0.25">
@@ -13836,7 +13825,7 @@
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="L453" s="60"/>
+      <c r="L453" s="59"/>
       <c r="O453"/>
     </row>
     <row r="454" spans="1:15" x14ac:dyDescent="0.25">
@@ -13844,7 +13833,7 @@
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="L454" s="60"/>
+      <c r="L454" s="59"/>
       <c r="O454"/>
     </row>
     <row r="455" spans="1:15" x14ac:dyDescent="0.25">
@@ -13852,7 +13841,7 @@
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="L455" s="60"/>
+      <c r="L455" s="59"/>
       <c r="O455"/>
     </row>
     <row r="456" spans="1:15" x14ac:dyDescent="0.25">
@@ -13860,7 +13849,7 @@
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="L456" s="60"/>
+      <c r="L456" s="59"/>
       <c r="O456"/>
     </row>
     <row r="457" spans="1:15" x14ac:dyDescent="0.25">
@@ -13868,7 +13857,7 @@
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="L457" s="60"/>
+      <c r="L457" s="59"/>
       <c r="O457"/>
     </row>
     <row r="458" spans="1:15" x14ac:dyDescent="0.25">
@@ -13876,7 +13865,7 @@
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="L458" s="60"/>
+      <c r="L458" s="59"/>
       <c r="O458"/>
     </row>
     <row r="459" spans="1:15" x14ac:dyDescent="0.25">
@@ -13884,7 +13873,7 @@
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="L459" s="60"/>
+      <c r="L459" s="59"/>
       <c r="O459"/>
     </row>
     <row r="460" spans="1:15" x14ac:dyDescent="0.25">
@@ -13892,7 +13881,7 @@
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="L460" s="60"/>
+      <c r="L460" s="59"/>
       <c r="O460"/>
     </row>
     <row r="461" spans="1:15" x14ac:dyDescent="0.25">
@@ -13900,7 +13889,7 @@
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="L461" s="60"/>
+      <c r="L461" s="59"/>
       <c r="O461"/>
     </row>
     <row r="462" spans="1:15" x14ac:dyDescent="0.25">
@@ -13908,7 +13897,7 @@
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="L462" s="60"/>
+      <c r="L462" s="59"/>
       <c r="O462"/>
     </row>
     <row r="463" spans="1:15" x14ac:dyDescent="0.25">
@@ -13916,7 +13905,7 @@
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="L463" s="60"/>
+      <c r="L463" s="59"/>
       <c r="O463"/>
     </row>
     <row r="464" spans="1:15" x14ac:dyDescent="0.25">
@@ -14227,7 +14216,7 @@
     </row>
     <row r="515" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A515" t="str">
-        <f t="shared" ref="A515:A578" si="8">I515&amp;B515</f>
+        <f t="shared" ref="A515:A578" si="8">J515&amp;B515</f>
         <v/>
       </c>
     </row>
@@ -14611,7 +14600,7 @@
     </row>
     <row r="579" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A579" t="str">
-        <f t="shared" ref="A579:A642" si="9">I579&amp;B579</f>
+        <f t="shared" ref="A579:A642" si="9">J579&amp;B579</f>
         <v/>
       </c>
     </row>
@@ -14995,7 +14984,7 @@
     </row>
     <row r="643" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A643" t="str">
-        <f t="shared" ref="A643:A706" si="10">I643&amp;B643</f>
+        <f t="shared" ref="A643:A706" si="10">J643&amp;B643</f>
         <v/>
       </c>
     </row>
@@ -15379,7 +15368,7 @@
     </row>
     <row r="707" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A707" t="str">
-        <f t="shared" ref="A707:A770" si="11">I707&amp;B707</f>
+        <f t="shared" ref="A707:A770" si="11">J707&amp;B707</f>
         <v/>
       </c>
     </row>
@@ -15763,7 +15752,7 @@
     </row>
     <row r="771" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A771" t="str">
-        <f t="shared" ref="A771:A834" si="12">I771&amp;B771</f>
+        <f t="shared" ref="A771:A834" si="12">J771&amp;B771</f>
         <v/>
       </c>
     </row>
@@ -16147,7 +16136,7 @@
     </row>
     <row r="835" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A835" t="str">
-        <f t="shared" ref="A835:A898" si="13">I835&amp;B835</f>
+        <f t="shared" ref="A835:A898" si="13">J835&amp;B835</f>
         <v/>
       </c>
     </row>
@@ -16531,7 +16520,7 @@
     </row>
     <row r="899" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A899" t="str">
-        <f t="shared" ref="A899:A962" si="14">I899&amp;B899</f>
+        <f t="shared" ref="A899:A962" si="14">J899&amp;B899</f>
         <v/>
       </c>
     </row>
@@ -16915,7 +16904,7 @@
     </row>
     <row r="963" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A963" t="str">
-        <f t="shared" ref="A963:A1022" si="15">I963&amp;B963</f>
+        <f t="shared" ref="A963:A1022" si="15">J963&amp;B963</f>
         <v/>
       </c>
     </row>

--- a/reference_files/Table1-HSMR.xlsx
+++ b/reference_files/Table1-HSMR.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\github\hsmr\reference_files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Isdsf00d03\quality_indicators\hsmr\quarter_cycle\Robyn\reference_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="122">
   <si>
     <t>V217H</t>
   </si>
@@ -253,9 +253,6 @@
     <t>Hospital Standardised Mortality Ratios in Scotland</t>
   </si>
   <si>
-    <t>Select 12 month period:</t>
-  </si>
-  <si>
     <t>HB</t>
   </si>
   <si>
@@ -304,9 +301,6 @@
     <t>NHS Greater Glasgow &amp; Clyde</t>
   </si>
   <si>
-    <t>S08000021</t>
-  </si>
-  <si>
     <t>NHS Highland</t>
   </si>
   <si>
@@ -314,9 +308,6 @@
   </si>
   <si>
     <t>NHS Lanarkshire</t>
-  </si>
-  <si>
-    <t>S08000023</t>
   </si>
   <si>
     <t>NHS Lothian</t>
@@ -399,14 +390,21 @@
   <si>
     <t>lookup</t>
   </si>
+  <si>
+    <t>S08000031</t>
+  </si>
+  <si>
+    <t>S08000032</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="#.00"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
+    <numFmt numFmtId="166" formatCode="#,##0.0"/>
   </numFmts>
   <fonts count="27" x14ac:knownFonts="1">
     <font>
@@ -575,6 +573,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -640,7 +639,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -730,9 +729,6 @@
     <xf numFmtId="2" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="2" fontId="14" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -749,6 +745,10 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="2" fontId="18" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="23" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2800,7 +2800,7 @@
         <c:axId val="553192216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="2500"/>
+          <c:max val="2800"/>
           <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -2843,7 +2843,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2958,7 +2957,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -3036,7 +3034,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3651,71 +3648,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/ctrlProps/ctrlProp1.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Drop" dropStyle="combo" dx="16" fmlaLink="$A$5" fmlaRange="period_lookup!$A$1:$A$9" noThreeD="1" sel="3" val="0"/>
-</file>
-
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>2</xdr:col>
-          <xdr:colOff>57150</xdr:colOff>
-          <xdr:row>6</xdr:row>
-          <xdr:rowOff>9525</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>3</xdr:col>
-          <xdr:colOff>533400</xdr:colOff>
-          <xdr:row>7</xdr:row>
-          <xdr:rowOff>57150</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="56323" name="Drop Down 3" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s56323"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:noFill/>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -4504,7 +4437,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:AA84"/>
   <sheetViews>
@@ -4522,19 +4455,19 @@
     <row r="1" spans="1:27" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="47"/>
       <c r="B1" s="8"/>
-      <c r="C1" s="60" t="s">
+      <c r="C1" s="66" t="s">
         <v>73</v>
       </c>
-      <c r="D1" s="60"/>
-      <c r="E1" s="60"/>
-      <c r="F1" s="60"/>
-      <c r="G1" s="60"/>
-      <c r="H1" s="60"/>
-      <c r="I1" s="60"/>
-      <c r="J1" s="60"/>
-      <c r="K1" s="60"/>
-      <c r="L1" s="60"/>
-      <c r="M1" s="60"/>
+      <c r="D1" s="66"/>
+      <c r="E1" s="66"/>
+      <c r="F1" s="66"/>
+      <c r="G1" s="66"/>
+      <c r="H1" s="66"/>
+      <c r="I1" s="66"/>
+      <c r="J1" s="66"/>
+      <c r="K1" s="66"/>
+      <c r="L1" s="66"/>
+      <c r="M1" s="66"/>
     </row>
     <row r="2" spans="1:27" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="47"/>
@@ -4609,8 +4542,9 @@
     <row r="6" spans="1:27" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="48"/>
       <c r="B6" s="15"/>
-      <c r="C6" s="14" t="s">
-        <v>74</v>
+      <c r="C6" s="14">
+        <f>period_lookup!A1</f>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.25">
@@ -4633,24 +4567,24 @@
     <row r="10" spans="1:27" ht="34.5" x14ac:dyDescent="0.25">
       <c r="C10" s="42"/>
       <c r="D10" s="43" t="s">
+        <v>103</v>
+      </c>
+      <c r="E10" s="43" t="s">
+        <v>104</v>
+      </c>
+      <c r="F10" s="43" t="s">
+        <v>105</v>
+      </c>
+      <c r="G10" s="43" t="s">
         <v>106</v>
       </c>
-      <c r="E10" s="43" t="s">
+      <c r="H10" s="43" t="s">
         <v>107</v>
-      </c>
-      <c r="F10" s="43" t="s">
-        <v>108</v>
-      </c>
-      <c r="G10" s="43" t="s">
-        <v>109</v>
-      </c>
-      <c r="H10" s="43" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A11" s="49" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B11" s="38" t="s">
         <v>24</v>
@@ -4674,7 +4608,7 @@
         <f>VLOOKUP($B11&amp;$A$5,funnel_data!$A:$X,5,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="H11" s="56" t="e">
+      <c r="H11" s="67" t="e">
         <f>VLOOKUP($B11&amp;$A$5,funnel_data!$A:$X,7,FALSE)</f>
         <v>#N/A</v>
       </c>
@@ -4689,13 +4623,13 @@
     </row>
     <row r="13" spans="1:27" s="30" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="49" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B13" s="38" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C13" s="32" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D13" s="39" t="e">
         <f>VLOOKUP($B13&amp;$A$5,funnel_data!$A:$X,3,FALSE)</f>
@@ -4723,10 +4657,10 @@
         <v>60</v>
       </c>
       <c r="B14" s="38" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C14" s="33" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D14" s="40" t="e">
         <f>VLOOKUP($B14&amp;$A$5,funnel_data!$A:$X,3,FALSE)</f>
@@ -4813,13 +4747,13 @@
     </row>
     <row r="17" spans="1:10" s="30" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="49" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B17" s="38" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C17" s="32" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D17" s="39" t="e">
         <f>VLOOKUP($B17&amp;$A$5,funnel_data!$A:$X,3,FALSE)</f>
@@ -4875,13 +4809,13 @@
     </row>
     <row r="19" spans="1:10" s="30" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="49" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B19" s="38" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C19" s="32" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D19" s="39" t="e">
         <f>VLOOKUP($B19&amp;$A$5,funnel_data!$A:$X,3,FALSE)</f>
@@ -4940,10 +4874,10 @@
         <v>60</v>
       </c>
       <c r="B21" s="38" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C21" s="33" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="D21" s="40" t="e">
         <f>VLOOKUP($B21&amp;$A$5,funnel_data!$A:$X,3,FALSE)</f>
@@ -4968,13 +4902,13 @@
     </row>
     <row r="22" spans="1:10" s="30" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="49" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B22" s="38" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C22" s="32" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D22" s="39" t="e">
         <f>VLOOKUP($B22&amp;$A$5,funnel_data!$A:$X,3,FALSE)</f>
@@ -5002,10 +4936,10 @@
         <v>60</v>
       </c>
       <c r="B23" s="38" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C23" s="33" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="D23" s="40" t="e">
         <f>VLOOKUP($B23&amp;$A$5,funnel_data!$A:$X,3,FALSE)</f>
@@ -5036,7 +4970,7 @@
         <v>9</v>
       </c>
       <c r="C24" s="33" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="D24" s="40" t="e">
         <f>VLOOKUP($B24&amp;$A$5,funnel_data!$A:$X,3,FALSE)</f>
@@ -5061,13 +4995,13 @@
     </row>
     <row r="25" spans="1:10" s="30" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="49" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B25" s="38" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C25" s="32" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D25" s="39" t="e">
         <f>VLOOKUP($B25&amp;$A$5,funnel_data!$A:$X,3,FALSE)</f>
@@ -5123,13 +5057,13 @@
     </row>
     <row r="27" spans="1:10" s="30" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="49" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B27" s="38" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C27" s="32" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D27" s="39" t="e">
         <f>VLOOKUP($B27&amp;$A$5,funnel_data!$A:$X,3,FALSE)</f>
@@ -5218,13 +5152,13 @@
     </row>
     <row r="30" spans="1:10" s="30" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="49" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B30" s="38" t="s">
-        <v>91</v>
+        <v>120</v>
       </c>
       <c r="C30" s="32" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D30" s="39" t="e">
         <f>VLOOKUP($B30&amp;$A$5,funnel_data!$A:$X,3,FALSE)</f>
@@ -5348,7 +5282,7 @@
         <v>7</v>
       </c>
       <c r="C34" s="33" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="D34" s="40" t="e">
         <f>VLOOKUP($B34&amp;$A$5,funnel_data!$A:$X,3,FALSE)</f>
@@ -5373,13 +5307,13 @@
     </row>
     <row r="35" spans="1:8" s="30" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="49" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B35" s="38" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C35" s="32" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D35" s="39" t="e">
         <f>VLOOKUP($B35&amp;$A$5,funnel_data!$A:$X,3,FALSE)</f>
@@ -5528,13 +5462,13 @@
     </row>
     <row r="40" spans="1:8" s="30" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="49" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B40" s="38" t="s">
-        <v>95</v>
+        <v>121</v>
       </c>
       <c r="C40" s="32" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D40" s="39" t="e">
         <f>VLOOKUP($B40&amp;$A$5,funnel_data!$A:$X,3,FALSE)</f>
@@ -5652,13 +5586,13 @@
     </row>
     <row r="44" spans="1:8" s="30" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="49" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B44" s="38" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C44" s="32" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D44" s="39" t="e">
         <f>VLOOKUP($B44&amp;$A$5,funnel_data!$A:$X,3,FALSE)</f>
@@ -5776,13 +5710,13 @@
     </row>
     <row r="48" spans="1:8" s="30" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="49" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B48" s="38" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C48" s="32" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="D48" s="39" t="e">
         <f>VLOOKUP($B48&amp;$A$5,funnel_data!$A:$X,3,FALSE)</f>
@@ -5838,13 +5772,13 @@
     </row>
     <row r="50" spans="1:8" s="30" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="49" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B50" s="38" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C50" s="32" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D50" s="39" t="e">
         <f>VLOOKUP($B50&amp;$A$5,funnel_data!$A:$X,3,FALSE)</f>
@@ -5900,13 +5834,13 @@
     </row>
     <row r="52" spans="1:8" s="30" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="49" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B52" s="38" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C52" s="32" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D52" s="39" t="e">
         <f>VLOOKUP($B52&amp;$A$5,funnel_data!$A:$X,3,FALSE)</f>
@@ -6024,13 +5958,13 @@
     </row>
     <row r="56" spans="1:8" s="30" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56" s="49" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B56" s="38" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C56" s="32" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="D56" s="39" t="e">
         <f>VLOOKUP($B56&amp;$A$5,funnel_data!$A:$X,3,FALSE)</f>
@@ -6086,13 +6020,13 @@
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" s="49" t="s">
+        <v>74</v>
+      </c>
+      <c r="B58" s="38" t="s">
+        <v>76</v>
+      </c>
+      <c r="C58" s="32" t="s">
         <v>75</v>
-      </c>
-      <c r="B58" s="38" t="s">
-        <v>77</v>
-      </c>
-      <c r="C58" s="32" t="s">
-        <v>76</v>
       </c>
       <c r="D58" s="39" t="e">
         <f>VLOOKUP($B58&amp;$A$5,funnel_data!$A:$X,3,FALSE)</f>
@@ -6163,12 +6097,12 @@
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C63" s="33" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C64" s="33" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="65" spans="2:3" x14ac:dyDescent="0.25">
@@ -6195,36 +6129,6 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x14">
-      <controls>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice Requires="x14">
-            <control shapeId="56323" r:id="rId4" name="Drop Down 3">
-              <controlPr defaultSize="0" autoLine="0" autoPict="0">
-                <anchor moveWithCells="1">
-                  <from>
-                    <xdr:col>2</xdr:col>
-                    <xdr:colOff>57150</xdr:colOff>
-                    <xdr:row>6</xdr:row>
-                    <xdr:rowOff>9525</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>3</xdr:col>
-                    <xdr:colOff>533400</xdr:colOff>
-                    <xdr:row>7</xdr:row>
-                    <xdr:rowOff>57150</xdr:rowOff>
-                  </to>
-                </anchor>
-              </controlPr>
-            </control>
-          </mc:Choice>
-        </mc:AlternateContent>
-      </controls>
-    </mc:Choice>
-  </mc:AlternateContent>
 </worksheet>
 </file>
 
@@ -6235,7 +6139,9 @@
   </sheetPr>
   <dimension ref="A1:AK121"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AQ29" sqref="AQ29"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.28515625" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
@@ -6252,19 +6158,19 @@
   <sheetData>
     <row r="1" spans="1:36" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="8"/>
-      <c r="B1" s="60" t="s">
+      <c r="B1" s="66" t="s">
         <v>73</v>
       </c>
-      <c r="C1" s="60"/>
-      <c r="D1" s="60"/>
-      <c r="E1" s="60"/>
-      <c r="F1" s="60"/>
-      <c r="G1" s="60"/>
-      <c r="H1" s="60"/>
-      <c r="I1" s="60"/>
-      <c r="J1" s="60"/>
-      <c r="K1" s="60"/>
-      <c r="L1" s="60"/>
+      <c r="C1" s="66"/>
+      <c r="D1" s="66"/>
+      <c r="E1" s="66"/>
+      <c r="F1" s="66"/>
+      <c r="G1" s="66"/>
+      <c r="H1" s="66"/>
+      <c r="I1" s="66"/>
+      <c r="J1" s="66"/>
+      <c r="K1" s="66"/>
+      <c r="L1" s="66"/>
     </row>
     <row r="2" spans="1:36" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8"/>
@@ -6313,8 +6219,8 @@
     <row r="4" spans="1:36" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="13"/>
       <c r="B4" s="14" t="str">
-        <f>"Hospital Standardised Mortality Ratio (Funnel Plot); " &amp; A5</f>
-        <v>Hospital Standardised Mortality Ratio (Funnel Plot); January 2018 to December 2018</v>
+        <f>"Hospital Standardised Mortality Ratio (Funnel Plot); " &amp; period_lookup!A1</f>
+        <v>Hospital Standardised Mortality Ratio (Funnel Plot); 0</v>
       </c>
       <c r="C4" s="11"/>
       <c r="D4" s="11"/>
@@ -6329,7 +6235,7 @@
     </row>
     <row r="5" spans="1:36" s="15" customFormat="1" ht="5.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="15" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="6" spans="1:36" s="15" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
@@ -8631,37 +8537,37 @@
     </row>
     <row r="81" spans="1:23" s="15" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B81" s="45"/>
-      <c r="C81" s="61"/>
-      <c r="D81" s="61"/>
-      <c r="E81" s="61"/>
-      <c r="F81" s="61"/>
-      <c r="G81" s="61"/>
-      <c r="H81" s="61"/>
-      <c r="I81" s="61"/>
+      <c r="C81" s="60"/>
+      <c r="D81" s="60"/>
+      <c r="E81" s="60"/>
+      <c r="F81" s="60"/>
+      <c r="G81" s="60"/>
+      <c r="H81" s="60"/>
+      <c r="I81" s="60"/>
     </row>
     <row r="82" spans="1:23" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B82" s="15">
         <v>1</v>
       </c>
-      <c r="C82" s="62">
+      <c r="C82" s="61">
         <v>4</v>
       </c>
-      <c r="D82" s="62">
+      <c r="D82" s="61">
         <v>10</v>
       </c>
-      <c r="E82" s="62">
+      <c r="E82" s="61">
         <v>6</v>
       </c>
-      <c r="F82" s="62">
+      <c r="F82" s="61">
         <v>19</v>
       </c>
-      <c r="G82" s="62">
+      <c r="G82" s="61">
         <v>21</v>
       </c>
-      <c r="H82" s="62">
+      <c r="H82" s="61">
         <v>18</v>
       </c>
-      <c r="I82" s="63">
+      <c r="I82" s="62">
         <v>20</v>
       </c>
       <c r="Q82" s="50"/>
@@ -8670,7 +8576,7 @@
       <c r="T82" s="50"/>
       <c r="U82" s="50"/>
       <c r="V82" s="50"/>
-      <c r="W82" s="64"/>
+      <c r="W82" s="63"/>
     </row>
     <row r="83" spans="1:23" s="15" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B83" s="45" t="s">
@@ -8714,35 +8620,35 @@
       <c r="B84" s="45" t="s">
         <v>18</v>
       </c>
-      <c r="C84" s="65" t="e">
+      <c r="C84" s="64" t="e">
         <f>VLOOKUP($B84&amp;"3",funnel_data!$A:$X,C$82,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="D84" s="65">
+      <c r="D84" s="64">
         <v>1</v>
       </c>
-      <c r="E84" s="65" t="e">
+      <c r="E84" s="64" t="e">
         <f>VLOOKUP($B84&amp;"3",funnel_data!$A:$X,E$82,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="F84" s="65" t="e">
+      <c r="F84" s="64" t="e">
         <f>VLOOKUP($B84&amp;"3",funnel_data!$A:$X,F$82,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="G84" s="65" t="e">
+      <c r="G84" s="64" t="e">
         <f>VLOOKUP($B84&amp;"3",funnel_data!$A:$X,G$82,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="H84" s="65" t="e">
+      <c r="H84" s="64" t="e">
         <f>VLOOKUP($B84&amp;"3",funnel_data!$A:$X,H$82,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="I84" s="65" t="e">
+      <c r="I84" s="64" t="e">
         <f>VLOOKUP($B84&amp;"3",funnel_data!$A:$X,I$82,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="M84" s="66"/>
-      <c r="N84" s="66"/>
+      <c r="M84" s="65"/>
+      <c r="N84" s="65"/>
     </row>
     <row r="85" spans="1:23" s="15" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A85" s="15" t="e">
@@ -8750,37 +8656,37 @@
         <v>#N/A</v>
       </c>
       <c r="B85" s="45" t="s">
-        <v>112</v>
-      </c>
-      <c r="C85" s="65" t="e">
+        <v>109</v>
+      </c>
+      <c r="C85" s="64" t="e">
         <f>VLOOKUP($B85&amp;"3",funnel_data!$A:$X,C$82,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="D85" s="65">
+      <c r="D85" s="64">
         <v>1</v>
       </c>
-      <c r="E85" s="65" t="e">
+      <c r="E85" s="64" t="e">
         <f>VLOOKUP($B85&amp;"3",funnel_data!$A:$X,E$82,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="F85" s="65" t="e">
+      <c r="F85" s="64" t="e">
         <f>VLOOKUP($B85&amp;"3",funnel_data!$A:$X,F$82,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="G85" s="65" t="e">
+      <c r="G85" s="64" t="e">
         <f>VLOOKUP($B85&amp;"3",funnel_data!$A:$X,G$82,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="H85" s="65" t="e">
+      <c r="H85" s="64" t="e">
         <f>VLOOKUP($B85&amp;"3",funnel_data!$A:$X,H$82,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="I85" s="65" t="e">
+      <c r="I85" s="64" t="e">
         <f>VLOOKUP($B85&amp;"3",funnel_data!$A:$X,I$82,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="M85" s="66"/>
-      <c r="N85" s="66"/>
+      <c r="M85" s="65"/>
+      <c r="N85" s="65"/>
     </row>
     <row r="86" spans="1:23" s="15" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A86" s="15" t="e">
@@ -8790,35 +8696,35 @@
       <c r="B86" s="45" t="s">
         <v>20</v>
       </c>
-      <c r="C86" s="65" t="e">
+      <c r="C86" s="64" t="e">
         <f>VLOOKUP($B86&amp;"3",funnel_data!$A:$X,C$82,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="D86" s="65">
+      <c r="D86" s="64">
         <v>1</v>
       </c>
-      <c r="E86" s="65" t="e">
+      <c r="E86" s="64" t="e">
         <f>VLOOKUP($B86&amp;"3",funnel_data!$A:$X,E$82,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="F86" s="65" t="e">
+      <c r="F86" s="64" t="e">
         <f>VLOOKUP($B86&amp;"3",funnel_data!$A:$X,F$82,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="G86" s="65" t="e">
+      <c r="G86" s="64" t="e">
         <f>VLOOKUP($B86&amp;"3",funnel_data!$A:$X,G$82,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="H86" s="65" t="e">
+      <c r="H86" s="64" t="e">
         <f>VLOOKUP($B86&amp;"3",funnel_data!$A:$X,H$82,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="I86" s="65" t="e">
+      <c r="I86" s="64" t="e">
         <f>VLOOKUP($B86&amp;"3",funnel_data!$A:$X,I$82,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="M86" s="66"/>
-      <c r="N86" s="66"/>
+      <c r="M86" s="65"/>
+      <c r="N86" s="65"/>
     </row>
     <row r="87" spans="1:23" s="15" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A87" s="15" t="e">
@@ -8828,35 +8734,35 @@
       <c r="B87" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="C87" s="65" t="e">
+      <c r="C87" s="64" t="e">
         <f>VLOOKUP($B87&amp;"3",funnel_data!$A:$X,C$82,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="D87" s="65">
+      <c r="D87" s="64">
         <v>1</v>
       </c>
-      <c r="E87" s="65" t="e">
+      <c r="E87" s="64" t="e">
         <f>VLOOKUP($B87&amp;"3",funnel_data!$A:$X,E$82,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="F87" s="65" t="e">
+      <c r="F87" s="64" t="e">
         <f>VLOOKUP($B87&amp;"3",funnel_data!$A:$X,F$82,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="G87" s="65" t="e">
+      <c r="G87" s="64" t="e">
         <f>VLOOKUP($B87&amp;"3",funnel_data!$A:$X,G$82,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="H87" s="65" t="e">
+      <c r="H87" s="64" t="e">
         <f>VLOOKUP($B87&amp;"3",funnel_data!$A:$X,H$82,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="I87" s="65" t="e">
+      <c r="I87" s="64" t="e">
         <f>VLOOKUP($B87&amp;"3",funnel_data!$A:$X,I$82,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="M87" s="66"/>
-      <c r="N87" s="66"/>
+      <c r="M87" s="65"/>
+      <c r="N87" s="65"/>
     </row>
     <row r="88" spans="1:23" s="15" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A88" s="15" t="e">
@@ -8866,35 +8772,35 @@
       <c r="B88" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="C88" s="65" t="e">
+      <c r="C88" s="64" t="e">
         <f>VLOOKUP($B88&amp;"3",funnel_data!$A:$X,C$82,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="D88" s="65">
+      <c r="D88" s="64">
         <v>1</v>
       </c>
-      <c r="E88" s="65" t="e">
+      <c r="E88" s="64" t="e">
         <f>VLOOKUP($B88&amp;"3",funnel_data!$A:$X,E$82,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="F88" s="65" t="e">
+      <c r="F88" s="64" t="e">
         <f>VLOOKUP($B88&amp;"3",funnel_data!$A:$X,F$82,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="G88" s="65" t="e">
+      <c r="G88" s="64" t="e">
         <f>VLOOKUP($B88&amp;"3",funnel_data!$A:$X,G$82,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="H88" s="65" t="e">
+      <c r="H88" s="64" t="e">
         <f>VLOOKUP($B88&amp;"3",funnel_data!$A:$X,H$82,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="I88" s="65" t="e">
+      <c r="I88" s="64" t="e">
         <f>VLOOKUP($B88&amp;"3",funnel_data!$A:$X,I$82,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="M88" s="66"/>
-      <c r="N88" s="66"/>
+      <c r="M88" s="65"/>
+      <c r="N88" s="65"/>
     </row>
     <row r="89" spans="1:23" s="15" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A89" s="15" t="e">
@@ -8904,35 +8810,35 @@
       <c r="B89" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="C89" s="65" t="e">
+      <c r="C89" s="64" t="e">
         <f>VLOOKUP($B89&amp;"3",funnel_data!$A:$X,C$82,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="D89" s="65">
+      <c r="D89" s="64">
         <v>1</v>
       </c>
-      <c r="E89" s="65" t="e">
+      <c r="E89" s="64" t="e">
         <f>VLOOKUP($B89&amp;"3",funnel_data!$A:$X,E$82,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="F89" s="65" t="e">
+      <c r="F89" s="64" t="e">
         <f>VLOOKUP($B89&amp;"3",funnel_data!$A:$X,F$82,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="G89" s="65" t="e">
+      <c r="G89" s="64" t="e">
         <f>VLOOKUP($B89&amp;"3",funnel_data!$A:$X,G$82,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="H89" s="65" t="e">
+      <c r="H89" s="64" t="e">
         <f>VLOOKUP($B89&amp;"3",funnel_data!$A:$X,H$82,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="I89" s="65" t="e">
+      <c r="I89" s="64" t="e">
         <f>VLOOKUP($B89&amp;"3",funnel_data!$A:$X,I$82,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="M89" s="66"/>
-      <c r="N89" s="66"/>
+      <c r="M89" s="65"/>
+      <c r="N89" s="65"/>
     </row>
     <row r="90" spans="1:23" s="15" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A90" s="15" t="e">
@@ -8942,35 +8848,35 @@
       <c r="B90" s="45" t="s">
         <v>19</v>
       </c>
-      <c r="C90" s="65" t="e">
+      <c r="C90" s="64" t="e">
         <f>VLOOKUP($B90&amp;"3",funnel_data!$A:$X,C$82,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="D90" s="65">
+      <c r="D90" s="64">
         <v>1</v>
       </c>
-      <c r="E90" s="65" t="e">
+      <c r="E90" s="64" t="e">
         <f>VLOOKUP($B90&amp;"3",funnel_data!$A:$X,E$82,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="F90" s="65" t="e">
+      <c r="F90" s="64" t="e">
         <f>VLOOKUP($B90&amp;"3",funnel_data!$A:$X,F$82,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="G90" s="65" t="e">
+      <c r="G90" s="64" t="e">
         <f>VLOOKUP($B90&amp;"3",funnel_data!$A:$X,G$82,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="H90" s="65" t="e">
+      <c r="H90" s="64" t="e">
         <f>VLOOKUP($B90&amp;"3",funnel_data!$A:$X,H$82,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="I90" s="65" t="e">
+      <c r="I90" s="64" t="e">
         <f>VLOOKUP($B90&amp;"3",funnel_data!$A:$X,I$82,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="M90" s="66"/>
-      <c r="N90" s="66"/>
+      <c r="M90" s="65"/>
+      <c r="N90" s="65"/>
     </row>
     <row r="91" spans="1:23" s="15" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A91" s="15" t="e">
@@ -8980,35 +8886,35 @@
       <c r="B91" s="45" t="s">
         <v>71</v>
       </c>
-      <c r="C91" s="65" t="e">
+      <c r="C91" s="64" t="e">
         <f>VLOOKUP($B91&amp;"3",funnel_data!$A:$X,C$82,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="D91" s="65">
+      <c r="D91" s="64">
         <v>1</v>
       </c>
-      <c r="E91" s="65" t="e">
+      <c r="E91" s="64" t="e">
         <f>VLOOKUP($B91&amp;"3",funnel_data!$A:$X,E$82,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="F91" s="65" t="e">
+      <c r="F91" s="64" t="e">
         <f>VLOOKUP($B91&amp;"3",funnel_data!$A:$X,F$82,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="G91" s="65" t="e">
+      <c r="G91" s="64" t="e">
         <f>VLOOKUP($B91&amp;"3",funnel_data!$A:$X,G$82,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="H91" s="65" t="e">
+      <c r="H91" s="64" t="e">
         <f>VLOOKUP($B91&amp;"3",funnel_data!$A:$X,H$82,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="I91" s="65" t="e">
+      <c r="I91" s="64" t="e">
         <f>VLOOKUP($B91&amp;"3",funnel_data!$A:$X,I$82,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="M91" s="66"/>
-      <c r="N91" s="66"/>
+      <c r="M91" s="65"/>
+      <c r="N91" s="65"/>
     </row>
     <row r="92" spans="1:23" s="15" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A92" s="15" t="e">
@@ -9018,35 +8924,35 @@
       <c r="B92" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="C92" s="65" t="e">
+      <c r="C92" s="64" t="e">
         <f>VLOOKUP($B92&amp;"3",funnel_data!$A:$X,C$82,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="D92" s="65">
+      <c r="D92" s="64">
         <v>1</v>
       </c>
-      <c r="E92" s="65" t="e">
+      <c r="E92" s="64" t="e">
         <f>VLOOKUP($B92&amp;"3",funnel_data!$A:$X,E$82,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="F92" s="65" t="e">
+      <c r="F92" s="64" t="e">
         <f>VLOOKUP($B92&amp;"3",funnel_data!$A:$X,F$82,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="G92" s="65" t="e">
+      <c r="G92" s="64" t="e">
         <f>VLOOKUP($B92&amp;"3",funnel_data!$A:$X,G$82,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="H92" s="65" t="e">
+      <c r="H92" s="64" t="e">
         <f>VLOOKUP($B92&amp;"3",funnel_data!$A:$X,H$82,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="I92" s="65" t="e">
+      <c r="I92" s="64" t="e">
         <f>VLOOKUP($B92&amp;"3",funnel_data!$A:$X,I$82,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="M92" s="66"/>
-      <c r="N92" s="66"/>
+      <c r="M92" s="65"/>
+      <c r="N92" s="65"/>
     </row>
     <row r="93" spans="1:23" s="15" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A93" s="15" t="e">
@@ -9054,37 +8960,37 @@
         <v>#N/A</v>
       </c>
       <c r="B93" s="45" t="s">
-        <v>113</v>
-      </c>
-      <c r="C93" s="65" t="e">
+        <v>110</v>
+      </c>
+      <c r="C93" s="64" t="e">
         <f>VLOOKUP($B93&amp;"3",funnel_data!$A:$X,C$82,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="D93" s="65">
+      <c r="D93" s="64">
         <v>1</v>
       </c>
-      <c r="E93" s="65" t="e">
+      <c r="E93" s="64" t="e">
         <f>VLOOKUP($B93&amp;"3",funnel_data!$A:$X,E$82,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="F93" s="65" t="e">
+      <c r="F93" s="64" t="e">
         <f>VLOOKUP($B93&amp;"3",funnel_data!$A:$X,F$82,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="G93" s="65" t="e">
+      <c r="G93" s="64" t="e">
         <f>VLOOKUP($B93&amp;"3",funnel_data!$A:$X,G$82,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="H93" s="65" t="e">
+      <c r="H93" s="64" t="e">
         <f>VLOOKUP($B93&amp;"3",funnel_data!$A:$X,H$82,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="I93" s="65" t="e">
+      <c r="I93" s="64" t="e">
         <f>VLOOKUP($B93&amp;"3",funnel_data!$A:$X,I$82,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="M93" s="66"/>
-      <c r="N93" s="66"/>
+      <c r="M93" s="65"/>
+      <c r="N93" s="65"/>
     </row>
     <row r="94" spans="1:23" s="15" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A94" s="15" t="e">
@@ -9094,35 +9000,35 @@
       <c r="B94" s="45" t="s">
         <v>29</v>
       </c>
-      <c r="C94" s="65" t="e">
+      <c r="C94" s="64" t="e">
         <f>VLOOKUP($B94&amp;"3",funnel_data!$A:$X,C$82,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="D94" s="65">
+      <c r="D94" s="64">
         <v>1</v>
       </c>
-      <c r="E94" s="65" t="e">
+      <c r="E94" s="64" t="e">
         <f>VLOOKUP($B94&amp;"3",funnel_data!$A:$X,E$82,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="F94" s="65" t="e">
+      <c r="F94" s="64" t="e">
         <f>VLOOKUP($B94&amp;"3",funnel_data!$A:$X,F$82,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="G94" s="65" t="e">
+      <c r="G94" s="64" t="e">
         <f>VLOOKUP($B94&amp;"3",funnel_data!$A:$X,G$82,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="H94" s="65" t="e">
+      <c r="H94" s="64" t="e">
         <f>VLOOKUP($B94&amp;"3",funnel_data!$A:$X,H$82,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="I94" s="65" t="e">
+      <c r="I94" s="64" t="e">
         <f>VLOOKUP($B94&amp;"3",funnel_data!$A:$X,I$82,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="M94" s="66"/>
-      <c r="N94" s="66"/>
+      <c r="M94" s="65"/>
+      <c r="N94" s="65"/>
     </row>
     <row r="95" spans="1:23" s="15" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A95" s="15" t="e">
@@ -9132,35 +9038,35 @@
       <c r="B95" s="45" t="s">
         <v>10</v>
       </c>
-      <c r="C95" s="65" t="e">
+      <c r="C95" s="64" t="e">
         <f>VLOOKUP($B95&amp;"3",funnel_data!$A:$X,C$82,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="D95" s="65">
+      <c r="D95" s="64">
         <v>1</v>
       </c>
-      <c r="E95" s="65" t="e">
+      <c r="E95" s="64" t="e">
         <f>VLOOKUP($B95&amp;"3",funnel_data!$A:$X,E$82,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="F95" s="65" t="e">
+      <c r="F95" s="64" t="e">
         <f>VLOOKUP($B95&amp;"3",funnel_data!$A:$X,F$82,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="G95" s="65" t="e">
+      <c r="G95" s="64" t="e">
         <f>VLOOKUP($B95&amp;"3",funnel_data!$A:$X,G$82,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="H95" s="65" t="e">
+      <c r="H95" s="64" t="e">
         <f>VLOOKUP($B95&amp;"3",funnel_data!$A:$X,H$82,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="I95" s="65" t="e">
+      <c r="I95" s="64" t="e">
         <f>VLOOKUP($B95&amp;"3",funnel_data!$A:$X,I$82,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="M95" s="66"/>
-      <c r="N95" s="66"/>
+      <c r="M95" s="65"/>
+      <c r="N95" s="65"/>
     </row>
     <row r="96" spans="1:23" s="15" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A96" s="15" t="e">
@@ -9170,35 +9076,35 @@
       <c r="B96" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="C96" s="65" t="e">
+      <c r="C96" s="64" t="e">
         <f>VLOOKUP($B96&amp;"3",funnel_data!$A:$X,C$82,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="D96" s="65">
+      <c r="D96" s="64">
         <v>1</v>
       </c>
-      <c r="E96" s="65" t="e">
+      <c r="E96" s="64" t="e">
         <f>VLOOKUP($B96&amp;"3",funnel_data!$A:$X,E$82,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="F96" s="65" t="e">
+      <c r="F96" s="64" t="e">
         <f>VLOOKUP($B96&amp;"3",funnel_data!$A:$X,F$82,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="G96" s="65" t="e">
+      <c r="G96" s="64" t="e">
         <f>VLOOKUP($B96&amp;"3",funnel_data!$A:$X,G$82,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="H96" s="65" t="e">
+      <c r="H96" s="64" t="e">
         <f>VLOOKUP($B96&amp;"3",funnel_data!$A:$X,H$82,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="I96" s="65" t="e">
+      <c r="I96" s="64" t="e">
         <f>VLOOKUP($B96&amp;"3",funnel_data!$A:$X,I$82,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="M96" s="66"/>
-      <c r="N96" s="66"/>
+      <c r="M96" s="65"/>
+      <c r="N96" s="65"/>
     </row>
     <row r="97" spans="1:14" s="15" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A97" s="15" t="e">
@@ -9208,35 +9114,35 @@
       <c r="B97" s="45" t="s">
         <v>6</v>
       </c>
-      <c r="C97" s="65" t="e">
+      <c r="C97" s="64" t="e">
         <f>VLOOKUP($B97&amp;"3",funnel_data!$A:$X,C$82,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="D97" s="65">
+      <c r="D97" s="64">
         <v>1</v>
       </c>
-      <c r="E97" s="65" t="e">
+      <c r="E97" s="64" t="e">
         <f>VLOOKUP($B97&amp;"3",funnel_data!$A:$X,E$82,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="F97" s="65" t="e">
+      <c r="F97" s="64" t="e">
         <f>VLOOKUP($B97&amp;"3",funnel_data!$A:$X,F$82,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="G97" s="65" t="e">
+      <c r="G97" s="64" t="e">
         <f>VLOOKUP($B97&amp;"3",funnel_data!$A:$X,G$82,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="H97" s="65" t="e">
+      <c r="H97" s="64" t="e">
         <f>VLOOKUP($B97&amp;"3",funnel_data!$A:$X,H$82,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="I97" s="65" t="e">
+      <c r="I97" s="64" t="e">
         <f>VLOOKUP($B97&amp;"3",funnel_data!$A:$X,I$82,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="M97" s="66"/>
-      <c r="N97" s="66"/>
+      <c r="M97" s="65"/>
+      <c r="N97" s="65"/>
     </row>
     <row r="98" spans="1:14" s="15" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A98" s="15" t="e">
@@ -9246,35 +9152,35 @@
       <c r="B98" s="45" t="s">
         <v>5</v>
       </c>
-      <c r="C98" s="65" t="e">
+      <c r="C98" s="64" t="e">
         <f>VLOOKUP($B98&amp;"3",funnel_data!$A:$X,C$82,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="D98" s="65">
+      <c r="D98" s="64">
         <v>1</v>
       </c>
-      <c r="E98" s="65" t="e">
+      <c r="E98" s="64" t="e">
         <f>VLOOKUP($B98&amp;"3",funnel_data!$A:$X,E$82,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="F98" s="65" t="e">
+      <c r="F98" s="64" t="e">
         <f>VLOOKUP($B98&amp;"3",funnel_data!$A:$X,F$82,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="G98" s="65" t="e">
+      <c r="G98" s="64" t="e">
         <f>VLOOKUP($B98&amp;"3",funnel_data!$A:$X,G$82,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="H98" s="65" t="e">
+      <c r="H98" s="64" t="e">
         <f>VLOOKUP($B98&amp;"3",funnel_data!$A:$X,H$82,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="I98" s="65" t="e">
+      <c r="I98" s="64" t="e">
         <f>VLOOKUP($B98&amp;"3",funnel_data!$A:$X,I$82,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="M98" s="66"/>
-      <c r="N98" s="66"/>
+      <c r="M98" s="65"/>
+      <c r="N98" s="65"/>
     </row>
     <row r="99" spans="1:14" s="15" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A99" s="15" t="e">
@@ -9284,35 +9190,35 @@
       <c r="B99" s="45" t="s">
         <v>25</v>
       </c>
-      <c r="C99" s="65" t="e">
+      <c r="C99" s="64" t="e">
         <f>VLOOKUP($B99&amp;"3",funnel_data!$A:$X,C$82,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="D99" s="65">
+      <c r="D99" s="64">
         <v>1</v>
       </c>
-      <c r="E99" s="65" t="e">
+      <c r="E99" s="64" t="e">
         <f>VLOOKUP($B99&amp;"3",funnel_data!$A:$X,E$82,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="F99" s="65" t="e">
+      <c r="F99" s="64" t="e">
         <f>VLOOKUP($B99&amp;"3",funnel_data!$A:$X,F$82,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="G99" s="65" t="e">
+      <c r="G99" s="64" t="e">
         <f>VLOOKUP($B99&amp;"3",funnel_data!$A:$X,G$82,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="H99" s="65" t="e">
+      <c r="H99" s="64" t="e">
         <f>VLOOKUP($B99&amp;"3",funnel_data!$A:$X,H$82,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="I99" s="65" t="e">
+      <c r="I99" s="64" t="e">
         <f>VLOOKUP($B99&amp;"3",funnel_data!$A:$X,I$82,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="M99" s="66"/>
-      <c r="N99" s="66"/>
+      <c r="M99" s="65"/>
+      <c r="N99" s="65"/>
     </row>
     <row r="100" spans="1:14" s="15" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A100" s="15" t="e">
@@ -9322,35 +9228,35 @@
       <c r="B100" s="45" t="s">
         <v>26</v>
       </c>
-      <c r="C100" s="65" t="e">
+      <c r="C100" s="64" t="e">
         <f>VLOOKUP($B100&amp;"3",funnel_data!$A:$X,C$82,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="D100" s="65">
+      <c r="D100" s="64">
         <v>1</v>
       </c>
-      <c r="E100" s="65" t="e">
+      <c r="E100" s="64" t="e">
         <f>VLOOKUP($B100&amp;"3",funnel_data!$A:$X,E$82,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="F100" s="65" t="e">
+      <c r="F100" s="64" t="e">
         <f>VLOOKUP($B100&amp;"3",funnel_data!$A:$X,F$82,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="G100" s="65" t="e">
+      <c r="G100" s="64" t="e">
         <f>VLOOKUP($B100&amp;"3",funnel_data!$A:$X,G$82,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="H100" s="65" t="e">
+      <c r="H100" s="64" t="e">
         <f>VLOOKUP($B100&amp;"3",funnel_data!$A:$X,H$82,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="I100" s="65" t="e">
+      <c r="I100" s="64" t="e">
         <f>VLOOKUP($B100&amp;"3",funnel_data!$A:$X,I$82,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="M100" s="66"/>
-      <c r="N100" s="66"/>
+      <c r="M100" s="65"/>
+      <c r="N100" s="65"/>
     </row>
     <row r="101" spans="1:14" s="15" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A101" s="15" t="e">
@@ -9360,35 +9266,35 @@
       <c r="B101" s="45" t="s">
         <v>11</v>
       </c>
-      <c r="C101" s="65" t="e">
+      <c r="C101" s="64" t="e">
         <f>VLOOKUP($B101&amp;"3",funnel_data!$A:$X,C$82,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="D101" s="65">
+      <c r="D101" s="64">
         <v>1</v>
       </c>
-      <c r="E101" s="65" t="e">
+      <c r="E101" s="64" t="e">
         <f>VLOOKUP($B101&amp;"3",funnel_data!$A:$X,E$82,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="F101" s="65" t="e">
+      <c r="F101" s="64" t="e">
         <f>VLOOKUP($B101&amp;"3",funnel_data!$A:$X,F$82,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="G101" s="65" t="e">
+      <c r="G101" s="64" t="e">
         <f>VLOOKUP($B101&amp;"3",funnel_data!$A:$X,G$82,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="H101" s="65" t="e">
+      <c r="H101" s="64" t="e">
         <f>VLOOKUP($B101&amp;"3",funnel_data!$A:$X,H$82,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="I101" s="65" t="e">
+      <c r="I101" s="64" t="e">
         <f>VLOOKUP($B101&amp;"3",funnel_data!$A:$X,I$82,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="M101" s="66"/>
-      <c r="N101" s="66"/>
+      <c r="M101" s="65"/>
+      <c r="N101" s="65"/>
     </row>
     <row r="102" spans="1:14" s="15" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A102" s="15" t="e">
@@ -9396,37 +9302,37 @@
         <v>#N/A</v>
       </c>
       <c r="B102" s="45" t="s">
-        <v>119</v>
-      </c>
-      <c r="C102" s="65" t="e">
+        <v>116</v>
+      </c>
+      <c r="C102" s="64" t="e">
         <f>VLOOKUP($B102&amp;"3",funnel_data!$A:$X,C$82,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="D102" s="65">
+      <c r="D102" s="64">
         <v>1</v>
       </c>
-      <c r="E102" s="65" t="e">
+      <c r="E102" s="64" t="e">
         <f>VLOOKUP($B102&amp;"3",funnel_data!$A:$X,E$82,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="F102" s="65" t="e">
+      <c r="F102" s="64" t="e">
         <f>VLOOKUP($B102&amp;"3",funnel_data!$A:$X,F$82,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="G102" s="65" t="e">
+      <c r="G102" s="64" t="e">
         <f>VLOOKUP($B102&amp;"3",funnel_data!$A:$X,G$82,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="H102" s="65" t="e">
+      <c r="H102" s="64" t="e">
         <f>VLOOKUP($B102&amp;"3",funnel_data!$A:$X,H$82,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="I102" s="65" t="e">
+      <c r="I102" s="64" t="e">
         <f>VLOOKUP($B102&amp;"3",funnel_data!$A:$X,I$82,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="M102" s="66"/>
-      <c r="N102" s="66"/>
+      <c r="M102" s="65"/>
+      <c r="N102" s="65"/>
     </row>
     <row r="103" spans="1:14" s="15" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A103" s="15" t="e">
@@ -9436,35 +9342,35 @@
       <c r="B103" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="C103" s="65" t="e">
+      <c r="C103" s="64" t="e">
         <f>VLOOKUP($B103&amp;"3",funnel_data!$A:$X,C$82,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="D103" s="65">
+      <c r="D103" s="64">
         <v>1</v>
       </c>
-      <c r="E103" s="65" t="e">
+      <c r="E103" s="64" t="e">
         <f>VLOOKUP($B103&amp;"3",funnel_data!$A:$X,E$82,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="F103" s="65" t="e">
+      <c r="F103" s="64" t="e">
         <f>VLOOKUP($B103&amp;"3",funnel_data!$A:$X,F$82,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="G103" s="65" t="e">
+      <c r="G103" s="64" t="e">
         <f>VLOOKUP($B103&amp;"3",funnel_data!$A:$X,G$82,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="H103" s="65" t="e">
+      <c r="H103" s="64" t="e">
         <f>VLOOKUP($B103&amp;"3",funnel_data!$A:$X,H$82,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="I103" s="65" t="e">
+      <c r="I103" s="64" t="e">
         <f>VLOOKUP($B103&amp;"3",funnel_data!$A:$X,I$82,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="M103" s="66"/>
-      <c r="N103" s="66"/>
+      <c r="M103" s="65"/>
+      <c r="N103" s="65"/>
     </row>
     <row r="104" spans="1:14" s="15" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A104" s="15" t="e">
@@ -9474,35 +9380,35 @@
       <c r="B104" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="C104" s="65" t="e">
+      <c r="C104" s="64" t="e">
         <f>VLOOKUP($B104&amp;"3",funnel_data!$A:$X,C$82,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="D104" s="65">
+      <c r="D104" s="64">
         <v>1</v>
       </c>
-      <c r="E104" s="65" t="e">
+      <c r="E104" s="64" t="e">
         <f>VLOOKUP($B104&amp;"3",funnel_data!$A:$X,E$82,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="F104" s="65" t="e">
+      <c r="F104" s="64" t="e">
         <f>VLOOKUP($B104&amp;"3",funnel_data!$A:$X,F$82,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="G104" s="65" t="e">
+      <c r="G104" s="64" t="e">
         <f>VLOOKUP($B104&amp;"3",funnel_data!$A:$X,G$82,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="H104" s="65" t="e">
+      <c r="H104" s="64" t="e">
         <f>VLOOKUP($B104&amp;"3",funnel_data!$A:$X,H$82,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="I104" s="65" t="e">
+      <c r="I104" s="64" t="e">
         <f>VLOOKUP($B104&amp;"3",funnel_data!$A:$X,I$82,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="M104" s="66"/>
-      <c r="N104" s="66"/>
+      <c r="M104" s="65"/>
+      <c r="N104" s="65"/>
     </row>
     <row r="105" spans="1:14" s="15" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A105" s="15" t="e">
@@ -9512,35 +9418,35 @@
       <c r="B105" s="45" t="s">
         <v>23</v>
       </c>
-      <c r="C105" s="65" t="e">
+      <c r="C105" s="64" t="e">
         <f>VLOOKUP($B105&amp;"3",funnel_data!$A:$X,C$82,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="D105" s="65">
+      <c r="D105" s="64">
         <v>1</v>
       </c>
-      <c r="E105" s="65" t="e">
+      <c r="E105" s="64" t="e">
         <f>VLOOKUP($B105&amp;"3",funnel_data!$A:$X,E$82,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="F105" s="65" t="e">
+      <c r="F105" s="64" t="e">
         <f>VLOOKUP($B105&amp;"3",funnel_data!$A:$X,F$82,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="G105" s="65" t="e">
+      <c r="G105" s="64" t="e">
         <f>VLOOKUP($B105&amp;"3",funnel_data!$A:$X,G$82,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="H105" s="65" t="e">
+      <c r="H105" s="64" t="e">
         <f>VLOOKUP($B105&amp;"3",funnel_data!$A:$X,H$82,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="I105" s="65" t="e">
+      <c r="I105" s="64" t="e">
         <f>VLOOKUP($B105&amp;"3",funnel_data!$A:$X,I$82,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="M105" s="66"/>
-      <c r="N105" s="66"/>
+      <c r="M105" s="65"/>
+      <c r="N105" s="65"/>
     </row>
     <row r="106" spans="1:14" s="15" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A106" s="15" t="e">
@@ -9550,35 +9456,35 @@
       <c r="B106" s="45" t="s">
         <v>22</v>
       </c>
-      <c r="C106" s="65" t="e">
+      <c r="C106" s="64" t="e">
         <f>VLOOKUP($B106&amp;"3",funnel_data!$A:$X,C$82,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="D106" s="65">
+      <c r="D106" s="64">
         <v>1</v>
       </c>
-      <c r="E106" s="65" t="e">
+      <c r="E106" s="64" t="e">
         <f>VLOOKUP($B106&amp;"3",funnel_data!$A:$X,E$82,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="F106" s="65" t="e">
+      <c r="F106" s="64" t="e">
         <f>VLOOKUP($B106&amp;"3",funnel_data!$A:$X,F$82,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="G106" s="65" t="e">
+      <c r="G106" s="64" t="e">
         <f>VLOOKUP($B106&amp;"3",funnel_data!$A:$X,G$82,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="H106" s="65" t="e">
+      <c r="H106" s="64" t="e">
         <f>VLOOKUP($B106&amp;"3",funnel_data!$A:$X,H$82,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="I106" s="65" t="e">
+      <c r="I106" s="64" t="e">
         <f>VLOOKUP($B106&amp;"3",funnel_data!$A:$X,I$82,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="M106" s="66"/>
-      <c r="N106" s="66"/>
+      <c r="M106" s="65"/>
+      <c r="N106" s="65"/>
     </row>
     <row r="107" spans="1:14" s="15" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A107" s="15" t="e">
@@ -9588,35 +9494,35 @@
       <c r="B107" s="45" t="s">
         <v>27</v>
       </c>
-      <c r="C107" s="65" t="e">
+      <c r="C107" s="64" t="e">
         <f>VLOOKUP($B107&amp;"3",funnel_data!$A:$X,C$82,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="D107" s="65">
+      <c r="D107" s="64">
         <v>1</v>
       </c>
-      <c r="E107" s="65" t="e">
+      <c r="E107" s="64" t="e">
         <f>VLOOKUP($B107&amp;"3",funnel_data!$A:$X,E$82,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="F107" s="65" t="e">
+      <c r="F107" s="64" t="e">
         <f>VLOOKUP($B107&amp;"3",funnel_data!$A:$X,F$82,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="G107" s="65" t="e">
+      <c r="G107" s="64" t="e">
         <f>VLOOKUP($B107&amp;"3",funnel_data!$A:$X,G$82,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="H107" s="65" t="e">
+      <c r="H107" s="64" t="e">
         <f>VLOOKUP($B107&amp;"3",funnel_data!$A:$X,H$82,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="I107" s="65" t="e">
+      <c r="I107" s="64" t="e">
         <f>VLOOKUP($B107&amp;"3",funnel_data!$A:$X,I$82,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="M107" s="66"/>
-      <c r="N107" s="66"/>
+      <c r="M107" s="65"/>
+      <c r="N107" s="65"/>
     </row>
     <row r="108" spans="1:14" s="15" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A108" s="15" t="e">
@@ -9626,35 +9532,35 @@
       <c r="B108" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="C108" s="65" t="e">
+      <c r="C108" s="64" t="e">
         <f>VLOOKUP($B108&amp;"3",funnel_data!$A:$X,C$82,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="D108" s="65">
+      <c r="D108" s="64">
         <v>1</v>
       </c>
-      <c r="E108" s="65" t="e">
+      <c r="E108" s="64" t="e">
         <f>VLOOKUP($B108&amp;"3",funnel_data!$A:$X,E$82,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="F108" s="65" t="e">
+      <c r="F108" s="64" t="e">
         <f>VLOOKUP($B108&amp;"3",funnel_data!$A:$X,F$82,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="G108" s="65" t="e">
+      <c r="G108" s="64" t="e">
         <f>VLOOKUP($B108&amp;"3",funnel_data!$A:$X,G$82,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="H108" s="65" t="e">
+      <c r="H108" s="64" t="e">
         <f>VLOOKUP($B108&amp;"3",funnel_data!$A:$X,H$82,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="I108" s="65" t="e">
+      <c r="I108" s="64" t="e">
         <f>VLOOKUP($B108&amp;"3",funnel_data!$A:$X,I$82,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="M108" s="66"/>
-      <c r="N108" s="66"/>
+      <c r="M108" s="65"/>
+      <c r="N108" s="65"/>
     </row>
     <row r="109" spans="1:14" s="15" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A109" s="15" t="e">
@@ -9664,35 +9570,35 @@
       <c r="B109" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="C109" s="65" t="e">
+      <c r="C109" s="64" t="e">
         <f>VLOOKUP($B109&amp;"3",funnel_data!$A:$X,C$82,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="D109" s="65">
+      <c r="D109" s="64">
         <v>1</v>
       </c>
-      <c r="E109" s="65" t="e">
+      <c r="E109" s="64" t="e">
         <f>VLOOKUP($B109&amp;"3",funnel_data!$A:$X,E$82,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="F109" s="65" t="e">
+      <c r="F109" s="64" t="e">
         <f>VLOOKUP($B109&amp;"3",funnel_data!$A:$X,F$82,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="G109" s="65" t="e">
+      <c r="G109" s="64" t="e">
         <f>VLOOKUP($B109&amp;"3",funnel_data!$A:$X,G$82,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="H109" s="65" t="e">
+      <c r="H109" s="64" t="e">
         <f>VLOOKUP($B109&amp;"3",funnel_data!$A:$X,H$82,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="I109" s="65" t="e">
+      <c r="I109" s="64" t="e">
         <f>VLOOKUP($B109&amp;"3",funnel_data!$A:$X,I$82,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="M109" s="66"/>
-      <c r="N109" s="66"/>
+      <c r="M109" s="65"/>
+      <c r="N109" s="65"/>
     </row>
     <row r="110" spans="1:14" s="15" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A110" s="15" t="e">
@@ -9702,35 +9608,35 @@
       <c r="B110" s="45" t="s">
         <v>16</v>
       </c>
-      <c r="C110" s="65" t="e">
+      <c r="C110" s="64" t="e">
         <f>VLOOKUP($B110&amp;"3",funnel_data!$A:$X,C$82,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="D110" s="65">
+      <c r="D110" s="64">
         <v>1</v>
       </c>
-      <c r="E110" s="65" t="e">
+      <c r="E110" s="64" t="e">
         <f>VLOOKUP($B110&amp;"3",funnel_data!$A:$X,E$82,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="F110" s="65" t="e">
+      <c r="F110" s="64" t="e">
         <f>VLOOKUP($B110&amp;"3",funnel_data!$A:$X,F$82,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="G110" s="65" t="e">
+      <c r="G110" s="64" t="e">
         <f>VLOOKUP($B110&amp;"3",funnel_data!$A:$X,G$82,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="H110" s="65" t="e">
+      <c r="H110" s="64" t="e">
         <f>VLOOKUP($B110&amp;"3",funnel_data!$A:$X,H$82,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="I110" s="65" t="e">
+      <c r="I110" s="64" t="e">
         <f>VLOOKUP($B110&amp;"3",funnel_data!$A:$X,I$82,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="M110" s="66"/>
-      <c r="N110" s="66"/>
+      <c r="M110" s="65"/>
+      <c r="N110" s="65"/>
     </row>
     <row r="111" spans="1:14" s="15" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A111" s="15" t="e">
@@ -9740,30 +9646,30 @@
       <c r="B111" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="C111" s="65" t="e">
+      <c r="C111" s="64" t="e">
         <f>VLOOKUP($B111&amp;"3",funnel_data!$A:$X,C$82,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="D111" s="65">
+      <c r="D111" s="64">
         <v>1</v>
       </c>
-      <c r="E111" s="65" t="e">
+      <c r="E111" s="64" t="e">
         <f>VLOOKUP($B111&amp;"3",funnel_data!$A:$X,E$82,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="F111" s="65" t="e">
+      <c r="F111" s="64" t="e">
         <f>VLOOKUP($B111&amp;"3",funnel_data!$A:$X,F$82,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="G111" s="65" t="e">
+      <c r="G111" s="64" t="e">
         <f>VLOOKUP($B111&amp;"3",funnel_data!$A:$X,G$82,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="H111" s="65" t="e">
+      <c r="H111" s="64" t="e">
         <f>VLOOKUP($B111&amp;"3",funnel_data!$A:$X,H$82,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="I111" s="65" t="e">
+      <c r="I111" s="64" t="e">
         <f>VLOOKUP($B111&amp;"3",funnel_data!$A:$X,I$82,FALSE)</f>
         <v>#N/A</v>
       </c>
@@ -9776,30 +9682,30 @@
       <c r="B112" s="45" t="s">
         <v>17</v>
       </c>
-      <c r="C112" s="65" t="e">
+      <c r="C112" s="64" t="e">
         <f>VLOOKUP($B112&amp;"3",funnel_data!$A:$X,C$82,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="D112" s="65">
+      <c r="D112" s="64">
         <v>1</v>
       </c>
-      <c r="E112" s="65" t="e">
+      <c r="E112" s="64" t="e">
         <f>VLOOKUP($B112&amp;"3",funnel_data!$A:$X,E$82,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="F112" s="65" t="e">
+      <c r="F112" s="64" t="e">
         <f>VLOOKUP($B112&amp;"3",funnel_data!$A:$X,F$82,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="G112" s="65" t="e">
+      <c r="G112" s="64" t="e">
         <f>VLOOKUP($B112&amp;"3",funnel_data!$A:$X,G$82,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="H112" s="65" t="e">
+      <c r="H112" s="64" t="e">
         <f>VLOOKUP($B112&amp;"3",funnel_data!$A:$X,H$82,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="I112" s="65" t="e">
+      <c r="I112" s="64" t="e">
         <f>VLOOKUP($B112&amp;"3",funnel_data!$A:$X,I$82,FALSE)</f>
         <v>#N/A</v>
       </c>
@@ -9812,30 +9718,30 @@
       <c r="B113" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="C113" s="65" t="e">
+      <c r="C113" s="64" t="e">
         <f>VLOOKUP($B113&amp;"3",funnel_data!$A:$X,C$82,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="D113" s="65">
+      <c r="D113" s="64">
         <v>1</v>
       </c>
-      <c r="E113" s="65" t="e">
+      <c r="E113" s="64" t="e">
         <f>VLOOKUP($B113&amp;"3",funnel_data!$A:$X,E$82,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="F113" s="65" t="e">
+      <c r="F113" s="64" t="e">
         <f>VLOOKUP($B113&amp;"3",funnel_data!$A:$X,F$82,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="G113" s="65" t="e">
+      <c r="G113" s="64" t="e">
         <f>VLOOKUP($B113&amp;"3",funnel_data!$A:$X,G$82,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="H113" s="65" t="e">
+      <c r="H113" s="64" t="e">
         <f>VLOOKUP($B113&amp;"3",funnel_data!$A:$X,H$82,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="I113" s="65" t="e">
+      <c r="I113" s="64" t="e">
         <f>VLOOKUP($B113&amp;"3",funnel_data!$A:$X,I$82,FALSE)</f>
         <v>#N/A</v>
       </c>
@@ -9848,30 +9754,30 @@
       <c r="B114" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="C114" s="65" t="e">
+      <c r="C114" s="64" t="e">
         <f>VLOOKUP($B114&amp;"3",funnel_data!$A:$X,C$82,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="D114" s="65">
+      <c r="D114" s="64">
         <v>1</v>
       </c>
-      <c r="E114" s="65" t="e">
+      <c r="E114" s="64" t="e">
         <f>VLOOKUP($B114&amp;"3",funnel_data!$A:$X,E$82,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="F114" s="65" t="e">
+      <c r="F114" s="64" t="e">
         <f>VLOOKUP($B114&amp;"3",funnel_data!$A:$X,F$82,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="G114" s="65" t="e">
+      <c r="G114" s="64" t="e">
         <f>VLOOKUP($B114&amp;"3",funnel_data!$A:$X,G$82,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="H114" s="65" t="e">
+      <c r="H114" s="64" t="e">
         <f>VLOOKUP($B114&amp;"3",funnel_data!$A:$X,H$82,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="I114" s="65" t="e">
+      <c r="I114" s="64" t="e">
         <f>VLOOKUP($B114&amp;"3",funnel_data!$A:$X,I$82,FALSE)</f>
         <v>#N/A</v>
       </c>
@@ -9884,30 +9790,30 @@
       <c r="B115" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="C115" s="65" t="e">
+      <c r="C115" s="64" t="e">
         <f>VLOOKUP($B115&amp;"3",funnel_data!$A:$X,C$82,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="D115" s="65">
+      <c r="D115" s="64">
         <v>1</v>
       </c>
-      <c r="E115" s="65" t="e">
+      <c r="E115" s="64" t="e">
         <f>VLOOKUP($B115&amp;"3",funnel_data!$A:$X,E$82,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="F115" s="65" t="e">
+      <c r="F115" s="64" t="e">
         <f>VLOOKUP($B115&amp;"3",funnel_data!$A:$X,F$82,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="G115" s="65" t="e">
+      <c r="G115" s="64" t="e">
         <f>VLOOKUP($B115&amp;"3",funnel_data!$A:$X,G$82,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="H115" s="65" t="e">
+      <c r="H115" s="64" t="e">
         <f>VLOOKUP($B115&amp;"3",funnel_data!$A:$X,H$82,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="I115" s="65" t="e">
+      <c r="I115" s="64" t="e">
         <f>VLOOKUP($B115&amp;"3",funnel_data!$A:$X,I$82,FALSE)</f>
         <v>#N/A</v>
       </c>
@@ -9950,9 +9856,7 @@
   <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:R1022"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A1022"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -9962,7 +9866,7 @@
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="O1"/>
     </row>
@@ -17298,10 +17202,10 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="G3" s="5"/>
     </row>
@@ -17370,10 +17274,10 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="G11" s="5"/>
     </row>
@@ -17453,10 +17357,10 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="G20" s="5"/>
     </row>
@@ -17555,7 +17459,7 @@
         <v>9</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="G31" s="5"/>
     </row>
@@ -17590,9 +17494,7 @@
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -17601,8 +17503,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>116</v>
+      <c r="A1">
+        <f>funnel_data!V2</f>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/reference_files/Table1-HSMR.xlsx
+++ b/reference_files/Table1-HSMR.xlsx
@@ -15,8 +15,8 @@
     <sheet name="Table 1" sheetId="49" r:id="rId1"/>
     <sheet name="Chart 1" sheetId="43" r:id="rId2"/>
     <sheet name="funnel_data" sheetId="38" r:id="rId3"/>
-    <sheet name="hosp_lookup" sheetId="51" r:id="rId4"/>
-    <sheet name="period_lookup" sheetId="37" r:id="rId5"/>
+    <sheet name="hosp_lookup" sheetId="51" state="hidden" r:id="rId4"/>
+    <sheet name="period_lookup" sheetId="37" state="hidden" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">funnel_data!$A$1:$S$1022</definedName>
@@ -745,10 +745,10 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="2" fontId="18" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="23" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="23" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2800,7 +2800,7 @@
         <c:axId val="553192216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="2800"/>
+          <c:max val="3000"/>
           <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -2843,6 +2843,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2957,6 +2958,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -3034,6 +3036,15 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:legendEntry>
+        <c:idx val="6"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="7"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4455,19 +4466,19 @@
     <row r="1" spans="1:27" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="47"/>
       <c r="B1" s="8"/>
-      <c r="C1" s="66" t="s">
+      <c r="C1" s="67" t="s">
         <v>73</v>
       </c>
-      <c r="D1" s="66"/>
-      <c r="E1" s="66"/>
-      <c r="F1" s="66"/>
-      <c r="G1" s="66"/>
-      <c r="H1" s="66"/>
-      <c r="I1" s="66"/>
-      <c r="J1" s="66"/>
-      <c r="K1" s="66"/>
-      <c r="L1" s="66"/>
-      <c r="M1" s="66"/>
+      <c r="D1" s="67"/>
+      <c r="E1" s="67"/>
+      <c r="F1" s="67"/>
+      <c r="G1" s="67"/>
+      <c r="H1" s="67"/>
+      <c r="I1" s="67"/>
+      <c r="J1" s="67"/>
+      <c r="K1" s="67"/>
+      <c r="L1" s="67"/>
+      <c r="M1" s="67"/>
     </row>
     <row r="2" spans="1:27" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="47"/>
@@ -4608,7 +4619,7 @@
         <f>VLOOKUP($B11&amp;$A$5,funnel_data!$A:$X,5,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="H11" s="67" t="e">
+      <c r="H11" s="66" t="e">
         <f>VLOOKUP($B11&amp;$A$5,funnel_data!$A:$X,7,FALSE)</f>
         <v>#N/A</v>
       </c>
@@ -6140,7 +6151,7 @@
   <dimension ref="A1:AK121"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AQ29" sqref="AQ29"/>
+      <selection activeCell="AL29" sqref="AL29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.28515625" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -6158,19 +6169,19 @@
   <sheetData>
     <row r="1" spans="1:36" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="8"/>
-      <c r="B1" s="66" t="s">
+      <c r="B1" s="67" t="s">
         <v>73</v>
       </c>
-      <c r="C1" s="66"/>
-      <c r="D1" s="66"/>
-      <c r="E1" s="66"/>
-      <c r="F1" s="66"/>
-      <c r="G1" s="66"/>
-      <c r="H1" s="66"/>
-      <c r="I1" s="66"/>
-      <c r="J1" s="66"/>
-      <c r="K1" s="66"/>
-      <c r="L1" s="66"/>
+      <c r="C1" s="67"/>
+      <c r="D1" s="67"/>
+      <c r="E1" s="67"/>
+      <c r="F1" s="67"/>
+      <c r="G1" s="67"/>
+      <c r="H1" s="67"/>
+      <c r="I1" s="67"/>
+      <c r="J1" s="67"/>
+      <c r="K1" s="67"/>
+      <c r="L1" s="67"/>
     </row>
     <row r="2" spans="1:36" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8"/>
@@ -17494,7 +17505,9 @@
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A34" sqref="A34:IV34"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>

--- a/reference_files/Table1-HSMR.xlsx
+++ b/reference_files/Table1-HSMR.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="123">
   <si>
     <t>V217H</t>
   </si>
@@ -395,6 +395,9 @@
   </si>
   <si>
     <t>S08000032</t>
+  </si>
+  <si>
+    <t>SMR</t>
   </si>
 </sst>
 </file>
@@ -2039,7 +2042,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>smr</c:v>
+                  <c:v>SMR</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3671,8 +3674,8 @@
     <xdr:to>
       <xdr:col>41</xdr:col>
       <xdr:colOff>425824</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>149036</xdr:rowOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>112059</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3681,8 +3684,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7584701" y="720536"/>
-          <a:ext cx="3856505" cy="2902324"/>
+          <a:off x="7495053" y="720536"/>
+          <a:ext cx="3856506" cy="3470464"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4040,6 +4043,110 @@
             <a:latin typeface="Arial" pitchFamily="34" charset="0"/>
             <a:ea typeface="+mn-ea"/>
             <a:cs typeface="Arial" pitchFamily="34" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-GB" sz="1000">
+            <a:latin typeface="Arial" pitchFamily="34" charset="0"/>
+            <a:cs typeface="Arial" pitchFamily="34" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1000" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>The table below the chart shows the hospitals as they appear on the chart left to right. Any</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1000" b="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t> outliers are highlighted in </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1000" b="1" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="C00000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>red</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1000" b="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t> (over upper control limit) or </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1000" b="1" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>orange</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1000" b="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t> (over upper warning limit).</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-GB" sz="1000">
+            <a:effectLst/>
+            <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
           </a:endParaRPr>
         </a:p>
         <a:p>
@@ -4530,7 +4637,7 @@
       <c r="A4" s="47"/>
       <c r="B4" s="8"/>
       <c r="C4" s="14" t="str">
-        <f>"Hospital Standardised Mortality Ratio (Funnel Plot); "&amp;B5</f>
+        <f>"Hospital Standardised Mortality Ratio (Funnel Plot); "</f>
         <v xml:space="preserve">Hospital Standardised Mortality Ratio (Funnel Plot); </v>
       </c>
       <c r="D4" s="28"/>
@@ -6150,9 +6257,7 @@
   </sheetPr>
   <dimension ref="A1:AK121"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AL29" sqref="AL29"/>
-    </sheetView>
+    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.28515625" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
@@ -6182,6 +6287,22 @@
       <c r="J1" s="67"/>
       <c r="K1" s="67"/>
       <c r="L1" s="67"/>
+      <c r="M1" s="67"/>
+      <c r="N1" s="67"/>
+      <c r="O1" s="67"/>
+      <c r="P1" s="67"/>
+      <c r="Q1" s="67"/>
+      <c r="R1" s="67"/>
+      <c r="S1" s="67"/>
+      <c r="T1" s="67"/>
+      <c r="U1" s="67"/>
+      <c r="V1" s="67"/>
+      <c r="W1" s="67"/>
+      <c r="X1" s="67"/>
+      <c r="Y1" s="67"/>
+      <c r="Z1" s="67"/>
+      <c r="AA1" s="67"/>
+      <c r="AB1" s="67"/>
     </row>
     <row r="2" spans="1:36" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8"/>
@@ -6580,7 +6701,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="34" spans="1:37" s="18" customFormat="1" ht="240.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:37" s="18" customFormat="1" ht="186" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C34" s="20" t="e">
         <f>VLOOKUP(VLOOKUP(C$32,$A$49:$B$80,2,FALSE),hosp_lookup!$A:$B,2,FALSE)</f>
         <v>#N/A</v>
@@ -6826,7 +6947,7 @@
         <v>59</v>
       </c>
       <c r="E48" s="51" t="s">
-        <v>53</v>
+        <v>122</v>
       </c>
       <c r="F48" s="51" t="s">
         <v>55</v>
@@ -9837,7 +9958,7 @@
     <row r="121" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B1:L1"/>
+    <mergeCell ref="B1:AB1"/>
   </mergeCells>
   <conditionalFormatting sqref="C33:AH33">
     <cfRule type="cellIs" dxfId="2" priority="1" stopIfTrue="1" operator="equal">

--- a/reference_files/Table1-HSMR.xlsx
+++ b/reference_files/Table1-HSMR.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="122">
   <si>
     <t>V217H</t>
   </si>
@@ -395,9 +395,6 @@
   </si>
   <si>
     <t>S08000032</t>
-  </si>
-  <si>
-    <t>SMR</t>
   </si>
 </sst>
 </file>
@@ -2042,7 +2039,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>SMR</c:v>
+                  <c:v>smr</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3674,8 +3671,8 @@
     <xdr:to>
       <xdr:col>41</xdr:col>
       <xdr:colOff>425824</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>112059</xdr:rowOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>149036</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3684,8 +3681,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7495053" y="720536"/>
-          <a:ext cx="3856506" cy="3470464"/>
+          <a:off x="7584701" y="720536"/>
+          <a:ext cx="3856505" cy="2902324"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4043,110 +4040,6 @@
             <a:latin typeface="Arial" pitchFamily="34" charset="0"/>
             <a:ea typeface="+mn-ea"/>
             <a:cs typeface="Arial" pitchFamily="34" charset="0"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="en-GB" sz="1000">
-            <a:latin typeface="Arial" pitchFamily="34" charset="0"/>
-            <a:cs typeface="Arial" pitchFamily="34" charset="0"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-            <a:buClrTx/>
-            <a:buSzTx/>
-            <a:buFontTx/>
-            <a:buNone/>
-            <a:tabLst/>
-            <a:defRPr/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1000" b="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>The table below the chart shows the hospitals as they appear on the chart left to right. Any</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1000" b="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t> outliers are highlighted in </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1000" b="1" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="C00000"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>red</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1000" b="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t> (over upper control limit) or </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1000" b="1" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="accent6">
-                  <a:lumMod val="75000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>orange</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1000" b="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t> (over upper warning limit).</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-GB" sz="1000">
-            <a:effectLst/>
-            <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-            <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
           </a:endParaRPr>
         </a:p>
         <a:p>
@@ -4637,7 +4530,7 @@
       <c r="A4" s="47"/>
       <c r="B4" s="8"/>
       <c r="C4" s="14" t="str">
-        <f>"Hospital Standardised Mortality Ratio (Funnel Plot); "</f>
+        <f>"Hospital Standardised Mortality Ratio (Funnel Plot); "&amp;B5</f>
         <v xml:space="preserve">Hospital Standardised Mortality Ratio (Funnel Plot); </v>
       </c>
       <c r="D4" s="28"/>
@@ -6257,7 +6150,9 @@
   </sheetPr>
   <dimension ref="A1:AK121"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AL29" sqref="AL29"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.28515625" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
@@ -6287,22 +6182,6 @@
       <c r="J1" s="67"/>
       <c r="K1" s="67"/>
       <c r="L1" s="67"/>
-      <c r="M1" s="67"/>
-      <c r="N1" s="67"/>
-      <c r="O1" s="67"/>
-      <c r="P1" s="67"/>
-      <c r="Q1" s="67"/>
-      <c r="R1" s="67"/>
-      <c r="S1" s="67"/>
-      <c r="T1" s="67"/>
-      <c r="U1" s="67"/>
-      <c r="V1" s="67"/>
-      <c r="W1" s="67"/>
-      <c r="X1" s="67"/>
-      <c r="Y1" s="67"/>
-      <c r="Z1" s="67"/>
-      <c r="AA1" s="67"/>
-      <c r="AB1" s="67"/>
     </row>
     <row r="2" spans="1:36" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8"/>
@@ -6701,7 +6580,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="34" spans="1:37" s="18" customFormat="1" ht="186" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:37" s="18" customFormat="1" ht="240.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C34" s="20" t="e">
         <f>VLOOKUP(VLOOKUP(C$32,$A$49:$B$80,2,FALSE),hosp_lookup!$A:$B,2,FALSE)</f>
         <v>#N/A</v>
@@ -6947,7 +6826,7 @@
         <v>59</v>
       </c>
       <c r="E48" s="51" t="s">
-        <v>122</v>
+        <v>53</v>
       </c>
       <c r="F48" s="51" t="s">
         <v>55</v>
@@ -9958,7 +9837,7 @@
     <row r="121" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B1:AB1"/>
+    <mergeCell ref="B1:L1"/>
   </mergeCells>
   <conditionalFormatting sqref="C33:AH33">
     <cfRule type="cellIs" dxfId="2" priority="1" stopIfTrue="1" operator="equal">

--- a/reference_files/Table1-HSMR.xlsx
+++ b/reference_files/Table1-HSMR.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="123">
   <si>
     <t>V217H</t>
   </si>
@@ -396,6 +396,9 @@
   <si>
     <t>S08000032</t>
   </si>
+  <si>
+    <t>SMR</t>
+  </si>
 </sst>
 </file>
 
@@ -639,7 +642,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -749,6 +752,7 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2039,7 +2043,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>smr</c:v>
+                  <c:v>SMR</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3666,13 +3670,13 @@
       <xdr:col>32</xdr:col>
       <xdr:colOff>110377</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>182654</xdr:rowOff>
+      <xdr:rowOff>182653</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>41</xdr:col>
       <xdr:colOff>425824</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>149036</xdr:rowOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>56029</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3681,8 +3685,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7584701" y="720536"/>
-          <a:ext cx="3856505" cy="2902324"/>
+          <a:off x="7495053" y="720535"/>
+          <a:ext cx="3856506" cy="3560112"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4033,7 +4037,110 @@
             </a:rPr>
             <a:t>A single apparently high value of the HSMR is not sufficient evidence on which to conclude that a poor quality or unsafe service is being provided. This is why it is important not to focus solely on 'outliers' when making reliable judgements about the quality of patient care.</a:t>
           </a:r>
-          <a:endParaRPr lang="en-GB" sz="1000" b="1" i="1">
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr lang="en-GB" sz="1000" b="1" i="1" baseline="0">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:latin typeface="Arial" pitchFamily="34" charset="0"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="Arial" pitchFamily="34" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1000" b="0" i="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="Arial" pitchFamily="34" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Arial" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>The table below the chart lists the hopsitals as presented left to right on the chart. Outlier are highlighted in </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1000" b="1" i="0" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="C00000"/>
+              </a:solidFill>
+              <a:latin typeface="Arial" pitchFamily="34" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Arial" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>red</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1000" b="0" i="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="Arial" pitchFamily="34" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Arial" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t> (above upper control limit) and </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1000" b="1" i="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Arial" pitchFamily="34" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Arial" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>orange</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1000" b="0" i="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="Arial" pitchFamily="34" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Arial" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t> (above upper warning limit).</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-GB" sz="1000" b="0" i="0">
             <a:solidFill>
               <a:schemeClr val="dk1"/>
             </a:solidFill>
@@ -6151,7 +6258,7 @@
   <dimension ref="A1:AK121"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AL29" sqref="AL29"/>
+      <selection activeCell="AS19" sqref="AS19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.28515625" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -6182,6 +6289,22 @@
       <c r="J1" s="67"/>
       <c r="K1" s="67"/>
       <c r="L1" s="67"/>
+      <c r="M1" s="67"/>
+      <c r="N1" s="67"/>
+      <c r="O1" s="67"/>
+      <c r="P1" s="67"/>
+      <c r="Q1" s="67"/>
+      <c r="R1" s="67"/>
+      <c r="S1" s="67"/>
+      <c r="T1" s="67"/>
+      <c r="U1" s="67"/>
+      <c r="V1" s="67"/>
+      <c r="W1" s="67"/>
+      <c r="X1" s="67"/>
+      <c r="Y1" s="67"/>
+      <c r="Z1" s="67"/>
+      <c r="AA1" s="67"/>
+      <c r="AB1" s="67"/>
     </row>
     <row r="2" spans="1:36" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8"/>
@@ -6580,7 +6703,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="34" spans="1:37" s="18" customFormat="1" ht="240.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:37" s="18" customFormat="1" ht="186" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C34" s="20" t="e">
         <f>VLOOKUP(VLOOKUP(C$32,$A$49:$B$80,2,FALSE),hosp_lookup!$A:$B,2,FALSE)</f>
         <v>#N/A</v>
@@ -6810,6 +6933,7 @@
       <c r="I47" s="50">
         <v>9</v>
       </c>
+      <c r="P47" s="18"/>
       <c r="Q47" s="50"/>
       <c r="S47" s="50"/>
       <c r="U47" s="50"/>
@@ -6826,7 +6950,7 @@
         <v>59</v>
       </c>
       <c r="E48" s="51" t="s">
-        <v>53</v>
+        <v>122</v>
       </c>
       <c r="F48" s="51" t="s">
         <v>55</v>
@@ -6849,7 +6973,7 @@
       <c r="L48" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="P48" s="45"/>
+      <c r="P48" s="68"/>
       <c r="Q48" s="51"/>
       <c r="R48" s="51"/>
       <c r="S48" s="51"/>
@@ -6906,7 +7030,7 @@
         <f>IF(J49=2,E49,#N/A)</f>
         <v>#N/A</v>
       </c>
-      <c r="P49" s="45"/>
+      <c r="P49" s="68"/>
       <c r="Q49" s="52"/>
       <c r="R49" s="53"/>
       <c r="S49" s="53"/>
@@ -9837,7 +9961,7 @@
     <row r="121" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B1:L1"/>
+    <mergeCell ref="B1:AB1"/>
   </mergeCells>
   <conditionalFormatting sqref="C33:AH33">
     <cfRule type="cellIs" dxfId="2" priority="1" stopIfTrue="1" operator="equal">

--- a/reference_files/Table1-HSMR.xlsx
+++ b/reference_files/Table1-HSMR.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Isdsf00d03\quality_indicators\hsmr\quarter_cycle\Robyn\reference_files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\stats\quality_indicators\hsmr\quarter_cycle\Sam2\reference_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -753,9 +753,6 @@
     <xf numFmtId="0" fontId="19" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -780,6 +777,9 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="2" fontId="18" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4538,7 +4538,9 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:AA83"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C68" sqref="C68"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -4552,19 +4554,19 @@
     <row r="1" spans="1:27" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="47"/>
       <c r="B1" s="8"/>
-      <c r="C1" s="65" t="s">
+      <c r="C1" s="75" t="s">
         <v>71</v>
       </c>
-      <c r="D1" s="65"/>
-      <c r="E1" s="65"/>
-      <c r="F1" s="65"/>
-      <c r="G1" s="65"/>
-      <c r="H1" s="65"/>
-      <c r="I1" s="65"/>
-      <c r="J1" s="65"/>
-      <c r="K1" s="65"/>
-      <c r="L1" s="65"/>
-      <c r="M1" s="65"/>
+      <c r="D1" s="75"/>
+      <c r="E1" s="75"/>
+      <c r="F1" s="75"/>
+      <c r="G1" s="75"/>
+      <c r="H1" s="75"/>
+      <c r="I1" s="75"/>
+      <c r="J1" s="75"/>
+      <c r="K1" s="75"/>
+      <c r="L1" s="75"/>
+      <c r="M1" s="75"/>
     </row>
     <row r="2" spans="1:27" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="47"/>
@@ -6152,8 +6154,8 @@
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B60" s="30"/>
       <c r="C60" s="1" t="str">
-        <f>"Source: ISD Scotland (SMR01) linked dataset. Reflects the completeness of SMR01 submissions to ISD for individual hospitals as of " &amp; TEXT(funnel_data!L2,"dd mmm yyyy")</f>
-        <v>Source: ISD Scotland (SMR01) linked dataset. Reflects the completeness of SMR01 submissions to ISD for individual hospitals as of 00 Jan 1900</v>
+        <f>"Source: PHS (SMR01) linked dataset. Reflects the completeness of SMR01 submissions to PHS for individual hospitals as of " &amp; TEXT(funnel_data!L2,"dd mmm yyyy")</f>
+        <v>Source: PHS (SMR01) linked dataset. Reflects the completeness of SMR01 submissions to PHS for individual hospitals as of 00 Jan 1900</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
@@ -6205,7 +6207,9 @@
   </sheetPr>
   <dimension ref="A1:AK119"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AV34" sqref="AV34"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.28515625" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
@@ -6222,35 +6226,35 @@
   <sheetData>
     <row r="1" spans="1:36" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="8"/>
-      <c r="B1" s="65" t="s">
+      <c r="B1" s="75" t="s">
         <v>71</v>
       </c>
-      <c r="C1" s="65"/>
-      <c r="D1" s="65"/>
-      <c r="E1" s="65"/>
-      <c r="F1" s="65"/>
-      <c r="G1" s="65"/>
-      <c r="H1" s="65"/>
-      <c r="I1" s="65"/>
-      <c r="J1" s="65"/>
-      <c r="K1" s="65"/>
-      <c r="L1" s="65"/>
-      <c r="M1" s="65"/>
-      <c r="N1" s="65"/>
-      <c r="O1" s="65"/>
-      <c r="P1" s="65"/>
-      <c r="Q1" s="65"/>
-      <c r="R1" s="65"/>
-      <c r="S1" s="65"/>
-      <c r="T1" s="65"/>
-      <c r="U1" s="65"/>
-      <c r="V1" s="65"/>
-      <c r="W1" s="65"/>
-      <c r="X1" s="65"/>
-      <c r="Y1" s="65"/>
-      <c r="Z1" s="65"/>
-      <c r="AA1" s="65"/>
-      <c r="AB1" s="65"/>
+      <c r="C1" s="75"/>
+      <c r="D1" s="75"/>
+      <c r="E1" s="75"/>
+      <c r="F1" s="75"/>
+      <c r="G1" s="75"/>
+      <c r="H1" s="75"/>
+      <c r="I1" s="75"/>
+      <c r="J1" s="75"/>
+      <c r="K1" s="75"/>
+      <c r="L1" s="75"/>
+      <c r="M1" s="75"/>
+      <c r="N1" s="75"/>
+      <c r="O1" s="75"/>
+      <c r="P1" s="75"/>
+      <c r="Q1" s="75"/>
+      <c r="R1" s="75"/>
+      <c r="S1" s="75"/>
+      <c r="T1" s="75"/>
+      <c r="U1" s="75"/>
+      <c r="V1" s="75"/>
+      <c r="W1" s="75"/>
+      <c r="X1" s="75"/>
+      <c r="Y1" s="75"/>
+      <c r="Z1" s="75"/>
+      <c r="AA1" s="75"/>
+      <c r="AB1" s="75"/>
     </row>
     <row r="2" spans="1:36" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8"/>
@@ -6780,8 +6784,8 @@
     <row r="36" spans="1:37" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A36" s="3"/>
       <c r="B36" s="1" t="str">
-        <f>"Source: ISD Scotland (SMR01) linked dataset. Reflects the completeness of SMR01 submissions to ISD for individual hospitals as of " &amp; TEXT(funnel_data!L2,"dd mmm yyyy")</f>
-        <v>Source: ISD Scotland (SMR01) linked dataset. Reflects the completeness of SMR01 submissions to ISD for individual hospitals as of 00 Jan 1900</v>
+        <f>"Source: PHS Scotland (SMR01) linked dataset. Reflects the completeness of SMR01 submissions to PHS for individual hospitals as of " &amp; TEXT(funnel_data!L2,"dd mmm yyyy")</f>
+        <v>Source: PHS Scotland (SMR01) linked dataset. Reflects the completeness of SMR01 submissions to PHS for individual hospitals as of 00 Jan 1900</v>
       </c>
       <c r="H36" s="3"/>
       <c r="I36" s="3"/>
@@ -6853,55 +6857,55 @@
       <c r="B47" s="15">
         <v>2</v>
       </c>
-      <c r="C47" s="66">
+      <c r="C47" s="65">
         <v>3</v>
       </c>
       <c r="D47" s="15">
         <v>4</v>
       </c>
-      <c r="E47" s="66">
+      <c r="E47" s="65">
         <v>5</v>
       </c>
       <c r="F47" s="15">
         <v>6</v>
       </c>
-      <c r="G47" s="66">
+      <c r="G47" s="65">
         <v>7</v>
       </c>
       <c r="H47" s="15">
         <v>8</v>
       </c>
-      <c r="I47" s="66">
+      <c r="I47" s="65">
         <v>9</v>
       </c>
-      <c r="Q47" s="66"/>
-      <c r="S47" s="66"/>
-      <c r="U47" s="66"/>
-      <c r="W47" s="66"/>
+      <c r="Q47" s="65"/>
+      <c r="S47" s="65"/>
+      <c r="U47" s="65"/>
+      <c r="W47" s="65"/>
     </row>
     <row r="48" spans="1:37" s="15" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B48" s="45" t="s">
         <v>58</v>
       </c>
-      <c r="C48" s="67" t="s">
+      <c r="C48" s="66" t="s">
         <v>52</v>
       </c>
-      <c r="D48" s="67" t="s">
+      <c r="D48" s="66" t="s">
         <v>57</v>
       </c>
-      <c r="E48" s="67" t="s">
+      <c r="E48" s="66" t="s">
         <v>118</v>
       </c>
-      <c r="F48" s="67" t="s">
+      <c r="F48" s="66" t="s">
         <v>53</v>
       </c>
-      <c r="G48" s="67" t="s">
+      <c r="G48" s="66" t="s">
         <v>54</v>
       </c>
-      <c r="H48" s="67" t="s">
+      <c r="H48" s="66" t="s">
         <v>55</v>
       </c>
-      <c r="I48" s="67" t="s">
+      <c r="I48" s="66" t="s">
         <v>56</v>
       </c>
       <c r="J48" s="15" t="s">
@@ -6914,13 +6918,13 @@
         <v>64</v>
       </c>
       <c r="P48" s="45"/>
-      <c r="Q48" s="67"/>
-      <c r="R48" s="67"/>
-      <c r="S48" s="67"/>
-      <c r="T48" s="67"/>
-      <c r="U48" s="67"/>
-      <c r="V48" s="67"/>
-      <c r="W48" s="67"/>
+      <c r="Q48" s="66"/>
+      <c r="R48" s="66"/>
+      <c r="S48" s="66"/>
+      <c r="T48" s="66"/>
+      <c r="U48" s="66"/>
+      <c r="V48" s="66"/>
+      <c r="W48" s="66"/>
     </row>
     <row r="49" spans="1:23" s="15" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A49" s="15">
@@ -6930,31 +6934,31 @@
         <f t="shared" ref="B49:I58" si="1">VLOOKUP($A49,$A$83:$I$113,B$47,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="C49" s="68" t="e">
+      <c r="C49" s="67" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
-      <c r="D49" s="69" t="e">
+      <c r="D49" s="68" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
-      <c r="E49" s="69" t="e">
+      <c r="E49" s="68" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
-      <c r="F49" s="69" t="e">
+      <c r="F49" s="68" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
-      <c r="G49" s="69" t="e">
+      <c r="G49" s="68" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
-      <c r="H49" s="69" t="e">
+      <c r="H49" s="68" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
-      <c r="I49" s="69" t="e">
+      <c r="I49" s="68" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
@@ -6971,13 +6975,13 @@
         <v>#N/A</v>
       </c>
       <c r="P49" s="45"/>
-      <c r="Q49" s="68"/>
-      <c r="R49" s="69"/>
-      <c r="S49" s="69"/>
-      <c r="T49" s="69"/>
-      <c r="U49" s="69"/>
-      <c r="V49" s="69"/>
-      <c r="W49" s="69"/>
+      <c r="Q49" s="67"/>
+      <c r="R49" s="68"/>
+      <c r="S49" s="68"/>
+      <c r="T49" s="68"/>
+      <c r="U49" s="68"/>
+      <c r="V49" s="68"/>
+      <c r="W49" s="68"/>
     </row>
     <row r="50" spans="1:23" s="15" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A50" s="15">
@@ -6987,31 +6991,31 @@
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
-      <c r="C50" s="68" t="e">
+      <c r="C50" s="67" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
-      <c r="D50" s="69" t="e">
+      <c r="D50" s="68" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
-      <c r="E50" s="69" t="e">
+      <c r="E50" s="68" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
-      <c r="F50" s="69" t="e">
+      <c r="F50" s="68" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
-      <c r="G50" s="69" t="e">
+      <c r="G50" s="68" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
-      <c r="H50" s="69" t="e">
+      <c r="H50" s="68" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
-      <c r="I50" s="69" t="e">
+      <c r="I50" s="68" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
@@ -7028,13 +7032,13 @@
         <v>#N/A</v>
       </c>
       <c r="P50" s="45"/>
-      <c r="Q50" s="68"/>
-      <c r="R50" s="69"/>
-      <c r="S50" s="69"/>
-      <c r="T50" s="69"/>
-      <c r="U50" s="69"/>
-      <c r="V50" s="69"/>
-      <c r="W50" s="69"/>
+      <c r="Q50" s="67"/>
+      <c r="R50" s="68"/>
+      <c r="S50" s="68"/>
+      <c r="T50" s="68"/>
+      <c r="U50" s="68"/>
+      <c r="V50" s="68"/>
+      <c r="W50" s="68"/>
     </row>
     <row r="51" spans="1:23" s="15" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A51" s="15">
@@ -7044,31 +7048,31 @@
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
-      <c r="C51" s="68" t="e">
+      <c r="C51" s="67" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
-      <c r="D51" s="69" t="e">
+      <c r="D51" s="68" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
-      <c r="E51" s="69" t="e">
+      <c r="E51" s="68" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
-      <c r="F51" s="69" t="e">
+      <c r="F51" s="68" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
-      <c r="G51" s="69" t="e">
+      <c r="G51" s="68" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
-      <c r="H51" s="69" t="e">
+      <c r="H51" s="68" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
-      <c r="I51" s="69" t="e">
+      <c r="I51" s="68" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
@@ -7085,13 +7089,13 @@
         <v>#N/A</v>
       </c>
       <c r="P51" s="45"/>
-      <c r="Q51" s="68"/>
-      <c r="R51" s="69"/>
-      <c r="S51" s="69"/>
-      <c r="T51" s="69"/>
-      <c r="U51" s="69"/>
-      <c r="V51" s="69"/>
-      <c r="W51" s="69"/>
+      <c r="Q51" s="67"/>
+      <c r="R51" s="68"/>
+      <c r="S51" s="68"/>
+      <c r="T51" s="68"/>
+      <c r="U51" s="68"/>
+      <c r="V51" s="68"/>
+      <c r="W51" s="68"/>
     </row>
     <row r="52" spans="1:23" s="15" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A52" s="15">
@@ -7101,31 +7105,31 @@
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
-      <c r="C52" s="68" t="e">
+      <c r="C52" s="67" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
-      <c r="D52" s="69" t="e">
+      <c r="D52" s="68" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
-      <c r="E52" s="69" t="e">
+      <c r="E52" s="68" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
-      <c r="F52" s="69" t="e">
+      <c r="F52" s="68" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
-      <c r="G52" s="69" t="e">
+      <c r="G52" s="68" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
-      <c r="H52" s="69" t="e">
+      <c r="H52" s="68" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
-      <c r="I52" s="69" t="e">
+      <c r="I52" s="68" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
@@ -7142,13 +7146,13 @@
         <v>#N/A</v>
       </c>
       <c r="P52" s="45"/>
-      <c r="Q52" s="68"/>
-      <c r="R52" s="69"/>
-      <c r="S52" s="69"/>
-      <c r="T52" s="69"/>
-      <c r="U52" s="69"/>
-      <c r="V52" s="69"/>
-      <c r="W52" s="69"/>
+      <c r="Q52" s="67"/>
+      <c r="R52" s="68"/>
+      <c r="S52" s="68"/>
+      <c r="T52" s="68"/>
+      <c r="U52" s="68"/>
+      <c r="V52" s="68"/>
+      <c r="W52" s="68"/>
     </row>
     <row r="53" spans="1:23" s="15" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A53" s="15">
@@ -7158,31 +7162,31 @@
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
-      <c r="C53" s="68" t="e">
+      <c r="C53" s="67" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
-      <c r="D53" s="69" t="e">
+      <c r="D53" s="68" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
-      <c r="E53" s="69" t="e">
+      <c r="E53" s="68" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
-      <c r="F53" s="69" t="e">
+      <c r="F53" s="68" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
-      <c r="G53" s="69" t="e">
+      <c r="G53" s="68" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
-      <c r="H53" s="69" t="e">
+      <c r="H53" s="68" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
-      <c r="I53" s="69" t="e">
+      <c r="I53" s="68" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
@@ -7199,13 +7203,13 @@
         <v>#N/A</v>
       </c>
       <c r="P53" s="45"/>
-      <c r="Q53" s="68"/>
-      <c r="R53" s="69"/>
-      <c r="S53" s="69"/>
-      <c r="T53" s="69"/>
-      <c r="U53" s="69"/>
-      <c r="V53" s="69"/>
-      <c r="W53" s="69"/>
+      <c r="Q53" s="67"/>
+      <c r="R53" s="68"/>
+      <c r="S53" s="68"/>
+      <c r="T53" s="68"/>
+      <c r="U53" s="68"/>
+      <c r="V53" s="68"/>
+      <c r="W53" s="68"/>
     </row>
     <row r="54" spans="1:23" s="15" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A54" s="15">
@@ -7215,31 +7219,31 @@
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
-      <c r="C54" s="68" t="e">
+      <c r="C54" s="67" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
-      <c r="D54" s="69" t="e">
+      <c r="D54" s="68" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
-      <c r="E54" s="69" t="e">
+      <c r="E54" s="68" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
-      <c r="F54" s="69" t="e">
+      <c r="F54" s="68" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
-      <c r="G54" s="69" t="e">
+      <c r="G54" s="68" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
-      <c r="H54" s="69" t="e">
+      <c r="H54" s="68" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
-      <c r="I54" s="69" t="e">
+      <c r="I54" s="68" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
@@ -7256,13 +7260,13 @@
         <v>#N/A</v>
       </c>
       <c r="P54" s="45"/>
-      <c r="Q54" s="68"/>
-      <c r="R54" s="69"/>
-      <c r="S54" s="69"/>
-      <c r="T54" s="69"/>
-      <c r="U54" s="69"/>
-      <c r="V54" s="69"/>
-      <c r="W54" s="69"/>
+      <c r="Q54" s="67"/>
+      <c r="R54" s="68"/>
+      <c r="S54" s="68"/>
+      <c r="T54" s="68"/>
+      <c r="U54" s="68"/>
+      <c r="V54" s="68"/>
+      <c r="W54" s="68"/>
     </row>
     <row r="55" spans="1:23" s="15" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A55" s="15">
@@ -7272,31 +7276,31 @@
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
-      <c r="C55" s="68" t="e">
+      <c r="C55" s="67" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
-      <c r="D55" s="69" t="e">
+      <c r="D55" s="68" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
-      <c r="E55" s="69" t="e">
+      <c r="E55" s="68" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
-      <c r="F55" s="69" t="e">
+      <c r="F55" s="68" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
-      <c r="G55" s="69" t="e">
+      <c r="G55" s="68" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
-      <c r="H55" s="69" t="e">
+      <c r="H55" s="68" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
-      <c r="I55" s="69" t="e">
+      <c r="I55" s="68" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
@@ -7313,13 +7317,13 @@
         <v>#N/A</v>
       </c>
       <c r="P55" s="45"/>
-      <c r="Q55" s="68"/>
-      <c r="R55" s="69"/>
-      <c r="S55" s="69"/>
-      <c r="T55" s="69"/>
-      <c r="U55" s="69"/>
-      <c r="V55" s="69"/>
-      <c r="W55" s="69"/>
+      <c r="Q55" s="67"/>
+      <c r="R55" s="68"/>
+      <c r="S55" s="68"/>
+      <c r="T55" s="68"/>
+      <c r="U55" s="68"/>
+      <c r="V55" s="68"/>
+      <c r="W55" s="68"/>
     </row>
     <row r="56" spans="1:23" s="15" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A56" s="15">
@@ -7329,31 +7333,31 @@
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
-      <c r="C56" s="68" t="e">
+      <c r="C56" s="67" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
-      <c r="D56" s="69" t="e">
+      <c r="D56" s="68" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
-      <c r="E56" s="69" t="e">
+      <c r="E56" s="68" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
-      <c r="F56" s="69" t="e">
+      <c r="F56" s="68" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
-      <c r="G56" s="69" t="e">
+      <c r="G56" s="68" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
-      <c r="H56" s="69" t="e">
+      <c r="H56" s="68" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
-      <c r="I56" s="69" t="e">
+      <c r="I56" s="68" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
@@ -7370,13 +7374,13 @@
         <v>#N/A</v>
       </c>
       <c r="P56" s="45"/>
-      <c r="Q56" s="68"/>
-      <c r="R56" s="69"/>
-      <c r="S56" s="69"/>
-      <c r="T56" s="69"/>
-      <c r="U56" s="69"/>
-      <c r="V56" s="69"/>
-      <c r="W56" s="69"/>
+      <c r="Q56" s="67"/>
+      <c r="R56" s="68"/>
+      <c r="S56" s="68"/>
+      <c r="T56" s="68"/>
+      <c r="U56" s="68"/>
+      <c r="V56" s="68"/>
+      <c r="W56" s="68"/>
     </row>
     <row r="57" spans="1:23" s="15" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A57" s="15">
@@ -7386,31 +7390,31 @@
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
-      <c r="C57" s="68" t="e">
+      <c r="C57" s="67" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
-      <c r="D57" s="69" t="e">
+      <c r="D57" s="68" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
-      <c r="E57" s="69" t="e">
+      <c r="E57" s="68" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
-      <c r="F57" s="69" t="e">
+      <c r="F57" s="68" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
-      <c r="G57" s="69" t="e">
+      <c r="G57" s="68" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
-      <c r="H57" s="69" t="e">
+      <c r="H57" s="68" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
-      <c r="I57" s="69" t="e">
+      <c r="I57" s="68" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
@@ -7427,13 +7431,13 @@
         <v>#N/A</v>
       </c>
       <c r="P57" s="45"/>
-      <c r="Q57" s="68"/>
-      <c r="R57" s="69"/>
-      <c r="S57" s="69"/>
-      <c r="T57" s="69"/>
-      <c r="U57" s="69"/>
-      <c r="V57" s="69"/>
-      <c r="W57" s="69"/>
+      <c r="Q57" s="67"/>
+      <c r="R57" s="68"/>
+      <c r="S57" s="68"/>
+      <c r="T57" s="68"/>
+      <c r="U57" s="68"/>
+      <c r="V57" s="68"/>
+      <c r="W57" s="68"/>
     </row>
     <row r="58" spans="1:23" s="15" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A58" s="15">
@@ -7443,31 +7447,31 @@
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
-      <c r="C58" s="68" t="e">
+      <c r="C58" s="67" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
-      <c r="D58" s="69" t="e">
+      <c r="D58" s="68" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
-      <c r="E58" s="69" t="e">
+      <c r="E58" s="68" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
-      <c r="F58" s="69" t="e">
+      <c r="F58" s="68" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
-      <c r="G58" s="69" t="e">
+      <c r="G58" s="68" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
-      <c r="H58" s="69" t="e">
+      <c r="H58" s="68" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
-      <c r="I58" s="69" t="e">
+      <c r="I58" s="68" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
@@ -7484,13 +7488,13 @@
         <v>#N/A</v>
       </c>
       <c r="P58" s="45"/>
-      <c r="Q58" s="68"/>
-      <c r="R58" s="69"/>
-      <c r="S58" s="69"/>
-      <c r="T58" s="69"/>
-      <c r="U58" s="69"/>
-      <c r="V58" s="69"/>
-      <c r="W58" s="69"/>
+      <c r="Q58" s="67"/>
+      <c r="R58" s="68"/>
+      <c r="S58" s="68"/>
+      <c r="T58" s="68"/>
+      <c r="U58" s="68"/>
+      <c r="V58" s="68"/>
+      <c r="W58" s="68"/>
     </row>
     <row r="59" spans="1:23" s="15" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A59" s="15">
@@ -7500,31 +7504,31 @@
         <f t="shared" ref="B59:I68" si="5">VLOOKUP($A59,$A$83:$I$113,B$47,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="C59" s="68" t="e">
+      <c r="C59" s="67" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
-      <c r="D59" s="69" t="e">
+      <c r="D59" s="68" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
-      <c r="E59" s="69" t="e">
+      <c r="E59" s="68" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
-      <c r="F59" s="69" t="e">
+      <c r="F59" s="68" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
-      <c r="G59" s="69" t="e">
+      <c r="G59" s="68" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
-      <c r="H59" s="69" t="e">
+      <c r="H59" s="68" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
-      <c r="I59" s="69" t="e">
+      <c r="I59" s="68" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
@@ -7541,13 +7545,13 @@
         <v>#N/A</v>
       </c>
       <c r="P59" s="45"/>
-      <c r="Q59" s="68"/>
-      <c r="R59" s="69"/>
-      <c r="S59" s="69"/>
-      <c r="T59" s="69"/>
-      <c r="U59" s="69"/>
-      <c r="V59" s="69"/>
-      <c r="W59" s="69"/>
+      <c r="Q59" s="67"/>
+      <c r="R59" s="68"/>
+      <c r="S59" s="68"/>
+      <c r="T59" s="68"/>
+      <c r="U59" s="68"/>
+      <c r="V59" s="68"/>
+      <c r="W59" s="68"/>
     </row>
     <row r="60" spans="1:23" s="15" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A60" s="15">
@@ -7557,31 +7561,31 @@
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
-      <c r="C60" s="68" t="e">
+      <c r="C60" s="67" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
-      <c r="D60" s="69" t="e">
+      <c r="D60" s="68" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
-      <c r="E60" s="69" t="e">
+      <c r="E60" s="68" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
-      <c r="F60" s="69" t="e">
+      <c r="F60" s="68" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
-      <c r="G60" s="69" t="e">
+      <c r="G60" s="68" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
-      <c r="H60" s="69" t="e">
+      <c r="H60" s="68" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
-      <c r="I60" s="69" t="e">
+      <c r="I60" s="68" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
@@ -7598,13 +7602,13 @@
         <v>#N/A</v>
       </c>
       <c r="P60" s="45"/>
-      <c r="Q60" s="68"/>
-      <c r="R60" s="69"/>
-      <c r="S60" s="69"/>
-      <c r="T60" s="69"/>
-      <c r="U60" s="69"/>
-      <c r="V60" s="69"/>
-      <c r="W60" s="69"/>
+      <c r="Q60" s="67"/>
+      <c r="R60" s="68"/>
+      <c r="S60" s="68"/>
+      <c r="T60" s="68"/>
+      <c r="U60" s="68"/>
+      <c r="V60" s="68"/>
+      <c r="W60" s="68"/>
     </row>
     <row r="61" spans="1:23" s="15" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A61" s="15">
@@ -7614,31 +7618,31 @@
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
-      <c r="C61" s="68" t="e">
+      <c r="C61" s="67" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
-      <c r="D61" s="69" t="e">
+      <c r="D61" s="68" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
-      <c r="E61" s="69" t="e">
+      <c r="E61" s="68" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
-      <c r="F61" s="69" t="e">
+      <c r="F61" s="68" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
-      <c r="G61" s="69" t="e">
+      <c r="G61" s="68" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
-      <c r="H61" s="69" t="e">
+      <c r="H61" s="68" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
-      <c r="I61" s="69" t="e">
+      <c r="I61" s="68" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
@@ -7655,13 +7659,13 @@
         <v>#N/A</v>
       </c>
       <c r="P61" s="45"/>
-      <c r="Q61" s="68"/>
-      <c r="R61" s="69"/>
-      <c r="S61" s="69"/>
-      <c r="T61" s="69"/>
-      <c r="U61" s="69"/>
-      <c r="V61" s="69"/>
-      <c r="W61" s="69"/>
+      <c r="Q61" s="67"/>
+      <c r="R61" s="68"/>
+      <c r="S61" s="68"/>
+      <c r="T61" s="68"/>
+      <c r="U61" s="68"/>
+      <c r="V61" s="68"/>
+      <c r="W61" s="68"/>
     </row>
     <row r="62" spans="1:23" s="15" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A62" s="15">
@@ -7671,31 +7675,31 @@
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
-      <c r="C62" s="68" t="e">
+      <c r="C62" s="67" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
-      <c r="D62" s="69" t="e">
+      <c r="D62" s="68" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
-      <c r="E62" s="69" t="e">
+      <c r="E62" s="68" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
-      <c r="F62" s="69" t="e">
+      <c r="F62" s="68" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
-      <c r="G62" s="69" t="e">
+      <c r="G62" s="68" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
-      <c r="H62" s="69" t="e">
+      <c r="H62" s="68" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
-      <c r="I62" s="69" t="e">
+      <c r="I62" s="68" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
@@ -7712,13 +7716,13 @@
         <v>#N/A</v>
       </c>
       <c r="P62" s="45"/>
-      <c r="Q62" s="68"/>
-      <c r="R62" s="69"/>
-      <c r="S62" s="69"/>
-      <c r="T62" s="69"/>
-      <c r="U62" s="69"/>
-      <c r="V62" s="69"/>
-      <c r="W62" s="69"/>
+      <c r="Q62" s="67"/>
+      <c r="R62" s="68"/>
+      <c r="S62" s="68"/>
+      <c r="T62" s="68"/>
+      <c r="U62" s="68"/>
+      <c r="V62" s="68"/>
+      <c r="W62" s="68"/>
     </row>
     <row r="63" spans="1:23" s="15" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A63" s="15">
@@ -7728,31 +7732,31 @@
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
-      <c r="C63" s="68" t="e">
+      <c r="C63" s="67" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
-      <c r="D63" s="69" t="e">
+      <c r="D63" s="68" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
-      <c r="E63" s="69" t="e">
+      <c r="E63" s="68" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
-      <c r="F63" s="69" t="e">
+      <c r="F63" s="68" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
-      <c r="G63" s="69" t="e">
+      <c r="G63" s="68" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
-      <c r="H63" s="69" t="e">
+      <c r="H63" s="68" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
-      <c r="I63" s="69" t="e">
+      <c r="I63" s="68" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
@@ -7769,13 +7773,13 @@
         <v>#N/A</v>
       </c>
       <c r="P63" s="45"/>
-      <c r="Q63" s="68"/>
-      <c r="R63" s="69"/>
-      <c r="S63" s="69"/>
-      <c r="T63" s="69"/>
-      <c r="U63" s="69"/>
-      <c r="V63" s="69"/>
-      <c r="W63" s="69"/>
+      <c r="Q63" s="67"/>
+      <c r="R63" s="68"/>
+      <c r="S63" s="68"/>
+      <c r="T63" s="68"/>
+      <c r="U63" s="68"/>
+      <c r="V63" s="68"/>
+      <c r="W63" s="68"/>
     </row>
     <row r="64" spans="1:23" s="15" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A64" s="15">
@@ -7785,31 +7789,31 @@
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
-      <c r="C64" s="68" t="e">
+      <c r="C64" s="67" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
-      <c r="D64" s="69" t="e">
+      <c r="D64" s="68" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
-      <c r="E64" s="69" t="e">
+      <c r="E64" s="68" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
-      <c r="F64" s="69" t="e">
+      <c r="F64" s="68" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
-      <c r="G64" s="69" t="e">
+      <c r="G64" s="68" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
-      <c r="H64" s="69" t="e">
+      <c r="H64" s="68" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
-      <c r="I64" s="69" t="e">
+      <c r="I64" s="68" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
@@ -7834,31 +7838,31 @@
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
-      <c r="C65" s="68" t="e">
+      <c r="C65" s="67" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
-      <c r="D65" s="69" t="e">
+      <c r="D65" s="68" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
-      <c r="E65" s="69" t="e">
+      <c r="E65" s="68" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
-      <c r="F65" s="69" t="e">
+      <c r="F65" s="68" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
-      <c r="G65" s="69" t="e">
+      <c r="G65" s="68" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
-      <c r="H65" s="69" t="e">
+      <c r="H65" s="68" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
-      <c r="I65" s="69" t="e">
+      <c r="I65" s="68" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
@@ -7883,31 +7887,31 @@
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
-      <c r="C66" s="68" t="e">
+      <c r="C66" s="67" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
-      <c r="D66" s="69" t="e">
+      <c r="D66" s="68" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
-      <c r="E66" s="69" t="e">
+      <c r="E66" s="68" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
-      <c r="F66" s="69" t="e">
+      <c r="F66" s="68" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
-      <c r="G66" s="69" t="e">
+      <c r="G66" s="68" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
-      <c r="H66" s="69" t="e">
+      <c r="H66" s="68" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
-      <c r="I66" s="69" t="e">
+      <c r="I66" s="68" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
@@ -7932,31 +7936,31 @@
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
-      <c r="C67" s="68" t="e">
+      <c r="C67" s="67" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
-      <c r="D67" s="69" t="e">
+      <c r="D67" s="68" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
-      <c r="E67" s="69" t="e">
+      <c r="E67" s="68" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
-      <c r="F67" s="69" t="e">
+      <c r="F67" s="68" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
-      <c r="G67" s="69" t="e">
+      <c r="G67" s="68" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
-      <c r="H67" s="69" t="e">
+      <c r="H67" s="68" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
-      <c r="I67" s="69" t="e">
+      <c r="I67" s="68" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
@@ -7981,31 +7985,31 @@
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
-      <c r="C68" s="68" t="e">
+      <c r="C68" s="67" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
-      <c r="D68" s="69" t="e">
+      <c r="D68" s="68" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
-      <c r="E68" s="69" t="e">
+      <c r="E68" s="68" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
-      <c r="F68" s="69" t="e">
+      <c r="F68" s="68" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
-      <c r="G68" s="69" t="e">
+      <c r="G68" s="68" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
-      <c r="H68" s="69" t="e">
+      <c r="H68" s="68" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
-      <c r="I68" s="69" t="e">
+      <c r="I68" s="68" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
@@ -8030,31 +8034,31 @@
         <f t="shared" ref="B69:I79" si="6">VLOOKUP($A69,$A$83:$I$113,B$47,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="C69" s="68" t="e">
+      <c r="C69" s="67" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
-      <c r="D69" s="69" t="e">
+      <c r="D69" s="68" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
-      <c r="E69" s="69" t="e">
+      <c r="E69" s="68" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
-      <c r="F69" s="69" t="e">
+      <c r="F69" s="68" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
-      <c r="G69" s="69" t="e">
+      <c r="G69" s="68" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
-      <c r="H69" s="69" t="e">
+      <c r="H69" s="68" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
-      <c r="I69" s="69" t="e">
+      <c r="I69" s="68" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
@@ -8079,31 +8083,31 @@
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
-      <c r="C70" s="68" t="e">
+      <c r="C70" s="67" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
-      <c r="D70" s="69" t="e">
+      <c r="D70" s="68" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
-      <c r="E70" s="69" t="e">
+      <c r="E70" s="68" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
-      <c r="F70" s="69" t="e">
+      <c r="F70" s="68" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
-      <c r="G70" s="69" t="e">
+      <c r="G70" s="68" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
-      <c r="H70" s="69" t="e">
+      <c r="H70" s="68" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
-      <c r="I70" s="69" t="e">
+      <c r="I70" s="68" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
@@ -8128,31 +8132,31 @@
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
-      <c r="C71" s="68" t="e">
+      <c r="C71" s="67" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
-      <c r="D71" s="69" t="e">
+      <c r="D71" s="68" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
-      <c r="E71" s="69" t="e">
+      <c r="E71" s="68" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
-      <c r="F71" s="69" t="e">
+      <c r="F71" s="68" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
-      <c r="G71" s="69" t="e">
+      <c r="G71" s="68" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
-      <c r="H71" s="69" t="e">
+      <c r="H71" s="68" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
-      <c r="I71" s="69" t="e">
+      <c r="I71" s="68" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
@@ -8177,31 +8181,31 @@
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
-      <c r="C72" s="68" t="e">
+      <c r="C72" s="67" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
-      <c r="D72" s="69" t="e">
+      <c r="D72" s="68" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
-      <c r="E72" s="69" t="e">
+      <c r="E72" s="68" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
-      <c r="F72" s="69" t="e">
+      <c r="F72" s="68" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
-      <c r="G72" s="69" t="e">
+      <c r="G72" s="68" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
-      <c r="H72" s="69" t="e">
+      <c r="H72" s="68" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
-      <c r="I72" s="69" t="e">
+      <c r="I72" s="68" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
@@ -8226,31 +8230,31 @@
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
-      <c r="C73" s="68" t="e">
+      <c r="C73" s="67" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
-      <c r="D73" s="69" t="e">
+      <c r="D73" s="68" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
-      <c r="E73" s="69" t="e">
+      <c r="E73" s="68" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
-      <c r="F73" s="69" t="e">
+      <c r="F73" s="68" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
-      <c r="G73" s="69" t="e">
+      <c r="G73" s="68" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
-      <c r="H73" s="69" t="e">
+      <c r="H73" s="68" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
-      <c r="I73" s="69" t="e">
+      <c r="I73" s="68" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
@@ -8275,31 +8279,31 @@
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
-      <c r="C74" s="68" t="e">
+      <c r="C74" s="67" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
-      <c r="D74" s="69" t="e">
+      <c r="D74" s="68" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
-      <c r="E74" s="69" t="e">
+      <c r="E74" s="68" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
-      <c r="F74" s="69" t="e">
+      <c r="F74" s="68" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
-      <c r="G74" s="69" t="e">
+      <c r="G74" s="68" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
-      <c r="H74" s="69" t="e">
+      <c r="H74" s="68" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
-      <c r="I74" s="69" t="e">
+      <c r="I74" s="68" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
@@ -8324,31 +8328,31 @@
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
-      <c r="C75" s="68" t="e">
+      <c r="C75" s="67" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
-      <c r="D75" s="69" t="e">
+      <c r="D75" s="68" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
-      <c r="E75" s="69" t="e">
+      <c r="E75" s="68" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
-      <c r="F75" s="69" t="e">
+      <c r="F75" s="68" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
-      <c r="G75" s="69" t="e">
+      <c r="G75" s="68" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
-      <c r="H75" s="69" t="e">
+      <c r="H75" s="68" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
-      <c r="I75" s="69" t="e">
+      <c r="I75" s="68" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
@@ -8373,31 +8377,31 @@
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
-      <c r="C76" s="68" t="e">
+      <c r="C76" s="67" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
-      <c r="D76" s="69" t="e">
+      <c r="D76" s="68" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
-      <c r="E76" s="69" t="e">
+      <c r="E76" s="68" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
-      <c r="F76" s="69" t="e">
+      <c r="F76" s="68" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
-      <c r="G76" s="69" t="e">
+      <c r="G76" s="68" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
-      <c r="H76" s="69" t="e">
+      <c r="H76" s="68" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
-      <c r="I76" s="69" t="e">
+      <c r="I76" s="68" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
@@ -8422,31 +8426,31 @@
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
-      <c r="C77" s="68" t="e">
+      <c r="C77" s="67" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
-      <c r="D77" s="69" t="e">
+      <c r="D77" s="68" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
-      <c r="E77" s="69" t="e">
+      <c r="E77" s="68" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
-      <c r="F77" s="69" t="e">
+      <c r="F77" s="68" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
-      <c r="G77" s="69" t="e">
+      <c r="G77" s="68" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
-      <c r="H77" s="69" t="e">
+      <c r="H77" s="68" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
-      <c r="I77" s="69" t="e">
+      <c r="I77" s="68" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
@@ -8471,31 +8475,31 @@
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
-      <c r="C78" s="68" t="e">
+      <c r="C78" s="67" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
-      <c r="D78" s="69" t="e">
+      <c r="D78" s="68" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
-      <c r="E78" s="69" t="e">
+      <c r="E78" s="68" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
-      <c r="F78" s="69" t="e">
+      <c r="F78" s="68" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
-      <c r="G78" s="69" t="e">
+      <c r="G78" s="68" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
-      <c r="H78" s="69" t="e">
+      <c r="H78" s="68" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
-      <c r="I78" s="69" t="e">
+      <c r="I78" s="68" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
@@ -8520,31 +8524,31 @@
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
-      <c r="C79" s="68" t="e">
+      <c r="C79" s="67" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
-      <c r="D79" s="69" t="e">
+      <c r="D79" s="68" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
-      <c r="E79" s="69" t="e">
+      <c r="E79" s="68" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
-      <c r="F79" s="69" t="e">
+      <c r="F79" s="68" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
-      <c r="G79" s="69" t="e">
+      <c r="G79" s="68" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
-      <c r="H79" s="69" t="e">
+      <c r="H79" s="68" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
-      <c r="I79" s="69" t="e">
+      <c r="I79" s="68" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
@@ -8563,80 +8567,80 @@
     </row>
     <row r="80" spans="1:12" s="15" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B80" s="45"/>
-      <c r="C80" s="70"/>
-      <c r="D80" s="70"/>
-      <c r="E80" s="70"/>
-      <c r="F80" s="70"/>
-      <c r="G80" s="70"/>
-      <c r="H80" s="70"/>
-      <c r="I80" s="70"/>
+      <c r="C80" s="69"/>
+      <c r="D80" s="69"/>
+      <c r="E80" s="69"/>
+      <c r="F80" s="69"/>
+      <c r="G80" s="69"/>
+      <c r="H80" s="69"/>
+      <c r="I80" s="69"/>
     </row>
     <row r="81" spans="1:23" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B81" s="15">
         <v>1</v>
       </c>
-      <c r="C81" s="71">
+      <c r="C81" s="70">
         <v>4</v>
       </c>
-      <c r="D81" s="71">
+      <c r="D81" s="70">
         <v>10</v>
       </c>
-      <c r="E81" s="71">
+      <c r="E81" s="70">
         <v>6</v>
       </c>
-      <c r="F81" s="71">
+      <c r="F81" s="70">
         <v>19</v>
       </c>
-      <c r="G81" s="71">
+      <c r="G81" s="70">
         <v>21</v>
       </c>
-      <c r="H81" s="71">
+      <c r="H81" s="70">
         <v>18</v>
       </c>
-      <c r="I81" s="72">
+      <c r="I81" s="71">
         <v>20</v>
       </c>
-      <c r="Q81" s="66"/>
-      <c r="R81" s="66"/>
-      <c r="S81" s="66"/>
-      <c r="T81" s="66"/>
-      <c r="U81" s="66"/>
-      <c r="V81" s="66"/>
-      <c r="W81" s="73"/>
+      <c r="Q81" s="65"/>
+      <c r="R81" s="65"/>
+      <c r="S81" s="65"/>
+      <c r="T81" s="65"/>
+      <c r="U81" s="65"/>
+      <c r="V81" s="65"/>
+      <c r="W81" s="72"/>
     </row>
     <row r="82" spans="1:23" s="15" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B82" s="45" t="s">
         <v>58</v>
       </c>
-      <c r="C82" s="67" t="s">
+      <c r="C82" s="66" t="s">
         <v>52</v>
       </c>
-      <c r="D82" s="67" t="s">
+      <c r="D82" s="66" t="s">
         <v>57</v>
       </c>
-      <c r="E82" s="67" t="s">
+      <c r="E82" s="66" t="s">
         <v>51</v>
       </c>
-      <c r="F82" s="67" t="s">
+      <c r="F82" s="66" t="s">
         <v>53</v>
       </c>
-      <c r="G82" s="67" t="s">
+      <c r="G82" s="66" t="s">
         <v>54</v>
       </c>
-      <c r="H82" s="67" t="s">
+      <c r="H82" s="66" t="s">
         <v>55</v>
       </c>
-      <c r="I82" s="67" t="s">
+      <c r="I82" s="66" t="s">
         <v>56</v>
       </c>
       <c r="P82" s="45"/>
-      <c r="Q82" s="67"/>
-      <c r="R82" s="67"/>
-      <c r="S82" s="67"/>
-      <c r="T82" s="67"/>
-      <c r="U82" s="67"/>
-      <c r="V82" s="67"/>
-      <c r="W82" s="67"/>
+      <c r="Q82" s="66"/>
+      <c r="R82" s="66"/>
+      <c r="S82" s="66"/>
+      <c r="T82" s="66"/>
+      <c r="U82" s="66"/>
+      <c r="V82" s="66"/>
+      <c r="W82" s="66"/>
     </row>
     <row r="83" spans="1:23" s="15" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A83" s="15" t="e">
@@ -8646,35 +8650,35 @@
       <c r="B83" s="45" t="s">
         <v>18</v>
       </c>
-      <c r="C83" s="74" t="e">
+      <c r="C83" s="73" t="e">
         <f>VLOOKUP($B83&amp;"3",funnel_data!$A:$X,C$81,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="D83" s="74">
+      <c r="D83" s="73">
         <v>1</v>
       </c>
-      <c r="E83" s="74" t="e">
+      <c r="E83" s="73" t="e">
         <f>VLOOKUP($B83&amp;"3",funnel_data!$A:$X,E$81,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="F83" s="74" t="e">
+      <c r="F83" s="73" t="e">
         <f>VLOOKUP($B83&amp;"3",funnel_data!$A:$X,F$81,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="G83" s="74" t="e">
+      <c r="G83" s="73" t="e">
         <f>VLOOKUP($B83&amp;"3",funnel_data!$A:$X,G$81,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="H83" s="74" t="e">
+      <c r="H83" s="73" t="e">
         <f>VLOOKUP($B83&amp;"3",funnel_data!$A:$X,H$81,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="I83" s="74" t="e">
+      <c r="I83" s="73" t="e">
         <f>VLOOKUP($B83&amp;"3",funnel_data!$A:$X,I$81,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="M83" s="75"/>
-      <c r="N83" s="75"/>
+      <c r="M83" s="74"/>
+      <c r="N83" s="74"/>
     </row>
     <row r="84" spans="1:23" s="15" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A84" s="15" t="e">
@@ -8684,35 +8688,35 @@
       <c r="B84" s="45" t="s">
         <v>107</v>
       </c>
-      <c r="C84" s="74" t="e">
+      <c r="C84" s="73" t="e">
         <f>VLOOKUP($B84&amp;"3",funnel_data!$A:$X,C$81,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="D84" s="74">
+      <c r="D84" s="73">
         <v>1</v>
       </c>
-      <c r="E84" s="74" t="e">
+      <c r="E84" s="73" t="e">
         <f>VLOOKUP($B84&amp;"3",funnel_data!$A:$X,E$81,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="F84" s="74" t="e">
+      <c r="F84" s="73" t="e">
         <f>VLOOKUP($B84&amp;"3",funnel_data!$A:$X,F$81,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="G84" s="74" t="e">
+      <c r="G84" s="73" t="e">
         <f>VLOOKUP($B84&amp;"3",funnel_data!$A:$X,G$81,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="H84" s="74" t="e">
+      <c r="H84" s="73" t="e">
         <f>VLOOKUP($B84&amp;"3",funnel_data!$A:$X,H$81,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="I84" s="74" t="e">
+      <c r="I84" s="73" t="e">
         <f>VLOOKUP($B84&amp;"3",funnel_data!$A:$X,I$81,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="M84" s="75"/>
-      <c r="N84" s="75"/>
+      <c r="M84" s="74"/>
+      <c r="N84" s="74"/>
     </row>
     <row r="85" spans="1:23" s="15" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A85" s="15" t="e">
@@ -8722,35 +8726,35 @@
       <c r="B85" s="45" t="s">
         <v>119</v>
       </c>
-      <c r="C85" s="74" t="e">
+      <c r="C85" s="73" t="e">
         <f>VLOOKUP($B85&amp;"3",funnel_data!$A:$X,C$81,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="D85" s="74">
+      <c r="D85" s="73">
         <v>1</v>
       </c>
-      <c r="E85" s="74" t="e">
+      <c r="E85" s="73" t="e">
         <f>VLOOKUP($B85&amp;"3",funnel_data!$A:$X,E$81,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="F85" s="74" t="e">
+      <c r="F85" s="73" t="e">
         <f>VLOOKUP($B85&amp;"3",funnel_data!$A:$X,F$81,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="G85" s="74" t="e">
+      <c r="G85" s="73" t="e">
         <f>VLOOKUP($B85&amp;"3",funnel_data!$A:$X,G$81,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="H85" s="74" t="e">
+      <c r="H85" s="73" t="e">
         <f>VLOOKUP($B85&amp;"3",funnel_data!$A:$X,H$81,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="I85" s="74" t="e">
+      <c r="I85" s="73" t="e">
         <f>VLOOKUP($B85&amp;"3",funnel_data!$A:$X,I$81,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="M85" s="75"/>
-      <c r="N85" s="75"/>
+      <c r="M85" s="74"/>
+      <c r="N85" s="74"/>
     </row>
     <row r="86" spans="1:23" s="15" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A86" s="15" t="e">
@@ -8760,35 +8764,35 @@
       <c r="B86" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="C86" s="74" t="e">
+      <c r="C86" s="73" t="e">
         <f>VLOOKUP($B86&amp;"3",funnel_data!$A:$X,C$81,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="D86" s="74">
+      <c r="D86" s="73">
         <v>1</v>
       </c>
-      <c r="E86" s="74" t="e">
+      <c r="E86" s="73" t="e">
         <f>VLOOKUP($B86&amp;"3",funnel_data!$A:$X,E$81,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="F86" s="74" t="e">
+      <c r="F86" s="73" t="e">
         <f>VLOOKUP($B86&amp;"3",funnel_data!$A:$X,F$81,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="G86" s="74" t="e">
+      <c r="G86" s="73" t="e">
         <f>VLOOKUP($B86&amp;"3",funnel_data!$A:$X,G$81,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="H86" s="74" t="e">
+      <c r="H86" s="73" t="e">
         <f>VLOOKUP($B86&amp;"3",funnel_data!$A:$X,H$81,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="I86" s="74" t="e">
+      <c r="I86" s="73" t="e">
         <f>VLOOKUP($B86&amp;"3",funnel_data!$A:$X,I$81,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="M86" s="75"/>
-      <c r="N86" s="75"/>
+      <c r="M86" s="74"/>
+      <c r="N86" s="74"/>
     </row>
     <row r="87" spans="1:23" s="15" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A87" s="15" t="e">
@@ -8798,35 +8802,35 @@
       <c r="B87" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="C87" s="74" t="e">
+      <c r="C87" s="73" t="e">
         <f>VLOOKUP($B87&amp;"3",funnel_data!$A:$X,C$81,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="D87" s="74">
+      <c r="D87" s="73">
         <v>1</v>
       </c>
-      <c r="E87" s="74" t="e">
+      <c r="E87" s="73" t="e">
         <f>VLOOKUP($B87&amp;"3",funnel_data!$A:$X,E$81,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="F87" s="74" t="e">
+      <c r="F87" s="73" t="e">
         <f>VLOOKUP($B87&amp;"3",funnel_data!$A:$X,F$81,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="G87" s="74" t="e">
+      <c r="G87" s="73" t="e">
         <f>VLOOKUP($B87&amp;"3",funnel_data!$A:$X,G$81,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="H87" s="74" t="e">
+      <c r="H87" s="73" t="e">
         <f>VLOOKUP($B87&amp;"3",funnel_data!$A:$X,H$81,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="I87" s="74" t="e">
+      <c r="I87" s="73" t="e">
         <f>VLOOKUP($B87&amp;"3",funnel_data!$A:$X,I$81,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="M87" s="75"/>
-      <c r="N87" s="75"/>
+      <c r="M87" s="74"/>
+      <c r="N87" s="74"/>
     </row>
     <row r="88" spans="1:23" s="15" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A88" s="15" t="e">
@@ -8836,35 +8840,35 @@
       <c r="B88" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="C88" s="74" t="e">
+      <c r="C88" s="73" t="e">
         <f>VLOOKUP($B88&amp;"3",funnel_data!$A:$X,C$81,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="D88" s="74">
+      <c r="D88" s="73">
         <v>1</v>
       </c>
-      <c r="E88" s="74" t="e">
+      <c r="E88" s="73" t="e">
         <f>VLOOKUP($B88&amp;"3",funnel_data!$A:$X,E$81,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="F88" s="74" t="e">
+      <c r="F88" s="73" t="e">
         <f>VLOOKUP($B88&amp;"3",funnel_data!$A:$X,F$81,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="G88" s="74" t="e">
+      <c r="G88" s="73" t="e">
         <f>VLOOKUP($B88&amp;"3",funnel_data!$A:$X,G$81,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="H88" s="74" t="e">
+      <c r="H88" s="73" t="e">
         <f>VLOOKUP($B88&amp;"3",funnel_data!$A:$X,H$81,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="I88" s="74" t="e">
+      <c r="I88" s="73" t="e">
         <f>VLOOKUP($B88&amp;"3",funnel_data!$A:$X,I$81,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="M88" s="75"/>
-      <c r="N88" s="75"/>
+      <c r="M88" s="74"/>
+      <c r="N88" s="74"/>
     </row>
     <row r="89" spans="1:23" s="15" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A89" s="15" t="e">
@@ -8874,35 +8878,35 @@
       <c r="B89" s="45" t="s">
         <v>19</v>
       </c>
-      <c r="C89" s="74" t="e">
+      <c r="C89" s="73" t="e">
         <f>VLOOKUP($B89&amp;"3",funnel_data!$A:$X,C$81,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="D89" s="74">
+      <c r="D89" s="73">
         <v>1</v>
       </c>
-      <c r="E89" s="74" t="e">
+      <c r="E89" s="73" t="e">
         <f>VLOOKUP($B89&amp;"3",funnel_data!$A:$X,E$81,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="F89" s="74" t="e">
+      <c r="F89" s="73" t="e">
         <f>VLOOKUP($B89&amp;"3",funnel_data!$A:$X,F$81,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="G89" s="74" t="e">
+      <c r="G89" s="73" t="e">
         <f>VLOOKUP($B89&amp;"3",funnel_data!$A:$X,G$81,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="H89" s="74" t="e">
+      <c r="H89" s="73" t="e">
         <f>VLOOKUP($B89&amp;"3",funnel_data!$A:$X,H$81,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="I89" s="74" t="e">
+      <c r="I89" s="73" t="e">
         <f>VLOOKUP($B89&amp;"3",funnel_data!$A:$X,I$81,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="M89" s="75"/>
-      <c r="N89" s="75"/>
+      <c r="M89" s="74"/>
+      <c r="N89" s="74"/>
     </row>
     <row r="90" spans="1:23" s="15" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A90" s="15" t="e">
@@ -8912,35 +8916,35 @@
       <c r="B90" s="45" t="s">
         <v>69</v>
       </c>
-      <c r="C90" s="74" t="e">
+      <c r="C90" s="73" t="e">
         <f>VLOOKUP($B90&amp;"3",funnel_data!$A:$X,C$81,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="D90" s="74">
+      <c r="D90" s="73">
         <v>1</v>
       </c>
-      <c r="E90" s="74" t="e">
+      <c r="E90" s="73" t="e">
         <f>VLOOKUP($B90&amp;"3",funnel_data!$A:$X,E$81,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="F90" s="74" t="e">
+      <c r="F90" s="73" t="e">
         <f>VLOOKUP($B90&amp;"3",funnel_data!$A:$X,F$81,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="G90" s="74" t="e">
+      <c r="G90" s="73" t="e">
         <f>VLOOKUP($B90&amp;"3",funnel_data!$A:$X,G$81,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="H90" s="74" t="e">
+      <c r="H90" s="73" t="e">
         <f>VLOOKUP($B90&amp;"3",funnel_data!$A:$X,H$81,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="I90" s="74" t="e">
+      <c r="I90" s="73" t="e">
         <f>VLOOKUP($B90&amp;"3",funnel_data!$A:$X,I$81,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="M90" s="75"/>
-      <c r="N90" s="75"/>
+      <c r="M90" s="74"/>
+      <c r="N90" s="74"/>
     </row>
     <row r="91" spans="1:23" s="15" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A91" s="15" t="e">
@@ -8950,35 +8954,35 @@
       <c r="B91" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="C91" s="74" t="e">
+      <c r="C91" s="73" t="e">
         <f>VLOOKUP($B91&amp;"3",funnel_data!$A:$X,C$81,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="D91" s="74">
+      <c r="D91" s="73">
         <v>1</v>
       </c>
-      <c r="E91" s="74" t="e">
+      <c r="E91" s="73" t="e">
         <f>VLOOKUP($B91&amp;"3",funnel_data!$A:$X,E$81,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="F91" s="74" t="e">
+      <c r="F91" s="73" t="e">
         <f>VLOOKUP($B91&amp;"3",funnel_data!$A:$X,F$81,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="G91" s="74" t="e">
+      <c r="G91" s="73" t="e">
         <f>VLOOKUP($B91&amp;"3",funnel_data!$A:$X,G$81,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="H91" s="74" t="e">
+      <c r="H91" s="73" t="e">
         <f>VLOOKUP($B91&amp;"3",funnel_data!$A:$X,H$81,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="I91" s="74" t="e">
+      <c r="I91" s="73" t="e">
         <f>VLOOKUP($B91&amp;"3",funnel_data!$A:$X,I$81,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="M91" s="75"/>
-      <c r="N91" s="75"/>
+      <c r="M91" s="74"/>
+      <c r="N91" s="74"/>
     </row>
     <row r="92" spans="1:23" s="15" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A92" s="15" t="e">
@@ -8988,35 +8992,35 @@
       <c r="B92" s="45" t="s">
         <v>108</v>
       </c>
-      <c r="C92" s="74" t="e">
+      <c r="C92" s="73" t="e">
         <f>VLOOKUP($B92&amp;"3",funnel_data!$A:$X,C$81,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="D92" s="74">
+      <c r="D92" s="73">
         <v>1</v>
       </c>
-      <c r="E92" s="74" t="e">
+      <c r="E92" s="73" t="e">
         <f>VLOOKUP($B92&amp;"3",funnel_data!$A:$X,E$81,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="F92" s="74" t="e">
+      <c r="F92" s="73" t="e">
         <f>VLOOKUP($B92&amp;"3",funnel_data!$A:$X,F$81,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="G92" s="74" t="e">
+      <c r="G92" s="73" t="e">
         <f>VLOOKUP($B92&amp;"3",funnel_data!$A:$X,G$81,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="H92" s="74" t="e">
+      <c r="H92" s="73" t="e">
         <f>VLOOKUP($B92&amp;"3",funnel_data!$A:$X,H$81,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="I92" s="74" t="e">
+      <c r="I92" s="73" t="e">
         <f>VLOOKUP($B92&amp;"3",funnel_data!$A:$X,I$81,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="M92" s="75"/>
-      <c r="N92" s="75"/>
+      <c r="M92" s="74"/>
+      <c r="N92" s="74"/>
     </row>
     <row r="93" spans="1:23" s="15" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A93" s="15" t="e">
@@ -9026,35 +9030,35 @@
       <c r="B93" s="45" t="s">
         <v>28</v>
       </c>
-      <c r="C93" s="74" t="e">
+      <c r="C93" s="73" t="e">
         <f>VLOOKUP($B93&amp;"3",funnel_data!$A:$X,C$81,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="D93" s="74">
+      <c r="D93" s="73">
         <v>1</v>
       </c>
-      <c r="E93" s="74" t="e">
+      <c r="E93" s="73" t="e">
         <f>VLOOKUP($B93&amp;"3",funnel_data!$A:$X,E$81,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="F93" s="74" t="e">
+      <c r="F93" s="73" t="e">
         <f>VLOOKUP($B93&amp;"3",funnel_data!$A:$X,F$81,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="G93" s="74" t="e">
+      <c r="G93" s="73" t="e">
         <f>VLOOKUP($B93&amp;"3",funnel_data!$A:$X,G$81,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="H93" s="74" t="e">
+      <c r="H93" s="73" t="e">
         <f>VLOOKUP($B93&amp;"3",funnel_data!$A:$X,H$81,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="I93" s="74" t="e">
+      <c r="I93" s="73" t="e">
         <f>VLOOKUP($B93&amp;"3",funnel_data!$A:$X,I$81,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="M93" s="75"/>
-      <c r="N93" s="75"/>
+      <c r="M93" s="74"/>
+      <c r="N93" s="74"/>
     </row>
     <row r="94" spans="1:23" s="15" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A94" s="15" t="e">
@@ -9064,35 +9068,35 @@
       <c r="B94" s="45" t="s">
         <v>10</v>
       </c>
-      <c r="C94" s="74" t="e">
+      <c r="C94" s="73" t="e">
         <f>VLOOKUP($B94&amp;"3",funnel_data!$A:$X,C$81,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="D94" s="74">
+      <c r="D94" s="73">
         <v>1</v>
       </c>
-      <c r="E94" s="74" t="e">
+      <c r="E94" s="73" t="e">
         <f>VLOOKUP($B94&amp;"3",funnel_data!$A:$X,E$81,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="F94" s="74" t="e">
+      <c r="F94" s="73" t="e">
         <f>VLOOKUP($B94&amp;"3",funnel_data!$A:$X,F$81,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="G94" s="74" t="e">
+      <c r="G94" s="73" t="e">
         <f>VLOOKUP($B94&amp;"3",funnel_data!$A:$X,G$81,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="H94" s="74" t="e">
+      <c r="H94" s="73" t="e">
         <f>VLOOKUP($B94&amp;"3",funnel_data!$A:$X,H$81,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="I94" s="74" t="e">
+      <c r="I94" s="73" t="e">
         <f>VLOOKUP($B94&amp;"3",funnel_data!$A:$X,I$81,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="M94" s="75"/>
-      <c r="N94" s="75"/>
+      <c r="M94" s="74"/>
+      <c r="N94" s="74"/>
     </row>
     <row r="95" spans="1:23" s="15" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A95" s="15" t="e">
@@ -9102,35 +9106,35 @@
       <c r="B95" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="C95" s="74" t="e">
+      <c r="C95" s="73" t="e">
         <f>VLOOKUP($B95&amp;"3",funnel_data!$A:$X,C$81,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="D95" s="74">
+      <c r="D95" s="73">
         <v>1</v>
       </c>
-      <c r="E95" s="74" t="e">
+      <c r="E95" s="73" t="e">
         <f>VLOOKUP($B95&amp;"3",funnel_data!$A:$X,E$81,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="F95" s="74" t="e">
+      <c r="F95" s="73" t="e">
         <f>VLOOKUP($B95&amp;"3",funnel_data!$A:$X,F$81,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="G95" s="74" t="e">
+      <c r="G95" s="73" t="e">
         <f>VLOOKUP($B95&amp;"3",funnel_data!$A:$X,G$81,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="H95" s="74" t="e">
+      <c r="H95" s="73" t="e">
         <f>VLOOKUP($B95&amp;"3",funnel_data!$A:$X,H$81,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="I95" s="74" t="e">
+      <c r="I95" s="73" t="e">
         <f>VLOOKUP($B95&amp;"3",funnel_data!$A:$X,I$81,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="M95" s="75"/>
-      <c r="N95" s="75"/>
+      <c r="M95" s="74"/>
+      <c r="N95" s="74"/>
     </row>
     <row r="96" spans="1:23" s="15" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A96" s="15" t="e">
@@ -9140,35 +9144,35 @@
       <c r="B96" s="45" t="s">
         <v>6</v>
       </c>
-      <c r="C96" s="74" t="e">
+      <c r="C96" s="73" t="e">
         <f>VLOOKUP($B96&amp;"3",funnel_data!$A:$X,C$81,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="D96" s="74">
+      <c r="D96" s="73">
         <v>1</v>
       </c>
-      <c r="E96" s="74" t="e">
+      <c r="E96" s="73" t="e">
         <f>VLOOKUP($B96&amp;"3",funnel_data!$A:$X,E$81,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="F96" s="74" t="e">
+      <c r="F96" s="73" t="e">
         <f>VLOOKUP($B96&amp;"3",funnel_data!$A:$X,F$81,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="G96" s="74" t="e">
+      <c r="G96" s="73" t="e">
         <f>VLOOKUP($B96&amp;"3",funnel_data!$A:$X,G$81,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="H96" s="74" t="e">
+      <c r="H96" s="73" t="e">
         <f>VLOOKUP($B96&amp;"3",funnel_data!$A:$X,H$81,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="I96" s="74" t="e">
+      <c r="I96" s="73" t="e">
         <f>VLOOKUP($B96&amp;"3",funnel_data!$A:$X,I$81,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="M96" s="75"/>
-      <c r="N96" s="75"/>
+      <c r="M96" s="74"/>
+      <c r="N96" s="74"/>
     </row>
     <row r="97" spans="1:14" s="15" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A97" s="15" t="e">
@@ -9178,35 +9182,35 @@
       <c r="B97" s="45" t="s">
         <v>5</v>
       </c>
-      <c r="C97" s="74" t="e">
+      <c r="C97" s="73" t="e">
         <f>VLOOKUP($B97&amp;"3",funnel_data!$A:$X,C$81,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="D97" s="74">
+      <c r="D97" s="73">
         <v>1</v>
       </c>
-      <c r="E97" s="74" t="e">
+      <c r="E97" s="73" t="e">
         <f>VLOOKUP($B97&amp;"3",funnel_data!$A:$X,E$81,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="F97" s="74" t="e">
+      <c r="F97" s="73" t="e">
         <f>VLOOKUP($B97&amp;"3",funnel_data!$A:$X,F$81,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="G97" s="74" t="e">
+      <c r="G97" s="73" t="e">
         <f>VLOOKUP($B97&amp;"3",funnel_data!$A:$X,G$81,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="H97" s="74" t="e">
+      <c r="H97" s="73" t="e">
         <f>VLOOKUP($B97&amp;"3",funnel_data!$A:$X,H$81,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="I97" s="74" t="e">
+      <c r="I97" s="73" t="e">
         <f>VLOOKUP($B97&amp;"3",funnel_data!$A:$X,I$81,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="M97" s="75"/>
-      <c r="N97" s="75"/>
+      <c r="M97" s="74"/>
+      <c r="N97" s="74"/>
     </row>
     <row r="98" spans="1:14" s="15" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A98" s="15" t="e">
@@ -9216,35 +9220,35 @@
       <c r="B98" s="45" t="s">
         <v>24</v>
       </c>
-      <c r="C98" s="74" t="e">
+      <c r="C98" s="73" t="e">
         <f>VLOOKUP($B98&amp;"3",funnel_data!$A:$X,C$81,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="D98" s="74">
+      <c r="D98" s="73">
         <v>1</v>
       </c>
-      <c r="E98" s="74" t="e">
+      <c r="E98" s="73" t="e">
         <f>VLOOKUP($B98&amp;"3",funnel_data!$A:$X,E$81,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="F98" s="74" t="e">
+      <c r="F98" s="73" t="e">
         <f>VLOOKUP($B98&amp;"3",funnel_data!$A:$X,F$81,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="G98" s="74" t="e">
+      <c r="G98" s="73" t="e">
         <f>VLOOKUP($B98&amp;"3",funnel_data!$A:$X,G$81,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="H98" s="74" t="e">
+      <c r="H98" s="73" t="e">
         <f>VLOOKUP($B98&amp;"3",funnel_data!$A:$X,H$81,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="I98" s="74" t="e">
+      <c r="I98" s="73" t="e">
         <f>VLOOKUP($B98&amp;"3",funnel_data!$A:$X,I$81,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="M98" s="75"/>
-      <c r="N98" s="75"/>
+      <c r="M98" s="74"/>
+      <c r="N98" s="74"/>
     </row>
     <row r="99" spans="1:14" s="15" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A99" s="15" t="e">
@@ -9254,35 +9258,35 @@
       <c r="B99" s="45" t="s">
         <v>25</v>
       </c>
-      <c r="C99" s="74" t="e">
+      <c r="C99" s="73" t="e">
         <f>VLOOKUP($B99&amp;"3",funnel_data!$A:$X,C$81,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="D99" s="74">
+      <c r="D99" s="73">
         <v>1</v>
       </c>
-      <c r="E99" s="74" t="e">
+      <c r="E99" s="73" t="e">
         <f>VLOOKUP($B99&amp;"3",funnel_data!$A:$X,E$81,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="F99" s="74" t="e">
+      <c r="F99" s="73" t="e">
         <f>VLOOKUP($B99&amp;"3",funnel_data!$A:$X,F$81,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="G99" s="74" t="e">
+      <c r="G99" s="73" t="e">
         <f>VLOOKUP($B99&amp;"3",funnel_data!$A:$X,G$81,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="H99" s="74" t="e">
+      <c r="H99" s="73" t="e">
         <f>VLOOKUP($B99&amp;"3",funnel_data!$A:$X,H$81,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="I99" s="74" t="e">
+      <c r="I99" s="73" t="e">
         <f>VLOOKUP($B99&amp;"3",funnel_data!$A:$X,I$81,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="M99" s="75"/>
-      <c r="N99" s="75"/>
+      <c r="M99" s="74"/>
+      <c r="N99" s="74"/>
     </row>
     <row r="100" spans="1:14" s="15" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A100" s="15" t="e">
@@ -9292,35 +9296,35 @@
       <c r="B100" s="45" t="s">
         <v>11</v>
       </c>
-      <c r="C100" s="74" t="e">
+      <c r="C100" s="73" t="e">
         <f>VLOOKUP($B100&amp;"3",funnel_data!$A:$X,C$81,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="D100" s="74">
+      <c r="D100" s="73">
         <v>1</v>
       </c>
-      <c r="E100" s="74" t="e">
+      <c r="E100" s="73" t="e">
         <f>VLOOKUP($B100&amp;"3",funnel_data!$A:$X,E$81,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="F100" s="74" t="e">
+      <c r="F100" s="73" t="e">
         <f>VLOOKUP($B100&amp;"3",funnel_data!$A:$X,F$81,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="G100" s="74" t="e">
+      <c r="G100" s="73" t="e">
         <f>VLOOKUP($B100&amp;"3",funnel_data!$A:$X,G$81,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="H100" s="74" t="e">
+      <c r="H100" s="73" t="e">
         <f>VLOOKUP($B100&amp;"3",funnel_data!$A:$X,H$81,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="I100" s="74" t="e">
+      <c r="I100" s="73" t="e">
         <f>VLOOKUP($B100&amp;"3",funnel_data!$A:$X,I$81,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="M100" s="75"/>
-      <c r="N100" s="75"/>
+      <c r="M100" s="74"/>
+      <c r="N100" s="74"/>
     </row>
     <row r="101" spans="1:14" s="15" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A101" s="15" t="e">
@@ -9330,35 +9334,35 @@
       <c r="B101" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="C101" s="74" t="e">
+      <c r="C101" s="73" t="e">
         <f>VLOOKUP($B101&amp;"3",funnel_data!$A:$X,C$81,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="D101" s="74">
+      <c r="D101" s="73">
         <v>1</v>
       </c>
-      <c r="E101" s="74" t="e">
+      <c r="E101" s="73" t="e">
         <f>VLOOKUP($B101&amp;"3",funnel_data!$A:$X,E$81,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="F101" s="74" t="e">
+      <c r="F101" s="73" t="e">
         <f>VLOOKUP($B101&amp;"3",funnel_data!$A:$X,F$81,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="G101" s="74" t="e">
+      <c r="G101" s="73" t="e">
         <f>VLOOKUP($B101&amp;"3",funnel_data!$A:$X,G$81,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="H101" s="74" t="e">
+      <c r="H101" s="73" t="e">
         <f>VLOOKUP($B101&amp;"3",funnel_data!$A:$X,H$81,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="I101" s="74" t="e">
+      <c r="I101" s="73" t="e">
         <f>VLOOKUP($B101&amp;"3",funnel_data!$A:$X,I$81,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="M101" s="75"/>
-      <c r="N101" s="75"/>
+      <c r="M101" s="74"/>
+      <c r="N101" s="74"/>
     </row>
     <row r="102" spans="1:14" s="15" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A102" s="15" t="e">
@@ -9368,35 +9372,35 @@
       <c r="B102" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="C102" s="74" t="e">
+      <c r="C102" s="73" t="e">
         <f>VLOOKUP($B102&amp;"3",funnel_data!$A:$X,C$81,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="D102" s="74">
+      <c r="D102" s="73">
         <v>1</v>
       </c>
-      <c r="E102" s="74" t="e">
+      <c r="E102" s="73" t="e">
         <f>VLOOKUP($B102&amp;"3",funnel_data!$A:$X,E$81,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="F102" s="74" t="e">
+      <c r="F102" s="73" t="e">
         <f>VLOOKUP($B102&amp;"3",funnel_data!$A:$X,F$81,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="G102" s="74" t="e">
+      <c r="G102" s="73" t="e">
         <f>VLOOKUP($B102&amp;"3",funnel_data!$A:$X,G$81,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="H102" s="74" t="e">
+      <c r="H102" s="73" t="e">
         <f>VLOOKUP($B102&amp;"3",funnel_data!$A:$X,H$81,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="I102" s="74" t="e">
+      <c r="I102" s="73" t="e">
         <f>VLOOKUP($B102&amp;"3",funnel_data!$A:$X,I$81,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="M102" s="75"/>
-      <c r="N102" s="75"/>
+      <c r="M102" s="74"/>
+      <c r="N102" s="74"/>
     </row>
     <row r="103" spans="1:14" s="15" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A103" s="15" t="e">
@@ -9406,35 +9410,35 @@
       <c r="B103" s="45" t="s">
         <v>22</v>
       </c>
-      <c r="C103" s="74" t="e">
+      <c r="C103" s="73" t="e">
         <f>VLOOKUP($B103&amp;"3",funnel_data!$A:$X,C$81,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="D103" s="74">
+      <c r="D103" s="73">
         <v>1</v>
       </c>
-      <c r="E103" s="74" t="e">
+      <c r="E103" s="73" t="e">
         <f>VLOOKUP($B103&amp;"3",funnel_data!$A:$X,E$81,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="F103" s="74" t="e">
+      <c r="F103" s="73" t="e">
         <f>VLOOKUP($B103&amp;"3",funnel_data!$A:$X,F$81,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="G103" s="74" t="e">
+      <c r="G103" s="73" t="e">
         <f>VLOOKUP($B103&amp;"3",funnel_data!$A:$X,G$81,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="H103" s="74" t="e">
+      <c r="H103" s="73" t="e">
         <f>VLOOKUP($B103&amp;"3",funnel_data!$A:$X,H$81,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="I103" s="74" t="e">
+      <c r="I103" s="73" t="e">
         <f>VLOOKUP($B103&amp;"3",funnel_data!$A:$X,I$81,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="M103" s="75"/>
-      <c r="N103" s="75"/>
+      <c r="M103" s="74"/>
+      <c r="N103" s="74"/>
     </row>
     <row r="104" spans="1:14" s="15" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A104" s="15" t="e">
@@ -9444,35 +9448,35 @@
       <c r="B104" s="45" t="s">
         <v>21</v>
       </c>
-      <c r="C104" s="74" t="e">
+      <c r="C104" s="73" t="e">
         <f>VLOOKUP($B104&amp;"3",funnel_data!$A:$X,C$81,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="D104" s="74">
+      <c r="D104" s="73">
         <v>1</v>
       </c>
-      <c r="E104" s="74" t="e">
+      <c r="E104" s="73" t="e">
         <f>VLOOKUP($B104&amp;"3",funnel_data!$A:$X,E$81,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="F104" s="74" t="e">
+      <c r="F104" s="73" t="e">
         <f>VLOOKUP($B104&amp;"3",funnel_data!$A:$X,F$81,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="G104" s="74" t="e">
+      <c r="G104" s="73" t="e">
         <f>VLOOKUP($B104&amp;"3",funnel_data!$A:$X,G$81,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="H104" s="74" t="e">
+      <c r="H104" s="73" t="e">
         <f>VLOOKUP($B104&amp;"3",funnel_data!$A:$X,H$81,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="I104" s="74" t="e">
+      <c r="I104" s="73" t="e">
         <f>VLOOKUP($B104&amp;"3",funnel_data!$A:$X,I$81,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="M104" s="75"/>
-      <c r="N104" s="75"/>
+      <c r="M104" s="74"/>
+      <c r="N104" s="74"/>
     </row>
     <row r="105" spans="1:14" s="15" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A105" s="15" t="e">
@@ -9482,35 +9486,35 @@
       <c r="B105" s="45" t="s">
         <v>26</v>
       </c>
-      <c r="C105" s="74" t="e">
+      <c r="C105" s="73" t="e">
         <f>VLOOKUP($B105&amp;"3",funnel_data!$A:$X,C$81,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="D105" s="74">
+      <c r="D105" s="73">
         <v>1</v>
       </c>
-      <c r="E105" s="74" t="e">
+      <c r="E105" s="73" t="e">
         <f>VLOOKUP($B105&amp;"3",funnel_data!$A:$X,E$81,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="F105" s="74" t="e">
+      <c r="F105" s="73" t="e">
         <f>VLOOKUP($B105&amp;"3",funnel_data!$A:$X,F$81,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="G105" s="74" t="e">
+      <c r="G105" s="73" t="e">
         <f>VLOOKUP($B105&amp;"3",funnel_data!$A:$X,G$81,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="H105" s="74" t="e">
+      <c r="H105" s="73" t="e">
         <f>VLOOKUP($B105&amp;"3",funnel_data!$A:$X,H$81,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="I105" s="74" t="e">
+      <c r="I105" s="73" t="e">
         <f>VLOOKUP($B105&amp;"3",funnel_data!$A:$X,I$81,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="M105" s="75"/>
-      <c r="N105" s="75"/>
+      <c r="M105" s="74"/>
+      <c r="N105" s="74"/>
     </row>
     <row r="106" spans="1:14" s="15" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A106" s="15" t="e">
@@ -9520,35 +9524,35 @@
       <c r="B106" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="C106" s="74" t="e">
+      <c r="C106" s="73" t="e">
         <f>VLOOKUP($B106&amp;"3",funnel_data!$A:$X,C$81,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="D106" s="74">
+      <c r="D106" s="73">
         <v>1</v>
       </c>
-      <c r="E106" s="74" t="e">
+      <c r="E106" s="73" t="e">
         <f>VLOOKUP($B106&amp;"3",funnel_data!$A:$X,E$81,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="F106" s="74" t="e">
+      <c r="F106" s="73" t="e">
         <f>VLOOKUP($B106&amp;"3",funnel_data!$A:$X,F$81,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="G106" s="74" t="e">
+      <c r="G106" s="73" t="e">
         <f>VLOOKUP($B106&amp;"3",funnel_data!$A:$X,G$81,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="H106" s="74" t="e">
+      <c r="H106" s="73" t="e">
         <f>VLOOKUP($B106&amp;"3",funnel_data!$A:$X,H$81,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="I106" s="74" t="e">
+      <c r="I106" s="73" t="e">
         <f>VLOOKUP($B106&amp;"3",funnel_data!$A:$X,I$81,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="M106" s="75"/>
-      <c r="N106" s="75"/>
+      <c r="M106" s="74"/>
+      <c r="N106" s="74"/>
     </row>
     <row r="107" spans="1:14" s="15" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A107" s="15" t="e">
@@ -9558,35 +9562,35 @@
       <c r="B107" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="C107" s="74" t="e">
+      <c r="C107" s="73" t="e">
         <f>VLOOKUP($B107&amp;"3",funnel_data!$A:$X,C$81,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="D107" s="74">
+      <c r="D107" s="73">
         <v>1</v>
       </c>
-      <c r="E107" s="74" t="e">
+      <c r="E107" s="73" t="e">
         <f>VLOOKUP($B107&amp;"3",funnel_data!$A:$X,E$81,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="F107" s="74" t="e">
+      <c r="F107" s="73" t="e">
         <f>VLOOKUP($B107&amp;"3",funnel_data!$A:$X,F$81,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="G107" s="74" t="e">
+      <c r="G107" s="73" t="e">
         <f>VLOOKUP($B107&amp;"3",funnel_data!$A:$X,G$81,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="H107" s="74" t="e">
+      <c r="H107" s="73" t="e">
         <f>VLOOKUP($B107&amp;"3",funnel_data!$A:$X,H$81,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="I107" s="74" t="e">
+      <c r="I107" s="73" t="e">
         <f>VLOOKUP($B107&amp;"3",funnel_data!$A:$X,I$81,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="M107" s="75"/>
-      <c r="N107" s="75"/>
+      <c r="M107" s="74"/>
+      <c r="N107" s="74"/>
     </row>
     <row r="108" spans="1:14" s="15" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A108" s="15" t="e">
@@ -9596,35 +9600,35 @@
       <c r="B108" s="45" t="s">
         <v>16</v>
       </c>
-      <c r="C108" s="74" t="e">
+      <c r="C108" s="73" t="e">
         <f>VLOOKUP($B108&amp;"3",funnel_data!$A:$X,C$81,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="D108" s="74">
+      <c r="D108" s="73">
         <v>1</v>
       </c>
-      <c r="E108" s="74" t="e">
+      <c r="E108" s="73" t="e">
         <f>VLOOKUP($B108&amp;"3",funnel_data!$A:$X,E$81,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="F108" s="74" t="e">
+      <c r="F108" s="73" t="e">
         <f>VLOOKUP($B108&amp;"3",funnel_data!$A:$X,F$81,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="G108" s="74" t="e">
+      <c r="G108" s="73" t="e">
         <f>VLOOKUP($B108&amp;"3",funnel_data!$A:$X,G$81,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="H108" s="74" t="e">
+      <c r="H108" s="73" t="e">
         <f>VLOOKUP($B108&amp;"3",funnel_data!$A:$X,H$81,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="I108" s="74" t="e">
+      <c r="I108" s="73" t="e">
         <f>VLOOKUP($B108&amp;"3",funnel_data!$A:$X,I$81,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="M108" s="75"/>
-      <c r="N108" s="75"/>
+      <c r="M108" s="74"/>
+      <c r="N108" s="74"/>
     </row>
     <row r="109" spans="1:14" s="15" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A109" s="15" t="e">
@@ -9634,30 +9638,30 @@
       <c r="B109" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="C109" s="74" t="e">
+      <c r="C109" s="73" t="e">
         <f>VLOOKUP($B109&amp;"3",funnel_data!$A:$X,C$81,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="D109" s="74">
+      <c r="D109" s="73">
         <v>1</v>
       </c>
-      <c r="E109" s="74" t="e">
+      <c r="E109" s="73" t="e">
         <f>VLOOKUP($B109&amp;"3",funnel_data!$A:$X,E$81,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="F109" s="74" t="e">
+      <c r="F109" s="73" t="e">
         <f>VLOOKUP($B109&amp;"3",funnel_data!$A:$X,F$81,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="G109" s="74" t="e">
+      <c r="G109" s="73" t="e">
         <f>VLOOKUP($B109&amp;"3",funnel_data!$A:$X,G$81,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="H109" s="74" t="e">
+      <c r="H109" s="73" t="e">
         <f>VLOOKUP($B109&amp;"3",funnel_data!$A:$X,H$81,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="I109" s="74" t="e">
+      <c r="I109" s="73" t="e">
         <f>VLOOKUP($B109&amp;"3",funnel_data!$A:$X,I$81,FALSE)</f>
         <v>#N/A</v>
       </c>
@@ -9670,30 +9674,30 @@
       <c r="B110" s="45" t="s">
         <v>17</v>
       </c>
-      <c r="C110" s="74" t="e">
+      <c r="C110" s="73" t="e">
         <f>VLOOKUP($B110&amp;"3",funnel_data!$A:$X,C$81,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="D110" s="74">
+      <c r="D110" s="73">
         <v>1</v>
       </c>
-      <c r="E110" s="74" t="e">
+      <c r="E110" s="73" t="e">
         <f>VLOOKUP($B110&amp;"3",funnel_data!$A:$X,E$81,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="F110" s="74" t="e">
+      <c r="F110" s="73" t="e">
         <f>VLOOKUP($B110&amp;"3",funnel_data!$A:$X,F$81,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="G110" s="74" t="e">
+      <c r="G110" s="73" t="e">
         <f>VLOOKUP($B110&amp;"3",funnel_data!$A:$X,G$81,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="H110" s="74" t="e">
+      <c r="H110" s="73" t="e">
         <f>VLOOKUP($B110&amp;"3",funnel_data!$A:$X,H$81,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="I110" s="74" t="e">
+      <c r="I110" s="73" t="e">
         <f>VLOOKUP($B110&amp;"3",funnel_data!$A:$X,I$81,FALSE)</f>
         <v>#N/A</v>
       </c>
@@ -9706,30 +9710,30 @@
       <c r="B111" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="C111" s="74" t="e">
+      <c r="C111" s="73" t="e">
         <f>VLOOKUP($B111&amp;"3",funnel_data!$A:$X,C$81,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="D111" s="74">
+      <c r="D111" s="73">
         <v>1</v>
       </c>
-      <c r="E111" s="74" t="e">
+      <c r="E111" s="73" t="e">
         <f>VLOOKUP($B111&amp;"3",funnel_data!$A:$X,E$81,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="F111" s="74" t="e">
+      <c r="F111" s="73" t="e">
         <f>VLOOKUP($B111&amp;"3",funnel_data!$A:$X,F$81,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="G111" s="74" t="e">
+      <c r="G111" s="73" t="e">
         <f>VLOOKUP($B111&amp;"3",funnel_data!$A:$X,G$81,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="H111" s="74" t="e">
+      <c r="H111" s="73" t="e">
         <f>VLOOKUP($B111&amp;"3",funnel_data!$A:$X,H$81,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="I111" s="74" t="e">
+      <c r="I111" s="73" t="e">
         <f>VLOOKUP($B111&amp;"3",funnel_data!$A:$X,I$81,FALSE)</f>
         <v>#N/A</v>
       </c>
@@ -9742,30 +9746,30 @@
       <c r="B112" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="C112" s="74" t="e">
+      <c r="C112" s="73" t="e">
         <f>VLOOKUP($B112&amp;"3",funnel_data!$A:$X,C$81,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="D112" s="74">
+      <c r="D112" s="73">
         <v>1</v>
       </c>
-      <c r="E112" s="74" t="e">
+      <c r="E112" s="73" t="e">
         <f>VLOOKUP($B112&amp;"3",funnel_data!$A:$X,E$81,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="F112" s="74" t="e">
+      <c r="F112" s="73" t="e">
         <f>VLOOKUP($B112&amp;"3",funnel_data!$A:$X,F$81,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="G112" s="74" t="e">
+      <c r="G112" s="73" t="e">
         <f>VLOOKUP($B112&amp;"3",funnel_data!$A:$X,G$81,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="H112" s="74" t="e">
+      <c r="H112" s="73" t="e">
         <f>VLOOKUP($B112&amp;"3",funnel_data!$A:$X,H$81,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="I112" s="74" t="e">
+      <c r="I112" s="73" t="e">
         <f>VLOOKUP($B112&amp;"3",funnel_data!$A:$X,I$81,FALSE)</f>
         <v>#N/A</v>
       </c>
@@ -9778,30 +9782,30 @@
       <c r="B113" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="C113" s="74" t="e">
+      <c r="C113" s="73" t="e">
         <f>VLOOKUP($B113&amp;"3",funnel_data!$A:$X,C$81,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="D113" s="74">
+      <c r="D113" s="73">
         <v>1</v>
       </c>
-      <c r="E113" s="74" t="e">
+      <c r="E113" s="73" t="e">
         <f>VLOOKUP($B113&amp;"3",funnel_data!$A:$X,E$81,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="F113" s="74" t="e">
+      <c r="F113" s="73" t="e">
         <f>VLOOKUP($B113&amp;"3",funnel_data!$A:$X,F$81,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="G113" s="74" t="e">
+      <c r="G113" s="73" t="e">
         <f>VLOOKUP($B113&amp;"3",funnel_data!$A:$X,G$81,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="H113" s="74" t="e">
+      <c r="H113" s="73" t="e">
         <f>VLOOKUP($B113&amp;"3",funnel_data!$A:$X,H$81,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="I113" s="74" t="e">
+      <c r="I113" s="73" t="e">
         <f>VLOOKUP($B113&amp;"3",funnel_data!$A:$X,I$81,FALSE)</f>
         <v>#N/A</v>
       </c>

--- a/reference_files/Table1-HSMR.xlsx
+++ b/reference_files/Table1-HSMR.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Isdsf00d03\quality_indicators\hsmr\quarter_cycle\Robyn\reference_files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Isdsf00d03\quality_indicators\hsmr\quarter_cycle\Analyst folders\Scott\Updates\hsmr-pra\reference_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -753,9 +753,6 @@
     <xf numFmtId="0" fontId="19" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -780,6 +777,9 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="2" fontId="18" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4538,7 +4538,9 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:AA83"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C61" sqref="C61"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -4552,19 +4554,19 @@
     <row r="1" spans="1:27" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="47"/>
       <c r="B1" s="8"/>
-      <c r="C1" s="65" t="s">
+      <c r="C1" s="75" t="s">
         <v>71</v>
       </c>
-      <c r="D1" s="65"/>
-      <c r="E1" s="65"/>
-      <c r="F1" s="65"/>
-      <c r="G1" s="65"/>
-      <c r="H1" s="65"/>
-      <c r="I1" s="65"/>
-      <c r="J1" s="65"/>
-      <c r="K1" s="65"/>
-      <c r="L1" s="65"/>
-      <c r="M1" s="65"/>
+      <c r="D1" s="75"/>
+      <c r="E1" s="75"/>
+      <c r="F1" s="75"/>
+      <c r="G1" s="75"/>
+      <c r="H1" s="75"/>
+      <c r="I1" s="75"/>
+      <c r="J1" s="75"/>
+      <c r="K1" s="75"/>
+      <c r="L1" s="75"/>
+      <c r="M1" s="75"/>
     </row>
     <row r="2" spans="1:27" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="47"/>
@@ -6152,8 +6154,8 @@
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B60" s="30"/>
       <c r="C60" s="1" t="str">
-        <f>"Source: ISD Scotland (SMR01) linked dataset. Reflects the completeness of SMR01 submissions to ISD for individual hospitals as of " &amp; TEXT(funnel_data!L2,"dd mmm yyyy")</f>
-        <v>Source: ISD Scotland (SMR01) linked dataset. Reflects the completeness of SMR01 submissions to ISD for individual hospitals as of 00 Jan 1900</v>
+        <f>"Source: Public Health Scotland (SMR01) linked dataset. Reflects the completeness of SMR01 submissions to PHS for individual hospitals as of " &amp; TEXT(funnel_data!L2,"dd mmm yyyy")</f>
+        <v>Source: Public Health Scotland (SMR01) linked dataset. Reflects the completeness of SMR01 submissions to PHS for individual hospitals as of 00 Jan 1900</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
@@ -6205,7 +6207,9 @@
   </sheetPr>
   <dimension ref="A1:AK119"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView showGridLines="0" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B37" sqref="B37"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.28515625" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
@@ -6222,35 +6226,35 @@
   <sheetData>
     <row r="1" spans="1:36" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="8"/>
-      <c r="B1" s="65" t="s">
+      <c r="B1" s="75" t="s">
         <v>71</v>
       </c>
-      <c r="C1" s="65"/>
-      <c r="D1" s="65"/>
-      <c r="E1" s="65"/>
-      <c r="F1" s="65"/>
-      <c r="G1" s="65"/>
-      <c r="H1" s="65"/>
-      <c r="I1" s="65"/>
-      <c r="J1" s="65"/>
-      <c r="K1" s="65"/>
-      <c r="L1" s="65"/>
-      <c r="M1" s="65"/>
-      <c r="N1" s="65"/>
-      <c r="O1" s="65"/>
-      <c r="P1" s="65"/>
-      <c r="Q1" s="65"/>
-      <c r="R1" s="65"/>
-      <c r="S1" s="65"/>
-      <c r="T1" s="65"/>
-      <c r="U1" s="65"/>
-      <c r="V1" s="65"/>
-      <c r="W1" s="65"/>
-      <c r="X1" s="65"/>
-      <c r="Y1" s="65"/>
-      <c r="Z1" s="65"/>
-      <c r="AA1" s="65"/>
-      <c r="AB1" s="65"/>
+      <c r="C1" s="75"/>
+      <c r="D1" s="75"/>
+      <c r="E1" s="75"/>
+      <c r="F1" s="75"/>
+      <c r="G1" s="75"/>
+      <c r="H1" s="75"/>
+      <c r="I1" s="75"/>
+      <c r="J1" s="75"/>
+      <c r="K1" s="75"/>
+      <c r="L1" s="75"/>
+      <c r="M1" s="75"/>
+      <c r="N1" s="75"/>
+      <c r="O1" s="75"/>
+      <c r="P1" s="75"/>
+      <c r="Q1" s="75"/>
+      <c r="R1" s="75"/>
+      <c r="S1" s="75"/>
+      <c r="T1" s="75"/>
+      <c r="U1" s="75"/>
+      <c r="V1" s="75"/>
+      <c r="W1" s="75"/>
+      <c r="X1" s="75"/>
+      <c r="Y1" s="75"/>
+      <c r="Z1" s="75"/>
+      <c r="AA1" s="75"/>
+      <c r="AB1" s="75"/>
     </row>
     <row r="2" spans="1:36" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8"/>
@@ -6780,8 +6784,8 @@
     <row r="36" spans="1:37" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A36" s="3"/>
       <c r="B36" s="1" t="str">
-        <f>"Source: ISD Scotland (SMR01) linked dataset. Reflects the completeness of SMR01 submissions to ISD for individual hospitals as of " &amp; TEXT(funnel_data!L2,"dd mmm yyyy")</f>
-        <v>Source: ISD Scotland (SMR01) linked dataset. Reflects the completeness of SMR01 submissions to ISD for individual hospitals as of 00 Jan 1900</v>
+        <f>"Source: Public Health Scotland (SMR01) linked dataset. Reflects the completeness of SMR01 submissions to PHS for individual hospitals as of " &amp; TEXT(funnel_data!L2,"dd mmm yyyy")</f>
+        <v>Source: Public Health Scotland (SMR01) linked dataset. Reflects the completeness of SMR01 submissions to PHS for individual hospitals as of 00 Jan 1900</v>
       </c>
       <c r="H36" s="3"/>
       <c r="I36" s="3"/>
@@ -6853,55 +6857,55 @@
       <c r="B47" s="15">
         <v>2</v>
       </c>
-      <c r="C47" s="66">
+      <c r="C47" s="65">
         <v>3</v>
       </c>
       <c r="D47" s="15">
         <v>4</v>
       </c>
-      <c r="E47" s="66">
+      <c r="E47" s="65">
         <v>5</v>
       </c>
       <c r="F47" s="15">
         <v>6</v>
       </c>
-      <c r="G47" s="66">
+      <c r="G47" s="65">
         <v>7</v>
       </c>
       <c r="H47" s="15">
         <v>8</v>
       </c>
-      <c r="I47" s="66">
+      <c r="I47" s="65">
         <v>9</v>
       </c>
-      <c r="Q47" s="66"/>
-      <c r="S47" s="66"/>
-      <c r="U47" s="66"/>
-      <c r="W47" s="66"/>
+      <c r="Q47" s="65"/>
+      <c r="S47" s="65"/>
+      <c r="U47" s="65"/>
+      <c r="W47" s="65"/>
     </row>
     <row r="48" spans="1:37" s="15" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B48" s="45" t="s">
         <v>58</v>
       </c>
-      <c r="C48" s="67" t="s">
+      <c r="C48" s="66" t="s">
         <v>52</v>
       </c>
-      <c r="D48" s="67" t="s">
+      <c r="D48" s="66" t="s">
         <v>57</v>
       </c>
-      <c r="E48" s="67" t="s">
+      <c r="E48" s="66" t="s">
         <v>118</v>
       </c>
-      <c r="F48" s="67" t="s">
+      <c r="F48" s="66" t="s">
         <v>53</v>
       </c>
-      <c r="G48" s="67" t="s">
+      <c r="G48" s="66" t="s">
         <v>54</v>
       </c>
-      <c r="H48" s="67" t="s">
+      <c r="H48" s="66" t="s">
         <v>55</v>
       </c>
-      <c r="I48" s="67" t="s">
+      <c r="I48" s="66" t="s">
         <v>56</v>
       </c>
       <c r="J48" s="15" t="s">
@@ -6914,13 +6918,13 @@
         <v>64</v>
       </c>
       <c r="P48" s="45"/>
-      <c r="Q48" s="67"/>
-      <c r="R48" s="67"/>
-      <c r="S48" s="67"/>
-      <c r="T48" s="67"/>
-      <c r="U48" s="67"/>
-      <c r="V48" s="67"/>
-      <c r="W48" s="67"/>
+      <c r="Q48" s="66"/>
+      <c r="R48" s="66"/>
+      <c r="S48" s="66"/>
+      <c r="T48" s="66"/>
+      <c r="U48" s="66"/>
+      <c r="V48" s="66"/>
+      <c r="W48" s="66"/>
     </row>
     <row r="49" spans="1:23" s="15" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A49" s="15">
@@ -6930,31 +6934,31 @@
         <f t="shared" ref="B49:I58" si="1">VLOOKUP($A49,$A$83:$I$113,B$47,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="C49" s="68" t="e">
+      <c r="C49" s="67" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
-      <c r="D49" s="69" t="e">
+      <c r="D49" s="68" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
-      <c r="E49" s="69" t="e">
+      <c r="E49" s="68" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
-      <c r="F49" s="69" t="e">
+      <c r="F49" s="68" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
-      <c r="G49" s="69" t="e">
+      <c r="G49" s="68" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
-      <c r="H49" s="69" t="e">
+      <c r="H49" s="68" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
-      <c r="I49" s="69" t="e">
+      <c r="I49" s="68" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
@@ -6971,13 +6975,13 @@
         <v>#N/A</v>
       </c>
       <c r="P49" s="45"/>
-      <c r="Q49" s="68"/>
-      <c r="R49" s="69"/>
-      <c r="S49" s="69"/>
-      <c r="T49" s="69"/>
-      <c r="U49" s="69"/>
-      <c r="V49" s="69"/>
-      <c r="W49" s="69"/>
+      <c r="Q49" s="67"/>
+      <c r="R49" s="68"/>
+      <c r="S49" s="68"/>
+      <c r="T49" s="68"/>
+      <c r="U49" s="68"/>
+      <c r="V49" s="68"/>
+      <c r="W49" s="68"/>
     </row>
     <row r="50" spans="1:23" s="15" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A50" s="15">
@@ -6987,31 +6991,31 @@
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
-      <c r="C50" s="68" t="e">
+      <c r="C50" s="67" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
-      <c r="D50" s="69" t="e">
+      <c r="D50" s="68" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
-      <c r="E50" s="69" t="e">
+      <c r="E50" s="68" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
-      <c r="F50" s="69" t="e">
+      <c r="F50" s="68" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
-      <c r="G50" s="69" t="e">
+      <c r="G50" s="68" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
-      <c r="H50" s="69" t="e">
+      <c r="H50" s="68" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
-      <c r="I50" s="69" t="e">
+      <c r="I50" s="68" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
@@ -7028,13 +7032,13 @@
         <v>#N/A</v>
       </c>
       <c r="P50" s="45"/>
-      <c r="Q50" s="68"/>
-      <c r="R50" s="69"/>
-      <c r="S50" s="69"/>
-      <c r="T50" s="69"/>
-      <c r="U50" s="69"/>
-      <c r="V50" s="69"/>
-      <c r="W50" s="69"/>
+      <c r="Q50" s="67"/>
+      <c r="R50" s="68"/>
+      <c r="S50" s="68"/>
+      <c r="T50" s="68"/>
+      <c r="U50" s="68"/>
+      <c r="V50" s="68"/>
+      <c r="W50" s="68"/>
     </row>
     <row r="51" spans="1:23" s="15" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A51" s="15">
@@ -7044,31 +7048,31 @@
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
-      <c r="C51" s="68" t="e">
+      <c r="C51" s="67" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
-      <c r="D51" s="69" t="e">
+      <c r="D51" s="68" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
-      <c r="E51" s="69" t="e">
+      <c r="E51" s="68" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
-      <c r="F51" s="69" t="e">
+      <c r="F51" s="68" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
-      <c r="G51" s="69" t="e">
+      <c r="G51" s="68" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
-      <c r="H51" s="69" t="e">
+      <c r="H51" s="68" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
-      <c r="I51" s="69" t="e">
+      <c r="I51" s="68" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
@@ -7085,13 +7089,13 @@
         <v>#N/A</v>
       </c>
       <c r="P51" s="45"/>
-      <c r="Q51" s="68"/>
-      <c r="R51" s="69"/>
-      <c r="S51" s="69"/>
-      <c r="T51" s="69"/>
-      <c r="U51" s="69"/>
-      <c r="V51" s="69"/>
-      <c r="W51" s="69"/>
+      <c r="Q51" s="67"/>
+      <c r="R51" s="68"/>
+      <c r="S51" s="68"/>
+      <c r="T51" s="68"/>
+      <c r="U51" s="68"/>
+      <c r="V51" s="68"/>
+      <c r="W51" s="68"/>
     </row>
     <row r="52" spans="1:23" s="15" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A52" s="15">
@@ -7101,31 +7105,31 @@
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
-      <c r="C52" s="68" t="e">
+      <c r="C52" s="67" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
-      <c r="D52" s="69" t="e">
+      <c r="D52" s="68" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
-      <c r="E52" s="69" t="e">
+      <c r="E52" s="68" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
-      <c r="F52" s="69" t="e">
+      <c r="F52" s="68" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
-      <c r="G52" s="69" t="e">
+      <c r="G52" s="68" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
-      <c r="H52" s="69" t="e">
+      <c r="H52" s="68" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
-      <c r="I52" s="69" t="e">
+      <c r="I52" s="68" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
@@ -7142,13 +7146,13 @@
         <v>#N/A</v>
       </c>
       <c r="P52" s="45"/>
-      <c r="Q52" s="68"/>
-      <c r="R52" s="69"/>
-      <c r="S52" s="69"/>
-      <c r="T52" s="69"/>
-      <c r="U52" s="69"/>
-      <c r="V52" s="69"/>
-      <c r="W52" s="69"/>
+      <c r="Q52" s="67"/>
+      <c r="R52" s="68"/>
+      <c r="S52" s="68"/>
+      <c r="T52" s="68"/>
+      <c r="U52" s="68"/>
+      <c r="V52" s="68"/>
+      <c r="W52" s="68"/>
     </row>
     <row r="53" spans="1:23" s="15" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A53" s="15">
@@ -7158,31 +7162,31 @@
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
-      <c r="C53" s="68" t="e">
+      <c r="C53" s="67" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
-      <c r="D53" s="69" t="e">
+      <c r="D53" s="68" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
-      <c r="E53" s="69" t="e">
+      <c r="E53" s="68" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
-      <c r="F53" s="69" t="e">
+      <c r="F53" s="68" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
-      <c r="G53" s="69" t="e">
+      <c r="G53" s="68" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
-      <c r="H53" s="69" t="e">
+      <c r="H53" s="68" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
-      <c r="I53" s="69" t="e">
+      <c r="I53" s="68" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
@@ -7199,13 +7203,13 @@
         <v>#N/A</v>
       </c>
       <c r="P53" s="45"/>
-      <c r="Q53" s="68"/>
-      <c r="R53" s="69"/>
-      <c r="S53" s="69"/>
-      <c r="T53" s="69"/>
-      <c r="U53" s="69"/>
-      <c r="V53" s="69"/>
-      <c r="W53" s="69"/>
+      <c r="Q53" s="67"/>
+      <c r="R53" s="68"/>
+      <c r="S53" s="68"/>
+      <c r="T53" s="68"/>
+      <c r="U53" s="68"/>
+      <c r="V53" s="68"/>
+      <c r="W53" s="68"/>
     </row>
     <row r="54" spans="1:23" s="15" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A54" s="15">
@@ -7215,31 +7219,31 @@
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
-      <c r="C54" s="68" t="e">
+      <c r="C54" s="67" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
-      <c r="D54" s="69" t="e">
+      <c r="D54" s="68" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
-      <c r="E54" s="69" t="e">
+      <c r="E54" s="68" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
-      <c r="F54" s="69" t="e">
+      <c r="F54" s="68" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
-      <c r="G54" s="69" t="e">
+      <c r="G54" s="68" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
-      <c r="H54" s="69" t="e">
+      <c r="H54" s="68" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
-      <c r="I54" s="69" t="e">
+      <c r="I54" s="68" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
@@ -7256,13 +7260,13 @@
         <v>#N/A</v>
       </c>
       <c r="P54" s="45"/>
-      <c r="Q54" s="68"/>
-      <c r="R54" s="69"/>
-      <c r="S54" s="69"/>
-      <c r="T54" s="69"/>
-      <c r="U54" s="69"/>
-      <c r="V54" s="69"/>
-      <c r="W54" s="69"/>
+      <c r="Q54" s="67"/>
+      <c r="R54" s="68"/>
+      <c r="S54" s="68"/>
+      <c r="T54" s="68"/>
+      <c r="U54" s="68"/>
+      <c r="V54" s="68"/>
+      <c r="W54" s="68"/>
     </row>
     <row r="55" spans="1:23" s="15" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A55" s="15">
@@ -7272,31 +7276,31 @@
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
-      <c r="C55" s="68" t="e">
+      <c r="C55" s="67" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
-      <c r="D55" s="69" t="e">
+      <c r="D55" s="68" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
-      <c r="E55" s="69" t="e">
+      <c r="E55" s="68" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
-      <c r="F55" s="69" t="e">
+      <c r="F55" s="68" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
-      <c r="G55" s="69" t="e">
+      <c r="G55" s="68" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
-      <c r="H55" s="69" t="e">
+      <c r="H55" s="68" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
-      <c r="I55" s="69" t="e">
+      <c r="I55" s="68" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
@@ -7313,13 +7317,13 @@
         <v>#N/A</v>
       </c>
       <c r="P55" s="45"/>
-      <c r="Q55" s="68"/>
-      <c r="R55" s="69"/>
-      <c r="S55" s="69"/>
-      <c r="T55" s="69"/>
-      <c r="U55" s="69"/>
-      <c r="V55" s="69"/>
-      <c r="W55" s="69"/>
+      <c r="Q55" s="67"/>
+      <c r="R55" s="68"/>
+      <c r="S55" s="68"/>
+      <c r="T55" s="68"/>
+      <c r="U55" s="68"/>
+      <c r="V55" s="68"/>
+      <c r="W55" s="68"/>
     </row>
     <row r="56" spans="1:23" s="15" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A56" s="15">
@@ -7329,31 +7333,31 @@
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
-      <c r="C56" s="68" t="e">
+      <c r="C56" s="67" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
-      <c r="D56" s="69" t="e">
+      <c r="D56" s="68" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
-      <c r="E56" s="69" t="e">
+      <c r="E56" s="68" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
-      <c r="F56" s="69" t="e">
+      <c r="F56" s="68" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
-      <c r="G56" s="69" t="e">
+      <c r="G56" s="68" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
-      <c r="H56" s="69" t="e">
+      <c r="H56" s="68" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
-      <c r="I56" s="69" t="e">
+      <c r="I56" s="68" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
@@ -7370,13 +7374,13 @@
         <v>#N/A</v>
       </c>
       <c r="P56" s="45"/>
-      <c r="Q56" s="68"/>
-      <c r="R56" s="69"/>
-      <c r="S56" s="69"/>
-      <c r="T56" s="69"/>
-      <c r="U56" s="69"/>
-      <c r="V56" s="69"/>
-      <c r="W56" s="69"/>
+      <c r="Q56" s="67"/>
+      <c r="R56" s="68"/>
+      <c r="S56" s="68"/>
+      <c r="T56" s="68"/>
+      <c r="U56" s="68"/>
+      <c r="V56" s="68"/>
+      <c r="W56" s="68"/>
     </row>
     <row r="57" spans="1:23" s="15" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A57" s="15">
@@ -7386,31 +7390,31 @@
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
-      <c r="C57" s="68" t="e">
+      <c r="C57" s="67" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
-      <c r="D57" s="69" t="e">
+      <c r="D57" s="68" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
-      <c r="E57" s="69" t="e">
+      <c r="E57" s="68" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
-      <c r="F57" s="69" t="e">
+      <c r="F57" s="68" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
-      <c r="G57" s="69" t="e">
+      <c r="G57" s="68" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
-      <c r="H57" s="69" t="e">
+      <c r="H57" s="68" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
-      <c r="I57" s="69" t="e">
+      <c r="I57" s="68" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
@@ -7427,13 +7431,13 @@
         <v>#N/A</v>
       </c>
       <c r="P57" s="45"/>
-      <c r="Q57" s="68"/>
-      <c r="R57" s="69"/>
-      <c r="S57" s="69"/>
-      <c r="T57" s="69"/>
-      <c r="U57" s="69"/>
-      <c r="V57" s="69"/>
-      <c r="W57" s="69"/>
+      <c r="Q57" s="67"/>
+      <c r="R57" s="68"/>
+      <c r="S57" s="68"/>
+      <c r="T57" s="68"/>
+      <c r="U57" s="68"/>
+      <c r="V57" s="68"/>
+      <c r="W57" s="68"/>
     </row>
     <row r="58" spans="1:23" s="15" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A58" s="15">
@@ -7443,31 +7447,31 @@
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
-      <c r="C58" s="68" t="e">
+      <c r="C58" s="67" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
-      <c r="D58" s="69" t="e">
+      <c r="D58" s="68" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
-      <c r="E58" s="69" t="e">
+      <c r="E58" s="68" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
-      <c r="F58" s="69" t="e">
+      <c r="F58" s="68" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
-      <c r="G58" s="69" t="e">
+      <c r="G58" s="68" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
-      <c r="H58" s="69" t="e">
+      <c r="H58" s="68" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
-      <c r="I58" s="69" t="e">
+      <c r="I58" s="68" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
@@ -7484,13 +7488,13 @@
         <v>#N/A</v>
       </c>
       <c r="P58" s="45"/>
-      <c r="Q58" s="68"/>
-      <c r="R58" s="69"/>
-      <c r="S58" s="69"/>
-      <c r="T58" s="69"/>
-      <c r="U58" s="69"/>
-      <c r="V58" s="69"/>
-      <c r="W58" s="69"/>
+      <c r="Q58" s="67"/>
+      <c r="R58" s="68"/>
+      <c r="S58" s="68"/>
+      <c r="T58" s="68"/>
+      <c r="U58" s="68"/>
+      <c r="V58" s="68"/>
+      <c r="W58" s="68"/>
     </row>
     <row r="59" spans="1:23" s="15" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A59" s="15">
@@ -7500,31 +7504,31 @@
         <f t="shared" ref="B59:I68" si="5">VLOOKUP($A59,$A$83:$I$113,B$47,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="C59" s="68" t="e">
+      <c r="C59" s="67" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
-      <c r="D59" s="69" t="e">
+      <c r="D59" s="68" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
-      <c r="E59" s="69" t="e">
+      <c r="E59" s="68" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
-      <c r="F59" s="69" t="e">
+      <c r="F59" s="68" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
-      <c r="G59" s="69" t="e">
+      <c r="G59" s="68" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
-      <c r="H59" s="69" t="e">
+      <c r="H59" s="68" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
-      <c r="I59" s="69" t="e">
+      <c r="I59" s="68" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
@@ -7541,13 +7545,13 @@
         <v>#N/A</v>
       </c>
       <c r="P59" s="45"/>
-      <c r="Q59" s="68"/>
-      <c r="R59" s="69"/>
-      <c r="S59" s="69"/>
-      <c r="T59" s="69"/>
-      <c r="U59" s="69"/>
-      <c r="V59" s="69"/>
-      <c r="W59" s="69"/>
+      <c r="Q59" s="67"/>
+      <c r="R59" s="68"/>
+      <c r="S59" s="68"/>
+      <c r="T59" s="68"/>
+      <c r="U59" s="68"/>
+      <c r="V59" s="68"/>
+      <c r="W59" s="68"/>
     </row>
     <row r="60" spans="1:23" s="15" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A60" s="15">
@@ -7557,31 +7561,31 @@
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
-      <c r="C60" s="68" t="e">
+      <c r="C60" s="67" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
-      <c r="D60" s="69" t="e">
+      <c r="D60" s="68" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
-      <c r="E60" s="69" t="e">
+      <c r="E60" s="68" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
-      <c r="F60" s="69" t="e">
+      <c r="F60" s="68" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
-      <c r="G60" s="69" t="e">
+      <c r="G60" s="68" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
-      <c r="H60" s="69" t="e">
+      <c r="H60" s="68" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
-      <c r="I60" s="69" t="e">
+      <c r="I60" s="68" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
@@ -7598,13 +7602,13 @@
         <v>#N/A</v>
       </c>
       <c r="P60" s="45"/>
-      <c r="Q60" s="68"/>
-      <c r="R60" s="69"/>
-      <c r="S60" s="69"/>
-      <c r="T60" s="69"/>
-      <c r="U60" s="69"/>
-      <c r="V60" s="69"/>
-      <c r="W60" s="69"/>
+      <c r="Q60" s="67"/>
+      <c r="R60" s="68"/>
+      <c r="S60" s="68"/>
+      <c r="T60" s="68"/>
+      <c r="U60" s="68"/>
+      <c r="V60" s="68"/>
+      <c r="W60" s="68"/>
     </row>
     <row r="61" spans="1:23" s="15" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A61" s="15">
@@ -7614,31 +7618,31 @@
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
-      <c r="C61" s="68" t="e">
+      <c r="C61" s="67" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
-      <c r="D61" s="69" t="e">
+      <c r="D61" s="68" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
-      <c r="E61" s="69" t="e">
+      <c r="E61" s="68" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
-      <c r="F61" s="69" t="e">
+      <c r="F61" s="68" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
-      <c r="G61" s="69" t="e">
+      <c r="G61" s="68" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
-      <c r="H61" s="69" t="e">
+      <c r="H61" s="68" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
-      <c r="I61" s="69" t="e">
+      <c r="I61" s="68" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
@@ -7655,13 +7659,13 @@
         <v>#N/A</v>
       </c>
       <c r="P61" s="45"/>
-      <c r="Q61" s="68"/>
-      <c r="R61" s="69"/>
-      <c r="S61" s="69"/>
-      <c r="T61" s="69"/>
-      <c r="U61" s="69"/>
-      <c r="V61" s="69"/>
-      <c r="W61" s="69"/>
+      <c r="Q61" s="67"/>
+      <c r="R61" s="68"/>
+      <c r="S61" s="68"/>
+      <c r="T61" s="68"/>
+      <c r="U61" s="68"/>
+      <c r="V61" s="68"/>
+      <c r="W61" s="68"/>
     </row>
     <row r="62" spans="1:23" s="15" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A62" s="15">
@@ -7671,31 +7675,31 @@
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
-      <c r="C62" s="68" t="e">
+      <c r="C62" s="67" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
-      <c r="D62" s="69" t="e">
+      <c r="D62" s="68" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
-      <c r="E62" s="69" t="e">
+      <c r="E62" s="68" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
-      <c r="F62" s="69" t="e">
+      <c r="F62" s="68" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
-      <c r="G62" s="69" t="e">
+      <c r="G62" s="68" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
-      <c r="H62" s="69" t="e">
+      <c r="H62" s="68" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
-      <c r="I62" s="69" t="e">
+      <c r="I62" s="68" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
@@ -7712,13 +7716,13 @@
         <v>#N/A</v>
       </c>
       <c r="P62" s="45"/>
-      <c r="Q62" s="68"/>
-      <c r="R62" s="69"/>
-      <c r="S62" s="69"/>
-      <c r="T62" s="69"/>
-      <c r="U62" s="69"/>
-      <c r="V62" s="69"/>
-      <c r="W62" s="69"/>
+      <c r="Q62" s="67"/>
+      <c r="R62" s="68"/>
+      <c r="S62" s="68"/>
+      <c r="T62" s="68"/>
+      <c r="U62" s="68"/>
+      <c r="V62" s="68"/>
+      <c r="W62" s="68"/>
     </row>
     <row r="63" spans="1:23" s="15" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A63" s="15">
@@ -7728,31 +7732,31 @@
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
-      <c r="C63" s="68" t="e">
+      <c r="C63" s="67" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
-      <c r="D63" s="69" t="e">
+      <c r="D63" s="68" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
-      <c r="E63" s="69" t="e">
+      <c r="E63" s="68" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
-      <c r="F63" s="69" t="e">
+      <c r="F63" s="68" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
-      <c r="G63" s="69" t="e">
+      <c r="G63" s="68" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
-      <c r="H63" s="69" t="e">
+      <c r="H63" s="68" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
-      <c r="I63" s="69" t="e">
+      <c r="I63" s="68" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
@@ -7769,13 +7773,13 @@
         <v>#N/A</v>
       </c>
       <c r="P63" s="45"/>
-      <c r="Q63" s="68"/>
-      <c r="R63" s="69"/>
-      <c r="S63" s="69"/>
-      <c r="T63" s="69"/>
-      <c r="U63" s="69"/>
-      <c r="V63" s="69"/>
-      <c r="W63" s="69"/>
+      <c r="Q63" s="67"/>
+      <c r="R63" s="68"/>
+      <c r="S63" s="68"/>
+      <c r="T63" s="68"/>
+      <c r="U63" s="68"/>
+      <c r="V63" s="68"/>
+      <c r="W63" s="68"/>
     </row>
     <row r="64" spans="1:23" s="15" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A64" s="15">
@@ -7785,31 +7789,31 @@
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
-      <c r="C64" s="68" t="e">
+      <c r="C64" s="67" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
-      <c r="D64" s="69" t="e">
+      <c r="D64" s="68" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
-      <c r="E64" s="69" t="e">
+      <c r="E64" s="68" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
-      <c r="F64" s="69" t="e">
+      <c r="F64" s="68" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
-      <c r="G64" s="69" t="e">
+      <c r="G64" s="68" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
-      <c r="H64" s="69" t="e">
+      <c r="H64" s="68" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
-      <c r="I64" s="69" t="e">
+      <c r="I64" s="68" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
@@ -7834,31 +7838,31 @@
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
-      <c r="C65" s="68" t="e">
+      <c r="C65" s="67" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
-      <c r="D65" s="69" t="e">
+      <c r="D65" s="68" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
-      <c r="E65" s="69" t="e">
+      <c r="E65" s="68" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
-      <c r="F65" s="69" t="e">
+      <c r="F65" s="68" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
-      <c r="G65" s="69" t="e">
+      <c r="G65" s="68" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
-      <c r="H65" s="69" t="e">
+      <c r="H65" s="68" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
-      <c r="I65" s="69" t="e">
+      <c r="I65" s="68" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
@@ -7883,31 +7887,31 @@
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
-      <c r="C66" s="68" t="e">
+      <c r="C66" s="67" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
-      <c r="D66" s="69" t="e">
+      <c r="D66" s="68" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
-      <c r="E66" s="69" t="e">
+      <c r="E66" s="68" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
-      <c r="F66" s="69" t="e">
+      <c r="F66" s="68" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
-      <c r="G66" s="69" t="e">
+      <c r="G66" s="68" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
-      <c r="H66" s="69" t="e">
+      <c r="H66" s="68" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
-      <c r="I66" s="69" t="e">
+      <c r="I66" s="68" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
@@ -7932,31 +7936,31 @@
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
-      <c r="C67" s="68" t="e">
+      <c r="C67" s="67" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
-      <c r="D67" s="69" t="e">
+      <c r="D67" s="68" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
-      <c r="E67" s="69" t="e">
+      <c r="E67" s="68" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
-      <c r="F67" s="69" t="e">
+      <c r="F67" s="68" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
-      <c r="G67" s="69" t="e">
+      <c r="G67" s="68" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
-      <c r="H67" s="69" t="e">
+      <c r="H67" s="68" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
-      <c r="I67" s="69" t="e">
+      <c r="I67" s="68" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
@@ -7981,31 +7985,31 @@
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
-      <c r="C68" s="68" t="e">
+      <c r="C68" s="67" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
-      <c r="D68" s="69" t="e">
+      <c r="D68" s="68" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
-      <c r="E68" s="69" t="e">
+      <c r="E68" s="68" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
-      <c r="F68" s="69" t="e">
+      <c r="F68" s="68" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
-      <c r="G68" s="69" t="e">
+      <c r="G68" s="68" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
-      <c r="H68" s="69" t="e">
+      <c r="H68" s="68" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
-      <c r="I68" s="69" t="e">
+      <c r="I68" s="68" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
@@ -8030,31 +8034,31 @@
         <f t="shared" ref="B69:I79" si="6">VLOOKUP($A69,$A$83:$I$113,B$47,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="C69" s="68" t="e">
+      <c r="C69" s="67" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
-      <c r="D69" s="69" t="e">
+      <c r="D69" s="68" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
-      <c r="E69" s="69" t="e">
+      <c r="E69" s="68" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
-      <c r="F69" s="69" t="e">
+      <c r="F69" s="68" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
-      <c r="G69" s="69" t="e">
+      <c r="G69" s="68" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
-      <c r="H69" s="69" t="e">
+      <c r="H69" s="68" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
-      <c r="I69" s="69" t="e">
+      <c r="I69" s="68" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
@@ -8079,31 +8083,31 @@
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
-      <c r="C70" s="68" t="e">
+      <c r="C70" s="67" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
-      <c r="D70" s="69" t="e">
+      <c r="D70" s="68" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
-      <c r="E70" s="69" t="e">
+      <c r="E70" s="68" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
-      <c r="F70" s="69" t="e">
+      <c r="F70" s="68" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
-      <c r="G70" s="69" t="e">
+      <c r="G70" s="68" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
-      <c r="H70" s="69" t="e">
+      <c r="H70" s="68" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
-      <c r="I70" s="69" t="e">
+      <c r="I70" s="68" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
@@ -8128,31 +8132,31 @@
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
-      <c r="C71" s="68" t="e">
+      <c r="C71" s="67" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
-      <c r="D71" s="69" t="e">
+      <c r="D71" s="68" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
-      <c r="E71" s="69" t="e">
+      <c r="E71" s="68" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
-      <c r="F71" s="69" t="e">
+      <c r="F71" s="68" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
-      <c r="G71" s="69" t="e">
+      <c r="G71" s="68" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
-      <c r="H71" s="69" t="e">
+      <c r="H71" s="68" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
-      <c r="I71" s="69" t="e">
+      <c r="I71" s="68" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
@@ -8177,31 +8181,31 @@
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
-      <c r="C72" s="68" t="e">
+      <c r="C72" s="67" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
-      <c r="D72" s="69" t="e">
+      <c r="D72" s="68" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
-      <c r="E72" s="69" t="e">
+      <c r="E72" s="68" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
-      <c r="F72" s="69" t="e">
+      <c r="F72" s="68" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
-      <c r="G72" s="69" t="e">
+      <c r="G72" s="68" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
-      <c r="H72" s="69" t="e">
+      <c r="H72" s="68" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
-      <c r="I72" s="69" t="e">
+      <c r="I72" s="68" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
@@ -8226,31 +8230,31 @@
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
-      <c r="C73" s="68" t="e">
+      <c r="C73" s="67" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
-      <c r="D73" s="69" t="e">
+      <c r="D73" s="68" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
-      <c r="E73" s="69" t="e">
+      <c r="E73" s="68" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
-      <c r="F73" s="69" t="e">
+      <c r="F73" s="68" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
-      <c r="G73" s="69" t="e">
+      <c r="G73" s="68" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
-      <c r="H73" s="69" t="e">
+      <c r="H73" s="68" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
-      <c r="I73" s="69" t="e">
+      <c r="I73" s="68" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
@@ -8275,31 +8279,31 @@
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
-      <c r="C74" s="68" t="e">
+      <c r="C74" s="67" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
-      <c r="D74" s="69" t="e">
+      <c r="D74" s="68" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
-      <c r="E74" s="69" t="e">
+      <c r="E74" s="68" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
-      <c r="F74" s="69" t="e">
+      <c r="F74" s="68" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
-      <c r="G74" s="69" t="e">
+      <c r="G74" s="68" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
-      <c r="H74" s="69" t="e">
+      <c r="H74" s="68" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
-      <c r="I74" s="69" t="e">
+      <c r="I74" s="68" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
@@ -8324,31 +8328,31 @@
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
-      <c r="C75" s="68" t="e">
+      <c r="C75" s="67" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
-      <c r="D75" s="69" t="e">
+      <c r="D75" s="68" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
-      <c r="E75" s="69" t="e">
+      <c r="E75" s="68" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
-      <c r="F75" s="69" t="e">
+      <c r="F75" s="68" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
-      <c r="G75" s="69" t="e">
+      <c r="G75" s="68" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
-      <c r="H75" s="69" t="e">
+      <c r="H75" s="68" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
-      <c r="I75" s="69" t="e">
+      <c r="I75" s="68" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
@@ -8373,31 +8377,31 @@
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
-      <c r="C76" s="68" t="e">
+      <c r="C76" s="67" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
-      <c r="D76" s="69" t="e">
+      <c r="D76" s="68" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
-      <c r="E76" s="69" t="e">
+      <c r="E76" s="68" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
-      <c r="F76" s="69" t="e">
+      <c r="F76" s="68" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
-      <c r="G76" s="69" t="e">
+      <c r="G76" s="68" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
-      <c r="H76" s="69" t="e">
+      <c r="H76" s="68" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
-      <c r="I76" s="69" t="e">
+      <c r="I76" s="68" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
@@ -8422,31 +8426,31 @@
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
-      <c r="C77" s="68" t="e">
+      <c r="C77" s="67" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
-      <c r="D77" s="69" t="e">
+      <c r="D77" s="68" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
-      <c r="E77" s="69" t="e">
+      <c r="E77" s="68" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
-      <c r="F77" s="69" t="e">
+      <c r="F77" s="68" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
-      <c r="G77" s="69" t="e">
+      <c r="G77" s="68" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
-      <c r="H77" s="69" t="e">
+      <c r="H77" s="68" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
-      <c r="I77" s="69" t="e">
+      <c r="I77" s="68" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
@@ -8471,31 +8475,31 @@
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
-      <c r="C78" s="68" t="e">
+      <c r="C78" s="67" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
-      <c r="D78" s="69" t="e">
+      <c r="D78" s="68" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
-      <c r="E78" s="69" t="e">
+      <c r="E78" s="68" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
-      <c r="F78" s="69" t="e">
+      <c r="F78" s="68" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
-      <c r="G78" s="69" t="e">
+      <c r="G78" s="68" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
-      <c r="H78" s="69" t="e">
+      <c r="H78" s="68" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
-      <c r="I78" s="69" t="e">
+      <c r="I78" s="68" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
@@ -8520,31 +8524,31 @@
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
-      <c r="C79" s="68" t="e">
+      <c r="C79" s="67" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
-      <c r="D79" s="69" t="e">
+      <c r="D79" s="68" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
-      <c r="E79" s="69" t="e">
+      <c r="E79" s="68" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
-      <c r="F79" s="69" t="e">
+      <c r="F79" s="68" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
-      <c r="G79" s="69" t="e">
+      <c r="G79" s="68" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
-      <c r="H79" s="69" t="e">
+      <c r="H79" s="68" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
-      <c r="I79" s="69" t="e">
+      <c r="I79" s="68" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
@@ -8563,80 +8567,80 @@
     </row>
     <row r="80" spans="1:12" s="15" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B80" s="45"/>
-      <c r="C80" s="70"/>
-      <c r="D80" s="70"/>
-      <c r="E80" s="70"/>
-      <c r="F80" s="70"/>
-      <c r="G80" s="70"/>
-      <c r="H80" s="70"/>
-      <c r="I80" s="70"/>
+      <c r="C80" s="69"/>
+      <c r="D80" s="69"/>
+      <c r="E80" s="69"/>
+      <c r="F80" s="69"/>
+      <c r="G80" s="69"/>
+      <c r="H80" s="69"/>
+      <c r="I80" s="69"/>
     </row>
     <row r="81" spans="1:23" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B81" s="15">
         <v>1</v>
       </c>
-      <c r="C81" s="71">
+      <c r="C81" s="70">
         <v>4</v>
       </c>
-      <c r="D81" s="71">
+      <c r="D81" s="70">
         <v>10</v>
       </c>
-      <c r="E81" s="71">
+      <c r="E81" s="70">
         <v>6</v>
       </c>
-      <c r="F81" s="71">
+      <c r="F81" s="70">
         <v>19</v>
       </c>
-      <c r="G81" s="71">
+      <c r="G81" s="70">
         <v>21</v>
       </c>
-      <c r="H81" s="71">
+      <c r="H81" s="70">
         <v>18</v>
       </c>
-      <c r="I81" s="72">
+      <c r="I81" s="71">
         <v>20</v>
       </c>
-      <c r="Q81" s="66"/>
-      <c r="R81" s="66"/>
-      <c r="S81" s="66"/>
-      <c r="T81" s="66"/>
-      <c r="U81" s="66"/>
-      <c r="V81" s="66"/>
-      <c r="W81" s="73"/>
+      <c r="Q81" s="65"/>
+      <c r="R81" s="65"/>
+      <c r="S81" s="65"/>
+      <c r="T81" s="65"/>
+      <c r="U81" s="65"/>
+      <c r="V81" s="65"/>
+      <c r="W81" s="72"/>
     </row>
     <row r="82" spans="1:23" s="15" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B82" s="45" t="s">
         <v>58</v>
       </c>
-      <c r="C82" s="67" t="s">
+      <c r="C82" s="66" t="s">
         <v>52</v>
       </c>
-      <c r="D82" s="67" t="s">
+      <c r="D82" s="66" t="s">
         <v>57</v>
       </c>
-      <c r="E82" s="67" t="s">
+      <c r="E82" s="66" t="s">
         <v>51</v>
       </c>
-      <c r="F82" s="67" t="s">
+      <c r="F82" s="66" t="s">
         <v>53</v>
       </c>
-      <c r="G82" s="67" t="s">
+      <c r="G82" s="66" t="s">
         <v>54</v>
       </c>
-      <c r="H82" s="67" t="s">
+      <c r="H82" s="66" t="s">
         <v>55</v>
       </c>
-      <c r="I82" s="67" t="s">
+      <c r="I82" s="66" t="s">
         <v>56</v>
       </c>
       <c r="P82" s="45"/>
-      <c r="Q82" s="67"/>
-      <c r="R82" s="67"/>
-      <c r="S82" s="67"/>
-      <c r="T82" s="67"/>
-      <c r="U82" s="67"/>
-      <c r="V82" s="67"/>
-      <c r="W82" s="67"/>
+      <c r="Q82" s="66"/>
+      <c r="R82" s="66"/>
+      <c r="S82" s="66"/>
+      <c r="T82" s="66"/>
+      <c r="U82" s="66"/>
+      <c r="V82" s="66"/>
+      <c r="W82" s="66"/>
     </row>
     <row r="83" spans="1:23" s="15" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A83" s="15" t="e">
@@ -8646,35 +8650,35 @@
       <c r="B83" s="45" t="s">
         <v>18</v>
       </c>
-      <c r="C83" s="74" t="e">
+      <c r="C83" s="73" t="e">
         <f>VLOOKUP($B83&amp;"3",funnel_data!$A:$X,C$81,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="D83" s="74">
+      <c r="D83" s="73">
         <v>1</v>
       </c>
-      <c r="E83" s="74" t="e">
+      <c r="E83" s="73" t="e">
         <f>VLOOKUP($B83&amp;"3",funnel_data!$A:$X,E$81,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="F83" s="74" t="e">
+      <c r="F83" s="73" t="e">
         <f>VLOOKUP($B83&amp;"3",funnel_data!$A:$X,F$81,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="G83" s="74" t="e">
+      <c r="G83" s="73" t="e">
         <f>VLOOKUP($B83&amp;"3",funnel_data!$A:$X,G$81,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="H83" s="74" t="e">
+      <c r="H83" s="73" t="e">
         <f>VLOOKUP($B83&amp;"3",funnel_data!$A:$X,H$81,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="I83" s="74" t="e">
+      <c r="I83" s="73" t="e">
         <f>VLOOKUP($B83&amp;"3",funnel_data!$A:$X,I$81,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="M83" s="75"/>
-      <c r="N83" s="75"/>
+      <c r="M83" s="74"/>
+      <c r="N83" s="74"/>
     </row>
     <row r="84" spans="1:23" s="15" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A84" s="15" t="e">
@@ -8684,35 +8688,35 @@
       <c r="B84" s="45" t="s">
         <v>107</v>
       </c>
-      <c r="C84" s="74" t="e">
+      <c r="C84" s="73" t="e">
         <f>VLOOKUP($B84&amp;"3",funnel_data!$A:$X,C$81,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="D84" s="74">
+      <c r="D84" s="73">
         <v>1</v>
       </c>
-      <c r="E84" s="74" t="e">
+      <c r="E84" s="73" t="e">
         <f>VLOOKUP($B84&amp;"3",funnel_data!$A:$X,E$81,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="F84" s="74" t="e">
+      <c r="F84" s="73" t="e">
         <f>VLOOKUP($B84&amp;"3",funnel_data!$A:$X,F$81,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="G84" s="74" t="e">
+      <c r="G84" s="73" t="e">
         <f>VLOOKUP($B84&amp;"3",funnel_data!$A:$X,G$81,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="H84" s="74" t="e">
+      <c r="H84" s="73" t="e">
         <f>VLOOKUP($B84&amp;"3",funnel_data!$A:$X,H$81,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="I84" s="74" t="e">
+      <c r="I84" s="73" t="e">
         <f>VLOOKUP($B84&amp;"3",funnel_data!$A:$X,I$81,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="M84" s="75"/>
-      <c r="N84" s="75"/>
+      <c r="M84" s="74"/>
+      <c r="N84" s="74"/>
     </row>
     <row r="85" spans="1:23" s="15" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A85" s="15" t="e">
@@ -8722,35 +8726,35 @@
       <c r="B85" s="45" t="s">
         <v>119</v>
       </c>
-      <c r="C85" s="74" t="e">
+      <c r="C85" s="73" t="e">
         <f>VLOOKUP($B85&amp;"3",funnel_data!$A:$X,C$81,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="D85" s="74">
+      <c r="D85" s="73">
         <v>1</v>
       </c>
-      <c r="E85" s="74" t="e">
+      <c r="E85" s="73" t="e">
         <f>VLOOKUP($B85&amp;"3",funnel_data!$A:$X,E$81,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="F85" s="74" t="e">
+      <c r="F85" s="73" t="e">
         <f>VLOOKUP($B85&amp;"3",funnel_data!$A:$X,F$81,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="G85" s="74" t="e">
+      <c r="G85" s="73" t="e">
         <f>VLOOKUP($B85&amp;"3",funnel_data!$A:$X,G$81,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="H85" s="74" t="e">
+      <c r="H85" s="73" t="e">
         <f>VLOOKUP($B85&amp;"3",funnel_data!$A:$X,H$81,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="I85" s="74" t="e">
+      <c r="I85" s="73" t="e">
         <f>VLOOKUP($B85&amp;"3",funnel_data!$A:$X,I$81,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="M85" s="75"/>
-      <c r="N85" s="75"/>
+      <c r="M85" s="74"/>
+      <c r="N85" s="74"/>
     </row>
     <row r="86" spans="1:23" s="15" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A86" s="15" t="e">
@@ -8760,35 +8764,35 @@
       <c r="B86" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="C86" s="74" t="e">
+      <c r="C86" s="73" t="e">
         <f>VLOOKUP($B86&amp;"3",funnel_data!$A:$X,C$81,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="D86" s="74">
+      <c r="D86" s="73">
         <v>1</v>
       </c>
-      <c r="E86" s="74" t="e">
+      <c r="E86" s="73" t="e">
         <f>VLOOKUP($B86&amp;"3",funnel_data!$A:$X,E$81,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="F86" s="74" t="e">
+      <c r="F86" s="73" t="e">
         <f>VLOOKUP($B86&amp;"3",funnel_data!$A:$X,F$81,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="G86" s="74" t="e">
+      <c r="G86" s="73" t="e">
         <f>VLOOKUP($B86&amp;"3",funnel_data!$A:$X,G$81,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="H86" s="74" t="e">
+      <c r="H86" s="73" t="e">
         <f>VLOOKUP($B86&amp;"3",funnel_data!$A:$X,H$81,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="I86" s="74" t="e">
+      <c r="I86" s="73" t="e">
         <f>VLOOKUP($B86&amp;"3",funnel_data!$A:$X,I$81,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="M86" s="75"/>
-      <c r="N86" s="75"/>
+      <c r="M86" s="74"/>
+      <c r="N86" s="74"/>
     </row>
     <row r="87" spans="1:23" s="15" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A87" s="15" t="e">
@@ -8798,35 +8802,35 @@
       <c r="B87" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="C87" s="74" t="e">
+      <c r="C87" s="73" t="e">
         <f>VLOOKUP($B87&amp;"3",funnel_data!$A:$X,C$81,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="D87" s="74">
+      <c r="D87" s="73">
         <v>1</v>
       </c>
-      <c r="E87" s="74" t="e">
+      <c r="E87" s="73" t="e">
         <f>VLOOKUP($B87&amp;"3",funnel_data!$A:$X,E$81,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="F87" s="74" t="e">
+      <c r="F87" s="73" t="e">
         <f>VLOOKUP($B87&amp;"3",funnel_data!$A:$X,F$81,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="G87" s="74" t="e">
+      <c r="G87" s="73" t="e">
         <f>VLOOKUP($B87&amp;"3",funnel_data!$A:$X,G$81,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="H87" s="74" t="e">
+      <c r="H87" s="73" t="e">
         <f>VLOOKUP($B87&amp;"3",funnel_data!$A:$X,H$81,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="I87" s="74" t="e">
+      <c r="I87" s="73" t="e">
         <f>VLOOKUP($B87&amp;"3",funnel_data!$A:$X,I$81,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="M87" s="75"/>
-      <c r="N87" s="75"/>
+      <c r="M87" s="74"/>
+      <c r="N87" s="74"/>
     </row>
     <row r="88" spans="1:23" s="15" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A88" s="15" t="e">
@@ -8836,35 +8840,35 @@
       <c r="B88" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="C88" s="74" t="e">
+      <c r="C88" s="73" t="e">
         <f>VLOOKUP($B88&amp;"3",funnel_data!$A:$X,C$81,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="D88" s="74">
+      <c r="D88" s="73">
         <v>1</v>
       </c>
-      <c r="E88" s="74" t="e">
+      <c r="E88" s="73" t="e">
         <f>VLOOKUP($B88&amp;"3",funnel_data!$A:$X,E$81,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="F88" s="74" t="e">
+      <c r="F88" s="73" t="e">
         <f>VLOOKUP($B88&amp;"3",funnel_data!$A:$X,F$81,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="G88" s="74" t="e">
+      <c r="G88" s="73" t="e">
         <f>VLOOKUP($B88&amp;"3",funnel_data!$A:$X,G$81,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="H88" s="74" t="e">
+      <c r="H88" s="73" t="e">
         <f>VLOOKUP($B88&amp;"3",funnel_data!$A:$X,H$81,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="I88" s="74" t="e">
+      <c r="I88" s="73" t="e">
         <f>VLOOKUP($B88&amp;"3",funnel_data!$A:$X,I$81,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="M88" s="75"/>
-      <c r="N88" s="75"/>
+      <c r="M88" s="74"/>
+      <c r="N88" s="74"/>
     </row>
     <row r="89" spans="1:23" s="15" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A89" s="15" t="e">
@@ -8874,35 +8878,35 @@
       <c r="B89" s="45" t="s">
         <v>19</v>
       </c>
-      <c r="C89" s="74" t="e">
+      <c r="C89" s="73" t="e">
         <f>VLOOKUP($B89&amp;"3",funnel_data!$A:$X,C$81,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="D89" s="74">
+      <c r="D89" s="73">
         <v>1</v>
       </c>
-      <c r="E89" s="74" t="e">
+      <c r="E89" s="73" t="e">
         <f>VLOOKUP($B89&amp;"3",funnel_data!$A:$X,E$81,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="F89" s="74" t="e">
+      <c r="F89" s="73" t="e">
         <f>VLOOKUP($B89&amp;"3",funnel_data!$A:$X,F$81,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="G89" s="74" t="e">
+      <c r="G89" s="73" t="e">
         <f>VLOOKUP($B89&amp;"3",funnel_data!$A:$X,G$81,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="H89" s="74" t="e">
+      <c r="H89" s="73" t="e">
         <f>VLOOKUP($B89&amp;"3",funnel_data!$A:$X,H$81,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="I89" s="74" t="e">
+      <c r="I89" s="73" t="e">
         <f>VLOOKUP($B89&amp;"3",funnel_data!$A:$X,I$81,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="M89" s="75"/>
-      <c r="N89" s="75"/>
+      <c r="M89" s="74"/>
+      <c r="N89" s="74"/>
     </row>
     <row r="90" spans="1:23" s="15" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A90" s="15" t="e">
@@ -8912,35 +8916,35 @@
       <c r="B90" s="45" t="s">
         <v>69</v>
       </c>
-      <c r="C90" s="74" t="e">
+      <c r="C90" s="73" t="e">
         <f>VLOOKUP($B90&amp;"3",funnel_data!$A:$X,C$81,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="D90" s="74">
+      <c r="D90" s="73">
         <v>1</v>
       </c>
-      <c r="E90" s="74" t="e">
+      <c r="E90" s="73" t="e">
         <f>VLOOKUP($B90&amp;"3",funnel_data!$A:$X,E$81,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="F90" s="74" t="e">
+      <c r="F90" s="73" t="e">
         <f>VLOOKUP($B90&amp;"3",funnel_data!$A:$X,F$81,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="G90" s="74" t="e">
+      <c r="G90" s="73" t="e">
         <f>VLOOKUP($B90&amp;"3",funnel_data!$A:$X,G$81,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="H90" s="74" t="e">
+      <c r="H90" s="73" t="e">
         <f>VLOOKUP($B90&amp;"3",funnel_data!$A:$X,H$81,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="I90" s="74" t="e">
+      <c r="I90" s="73" t="e">
         <f>VLOOKUP($B90&amp;"3",funnel_data!$A:$X,I$81,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="M90" s="75"/>
-      <c r="N90" s="75"/>
+      <c r="M90" s="74"/>
+      <c r="N90" s="74"/>
     </row>
     <row r="91" spans="1:23" s="15" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A91" s="15" t="e">
@@ -8950,35 +8954,35 @@
       <c r="B91" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="C91" s="74" t="e">
+      <c r="C91" s="73" t="e">
         <f>VLOOKUP($B91&amp;"3",funnel_data!$A:$X,C$81,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="D91" s="74">
+      <c r="D91" s="73">
         <v>1</v>
       </c>
-      <c r="E91" s="74" t="e">
+      <c r="E91" s="73" t="e">
         <f>VLOOKUP($B91&amp;"3",funnel_data!$A:$X,E$81,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="F91" s="74" t="e">
+      <c r="F91" s="73" t="e">
         <f>VLOOKUP($B91&amp;"3",funnel_data!$A:$X,F$81,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="G91" s="74" t="e">
+      <c r="G91" s="73" t="e">
         <f>VLOOKUP($B91&amp;"3",funnel_data!$A:$X,G$81,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="H91" s="74" t="e">
+      <c r="H91" s="73" t="e">
         <f>VLOOKUP($B91&amp;"3",funnel_data!$A:$X,H$81,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="I91" s="74" t="e">
+      <c r="I91" s="73" t="e">
         <f>VLOOKUP($B91&amp;"3",funnel_data!$A:$X,I$81,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="M91" s="75"/>
-      <c r="N91" s="75"/>
+      <c r="M91" s="74"/>
+      <c r="N91" s="74"/>
     </row>
     <row r="92" spans="1:23" s="15" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A92" s="15" t="e">
@@ -8988,35 +8992,35 @@
       <c r="B92" s="45" t="s">
         <v>108</v>
       </c>
-      <c r="C92" s="74" t="e">
+      <c r="C92" s="73" t="e">
         <f>VLOOKUP($B92&amp;"3",funnel_data!$A:$X,C$81,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="D92" s="74">
+      <c r="D92" s="73">
         <v>1</v>
       </c>
-      <c r="E92" s="74" t="e">
+      <c r="E92" s="73" t="e">
         <f>VLOOKUP($B92&amp;"3",funnel_data!$A:$X,E$81,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="F92" s="74" t="e">
+      <c r="F92" s="73" t="e">
         <f>VLOOKUP($B92&amp;"3",funnel_data!$A:$X,F$81,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="G92" s="74" t="e">
+      <c r="G92" s="73" t="e">
         <f>VLOOKUP($B92&amp;"3",funnel_data!$A:$X,G$81,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="H92" s="74" t="e">
+      <c r="H92" s="73" t="e">
         <f>VLOOKUP($B92&amp;"3",funnel_data!$A:$X,H$81,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="I92" s="74" t="e">
+      <c r="I92" s="73" t="e">
         <f>VLOOKUP($B92&amp;"3",funnel_data!$A:$X,I$81,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="M92" s="75"/>
-      <c r="N92" s="75"/>
+      <c r="M92" s="74"/>
+      <c r="N92" s="74"/>
     </row>
     <row r="93" spans="1:23" s="15" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A93" s="15" t="e">
@@ -9026,35 +9030,35 @@
       <c r="B93" s="45" t="s">
         <v>28</v>
       </c>
-      <c r="C93" s="74" t="e">
+      <c r="C93" s="73" t="e">
         <f>VLOOKUP($B93&amp;"3",funnel_data!$A:$X,C$81,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="D93" s="74">
+      <c r="D93" s="73">
         <v>1</v>
       </c>
-      <c r="E93" s="74" t="e">
+      <c r="E93" s="73" t="e">
         <f>VLOOKUP($B93&amp;"3",funnel_data!$A:$X,E$81,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="F93" s="74" t="e">
+      <c r="F93" s="73" t="e">
         <f>VLOOKUP($B93&amp;"3",funnel_data!$A:$X,F$81,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="G93" s="74" t="e">
+      <c r="G93" s="73" t="e">
         <f>VLOOKUP($B93&amp;"3",funnel_data!$A:$X,G$81,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="H93" s="74" t="e">
+      <c r="H93" s="73" t="e">
         <f>VLOOKUP($B93&amp;"3",funnel_data!$A:$X,H$81,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="I93" s="74" t="e">
+      <c r="I93" s="73" t="e">
         <f>VLOOKUP($B93&amp;"3",funnel_data!$A:$X,I$81,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="M93" s="75"/>
-      <c r="N93" s="75"/>
+      <c r="M93" s="74"/>
+      <c r="N93" s="74"/>
     </row>
     <row r="94" spans="1:23" s="15" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A94" s="15" t="e">
@@ -9064,35 +9068,35 @@
       <c r="B94" s="45" t="s">
         <v>10</v>
       </c>
-      <c r="C94" s="74" t="e">
+      <c r="C94" s="73" t="e">
         <f>VLOOKUP($B94&amp;"3",funnel_data!$A:$X,C$81,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="D94" s="74">
+      <c r="D94" s="73">
         <v>1</v>
       </c>
-      <c r="E94" s="74" t="e">
+      <c r="E94" s="73" t="e">
         <f>VLOOKUP($B94&amp;"3",funnel_data!$A:$X,E$81,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="F94" s="74" t="e">
+      <c r="F94" s="73" t="e">
         <f>VLOOKUP($B94&amp;"3",funnel_data!$A:$X,F$81,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="G94" s="74" t="e">
+      <c r="G94" s="73" t="e">
         <f>VLOOKUP($B94&amp;"3",funnel_data!$A:$X,G$81,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="H94" s="74" t="e">
+      <c r="H94" s="73" t="e">
         <f>VLOOKUP($B94&amp;"3",funnel_data!$A:$X,H$81,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="I94" s="74" t="e">
+      <c r="I94" s="73" t="e">
         <f>VLOOKUP($B94&amp;"3",funnel_data!$A:$X,I$81,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="M94" s="75"/>
-      <c r="N94" s="75"/>
+      <c r="M94" s="74"/>
+      <c r="N94" s="74"/>
     </row>
     <row r="95" spans="1:23" s="15" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A95" s="15" t="e">
@@ -9102,35 +9106,35 @@
       <c r="B95" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="C95" s="74" t="e">
+      <c r="C95" s="73" t="e">
         <f>VLOOKUP($B95&amp;"3",funnel_data!$A:$X,C$81,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="D95" s="74">
+      <c r="D95" s="73">
         <v>1</v>
       </c>
-      <c r="E95" s="74" t="e">
+      <c r="E95" s="73" t="e">
         <f>VLOOKUP($B95&amp;"3",funnel_data!$A:$X,E$81,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="F95" s="74" t="e">
+      <c r="F95" s="73" t="e">
         <f>VLOOKUP($B95&amp;"3",funnel_data!$A:$X,F$81,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="G95" s="74" t="e">
+      <c r="G95" s="73" t="e">
         <f>VLOOKUP($B95&amp;"3",funnel_data!$A:$X,G$81,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="H95" s="74" t="e">
+      <c r="H95" s="73" t="e">
         <f>VLOOKUP($B95&amp;"3",funnel_data!$A:$X,H$81,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="I95" s="74" t="e">
+      <c r="I95" s="73" t="e">
         <f>VLOOKUP($B95&amp;"3",funnel_data!$A:$X,I$81,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="M95" s="75"/>
-      <c r="N95" s="75"/>
+      <c r="M95" s="74"/>
+      <c r="N95" s="74"/>
     </row>
     <row r="96" spans="1:23" s="15" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A96" s="15" t="e">
@@ -9140,35 +9144,35 @@
       <c r="B96" s="45" t="s">
         <v>6</v>
       </c>
-      <c r="C96" s="74" t="e">
+      <c r="C96" s="73" t="e">
         <f>VLOOKUP($B96&amp;"3",funnel_data!$A:$X,C$81,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="D96" s="74">
+      <c r="D96" s="73">
         <v>1</v>
       </c>
-      <c r="E96" s="74" t="e">
+      <c r="E96" s="73" t="e">
         <f>VLOOKUP($B96&amp;"3",funnel_data!$A:$X,E$81,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="F96" s="74" t="e">
+      <c r="F96" s="73" t="e">
         <f>VLOOKUP($B96&amp;"3",funnel_data!$A:$X,F$81,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="G96" s="74" t="e">
+      <c r="G96" s="73" t="e">
         <f>VLOOKUP($B96&amp;"3",funnel_data!$A:$X,G$81,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="H96" s="74" t="e">
+      <c r="H96" s="73" t="e">
         <f>VLOOKUP($B96&amp;"3",funnel_data!$A:$X,H$81,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="I96" s="74" t="e">
+      <c r="I96" s="73" t="e">
         <f>VLOOKUP($B96&amp;"3",funnel_data!$A:$X,I$81,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="M96" s="75"/>
-      <c r="N96" s="75"/>
+      <c r="M96" s="74"/>
+      <c r="N96" s="74"/>
     </row>
     <row r="97" spans="1:14" s="15" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A97" s="15" t="e">
@@ -9178,35 +9182,35 @@
       <c r="B97" s="45" t="s">
         <v>5</v>
       </c>
-      <c r="C97" s="74" t="e">
+      <c r="C97" s="73" t="e">
         <f>VLOOKUP($B97&amp;"3",funnel_data!$A:$X,C$81,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="D97" s="74">
+      <c r="D97" s="73">
         <v>1</v>
       </c>
-      <c r="E97" s="74" t="e">
+      <c r="E97" s="73" t="e">
         <f>VLOOKUP($B97&amp;"3",funnel_data!$A:$X,E$81,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="F97" s="74" t="e">
+      <c r="F97" s="73" t="e">
         <f>VLOOKUP($B97&amp;"3",funnel_data!$A:$X,F$81,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="G97" s="74" t="e">
+      <c r="G97" s="73" t="e">
         <f>VLOOKUP($B97&amp;"3",funnel_data!$A:$X,G$81,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="H97" s="74" t="e">
+      <c r="H97" s="73" t="e">
         <f>VLOOKUP($B97&amp;"3",funnel_data!$A:$X,H$81,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="I97" s="74" t="e">
+      <c r="I97" s="73" t="e">
         <f>VLOOKUP($B97&amp;"3",funnel_data!$A:$X,I$81,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="M97" s="75"/>
-      <c r="N97" s="75"/>
+      <c r="M97" s="74"/>
+      <c r="N97" s="74"/>
     </row>
     <row r="98" spans="1:14" s="15" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A98" s="15" t="e">
@@ -9216,35 +9220,35 @@
       <c r="B98" s="45" t="s">
         <v>24</v>
       </c>
-      <c r="C98" s="74" t="e">
+      <c r="C98" s="73" t="e">
         <f>VLOOKUP($B98&amp;"3",funnel_data!$A:$X,C$81,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="D98" s="74">
+      <c r="D98" s="73">
         <v>1</v>
       </c>
-      <c r="E98" s="74" t="e">
+      <c r="E98" s="73" t="e">
         <f>VLOOKUP($B98&amp;"3",funnel_data!$A:$X,E$81,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="F98" s="74" t="e">
+      <c r="F98" s="73" t="e">
         <f>VLOOKUP($B98&amp;"3",funnel_data!$A:$X,F$81,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="G98" s="74" t="e">
+      <c r="G98" s="73" t="e">
         <f>VLOOKUP($B98&amp;"3",funnel_data!$A:$X,G$81,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="H98" s="74" t="e">
+      <c r="H98" s="73" t="e">
         <f>VLOOKUP($B98&amp;"3",funnel_data!$A:$X,H$81,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="I98" s="74" t="e">
+      <c r="I98" s="73" t="e">
         <f>VLOOKUP($B98&amp;"3",funnel_data!$A:$X,I$81,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="M98" s="75"/>
-      <c r="N98" s="75"/>
+      <c r="M98" s="74"/>
+      <c r="N98" s="74"/>
     </row>
     <row r="99" spans="1:14" s="15" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A99" s="15" t="e">
@@ -9254,35 +9258,35 @@
       <c r="B99" s="45" t="s">
         <v>25</v>
       </c>
-      <c r="C99" s="74" t="e">
+      <c r="C99" s="73" t="e">
         <f>VLOOKUP($B99&amp;"3",funnel_data!$A:$X,C$81,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="D99" s="74">
+      <c r="D99" s="73">
         <v>1</v>
       </c>
-      <c r="E99" s="74" t="e">
+      <c r="E99" s="73" t="e">
         <f>VLOOKUP($B99&amp;"3",funnel_data!$A:$X,E$81,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="F99" s="74" t="e">
+      <c r="F99" s="73" t="e">
         <f>VLOOKUP($B99&amp;"3",funnel_data!$A:$X,F$81,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="G99" s="74" t="e">
+      <c r="G99" s="73" t="e">
         <f>VLOOKUP($B99&amp;"3",funnel_data!$A:$X,G$81,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="H99" s="74" t="e">
+      <c r="H99" s="73" t="e">
         <f>VLOOKUP($B99&amp;"3",funnel_data!$A:$X,H$81,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="I99" s="74" t="e">
+      <c r="I99" s="73" t="e">
         <f>VLOOKUP($B99&amp;"3",funnel_data!$A:$X,I$81,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="M99" s="75"/>
-      <c r="N99" s="75"/>
+      <c r="M99" s="74"/>
+      <c r="N99" s="74"/>
     </row>
     <row r="100" spans="1:14" s="15" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A100" s="15" t="e">
@@ -9292,35 +9296,35 @@
       <c r="B100" s="45" t="s">
         <v>11</v>
       </c>
-      <c r="C100" s="74" t="e">
+      <c r="C100" s="73" t="e">
         <f>VLOOKUP($B100&amp;"3",funnel_data!$A:$X,C$81,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="D100" s="74">
+      <c r="D100" s="73">
         <v>1</v>
       </c>
-      <c r="E100" s="74" t="e">
+      <c r="E100" s="73" t="e">
         <f>VLOOKUP($B100&amp;"3",funnel_data!$A:$X,E$81,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="F100" s="74" t="e">
+      <c r="F100" s="73" t="e">
         <f>VLOOKUP($B100&amp;"3",funnel_data!$A:$X,F$81,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="G100" s="74" t="e">
+      <c r="G100" s="73" t="e">
         <f>VLOOKUP($B100&amp;"3",funnel_data!$A:$X,G$81,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="H100" s="74" t="e">
+      <c r="H100" s="73" t="e">
         <f>VLOOKUP($B100&amp;"3",funnel_data!$A:$X,H$81,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="I100" s="74" t="e">
+      <c r="I100" s="73" t="e">
         <f>VLOOKUP($B100&amp;"3",funnel_data!$A:$X,I$81,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="M100" s="75"/>
-      <c r="N100" s="75"/>
+      <c r="M100" s="74"/>
+      <c r="N100" s="74"/>
     </row>
     <row r="101" spans="1:14" s="15" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A101" s="15" t="e">
@@ -9330,35 +9334,35 @@
       <c r="B101" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="C101" s="74" t="e">
+      <c r="C101" s="73" t="e">
         <f>VLOOKUP($B101&amp;"3",funnel_data!$A:$X,C$81,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="D101" s="74">
+      <c r="D101" s="73">
         <v>1</v>
       </c>
-      <c r="E101" s="74" t="e">
+      <c r="E101" s="73" t="e">
         <f>VLOOKUP($B101&amp;"3",funnel_data!$A:$X,E$81,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="F101" s="74" t="e">
+      <c r="F101" s="73" t="e">
         <f>VLOOKUP($B101&amp;"3",funnel_data!$A:$X,F$81,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="G101" s="74" t="e">
+      <c r="G101" s="73" t="e">
         <f>VLOOKUP($B101&amp;"3",funnel_data!$A:$X,G$81,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="H101" s="74" t="e">
+      <c r="H101" s="73" t="e">
         <f>VLOOKUP($B101&amp;"3",funnel_data!$A:$X,H$81,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="I101" s="74" t="e">
+      <c r="I101" s="73" t="e">
         <f>VLOOKUP($B101&amp;"3",funnel_data!$A:$X,I$81,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="M101" s="75"/>
-      <c r="N101" s="75"/>
+      <c r="M101" s="74"/>
+      <c r="N101" s="74"/>
     </row>
     <row r="102" spans="1:14" s="15" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A102" s="15" t="e">
@@ -9368,35 +9372,35 @@
       <c r="B102" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="C102" s="74" t="e">
+      <c r="C102" s="73" t="e">
         <f>VLOOKUP($B102&amp;"3",funnel_data!$A:$X,C$81,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="D102" s="74">
+      <c r="D102" s="73">
         <v>1</v>
       </c>
-      <c r="E102" s="74" t="e">
+      <c r="E102" s="73" t="e">
         <f>VLOOKUP($B102&amp;"3",funnel_data!$A:$X,E$81,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="F102" s="74" t="e">
+      <c r="F102" s="73" t="e">
         <f>VLOOKUP($B102&amp;"3",funnel_data!$A:$X,F$81,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="G102" s="74" t="e">
+      <c r="G102" s="73" t="e">
         <f>VLOOKUP($B102&amp;"3",funnel_data!$A:$X,G$81,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="H102" s="74" t="e">
+      <c r="H102" s="73" t="e">
         <f>VLOOKUP($B102&amp;"3",funnel_data!$A:$X,H$81,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="I102" s="74" t="e">
+      <c r="I102" s="73" t="e">
         <f>VLOOKUP($B102&amp;"3",funnel_data!$A:$X,I$81,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="M102" s="75"/>
-      <c r="N102" s="75"/>
+      <c r="M102" s="74"/>
+      <c r="N102" s="74"/>
     </row>
     <row r="103" spans="1:14" s="15" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A103" s="15" t="e">
@@ -9406,35 +9410,35 @@
       <c r="B103" s="45" t="s">
         <v>22</v>
       </c>
-      <c r="C103" s="74" t="e">
+      <c r="C103" s="73" t="e">
         <f>VLOOKUP($B103&amp;"3",funnel_data!$A:$X,C$81,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="D103" s="74">
+      <c r="D103" s="73">
         <v>1</v>
       </c>
-      <c r="E103" s="74" t="e">
+      <c r="E103" s="73" t="e">
         <f>VLOOKUP($B103&amp;"3",funnel_data!$A:$X,E$81,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="F103" s="74" t="e">
+      <c r="F103" s="73" t="e">
         <f>VLOOKUP($B103&amp;"3",funnel_data!$A:$X,F$81,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="G103" s="74" t="e">
+      <c r="G103" s="73" t="e">
         <f>VLOOKUP($B103&amp;"3",funnel_data!$A:$X,G$81,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="H103" s="74" t="e">
+      <c r="H103" s="73" t="e">
         <f>VLOOKUP($B103&amp;"3",funnel_data!$A:$X,H$81,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="I103" s="74" t="e">
+      <c r="I103" s="73" t="e">
         <f>VLOOKUP($B103&amp;"3",funnel_data!$A:$X,I$81,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="M103" s="75"/>
-      <c r="N103" s="75"/>
+      <c r="M103" s="74"/>
+      <c r="N103" s="74"/>
     </row>
     <row r="104" spans="1:14" s="15" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A104" s="15" t="e">
@@ -9444,35 +9448,35 @@
       <c r="B104" s="45" t="s">
         <v>21</v>
       </c>
-      <c r="C104" s="74" t="e">
+      <c r="C104" s="73" t="e">
         <f>VLOOKUP($B104&amp;"3",funnel_data!$A:$X,C$81,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="D104" s="74">
+      <c r="D104" s="73">
         <v>1</v>
       </c>
-      <c r="E104" s="74" t="e">
+      <c r="E104" s="73" t="e">
         <f>VLOOKUP($B104&amp;"3",funnel_data!$A:$X,E$81,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="F104" s="74" t="e">
+      <c r="F104" s="73" t="e">
         <f>VLOOKUP($B104&amp;"3",funnel_data!$A:$X,F$81,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="G104" s="74" t="e">
+      <c r="G104" s="73" t="e">
         <f>VLOOKUP($B104&amp;"3",funnel_data!$A:$X,G$81,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="H104" s="74" t="e">
+      <c r="H104" s="73" t="e">
         <f>VLOOKUP($B104&amp;"3",funnel_data!$A:$X,H$81,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="I104" s="74" t="e">
+      <c r="I104" s="73" t="e">
         <f>VLOOKUP($B104&amp;"3",funnel_data!$A:$X,I$81,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="M104" s="75"/>
-      <c r="N104" s="75"/>
+      <c r="M104" s="74"/>
+      <c r="N104" s="74"/>
     </row>
     <row r="105" spans="1:14" s="15" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A105" s="15" t="e">
@@ -9482,35 +9486,35 @@
       <c r="B105" s="45" t="s">
         <v>26</v>
       </c>
-      <c r="C105" s="74" t="e">
+      <c r="C105" s="73" t="e">
         <f>VLOOKUP($B105&amp;"3",funnel_data!$A:$X,C$81,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="D105" s="74">
+      <c r="D105" s="73">
         <v>1</v>
       </c>
-      <c r="E105" s="74" t="e">
+      <c r="E105" s="73" t="e">
         <f>VLOOKUP($B105&amp;"3",funnel_data!$A:$X,E$81,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="F105" s="74" t="e">
+      <c r="F105" s="73" t="e">
         <f>VLOOKUP($B105&amp;"3",funnel_data!$A:$X,F$81,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="G105" s="74" t="e">
+      <c r="G105" s="73" t="e">
         <f>VLOOKUP($B105&amp;"3",funnel_data!$A:$X,G$81,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="H105" s="74" t="e">
+      <c r="H105" s="73" t="e">
         <f>VLOOKUP($B105&amp;"3",funnel_data!$A:$X,H$81,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="I105" s="74" t="e">
+      <c r="I105" s="73" t="e">
         <f>VLOOKUP($B105&amp;"3",funnel_data!$A:$X,I$81,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="M105" s="75"/>
-      <c r="N105" s="75"/>
+      <c r="M105" s="74"/>
+      <c r="N105" s="74"/>
     </row>
     <row r="106" spans="1:14" s="15" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A106" s="15" t="e">
@@ -9520,35 +9524,35 @@
       <c r="B106" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="C106" s="74" t="e">
+      <c r="C106" s="73" t="e">
         <f>VLOOKUP($B106&amp;"3",funnel_data!$A:$X,C$81,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="D106" s="74">
+      <c r="D106" s="73">
         <v>1</v>
       </c>
-      <c r="E106" s="74" t="e">
+      <c r="E106" s="73" t="e">
         <f>VLOOKUP($B106&amp;"3",funnel_data!$A:$X,E$81,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="F106" s="74" t="e">
+      <c r="F106" s="73" t="e">
         <f>VLOOKUP($B106&amp;"3",funnel_data!$A:$X,F$81,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="G106" s="74" t="e">
+      <c r="G106" s="73" t="e">
         <f>VLOOKUP($B106&amp;"3",funnel_data!$A:$X,G$81,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="H106" s="74" t="e">
+      <c r="H106" s="73" t="e">
         <f>VLOOKUP($B106&amp;"3",funnel_data!$A:$X,H$81,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="I106" s="74" t="e">
+      <c r="I106" s="73" t="e">
         <f>VLOOKUP($B106&amp;"3",funnel_data!$A:$X,I$81,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="M106" s="75"/>
-      <c r="N106" s="75"/>
+      <c r="M106" s="74"/>
+      <c r="N106" s="74"/>
     </row>
     <row r="107" spans="1:14" s="15" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A107" s="15" t="e">
@@ -9558,35 +9562,35 @@
       <c r="B107" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="C107" s="74" t="e">
+      <c r="C107" s="73" t="e">
         <f>VLOOKUP($B107&amp;"3",funnel_data!$A:$X,C$81,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="D107" s="74">
+      <c r="D107" s="73">
         <v>1</v>
       </c>
-      <c r="E107" s="74" t="e">
+      <c r="E107" s="73" t="e">
         <f>VLOOKUP($B107&amp;"3",funnel_data!$A:$X,E$81,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="F107" s="74" t="e">
+      <c r="F107" s="73" t="e">
         <f>VLOOKUP($B107&amp;"3",funnel_data!$A:$X,F$81,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="G107" s="74" t="e">
+      <c r="G107" s="73" t="e">
         <f>VLOOKUP($B107&amp;"3",funnel_data!$A:$X,G$81,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="H107" s="74" t="e">
+      <c r="H107" s="73" t="e">
         <f>VLOOKUP($B107&amp;"3",funnel_data!$A:$X,H$81,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="I107" s="74" t="e">
+      <c r="I107" s="73" t="e">
         <f>VLOOKUP($B107&amp;"3",funnel_data!$A:$X,I$81,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="M107" s="75"/>
-      <c r="N107" s="75"/>
+      <c r="M107" s="74"/>
+      <c r="N107" s="74"/>
     </row>
     <row r="108" spans="1:14" s="15" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A108" s="15" t="e">
@@ -9596,35 +9600,35 @@
       <c r="B108" s="45" t="s">
         <v>16</v>
       </c>
-      <c r="C108" s="74" t="e">
+      <c r="C108" s="73" t="e">
         <f>VLOOKUP($B108&amp;"3",funnel_data!$A:$X,C$81,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="D108" s="74">
+      <c r="D108" s="73">
         <v>1</v>
       </c>
-      <c r="E108" s="74" t="e">
+      <c r="E108" s="73" t="e">
         <f>VLOOKUP($B108&amp;"3",funnel_data!$A:$X,E$81,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="F108" s="74" t="e">
+      <c r="F108" s="73" t="e">
         <f>VLOOKUP($B108&amp;"3",funnel_data!$A:$X,F$81,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="G108" s="74" t="e">
+      <c r="G108" s="73" t="e">
         <f>VLOOKUP($B108&amp;"3",funnel_data!$A:$X,G$81,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="H108" s="74" t="e">
+      <c r="H108" s="73" t="e">
         <f>VLOOKUP($B108&amp;"3",funnel_data!$A:$X,H$81,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="I108" s="74" t="e">
+      <c r="I108" s="73" t="e">
         <f>VLOOKUP($B108&amp;"3",funnel_data!$A:$X,I$81,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="M108" s="75"/>
-      <c r="N108" s="75"/>
+      <c r="M108" s="74"/>
+      <c r="N108" s="74"/>
     </row>
     <row r="109" spans="1:14" s="15" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A109" s="15" t="e">
@@ -9634,30 +9638,30 @@
       <c r="B109" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="C109" s="74" t="e">
+      <c r="C109" s="73" t="e">
         <f>VLOOKUP($B109&amp;"3",funnel_data!$A:$X,C$81,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="D109" s="74">
+      <c r="D109" s="73">
         <v>1</v>
       </c>
-      <c r="E109" s="74" t="e">
+      <c r="E109" s="73" t="e">
         <f>VLOOKUP($B109&amp;"3",funnel_data!$A:$X,E$81,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="F109" s="74" t="e">
+      <c r="F109" s="73" t="e">
         <f>VLOOKUP($B109&amp;"3",funnel_data!$A:$X,F$81,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="G109" s="74" t="e">
+      <c r="G109" s="73" t="e">
         <f>VLOOKUP($B109&amp;"3",funnel_data!$A:$X,G$81,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="H109" s="74" t="e">
+      <c r="H109" s="73" t="e">
         <f>VLOOKUP($B109&amp;"3",funnel_data!$A:$X,H$81,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="I109" s="74" t="e">
+      <c r="I109" s="73" t="e">
         <f>VLOOKUP($B109&amp;"3",funnel_data!$A:$X,I$81,FALSE)</f>
         <v>#N/A</v>
       </c>
@@ -9670,30 +9674,30 @@
       <c r="B110" s="45" t="s">
         <v>17</v>
       </c>
-      <c r="C110" s="74" t="e">
+      <c r="C110" s="73" t="e">
         <f>VLOOKUP($B110&amp;"3",funnel_data!$A:$X,C$81,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="D110" s="74">
+      <c r="D110" s="73">
         <v>1</v>
       </c>
-      <c r="E110" s="74" t="e">
+      <c r="E110" s="73" t="e">
         <f>VLOOKUP($B110&amp;"3",funnel_data!$A:$X,E$81,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="F110" s="74" t="e">
+      <c r="F110" s="73" t="e">
         <f>VLOOKUP($B110&amp;"3",funnel_data!$A:$X,F$81,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="G110" s="74" t="e">
+      <c r="G110" s="73" t="e">
         <f>VLOOKUP($B110&amp;"3",funnel_data!$A:$X,G$81,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="H110" s="74" t="e">
+      <c r="H110" s="73" t="e">
         <f>VLOOKUP($B110&amp;"3",funnel_data!$A:$X,H$81,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="I110" s="74" t="e">
+      <c r="I110" s="73" t="e">
         <f>VLOOKUP($B110&amp;"3",funnel_data!$A:$X,I$81,FALSE)</f>
         <v>#N/A</v>
       </c>
@@ -9706,30 +9710,30 @@
       <c r="B111" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="C111" s="74" t="e">
+      <c r="C111" s="73" t="e">
         <f>VLOOKUP($B111&amp;"3",funnel_data!$A:$X,C$81,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="D111" s="74">
+      <c r="D111" s="73">
         <v>1</v>
       </c>
-      <c r="E111" s="74" t="e">
+      <c r="E111" s="73" t="e">
         <f>VLOOKUP($B111&amp;"3",funnel_data!$A:$X,E$81,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="F111" s="74" t="e">
+      <c r="F111" s="73" t="e">
         <f>VLOOKUP($B111&amp;"3",funnel_data!$A:$X,F$81,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="G111" s="74" t="e">
+      <c r="G111" s="73" t="e">
         <f>VLOOKUP($B111&amp;"3",funnel_data!$A:$X,G$81,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="H111" s="74" t="e">
+      <c r="H111" s="73" t="e">
         <f>VLOOKUP($B111&amp;"3",funnel_data!$A:$X,H$81,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="I111" s="74" t="e">
+      <c r="I111" s="73" t="e">
         <f>VLOOKUP($B111&amp;"3",funnel_data!$A:$X,I$81,FALSE)</f>
         <v>#N/A</v>
       </c>
@@ -9742,30 +9746,30 @@
       <c r="B112" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="C112" s="74" t="e">
+      <c r="C112" s="73" t="e">
         <f>VLOOKUP($B112&amp;"3",funnel_data!$A:$X,C$81,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="D112" s="74">
+      <c r="D112" s="73">
         <v>1</v>
       </c>
-      <c r="E112" s="74" t="e">
+      <c r="E112" s="73" t="e">
         <f>VLOOKUP($B112&amp;"3",funnel_data!$A:$X,E$81,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="F112" s="74" t="e">
+      <c r="F112" s="73" t="e">
         <f>VLOOKUP($B112&amp;"3",funnel_data!$A:$X,F$81,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="G112" s="74" t="e">
+      <c r="G112" s="73" t="e">
         <f>VLOOKUP($B112&amp;"3",funnel_data!$A:$X,G$81,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="H112" s="74" t="e">
+      <c r="H112" s="73" t="e">
         <f>VLOOKUP($B112&amp;"3",funnel_data!$A:$X,H$81,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="I112" s="74" t="e">
+      <c r="I112" s="73" t="e">
         <f>VLOOKUP($B112&amp;"3",funnel_data!$A:$X,I$81,FALSE)</f>
         <v>#N/A</v>
       </c>
@@ -9778,30 +9782,30 @@
       <c r="B113" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="C113" s="74" t="e">
+      <c r="C113" s="73" t="e">
         <f>VLOOKUP($B113&amp;"3",funnel_data!$A:$X,C$81,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="D113" s="74">
+      <c r="D113" s="73">
         <v>1</v>
       </c>
-      <c r="E113" s="74" t="e">
+      <c r="E113" s="73" t="e">
         <f>VLOOKUP($B113&amp;"3",funnel_data!$A:$X,E$81,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="F113" s="74" t="e">
+      <c r="F113" s="73" t="e">
         <f>VLOOKUP($B113&amp;"3",funnel_data!$A:$X,F$81,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="G113" s="74" t="e">
+      <c r="G113" s="73" t="e">
         <f>VLOOKUP($B113&amp;"3",funnel_data!$A:$X,G$81,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="H113" s="74" t="e">
+      <c r="H113" s="73" t="e">
         <f>VLOOKUP($B113&amp;"3",funnel_data!$A:$X,H$81,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="I113" s="74" t="e">
+      <c r="I113" s="73" t="e">
         <f>VLOOKUP($B113&amp;"3",funnel_data!$A:$X,I$81,FALSE)</f>
         <v>#N/A</v>
       </c>

--- a/reference_files/Table1-HSMR.xlsx
+++ b/reference_files/Table1-HSMR.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Isdsf00d03\quality_indicators\hsmr\quarter_cycle\Analyst folders\Scott\Updates\hsmr-pra\reference_files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Isdsf00d03\quality_indicators\hsmr\quarter_cycle\Analyst folders\Scott\hsmr-pra\reference_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="123">
   <si>
     <t>V217H</t>
   </si>
@@ -377,9 +377,6 @@
     <t>S08000032</t>
   </si>
   <si>
-    <t>SMR</t>
-  </si>
-  <si>
     <t>R103H</t>
   </si>
   <si>
@@ -392,7 +389,16 @@
     <t>Crude mortality rate (%)</t>
   </si>
   <si>
-    <t>Standardised mortality ratio (SMR)</t>
+    <t>Upper/Lower Control Limit</t>
+  </si>
+  <si>
+    <t>Upper/Lower Warning Limit</t>
+  </si>
+  <si>
+    <t>Hospital</t>
+  </si>
+  <si>
+    <t>Hospital standardised mortality ratio</t>
   </si>
 </sst>
 </file>
@@ -847,7 +853,17 @@
   <c:chart>
     <c:autoTitleDeleted val="1"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.18065674656856839"/>
+          <c:y val="7.4569108553029867E-2"/>
+          <c:w val="0.79497565542219628"/>
+          <c:h val="0.80981947066552462"/>
+        </c:manualLayout>
+      </c:layout>
       <c:scatterChart>
         <c:scatterStyle val="smoothMarker"/>
         <c:varyColors val="0"/>
@@ -855,7 +871,7 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>Scotland SMR</c:v>
+            <c:v>Scotland</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
@@ -1089,7 +1105,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>UCL</c:v>
+                  <c:v>Upper/Lower Control Limit</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1563,7 +1579,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>UWL</c:v>
+                  <c:v>Upper/Lower Warning Limit</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2041,7 +2057,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>SMR</c:v>
+                  <c:v>Hospital</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2826,6 +2842,14 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.4529003753714495"/>
+              <c:y val="0.9483877585797118"/>
+            </c:manualLayout>
+          </c:layout>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2911,7 +2935,7 @@
         <c:title>
           <c:tx>
             <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
@@ -2935,11 +2959,34 @@
                     <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
                     <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
                   </a:rPr>
-                  <a:t>Standardised mortality ratio</a:t>
+                  <a:t>Hospital Standardised Mortality</a:t>
+                </a:r>
+              </a:p>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" b="1">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                    <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  </a:rPr>
+                  <a:t>Ratio</a:t>
                 </a:r>
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0"/>
+              <c:y val="0.38168338587514622"/>
+            </c:manualLayout>
+          </c:layout>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2949,7 +2996,7 @@
             <a:effectLst/>
           </c:spPr>
           <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr>
@@ -3016,7 +3063,15 @@
       </c:spPr>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="r"/>
+      <c:legendPos val="t"/>
+      <c:legendEntry>
+        <c:idx val="2"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="4"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
       <c:legendEntry>
         <c:idx val="6"/>
         <c:delete val="1"/>
@@ -3025,6 +3080,16 @@
         <c:idx val="7"/>
         <c:delete val="1"/>
       </c:legendEntry>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.18100474955153228"/>
+          <c:y val="0"/>
+          <c:w val="0.807629521338878"/>
+          <c:h val="5.6771783925344287E-2"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4535,9 +4600,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:AA83"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -4552,7 +4615,7 @@
       <c r="A1" s="47"/>
       <c r="B1" s="8"/>
       <c r="C1" s="75" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D1" s="75"/>
       <c r="E1" s="75"/>
@@ -4615,8 +4678,8 @@
       <c r="A4" s="47"/>
       <c r="B4" s="8"/>
       <c r="C4" s="14" t="str">
-        <f>"Hospital standardised mortality ratio (funnel plot) "&amp;B5</f>
-        <v xml:space="preserve">Hospital standardised mortality ratio (funnel plot) </v>
+        <f>"Hospital standardised mortality ratio "&amp;B5</f>
+        <v xml:space="preserve">Hospital standardised mortality ratio </v>
       </c>
       <c r="D4" s="28"/>
       <c r="E4" s="28"/>
@@ -4669,13 +4732,13 @@
         <v>101</v>
       </c>
       <c r="F10" s="43" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="G10" s="43" t="s">
         <v>102</v>
       </c>
       <c r="H10" s="43" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.25">
@@ -5809,10 +5872,10 @@
         <v>58</v>
       </c>
       <c r="B48" s="38" t="s">
+        <v>115</v>
+      </c>
+      <c r="C48" s="33" t="s">
         <v>116</v>
-      </c>
-      <c r="C48" s="33" t="s">
-        <v>117</v>
       </c>
       <c r="D48" s="40" t="e">
         <f>VLOOKUP($B48&amp;$A$5,'Raw Data'!$A:$X,3,FALSE)</f>
@@ -6204,9 +6267,7 @@
   </sheetPr>
   <dimension ref="A1:AK119"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AL30" sqref="AL30"/>
-    </sheetView>
+    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.28515625" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
@@ -6224,7 +6285,7 @@
     <row r="1" spans="1:36" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="8"/>
       <c r="B1" s="75" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C1" s="75"/>
       <c r="D1" s="75"/>
@@ -6300,8 +6361,8 @@
     <row r="4" spans="1:36" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="13"/>
       <c r="B4" s="14" t="str">
-        <f>"Hospital standardised mortality ratio (funnel plot): " &amp; period_lookup!A1</f>
-        <v>Hospital standardised mortality ratio (funnel plot): 0</v>
+        <f>"Hospital standardised mortality ratio: " &amp; period_lookup!A1</f>
+        <v>Hospital standardised mortality ratio: 0</v>
       </c>
       <c r="C4" s="11"/>
       <c r="D4" s="11"/>
@@ -14269,9 +14330,7 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:AM80"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:AM80"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -14592,16 +14651,16 @@
         <v>57</v>
       </c>
       <c r="E8" s="66" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="F8" s="66" t="s">
-        <v>53</v>
+        <v>119</v>
       </c>
       <c r="G8" s="66" t="s">
         <v>54</v>
       </c>
       <c r="H8" s="66" t="s">
-        <v>55</v>
+        <v>120</v>
       </c>
       <c r="I8" s="66" t="s">
         <v>56</v>
@@ -17292,7 +17351,7 @@
         <v>#N/A</v>
       </c>
       <c r="B45" s="45" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C45" s="73" t="e">
         <f>VLOOKUP($B45&amp;"3",'Raw Data'!$A:$X,C$41,FALSE)</f>
@@ -19531,10 +19590,10 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="B4" s="5" t="s">
         <v>116</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>117</v>
       </c>
       <c r="G4" s="5"/>
     </row>

--- a/reference_files/Table1-HSMR.xlsx
+++ b/reference_files/Table1-HSMR.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Isdsf00d03\quality_indicators\hsmr\quarter_cycle\Analyst folders\Scott\hsmr-pra\reference_files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\stats\ScotPHO\1.Analysts_space\Catherine\hsmr-pra\reference_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4226CB51-B668-44B3-B938-07D51D6ACD50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="4350" windowWidth="15600" windowHeight="4395" tabRatio="837"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" tabRatio="837" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Table 1" sheetId="49" r:id="rId1"/>
@@ -25,12 +26,23 @@
     <definedName name="SPSS" localSheetId="1">#REF!</definedName>
     <definedName name="SPSS">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="129">
   <si>
     <t>V217H</t>
   </si>
@@ -400,17 +412,35 @@
   <si>
     <t>Hospital standardised mortality ratio</t>
   </si>
+  <si>
+    <t>outliers4</t>
+  </si>
+  <si>
+    <t>outliers5</t>
+  </si>
+  <si>
+    <t>ucl</t>
+  </si>
+  <si>
+    <t>uwl</t>
+  </si>
+  <si>
+    <t>lwl</t>
+  </si>
+  <si>
+    <t>lcl</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="#.00"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
     <numFmt numFmtId="166" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="27" x14ac:knownFonts="1">
+  <fonts count="28" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -572,6 +602,13 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -748,7 +785,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="166" fontId="23" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="20" fillId="3" borderId="4" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment textRotation="90"/>
     </xf>
@@ -760,10 +796,11 @@
     <xf numFmtId="0" fontId="19" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="18" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="1" fontId="14" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
@@ -790,15 +827,35 @@
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1"/>
-    <cellStyle name="Normal 3" xfId="2"/>
-    <cellStyle name="Normal 4" xfId="3"/>
-    <cellStyle name="Normal 5" xfId="4"/>
-    <cellStyle name="Normal 6" xfId="5"/>
-    <cellStyle name="Normal_Book1" xfId="6"/>
-    <cellStyle name="Percent 2" xfId="7"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Normal 3" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Normal 4" xfId="3" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="Normal 5" xfId="4" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="Normal 6" xfId="5" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="Normal_Book1" xfId="6" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="Percent 2" xfId="7" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="5">
+    <dxf>
+      <font>
+        <color rgb="FFC00000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FFC00000"/>
@@ -816,11 +873,11 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FFFFC000"/>
+        <color theme="9"/>
       </font>
       <fill>
         <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
+          <bgColor theme="9"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2316,13 +2373,15 @@
           </c:spPr>
           <c:marker>
             <c:symbol val="circle"/>
-            <c:size val="5"/>
+            <c:size val="6"/>
             <c:spPr>
               <a:solidFill>
                 <a:srgbClr val="C00000"/>
               </a:solidFill>
               <a:ln w="9525">
-                <a:noFill/>
+                <a:solidFill>
+                  <a:srgbClr val="C00000"/>
+                </a:solidFill>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
@@ -2561,15 +2620,15 @@
           </c:spPr>
           <c:marker>
             <c:symbol val="circle"/>
-            <c:size val="5"/>
+            <c:size val="6"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent6">
-                  <a:lumMod val="75000"/>
-                </a:schemeClr>
+                <a:schemeClr val="accent6"/>
               </a:solidFill>
               <a:ln w="9525">
-                <a:noFill/>
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
@@ -2782,6 +2841,502 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-EFA1-4C28-B48F-8742FE2712E8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="8"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>funnel_lookup!$M$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>outliers4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>funnel_lookup!$C$9:$C$39</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>funnel_lookup!$M$9:$M$39</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-E410-43DF-BEAB-DEF044A089A3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="9"/>
+          <c:order val="9"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>funnel_lookup!$N$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>outliers5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="C00000"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="C00000">
+                    <a:alpha val="94000"/>
+                  </a:srgbClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>funnel_lookup!$C$9:$C$39</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>funnel_lookup!$N$9:$N$39</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-E410-43DF-BEAB-DEF044A089A3}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3080,13 +3635,21 @@
         <c:idx val="7"/>
         <c:delete val="1"/>
       </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="8"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="9"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
       <c:layout>
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="0.18100474955153228"/>
           <c:y val="0"/>
-          <c:w val="0.807629521338878"/>
+          <c:w val="0.8166525892899773"/>
           <c:h val="5.6771783925344287E-2"/>
         </c:manualLayout>
       </c:layout>
@@ -3721,7 +4284,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="TextBox 2"/>
+        <xdr:cNvPr id="3" name="TextBox 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -4207,17 +4776,6 @@
           </a:endParaRPr>
         </a:p>
         <a:p>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1000" b="1">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t/>
-          </a:r>
           <a:br>
             <a:rPr lang="en-GB" sz="1000" b="1">
               <a:solidFill>
@@ -4238,17 +4796,6 @@
           </a:endParaRPr>
         </a:p>
         <a:p>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1000" b="1">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t/>
-          </a:r>
           <a:br>
             <a:rPr lang="en-GB" sz="1000" b="1">
               <a:solidFill>
@@ -4292,7 +4839,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -4386,6 +4939,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -4421,6 +4991,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -4596,7 +5183,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:AA83"/>
   <sheetViews>
@@ -6261,13 +6848,15 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet21">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:AK119"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AZ22" sqref="AZ22"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.28515625" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
@@ -6482,7 +7071,7 @@
     </row>
     <row r="31" spans="3:37" x14ac:dyDescent="0.2">
       <c r="M31" s="17"/>
-      <c r="AH31" s="63"/>
+      <c r="AH31" s="62"/>
     </row>
     <row r="32" spans="3:37" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C32" s="15">
@@ -6578,134 +7167,134 @@
       <c r="AG32" s="15">
         <v>31</v>
       </c>
-      <c r="AH32" s="64"/>
+      <c r="AH32" s="63"/>
     </row>
     <row r="33" spans="1:37" s="18" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C33" s="19" t="e">
-        <f>VLOOKUP(C$32,funnel_lookup!$A$9:$J$39,10)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D33" s="19" t="e">
-        <f>VLOOKUP(D$32,funnel_lookup!$A$9:$J$39,10)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E33" s="19" t="e">
-        <f>VLOOKUP(E$32,funnel_lookup!$A$9:$J$39,10)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F33" s="19" t="e">
-        <f>VLOOKUP(F$32,funnel_lookup!$A$9:$J$39,10)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G33" s="19" t="e">
-        <f>VLOOKUP(G$32,funnel_lookup!$A$9:$J$39,10)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H33" s="19" t="e">
-        <f>VLOOKUP(H$32,funnel_lookup!$A$9:$J$39,10)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I33" s="19" t="e">
-        <f>VLOOKUP(I$32,funnel_lookup!$A$9:$J$39,10)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J33" s="19" t="e">
-        <f>VLOOKUP(J$32,funnel_lookup!$A$9:$J$39,10)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="K33" s="19" t="e">
-        <f>VLOOKUP(K$32,funnel_lookup!$A$9:$J$39,10)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="L33" s="19" t="e">
-        <f>VLOOKUP(L$32,funnel_lookup!$A$9:$J$39,10)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="M33" s="19" t="e">
-        <f>VLOOKUP(M$32,funnel_lookup!$A$9:$J$39,10)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="N33" s="19" t="e">
-        <f>VLOOKUP(N$32,funnel_lookup!$A$9:$J$39,10)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="O33" s="19" t="e">
-        <f>VLOOKUP(O$32,funnel_lookup!$A$9:$J$39,10)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="P33" s="19" t="e">
-        <f>VLOOKUP(P$32,funnel_lookup!$A$9:$J$39,10)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Q33" s="19" t="e">
-        <f>VLOOKUP(Q$32,funnel_lookup!$A$9:$J$39,10)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="R33" s="19" t="e">
-        <f>VLOOKUP(R$32,funnel_lookup!$A$9:$J$39,10)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="S33" s="19" t="e">
-        <f>VLOOKUP(S$32,funnel_lookup!$A$9:$J$39,10)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="T33" s="19" t="e">
-        <f>VLOOKUP(T$32,funnel_lookup!$A$9:$J$39,10)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="U33" s="19" t="e">
-        <f>VLOOKUP(U$32,funnel_lookup!$A$9:$J$39,10)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="V33" s="19" t="e">
-        <f>VLOOKUP(V$32,funnel_lookup!$A$9:$J$39,10)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="W33" s="19" t="e">
-        <f>VLOOKUP(W$32,funnel_lookup!$A$9:$J$39,10)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="X33" s="19" t="e">
-        <f>VLOOKUP(X$32,funnel_lookup!$A$9:$J$39,10)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Y33" s="19" t="e">
-        <f>VLOOKUP(Y$32,funnel_lookup!$A$9:$J$39,10)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Z33" s="19" t="e">
-        <f>VLOOKUP(Z$32,funnel_lookup!$A$9:$J$39,10)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AA33" s="19" t="e">
-        <f>VLOOKUP(AA$32,funnel_lookup!$A$9:$J$39,10)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AB33" s="19" t="e">
-        <f>VLOOKUP(AB$32,funnel_lookup!$A$9:$J$39,10)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AC33" s="19" t="e">
-        <f>VLOOKUP(AC$32,funnel_lookup!$A$9:$J$39,10)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AD33" s="19" t="e">
-        <f>VLOOKUP(AD$32,funnel_lookup!$A$9:$J$39,10)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AE33" s="19" t="e">
-        <f>VLOOKUP(AE$32,funnel_lookup!$A$9:$J$39,10)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AF33" s="19" t="e">
-        <f>VLOOKUP(AF$32,funnel_lookup!$A$9:$J$39,10)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AG33" s="57" t="e">
-        <f>VLOOKUP(AG$32,funnel_lookup!$A$9:$J$39,10)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AH33" s="59"/>
+      <c r="C33" s="19">
+        <f>IFERROR(VLOOKUP(C$32,funnel_lookup!$A$9:$J$39,10),0)</f>
+        <v>0</v>
+      </c>
+      <c r="D33" s="19">
+        <f>IFERROR(VLOOKUP(D$32,funnel_lookup!$A$9:$J$39,10),0)</f>
+        <v>0</v>
+      </c>
+      <c r="E33" s="19">
+        <f>IFERROR(VLOOKUP(E$32,funnel_lookup!$A$9:$J$39,10),0)</f>
+        <v>0</v>
+      </c>
+      <c r="F33" s="19">
+        <f>IFERROR(VLOOKUP(F$32,funnel_lookup!$A$9:$J$39,10),0)</f>
+        <v>0</v>
+      </c>
+      <c r="G33" s="19">
+        <f>IFERROR(VLOOKUP(G$32,funnel_lookup!$A$9:$J$39,10),0)</f>
+        <v>0</v>
+      </c>
+      <c r="H33" s="19">
+        <f>IFERROR(VLOOKUP(H$32,funnel_lookup!$A$9:$J$39,10),0)</f>
+        <v>0</v>
+      </c>
+      <c r="I33" s="19">
+        <f>IFERROR(VLOOKUP(I$32,funnel_lookup!$A$9:$J$39,10),0)</f>
+        <v>0</v>
+      </c>
+      <c r="J33" s="19">
+        <f>IFERROR(VLOOKUP(J$32,funnel_lookup!$A$9:$J$39,10),0)</f>
+        <v>0</v>
+      </c>
+      <c r="K33" s="19">
+        <f>IFERROR(VLOOKUP(K$32,funnel_lookup!$A$9:$J$39,10),0)</f>
+        <v>0</v>
+      </c>
+      <c r="L33" s="19">
+        <f>IFERROR(VLOOKUP(L$32,funnel_lookup!$A$9:$J$39,10),0)</f>
+        <v>0</v>
+      </c>
+      <c r="M33" s="19">
+        <f>IFERROR(VLOOKUP(M$32,funnel_lookup!$A$9:$J$39,10),0)</f>
+        <v>0</v>
+      </c>
+      <c r="N33" s="19">
+        <f>IFERROR(VLOOKUP(N$32,funnel_lookup!$A$9:$J$39,10),0)</f>
+        <v>0</v>
+      </c>
+      <c r="O33" s="19">
+        <f>IFERROR(VLOOKUP(O$32,funnel_lookup!$A$9:$J$39,10),0)</f>
+        <v>0</v>
+      </c>
+      <c r="P33" s="19">
+        <f>IFERROR(VLOOKUP(P$32,funnel_lookup!$A$9:$J$39,10),0)</f>
+        <v>0</v>
+      </c>
+      <c r="Q33" s="19">
+        <f>IFERROR(VLOOKUP(Q$32,funnel_lookup!$A$9:$J$39,10),0)</f>
+        <v>0</v>
+      </c>
+      <c r="R33" s="19">
+        <f>IFERROR(VLOOKUP(R$32,funnel_lookup!$A$9:$J$39,10),0)</f>
+        <v>0</v>
+      </c>
+      <c r="S33" s="19">
+        <f>IFERROR(VLOOKUP(S$32,funnel_lookup!$A$9:$J$39,10),0)</f>
+        <v>0</v>
+      </c>
+      <c r="T33" s="19">
+        <f>IFERROR(VLOOKUP(T$32,funnel_lookup!$A$9:$J$39,10),0)</f>
+        <v>0</v>
+      </c>
+      <c r="U33" s="19">
+        <f>IFERROR(VLOOKUP(U$32,funnel_lookup!$A$9:$J$39,10),0)</f>
+        <v>0</v>
+      </c>
+      <c r="V33" s="19">
+        <f>IFERROR(VLOOKUP(V$32,funnel_lookup!$A$9:$J$39,10),0)</f>
+        <v>0</v>
+      </c>
+      <c r="W33" s="19">
+        <f>IFERROR(VLOOKUP(W$32,funnel_lookup!$A$9:$J$39,10),0)</f>
+        <v>0</v>
+      </c>
+      <c r="X33" s="19">
+        <f>IFERROR(VLOOKUP(X$32,funnel_lookup!$A$9:$J$39,10),0)</f>
+        <v>0</v>
+      </c>
+      <c r="Y33" s="19">
+        <f>IFERROR(VLOOKUP(Y$32,funnel_lookup!$A$9:$J$39,10),0)</f>
+        <v>0</v>
+      </c>
+      <c r="Z33" s="19">
+        <f>IFERROR(VLOOKUP(Z$32,funnel_lookup!$A$9:$J$39,10),0)</f>
+        <v>0</v>
+      </c>
+      <c r="AA33" s="19">
+        <f>IFERROR(VLOOKUP(AA$32,funnel_lookup!$A$9:$J$39,10),0)</f>
+        <v>0</v>
+      </c>
+      <c r="AB33" s="19">
+        <f>IFERROR(VLOOKUP(AB$32,funnel_lookup!$A$9:$J$39,10),0)</f>
+        <v>0</v>
+      </c>
+      <c r="AC33" s="19">
+        <f>IFERROR(VLOOKUP(AC$32,funnel_lookup!$A$9:$J$39,10),0)</f>
+        <v>0</v>
+      </c>
+      <c r="AD33" s="19">
+        <f>IFERROR(VLOOKUP(AD$32,funnel_lookup!$A$9:$J$39,10),0)</f>
+        <v>0</v>
+      </c>
+      <c r="AE33" s="19">
+        <f>IFERROR(VLOOKUP(AE$32,funnel_lookup!$A$9:$J$39,10),0)</f>
+        <v>0</v>
+      </c>
+      <c r="AF33" s="19">
+        <f>IFERROR(VLOOKUP(AF$32,funnel_lookup!$A$9:$J$39,10),0)</f>
+        <v>0</v>
+      </c>
+      <c r="AG33" s="19">
+        <f>IFERROR(VLOOKUP(AG$32,funnel_lookup!$A$9:$J$39,10),0)</f>
+        <v>0</v>
+      </c>
+      <c r="AH33" s="58"/>
     </row>
     <row r="34" spans="1:37" s="18" customFormat="1" ht="186" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C34" s="20" t="e">
@@ -6828,14 +7417,14 @@
         <f>VLOOKUP(VLOOKUP(AF$32,funnel_lookup!$A$9:$B$39,2,FALSE),hosp_lookup!$A:$B,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="AG34" s="58" t="e">
+      <c r="AG34" s="57" t="e">
         <f>VLOOKUP(VLOOKUP(AG$32,funnel_lookup!$A$9:$B$39,2,FALSE),hosp_lookup!$A:$B,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="AH34" s="60"/>
+      <c r="AH34" s="59"/>
     </row>
     <row r="35" spans="1:37" s="18" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="AH35" s="62"/>
+      <c r="AH35" s="61"/>
       <c r="AJ35" s="15"/>
       <c r="AK35" s="15"/>
     </row>
@@ -6863,7 +7452,7 @@
       <c r="W36" s="21"/>
       <c r="X36" s="21"/>
       <c r="Y36" s="21"/>
-      <c r="AH36" s="61"/>
+      <c r="AH36" s="60"/>
       <c r="AJ36" s="18"/>
       <c r="AK36" s="18"/>
     </row>
@@ -6985,14 +7574,22 @@
     <mergeCell ref="B1:AB1"/>
   </mergeCells>
   <conditionalFormatting sqref="C33:AH33">
-    <cfRule type="cellIs" dxfId="2" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="2" stopIfTrue="1" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="2" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="3" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="3" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="1" stopIfTrue="1" operator="equal">
       <formula>3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C33:AG33">
+    <cfRule type="cellIs" dxfId="1" priority="4" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="5" operator="equal">
+      <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -7005,7 +7602,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:R1022"/>
   <sheetViews>
@@ -14320,142 +14917,145 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:S1022"/>
+  <autoFilter ref="A1:S1022" xr:uid="{00000000-0009-0000-0000-000002000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:AM80"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="16384" width="9.140625" style="64"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A1" s="18"/>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
-      <c r="J1" s="18"/>
-      <c r="K1" s="18"/>
-      <c r="L1" s="18"/>
-      <c r="M1" s="18"/>
-      <c r="N1" s="18"/>
-      <c r="O1" s="18"/>
-      <c r="P1" s="18"/>
-      <c r="Q1" s="18"/>
-      <c r="R1" s="18"/>
-      <c r="S1" s="18"/>
-      <c r="T1" s="18"/>
-      <c r="U1" s="18"/>
-      <c r="V1" s="18"/>
-      <c r="W1" s="18"/>
-      <c r="X1" s="18"/>
-      <c r="Y1" s="18"/>
-      <c r="Z1" s="18"/>
-      <c r="AA1" s="18"/>
-      <c r="AB1" s="18"/>
-      <c r="AC1" s="18"/>
-      <c r="AD1" s="18"/>
-      <c r="AE1" s="18"/>
-      <c r="AF1" s="18"/>
-      <c r="AG1" s="18"/>
-      <c r="AH1" s="18"/>
-      <c r="AI1" s="18"/>
-      <c r="AJ1" s="18"/>
-      <c r="AK1" s="18"/>
-      <c r="AL1" s="18"/>
-      <c r="AM1" s="18"/>
+      <c r="A1" s="15"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
+      <c r="K1" s="15"/>
+      <c r="L1" s="15"/>
+      <c r="M1" s="15"/>
+      <c r="N1" s="15"/>
+      <c r="O1" s="15"/>
+      <c r="P1" s="15"/>
+      <c r="Q1" s="15"/>
+      <c r="R1" s="15"/>
+      <c r="S1" s="15"/>
+      <c r="T1" s="15"/>
+      <c r="U1" s="15"/>
+      <c r="V1" s="15"/>
+      <c r="W1" s="15"/>
+      <c r="X1" s="15"/>
+      <c r="Y1" s="15"/>
+      <c r="Z1" s="15"/>
+      <c r="AA1" s="15"/>
+      <c r="AB1" s="15"/>
+      <c r="AC1" s="15"/>
+      <c r="AD1" s="15"/>
+      <c r="AE1" s="15"/>
+      <c r="AF1" s="15"/>
+      <c r="AG1" s="15"/>
+      <c r="AH1" s="15"/>
+      <c r="AI1" s="15"/>
+      <c r="AJ1" s="15"/>
+      <c r="AK1" s="15"/>
+      <c r="AL1" s="15"/>
+      <c r="AM1" s="15"/>
     </row>
     <row r="2" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A2" s="18"/>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
-      <c r="I2" s="18"/>
-      <c r="J2" s="18"/>
-      <c r="K2" s="18"/>
-      <c r="L2" s="18"/>
-      <c r="M2" s="18"/>
-      <c r="N2" s="18"/>
-      <c r="O2" s="18"/>
-      <c r="P2" s="18"/>
-      <c r="Q2" s="18"/>
-      <c r="R2" s="18"/>
-      <c r="S2" s="18"/>
-      <c r="T2" s="18"/>
-      <c r="U2" s="18"/>
-      <c r="V2" s="18"/>
-      <c r="W2" s="18"/>
-      <c r="X2" s="18"/>
-      <c r="Y2" s="18"/>
-      <c r="Z2" s="18"/>
-      <c r="AA2" s="18"/>
-      <c r="AB2" s="18"/>
-      <c r="AC2" s="18"/>
-      <c r="AD2" s="18"/>
-      <c r="AE2" s="18"/>
-      <c r="AF2" s="18"/>
-      <c r="AG2" s="18"/>
-      <c r="AH2" s="18"/>
-      <c r="AI2" s="18"/>
-      <c r="AJ2" s="18"/>
-      <c r="AK2" s="18"/>
-      <c r="AL2" s="18"/>
-      <c r="AM2" s="18"/>
+      <c r="A2" s="15"/>
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="15"/>
+      <c r="J2" s="15"/>
+      <c r="K2" s="15"/>
+      <c r="L2" s="15"/>
+      <c r="M2" s="15"/>
+      <c r="N2" s="15"/>
+      <c r="O2" s="15"/>
+      <c r="P2" s="15"/>
+      <c r="Q2" s="15"/>
+      <c r="R2" s="15"/>
+      <c r="S2" s="15"/>
+      <c r="T2" s="15"/>
+      <c r="U2" s="15"/>
+      <c r="V2" s="15"/>
+      <c r="W2" s="15"/>
+      <c r="X2" s="15"/>
+      <c r="Y2" s="15"/>
+      <c r="Z2" s="15"/>
+      <c r="AA2" s="15"/>
+      <c r="AB2" s="15"/>
+      <c r="AC2" s="15"/>
+      <c r="AD2" s="15"/>
+      <c r="AE2" s="15"/>
+      <c r="AF2" s="15"/>
+      <c r="AG2" s="15"/>
+      <c r="AH2" s="15"/>
+      <c r="AI2" s="15"/>
+      <c r="AJ2" s="15"/>
+      <c r="AK2" s="15"/>
+      <c r="AL2" s="15"/>
+      <c r="AM2" s="15"/>
     </row>
     <row r="3" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A3" s="18"/>
-      <c r="B3" s="18"/>
-      <c r="C3" s="18"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18"/>
-      <c r="F3" s="18"/>
-      <c r="G3" s="18"/>
-      <c r="H3" s="18"/>
-      <c r="I3" s="18"/>
-      <c r="J3" s="18"/>
-      <c r="K3" s="18"/>
-      <c r="L3" s="18"/>
-      <c r="M3" s="18"/>
-      <c r="N3" s="18"/>
-      <c r="O3" s="18"/>
-      <c r="P3" s="18"/>
-      <c r="Q3" s="18"/>
-      <c r="R3" s="18"/>
-      <c r="S3" s="18"/>
-      <c r="T3" s="18"/>
-      <c r="U3" s="18"/>
-      <c r="V3" s="18"/>
-      <c r="W3" s="18"/>
-      <c r="X3" s="18"/>
-      <c r="Y3" s="18"/>
-      <c r="Z3" s="18"/>
-      <c r="AA3" s="18"/>
-      <c r="AB3" s="18"/>
-      <c r="AC3" s="18"/>
-      <c r="AD3" s="18"/>
-      <c r="AE3" s="18"/>
-      <c r="AF3" s="18"/>
-      <c r="AG3" s="18"/>
-      <c r="AH3" s="18"/>
-      <c r="AI3" s="18"/>
-      <c r="AJ3" s="18"/>
-      <c r="AK3" s="18"/>
-      <c r="AL3" s="18"/>
-      <c r="AM3" s="18"/>
+      <c r="A3" s="15"/>
+      <c r="B3" s="15"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="15"/>
+      <c r="H3" s="15"/>
+      <c r="I3" s="15"/>
+      <c r="J3" s="15"/>
+      <c r="K3" s="15"/>
+      <c r="L3" s="15"/>
+      <c r="M3" s="15"/>
+      <c r="N3" s="15"/>
+      <c r="O3" s="15"/>
+      <c r="P3" s="15"/>
+      <c r="Q3" s="15"/>
+      <c r="R3" s="15"/>
+      <c r="S3" s="15"/>
+      <c r="T3" s="15"/>
+      <c r="U3" s="15"/>
+      <c r="V3" s="15"/>
+      <c r="W3" s="15"/>
+      <c r="X3" s="15"/>
+      <c r="Y3" s="15"/>
+      <c r="Z3" s="15"/>
+      <c r="AA3" s="15"/>
+      <c r="AB3" s="15"/>
+      <c r="AC3" s="15"/>
+      <c r="AD3" s="15"/>
+      <c r="AE3" s="15"/>
+      <c r="AF3" s="15"/>
+      <c r="AG3" s="15"/>
+      <c r="AH3" s="15"/>
+      <c r="AI3" s="15"/>
+      <c r="AJ3" s="15"/>
+      <c r="AK3" s="15"/>
+      <c r="AL3" s="15"/>
+      <c r="AM3" s="15"/>
     </row>
     <row r="4" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A4" s="15"/>
@@ -14609,10 +15209,18 @@
         <v>9</v>
       </c>
       <c r="J7" s="15"/>
-      <c r="K7" s="15"/>
-      <c r="L7" s="15"/>
-      <c r="M7" s="15"/>
-      <c r="N7" s="15"/>
+      <c r="K7" s="38" t="s">
+        <v>125</v>
+      </c>
+      <c r="L7" s="38" t="s">
+        <v>126</v>
+      </c>
+      <c r="M7" s="38" t="s">
+        <v>127</v>
+      </c>
+      <c r="N7" s="38" t="s">
+        <v>128</v>
+      </c>
       <c r="O7" s="15"/>
       <c r="P7" s="15"/>
       <c r="Q7" s="65"/>
@@ -14674,8 +15282,12 @@
       <c r="L8" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="M8" s="15"/>
-      <c r="N8" s="15"/>
+      <c r="M8" s="15" t="s">
+        <v>123</v>
+      </c>
+      <c r="N8" s="15" t="s">
+        <v>124</v>
+      </c>
       <c r="O8" s="15"/>
       <c r="P8" s="45"/>
       <c r="Q8" s="66"/>
@@ -14739,19 +15351,25 @@
         <v>#N/A</v>
       </c>
       <c r="J9" s="15" t="e">
-        <f t="shared" ref="J9:J39" si="1">IF(E9&gt;F9,3,IF(E9&gt;H9,2,0))</f>
+        <f>IF(E9&gt;F9,3,IF(AND(E9&gt;H9, E9 &lt;=F9),2, IF(E9 &lt;G9,5, IF(AND(E9&lt;I9, E9 &gt;=G9), 4,0))))</f>
         <v>#N/A</v>
       </c>
       <c r="K9" s="15" t="e">
-        <f t="shared" ref="K9:K39" si="2">IF(J9=3,E9,#N/A)</f>
+        <f>IF(J9=3,E9,NA())</f>
         <v>#N/A</v>
       </c>
       <c r="L9" s="15" t="e">
-        <f t="shared" ref="L9:L39" si="3">IF(J9=2,E9,#N/A)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="M9" s="15"/>
-      <c r="N9" s="15"/>
+        <f>IF(J9=2,E9,NA())</f>
+        <v>#N/A</v>
+      </c>
+      <c r="M9" s="15" t="e">
+        <f>IF(J9=4,E9,NA())</f>
+        <v>#N/A</v>
+      </c>
+      <c r="N9" s="15" t="e">
+        <f>IF(J9=5,E9,NA())</f>
+        <v>#N/A</v>
+      </c>
       <c r="O9" s="15"/>
       <c r="P9" s="45"/>
       <c r="Q9" s="67"/>
@@ -14815,19 +15433,25 @@
         <v>#N/A</v>
       </c>
       <c r="J10" s="15" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="J10:J39" si="1">IF(E10&gt;F10,3,IF(AND(E10&gt;H10, E10 &lt;=F10),2, IF(E10 &lt;G10,5, IF(AND(E10&lt;I10, E10 &gt;=G10), 4,0))))</f>
         <v>#N/A</v>
       </c>
       <c r="K10" s="15" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="K10:K39" si="2">IF(J10=3,E10,NA())</f>
         <v>#N/A</v>
       </c>
       <c r="L10" s="15" t="e">
-        <f t="shared" si="3"/>
-        <v>#N/A</v>
-      </c>
-      <c r="M10" s="15"/>
-      <c r="N10" s="15"/>
+        <f t="shared" ref="L10:L39" si="3">IF(J10=2,E10,NA())</f>
+        <v>#N/A</v>
+      </c>
+      <c r="M10" s="15" t="e">
+        <f t="shared" ref="M10:M39" si="4">IF(J10=4,E10,NA())</f>
+        <v>#N/A</v>
+      </c>
+      <c r="N10" s="15" t="e">
+        <f t="shared" ref="N10:N39" si="5">IF(J10=5,E10,NA())</f>
+        <v>#N/A</v>
+      </c>
       <c r="O10" s="15"/>
       <c r="P10" s="45"/>
       <c r="Q10" s="67"/>
@@ -14902,8 +15526,14 @@
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
-      <c r="M11" s="15"/>
-      <c r="N11" s="15"/>
+      <c r="M11" s="15" t="e">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
+      <c r="N11" s="15" t="e">
+        <f t="shared" si="5"/>
+        <v>#N/A</v>
+      </c>
       <c r="O11" s="15"/>
       <c r="P11" s="45"/>
       <c r="Q11" s="67"/>
@@ -14978,8 +15608,14 @@
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
-      <c r="M12" s="15"/>
-      <c r="N12" s="15"/>
+      <c r="M12" s="15" t="e">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
+      <c r="N12" s="15" t="e">
+        <f t="shared" si="5"/>
+        <v>#N/A</v>
+      </c>
       <c r="O12" s="15"/>
       <c r="P12" s="45"/>
       <c r="Q12" s="67"/>
@@ -15054,8 +15690,14 @@
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
-      <c r="M13" s="15"/>
-      <c r="N13" s="15"/>
+      <c r="M13" s="15" t="e">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
+      <c r="N13" s="15" t="e">
+        <f t="shared" si="5"/>
+        <v>#N/A</v>
+      </c>
       <c r="O13" s="15"/>
       <c r="P13" s="45"/>
       <c r="Q13" s="67"/>
@@ -15130,8 +15772,14 @@
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
-      <c r="M14" s="15"/>
-      <c r="N14" s="15"/>
+      <c r="M14" s="15" t="e">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
+      <c r="N14" s="15" t="e">
+        <f t="shared" si="5"/>
+        <v>#N/A</v>
+      </c>
       <c r="O14" s="15"/>
       <c r="P14" s="45"/>
       <c r="Q14" s="67"/>
@@ -15206,8 +15854,14 @@
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
-      <c r="M15" s="15"/>
-      <c r="N15" s="15"/>
+      <c r="M15" s="15" t="e">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
+      <c r="N15" s="15" t="e">
+        <f t="shared" si="5"/>
+        <v>#N/A</v>
+      </c>
       <c r="O15" s="15"/>
       <c r="P15" s="45"/>
       <c r="Q15" s="67"/>
@@ -15282,8 +15936,14 @@
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
-      <c r="M16" s="15"/>
-      <c r="N16" s="15"/>
+      <c r="M16" s="15" t="e">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
+      <c r="N16" s="15" t="e">
+        <f t="shared" si="5"/>
+        <v>#N/A</v>
+      </c>
       <c r="O16" s="15"/>
       <c r="P16" s="45"/>
       <c r="Q16" s="67"/>
@@ -15358,8 +16018,14 @@
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
-      <c r="M17" s="15"/>
-      <c r="N17" s="15"/>
+      <c r="M17" s="15" t="e">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
+      <c r="N17" s="15" t="e">
+        <f t="shared" si="5"/>
+        <v>#N/A</v>
+      </c>
       <c r="O17" s="15"/>
       <c r="P17" s="45"/>
       <c r="Q17" s="67"/>
@@ -15434,8 +16100,14 @@
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
-      <c r="M18" s="15"/>
-      <c r="N18" s="15"/>
+      <c r="M18" s="15" t="e">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
+      <c r="N18" s="15" t="e">
+        <f t="shared" si="5"/>
+        <v>#N/A</v>
+      </c>
       <c r="O18" s="15"/>
       <c r="P18" s="45"/>
       <c r="Q18" s="67"/>
@@ -15467,35 +16139,35 @@
         <v>11</v>
       </c>
       <c r="B19" s="45" t="e">
-        <f t="shared" ref="B19:I28" si="4">VLOOKUP($A19,$A$43:$I$73,B$7,FALSE)</f>
+        <f t="shared" ref="B19:I28" si="6">VLOOKUP($A19,$A$43:$I$73,B$7,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="C19" s="67" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="D19" s="68" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="E19" s="68" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="F19" s="68" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="G19" s="68" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="H19" s="68" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="I19" s="68" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="J19" s="15" t="e">
@@ -15510,8 +16182,14 @@
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
-      <c r="M19" s="15"/>
-      <c r="N19" s="15"/>
+      <c r="M19" s="15" t="e">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
+      <c r="N19" s="15" t="e">
+        <f t="shared" si="5"/>
+        <v>#N/A</v>
+      </c>
       <c r="O19" s="15"/>
       <c r="P19" s="45"/>
       <c r="Q19" s="67"/>
@@ -15543,35 +16221,35 @@
         <v>12</v>
       </c>
       <c r="B20" s="45" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="C20" s="67" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="D20" s="68" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="E20" s="68" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="F20" s="68" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="G20" s="68" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="H20" s="68" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="I20" s="68" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="J20" s="15" t="e">
@@ -15586,8 +16264,14 @@
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
-      <c r="M20" s="15"/>
-      <c r="N20" s="15"/>
+      <c r="M20" s="15" t="e">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
+      <c r="N20" s="15" t="e">
+        <f t="shared" si="5"/>
+        <v>#N/A</v>
+      </c>
       <c r="O20" s="15"/>
       <c r="P20" s="45"/>
       <c r="Q20" s="67"/>
@@ -15619,35 +16303,35 @@
         <v>13</v>
       </c>
       <c r="B21" s="45" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="C21" s="67" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="D21" s="68" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="E21" s="68" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="F21" s="68" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="G21" s="68" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="H21" s="68" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="I21" s="68" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="J21" s="15" t="e">
@@ -15662,8 +16346,14 @@
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
-      <c r="M21" s="15"/>
-      <c r="N21" s="15"/>
+      <c r="M21" s="15" t="e">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
+      <c r="N21" s="15" t="e">
+        <f t="shared" si="5"/>
+        <v>#N/A</v>
+      </c>
       <c r="O21" s="15"/>
       <c r="P21" s="45"/>
       <c r="Q21" s="67"/>
@@ -15695,35 +16385,35 @@
         <v>14</v>
       </c>
       <c r="B22" s="45" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="C22" s="67" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="D22" s="68" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="E22" s="68" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="F22" s="68" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="G22" s="68" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="H22" s="68" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="I22" s="68" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="J22" s="15" t="e">
@@ -15738,8 +16428,14 @@
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
-      <c r="M22" s="15"/>
-      <c r="N22" s="15"/>
+      <c r="M22" s="15" t="e">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
+      <c r="N22" s="15" t="e">
+        <f t="shared" si="5"/>
+        <v>#N/A</v>
+      </c>
       <c r="O22" s="15"/>
       <c r="P22" s="45"/>
       <c r="Q22" s="67"/>
@@ -15771,35 +16467,35 @@
         <v>15</v>
       </c>
       <c r="B23" s="45" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="C23" s="67" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="D23" s="68" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="E23" s="68" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="F23" s="68" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="G23" s="68" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="H23" s="68" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="I23" s="68" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="J23" s="15" t="e">
@@ -15814,8 +16510,14 @@
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
-      <c r="M23" s="15"/>
-      <c r="N23" s="15"/>
+      <c r="M23" s="15" t="e">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
+      <c r="N23" s="15" t="e">
+        <f t="shared" si="5"/>
+        <v>#N/A</v>
+      </c>
       <c r="O23" s="15"/>
       <c r="P23" s="45"/>
       <c r="Q23" s="67"/>
@@ -15847,35 +16549,35 @@
         <v>16</v>
       </c>
       <c r="B24" s="45" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="C24" s="67" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="D24" s="68" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="E24" s="68" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="F24" s="68" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="G24" s="68" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="H24" s="68" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="I24" s="68" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="J24" s="15" t="e">
@@ -15890,8 +16592,14 @@
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
-      <c r="M24" s="15"/>
-      <c r="N24" s="15"/>
+      <c r="M24" s="15" t="e">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
+      <c r="N24" s="15" t="e">
+        <f t="shared" si="5"/>
+        <v>#N/A</v>
+      </c>
       <c r="O24" s="15"/>
       <c r="P24" s="15"/>
       <c r="Q24" s="15"/>
@@ -15923,35 +16631,35 @@
         <v>17</v>
       </c>
       <c r="B25" s="45" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="C25" s="67" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="D25" s="68" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="E25" s="68" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="F25" s="68" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="G25" s="68" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="H25" s="68" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="I25" s="68" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="J25" s="15" t="e">
@@ -15966,8 +16674,14 @@
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
-      <c r="M25" s="15"/>
-      <c r="N25" s="15"/>
+      <c r="M25" s="15" t="e">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
+      <c r="N25" s="15" t="e">
+        <f t="shared" si="5"/>
+        <v>#N/A</v>
+      </c>
       <c r="O25" s="15"/>
       <c r="P25" s="15"/>
       <c r="Q25" s="15"/>
@@ -15999,35 +16713,35 @@
         <v>18</v>
       </c>
       <c r="B26" s="45" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="C26" s="67" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="D26" s="68" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="E26" s="68" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="F26" s="68" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="G26" s="68" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="H26" s="68" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="I26" s="68" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="J26" s="15" t="e">
@@ -16042,8 +16756,14 @@
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
-      <c r="M26" s="15"/>
-      <c r="N26" s="15"/>
+      <c r="M26" s="15" t="e">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
+      <c r="N26" s="15" t="e">
+        <f t="shared" si="5"/>
+        <v>#N/A</v>
+      </c>
       <c r="O26" s="15"/>
       <c r="P26" s="15"/>
       <c r="Q26" s="15"/>
@@ -16075,35 +16795,35 @@
         <v>19</v>
       </c>
       <c r="B27" s="45" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="C27" s="67" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="D27" s="68" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="E27" s="68" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="F27" s="68" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="G27" s="68" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="H27" s="68" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="I27" s="68" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="J27" s="15" t="e">
@@ -16118,8 +16838,14 @@
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
-      <c r="M27" s="15"/>
-      <c r="N27" s="15"/>
+      <c r="M27" s="15" t="e">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
+      <c r="N27" s="15" t="e">
+        <f t="shared" si="5"/>
+        <v>#N/A</v>
+      </c>
       <c r="O27" s="15"/>
       <c r="P27" s="15"/>
       <c r="Q27" s="15"/>
@@ -16151,35 +16877,35 @@
         <v>20</v>
       </c>
       <c r="B28" s="45" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="C28" s="67" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="D28" s="68" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="E28" s="68" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="F28" s="68" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="G28" s="68" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="H28" s="68" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="I28" s="68" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="J28" s="15" t="e">
@@ -16194,8 +16920,14 @@
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
-      <c r="M28" s="15"/>
-      <c r="N28" s="15"/>
+      <c r="M28" s="15" t="e">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
+      <c r="N28" s="15" t="e">
+        <f t="shared" si="5"/>
+        <v>#N/A</v>
+      </c>
       <c r="O28" s="15"/>
       <c r="P28" s="15"/>
       <c r="Q28" s="15"/>
@@ -16227,35 +16959,35 @@
         <v>21</v>
       </c>
       <c r="B29" s="45" t="e">
-        <f t="shared" ref="B29:I39" si="5">VLOOKUP($A29,$A$43:$I$73,B$7,FALSE)</f>
+        <f t="shared" ref="B29:I39" si="7">VLOOKUP($A29,$A$43:$I$73,B$7,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="C29" s="67" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="D29" s="68" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="E29" s="68" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="F29" s="68" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="G29" s="68" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="H29" s="68" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="I29" s="68" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="J29" s="15" t="e">
@@ -16270,8 +17002,14 @@
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
-      <c r="M29" s="15"/>
-      <c r="N29" s="15"/>
+      <c r="M29" s="15" t="e">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
+      <c r="N29" s="15" t="e">
+        <f t="shared" si="5"/>
+        <v>#N/A</v>
+      </c>
       <c r="O29" s="15"/>
       <c r="P29" s="15"/>
       <c r="Q29" s="15"/>
@@ -16303,35 +17041,35 @@
         <v>22</v>
       </c>
       <c r="B30" s="45" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="C30" s="67" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="D30" s="68" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="E30" s="68" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="F30" s="68" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="G30" s="68" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="H30" s="68" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="I30" s="68" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="J30" s="15" t="e">
@@ -16346,8 +17084,14 @@
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
-      <c r="M30" s="15"/>
-      <c r="N30" s="15"/>
+      <c r="M30" s="15" t="e">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
+      <c r="N30" s="15" t="e">
+        <f t="shared" si="5"/>
+        <v>#N/A</v>
+      </c>
       <c r="O30" s="15"/>
       <c r="P30" s="15"/>
       <c r="Q30" s="15"/>
@@ -16379,35 +17123,35 @@
         <v>23</v>
       </c>
       <c r="B31" s="45" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="C31" s="67" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="D31" s="68" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="E31" s="68" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="F31" s="68" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="G31" s="68" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="H31" s="68" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="I31" s="68" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="J31" s="15" t="e">
@@ -16422,8 +17166,14 @@
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
-      <c r="M31" s="15"/>
-      <c r="N31" s="15"/>
+      <c r="M31" s="15" t="e">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
+      <c r="N31" s="15" t="e">
+        <f t="shared" si="5"/>
+        <v>#N/A</v>
+      </c>
       <c r="O31" s="15"/>
       <c r="P31" s="15"/>
       <c r="Q31" s="15"/>
@@ -16455,35 +17205,35 @@
         <v>24</v>
       </c>
       <c r="B32" s="45" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="C32" s="67" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="D32" s="68" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="E32" s="68" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="F32" s="68" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="G32" s="68" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="H32" s="68" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="I32" s="68" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="J32" s="15" t="e">
@@ -16498,8 +17248,14 @@
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
-      <c r="M32" s="15"/>
-      <c r="N32" s="15"/>
+      <c r="M32" s="15" t="e">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
+      <c r="N32" s="15" t="e">
+        <f t="shared" si="5"/>
+        <v>#N/A</v>
+      </c>
       <c r="O32" s="15"/>
       <c r="P32" s="15"/>
       <c r="Q32" s="15"/>
@@ -16531,35 +17287,35 @@
         <v>25</v>
       </c>
       <c r="B33" s="45" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="C33" s="67" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="D33" s="68" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="E33" s="68" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="F33" s="68" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="G33" s="68" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="H33" s="68" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="I33" s="68" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="J33" s="15" t="e">
@@ -16574,8 +17330,14 @@
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
-      <c r="M33" s="15"/>
-      <c r="N33" s="15"/>
+      <c r="M33" s="15" t="e">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
+      <c r="N33" s="15" t="e">
+        <f t="shared" si="5"/>
+        <v>#N/A</v>
+      </c>
       <c r="O33" s="15"/>
       <c r="P33" s="15"/>
       <c r="Q33" s="15"/>
@@ -16607,35 +17369,35 @@
         <v>26</v>
       </c>
       <c r="B34" s="45" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="C34" s="67" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="D34" s="68" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="E34" s="68" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="F34" s="68" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="G34" s="68" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="H34" s="68" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="I34" s="68" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="J34" s="15" t="e">
@@ -16650,8 +17412,14 @@
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
-      <c r="M34" s="15"/>
-      <c r="N34" s="15"/>
+      <c r="M34" s="15" t="e">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
+      <c r="N34" s="15" t="e">
+        <f t="shared" si="5"/>
+        <v>#N/A</v>
+      </c>
       <c r="O34" s="15"/>
       <c r="P34" s="15"/>
       <c r="Q34" s="15"/>
@@ -16683,35 +17451,35 @@
         <v>27</v>
       </c>
       <c r="B35" s="45" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="C35" s="67" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="D35" s="68" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="E35" s="68" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="F35" s="68" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="G35" s="68" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="H35" s="68" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="I35" s="68" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="J35" s="15" t="e">
@@ -16726,8 +17494,14 @@
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
-      <c r="M35" s="15"/>
-      <c r="N35" s="15"/>
+      <c r="M35" s="15" t="e">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
+      <c r="N35" s="15" t="e">
+        <f t="shared" si="5"/>
+        <v>#N/A</v>
+      </c>
       <c r="O35" s="15"/>
       <c r="P35" s="15"/>
       <c r="Q35" s="15"/>
@@ -16759,35 +17533,35 @@
         <v>28</v>
       </c>
       <c r="B36" s="45" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="C36" s="67" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="D36" s="68" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="E36" s="68" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="F36" s="68" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="G36" s="68" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="H36" s="68" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="I36" s="68" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="J36" s="15" t="e">
@@ -16802,8 +17576,14 @@
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
-      <c r="M36" s="15"/>
-      <c r="N36" s="15"/>
+      <c r="M36" s="15" t="e">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
+      <c r="N36" s="15" t="e">
+        <f t="shared" si="5"/>
+        <v>#N/A</v>
+      </c>
       <c r="O36" s="15"/>
       <c r="P36" s="15"/>
       <c r="Q36" s="15"/>
@@ -16835,35 +17615,35 @@
         <v>29</v>
       </c>
       <c r="B37" s="45" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="C37" s="67" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="D37" s="68" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="E37" s="68" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="F37" s="68" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="G37" s="68" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="H37" s="68" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="I37" s="68" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="J37" s="15" t="e">
@@ -16878,8 +17658,14 @@
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
-      <c r="M37" s="15"/>
-      <c r="N37" s="15"/>
+      <c r="M37" s="15" t="e">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
+      <c r="N37" s="15" t="e">
+        <f t="shared" si="5"/>
+        <v>#N/A</v>
+      </c>
       <c r="O37" s="15"/>
       <c r="P37" s="15"/>
       <c r="Q37" s="15"/>
@@ -16911,35 +17697,35 @@
         <v>30</v>
       </c>
       <c r="B38" s="45" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="C38" s="67" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="D38" s="68" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="E38" s="68" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="F38" s="68" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="G38" s="68" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="H38" s="68" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="I38" s="68" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="J38" s="15" t="e">
@@ -16954,8 +17740,14 @@
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
-      <c r="M38" s="15"/>
-      <c r="N38" s="15"/>
+      <c r="M38" s="15" t="e">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
+      <c r="N38" s="15" t="e">
+        <f t="shared" si="5"/>
+        <v>#N/A</v>
+      </c>
       <c r="O38" s="15"/>
       <c r="P38" s="15"/>
       <c r="Q38" s="15"/>
@@ -16987,35 +17779,35 @@
         <v>31</v>
       </c>
       <c r="B39" s="45" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="C39" s="67" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="D39" s="68" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="E39" s="68" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="F39" s="68" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="G39" s="68" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="H39" s="68" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="I39" s="68" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="J39" s="15" t="e">
@@ -17030,8 +17822,14 @@
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
-      <c r="M39" s="15"/>
-      <c r="N39" s="15"/>
+      <c r="M39" s="15" t="e">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
+      <c r="N39" s="15" t="e">
+        <f t="shared" si="5"/>
+        <v>#N/A</v>
+      </c>
       <c r="O39" s="15"/>
       <c r="P39" s="15"/>
       <c r="Q39" s="15"/>
@@ -17215,7 +18013,7 @@
     </row>
     <row r="43" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A43" s="15" t="e">
-        <f t="shared" ref="A43:A73" si="6">RANK(C43,$C$43:$C$73,1)</f>
+        <f t="shared" ref="A43:A73" si="8">RANK(C43,$C$43:$C$73,1)</f>
         <v>#N/A</v>
       </c>
       <c r="B43" s="45" t="s">
@@ -17233,19 +18031,19 @@
         <v>#N/A</v>
       </c>
       <c r="F43" s="73" t="e">
-        <f>VLOOKUP($B43&amp;"3",'Raw Data'!$A:$X,F$41,FALSE)</f>
+        <f>IFERROR(VLOOKUP($B43&amp;"3",'Raw Data'!$A:$X,F$41,FALSE), NA())</f>
         <v>#N/A</v>
       </c>
       <c r="G43" s="73" t="e">
-        <f>VLOOKUP($B43&amp;"3",'Raw Data'!$A:$X,G$41,FALSE)</f>
+        <f>IFERROR(VLOOKUP($B43&amp;"3",'Raw Data'!$A:$X,G$41,FALSE), NA())</f>
         <v>#N/A</v>
       </c>
       <c r="H43" s="73" t="e">
-        <f>VLOOKUP($B43&amp;"3",'Raw Data'!$A:$X,H$41,FALSE)</f>
+        <f>IFERROR(VLOOKUP($B43&amp;"3",'Raw Data'!$A:$X,H$41,FALSE), NA())</f>
         <v>#N/A</v>
       </c>
       <c r="I43" s="73" t="e">
-        <f>VLOOKUP($B43&amp;"3",'Raw Data'!$A:$X,I$41,FALSE)</f>
+        <f>IFERROR(VLOOKUP($B43&amp;"3",'Raw Data'!$A:$X,I$41,FALSE), NA())</f>
         <v>#N/A</v>
       </c>
       <c r="J43" s="15"/>
@@ -17281,7 +18079,7 @@
     </row>
     <row r="44" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A44" s="15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="B44" s="45" t="s">
@@ -17299,19 +18097,19 @@
         <v>#N/A</v>
       </c>
       <c r="F44" s="73" t="e">
-        <f>VLOOKUP($B44&amp;"3",'Raw Data'!$A:$X,F$41,FALSE)</f>
+        <f>IFERROR(VLOOKUP($B44&amp;"3",'Raw Data'!$A:$X,F$41,FALSE), NA())</f>
         <v>#N/A</v>
       </c>
       <c r="G44" s="73" t="e">
-        <f>VLOOKUP($B44&amp;"3",'Raw Data'!$A:$X,G$41,FALSE)</f>
+        <f>IFERROR(VLOOKUP($B44&amp;"3",'Raw Data'!$A:$X,G$41,FALSE), NA())</f>
         <v>#N/A</v>
       </c>
       <c r="H44" s="73" t="e">
-        <f>VLOOKUP($B44&amp;"3",'Raw Data'!$A:$X,H$41,FALSE)</f>
+        <f>IFERROR(VLOOKUP($B44&amp;"3",'Raw Data'!$A:$X,H$41,FALSE), NA())</f>
         <v>#N/A</v>
       </c>
       <c r="I44" s="73" t="e">
-        <f>VLOOKUP($B44&amp;"3",'Raw Data'!$A:$X,I$41,FALSE)</f>
+        <f>IFERROR(VLOOKUP($B44&amp;"3",'Raw Data'!$A:$X,I$41,FALSE), NA())</f>
         <v>#N/A</v>
       </c>
       <c r="J44" s="15"/>
@@ -17347,7 +18145,7 @@
     </row>
     <row r="45" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A45" s="15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="B45" s="45" t="s">
@@ -17365,19 +18163,19 @@
         <v>#N/A</v>
       </c>
       <c r="F45" s="73" t="e">
-        <f>VLOOKUP($B45&amp;"3",'Raw Data'!$A:$X,F$41,FALSE)</f>
+        <f>IFERROR(VLOOKUP($B45&amp;"3",'Raw Data'!$A:$X,F$41,FALSE), NA())</f>
         <v>#N/A</v>
       </c>
       <c r="G45" s="73" t="e">
-        <f>VLOOKUP($B45&amp;"3",'Raw Data'!$A:$X,G$41,FALSE)</f>
+        <f>IFERROR(VLOOKUP($B45&amp;"3",'Raw Data'!$A:$X,G$41,FALSE), NA())</f>
         <v>#N/A</v>
       </c>
       <c r="H45" s="73" t="e">
-        <f>VLOOKUP($B45&amp;"3",'Raw Data'!$A:$X,H$41,FALSE)</f>
+        <f>IFERROR(VLOOKUP($B45&amp;"3",'Raw Data'!$A:$X,H$41,FALSE), NA())</f>
         <v>#N/A</v>
       </c>
       <c r="I45" s="73" t="e">
-        <f>VLOOKUP($B45&amp;"3",'Raw Data'!$A:$X,I$41,FALSE)</f>
+        <f>IFERROR(VLOOKUP($B45&amp;"3",'Raw Data'!$A:$X,I$41,FALSE), NA())</f>
         <v>#N/A</v>
       </c>
       <c r="J45" s="15"/>
@@ -17413,7 +18211,7 @@
     </row>
     <row r="46" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A46" s="15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="B46" s="45" t="s">
@@ -17431,19 +18229,19 @@
         <v>#N/A</v>
       </c>
       <c r="F46" s="73" t="e">
-        <f>VLOOKUP($B46&amp;"3",'Raw Data'!$A:$X,F$41,FALSE)</f>
+        <f>IFERROR(VLOOKUP($B46&amp;"3",'Raw Data'!$A:$X,F$41,FALSE), NA())</f>
         <v>#N/A</v>
       </c>
       <c r="G46" s="73" t="e">
-        <f>VLOOKUP($B46&amp;"3",'Raw Data'!$A:$X,G$41,FALSE)</f>
+        <f>IFERROR(VLOOKUP($B46&amp;"3",'Raw Data'!$A:$X,G$41,FALSE), NA())</f>
         <v>#N/A</v>
       </c>
       <c r="H46" s="73" t="e">
-        <f>VLOOKUP($B46&amp;"3",'Raw Data'!$A:$X,H$41,FALSE)</f>
+        <f>IFERROR(VLOOKUP($B46&amp;"3",'Raw Data'!$A:$X,H$41,FALSE), NA())</f>
         <v>#N/A</v>
       </c>
       <c r="I46" s="73" t="e">
-        <f>VLOOKUP($B46&amp;"3",'Raw Data'!$A:$X,I$41,FALSE)</f>
+        <f>IFERROR(VLOOKUP($B46&amp;"3",'Raw Data'!$A:$X,I$41,FALSE), NA())</f>
         <v>#N/A</v>
       </c>
       <c r="J46" s="15"/>
@@ -17479,7 +18277,7 @@
     </row>
     <row r="47" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A47" s="15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="B47" s="45" t="s">
@@ -17497,19 +18295,19 @@
         <v>#N/A</v>
       </c>
       <c r="F47" s="73" t="e">
-        <f>VLOOKUP($B47&amp;"3",'Raw Data'!$A:$X,F$41,FALSE)</f>
+        <f>IFERROR(VLOOKUP($B47&amp;"3",'Raw Data'!$A:$X,F$41,FALSE), NA())</f>
         <v>#N/A</v>
       </c>
       <c r="G47" s="73" t="e">
-        <f>VLOOKUP($B47&amp;"3",'Raw Data'!$A:$X,G$41,FALSE)</f>
+        <f>IFERROR(VLOOKUP($B47&amp;"3",'Raw Data'!$A:$X,G$41,FALSE), NA())</f>
         <v>#N/A</v>
       </c>
       <c r="H47" s="73" t="e">
-        <f>VLOOKUP($B47&amp;"3",'Raw Data'!$A:$X,H$41,FALSE)</f>
+        <f>IFERROR(VLOOKUP($B47&amp;"3",'Raw Data'!$A:$X,H$41,FALSE), NA())</f>
         <v>#N/A</v>
       </c>
       <c r="I47" s="73" t="e">
-        <f>VLOOKUP($B47&amp;"3",'Raw Data'!$A:$X,I$41,FALSE)</f>
+        <f>IFERROR(VLOOKUP($B47&amp;"3",'Raw Data'!$A:$X,I$41,FALSE), NA())</f>
         <v>#N/A</v>
       </c>
       <c r="J47" s="15"/>
@@ -17545,7 +18343,7 @@
     </row>
     <row r="48" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A48" s="15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="B48" s="45" t="s">
@@ -17563,19 +18361,19 @@
         <v>#N/A</v>
       </c>
       <c r="F48" s="73" t="e">
-        <f>VLOOKUP($B48&amp;"3",'Raw Data'!$A:$X,F$41,FALSE)</f>
+        <f>IFERROR(VLOOKUP($B48&amp;"3",'Raw Data'!$A:$X,F$41,FALSE), NA())</f>
         <v>#N/A</v>
       </c>
       <c r="G48" s="73" t="e">
-        <f>VLOOKUP($B48&amp;"3",'Raw Data'!$A:$X,G$41,FALSE)</f>
+        <f>IFERROR(VLOOKUP($B48&amp;"3",'Raw Data'!$A:$X,G$41,FALSE), NA())</f>
         <v>#N/A</v>
       </c>
       <c r="H48" s="73" t="e">
-        <f>VLOOKUP($B48&amp;"3",'Raw Data'!$A:$X,H$41,FALSE)</f>
+        <f>IFERROR(VLOOKUP($B48&amp;"3",'Raw Data'!$A:$X,H$41,FALSE), NA())</f>
         <v>#N/A</v>
       </c>
       <c r="I48" s="73" t="e">
-        <f>VLOOKUP($B48&amp;"3",'Raw Data'!$A:$X,I$41,FALSE)</f>
+        <f>IFERROR(VLOOKUP($B48&amp;"3",'Raw Data'!$A:$X,I$41,FALSE), NA())</f>
         <v>#N/A</v>
       </c>
       <c r="J48" s="15"/>
@@ -17611,7 +18409,7 @@
     </row>
     <row r="49" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A49" s="15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="B49" s="45" t="s">
@@ -17629,19 +18427,19 @@
         <v>#N/A</v>
       </c>
       <c r="F49" s="73" t="e">
-        <f>VLOOKUP($B49&amp;"3",'Raw Data'!$A:$X,F$41,FALSE)</f>
+        <f>IFERROR(VLOOKUP($B49&amp;"3",'Raw Data'!$A:$X,F$41,FALSE), NA())</f>
         <v>#N/A</v>
       </c>
       <c r="G49" s="73" t="e">
-        <f>VLOOKUP($B49&amp;"3",'Raw Data'!$A:$X,G$41,FALSE)</f>
+        <f>IFERROR(VLOOKUP($B49&amp;"3",'Raw Data'!$A:$X,G$41,FALSE), NA())</f>
         <v>#N/A</v>
       </c>
       <c r="H49" s="73" t="e">
-        <f>VLOOKUP($B49&amp;"3",'Raw Data'!$A:$X,H$41,FALSE)</f>
+        <f>IFERROR(VLOOKUP($B49&amp;"3",'Raw Data'!$A:$X,H$41,FALSE), NA())</f>
         <v>#N/A</v>
       </c>
       <c r="I49" s="73" t="e">
-        <f>VLOOKUP($B49&amp;"3",'Raw Data'!$A:$X,I$41,FALSE)</f>
+        <f>IFERROR(VLOOKUP($B49&amp;"3",'Raw Data'!$A:$X,I$41,FALSE), NA())</f>
         <v>#N/A</v>
       </c>
       <c r="J49" s="15"/>
@@ -17677,7 +18475,7 @@
     </row>
     <row r="50" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A50" s="15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="B50" s="45" t="s">
@@ -17695,19 +18493,19 @@
         <v>#N/A</v>
       </c>
       <c r="F50" s="73" t="e">
-        <f>VLOOKUP($B50&amp;"3",'Raw Data'!$A:$X,F$41,FALSE)</f>
+        <f>IFERROR(VLOOKUP($B50&amp;"3",'Raw Data'!$A:$X,F$41,FALSE), NA())</f>
         <v>#N/A</v>
       </c>
       <c r="G50" s="73" t="e">
-        <f>VLOOKUP($B50&amp;"3",'Raw Data'!$A:$X,G$41,FALSE)</f>
+        <f>IFERROR(VLOOKUP($B50&amp;"3",'Raw Data'!$A:$X,G$41,FALSE), NA())</f>
         <v>#N/A</v>
       </c>
       <c r="H50" s="73" t="e">
-        <f>VLOOKUP($B50&amp;"3",'Raw Data'!$A:$X,H$41,FALSE)</f>
+        <f>IFERROR(VLOOKUP($B50&amp;"3",'Raw Data'!$A:$X,H$41,FALSE), NA())</f>
         <v>#N/A</v>
       </c>
       <c r="I50" s="73" t="e">
-        <f>VLOOKUP($B50&amp;"3",'Raw Data'!$A:$X,I$41,FALSE)</f>
+        <f>IFERROR(VLOOKUP($B50&amp;"3",'Raw Data'!$A:$X,I$41,FALSE), NA())</f>
         <v>#N/A</v>
       </c>
       <c r="J50" s="15"/>
@@ -17743,7 +18541,7 @@
     </row>
     <row r="51" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A51" s="15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="B51" s="45" t="s">
@@ -17761,19 +18559,19 @@
         <v>#N/A</v>
       </c>
       <c r="F51" s="73" t="e">
-        <f>VLOOKUP($B51&amp;"3",'Raw Data'!$A:$X,F$41,FALSE)</f>
+        <f>IFERROR(VLOOKUP($B51&amp;"3",'Raw Data'!$A:$X,F$41,FALSE), NA())</f>
         <v>#N/A</v>
       </c>
       <c r="G51" s="73" t="e">
-        <f>VLOOKUP($B51&amp;"3",'Raw Data'!$A:$X,G$41,FALSE)</f>
+        <f>IFERROR(VLOOKUP($B51&amp;"3",'Raw Data'!$A:$X,G$41,FALSE), NA())</f>
         <v>#N/A</v>
       </c>
       <c r="H51" s="73" t="e">
-        <f>VLOOKUP($B51&amp;"3",'Raw Data'!$A:$X,H$41,FALSE)</f>
+        <f>IFERROR(VLOOKUP($B51&amp;"3",'Raw Data'!$A:$X,H$41,FALSE), NA())</f>
         <v>#N/A</v>
       </c>
       <c r="I51" s="73" t="e">
-        <f>VLOOKUP($B51&amp;"3",'Raw Data'!$A:$X,I$41,FALSE)</f>
+        <f>IFERROR(VLOOKUP($B51&amp;"3",'Raw Data'!$A:$X,I$41,FALSE), NA())</f>
         <v>#N/A</v>
       </c>
       <c r="J51" s="15"/>
@@ -17809,7 +18607,7 @@
     </row>
     <row r="52" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A52" s="15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="B52" s="45" t="s">
@@ -17827,19 +18625,19 @@
         <v>#N/A</v>
       </c>
       <c r="F52" s="73" t="e">
-        <f>VLOOKUP($B52&amp;"3",'Raw Data'!$A:$X,F$41,FALSE)</f>
+        <f>IFERROR(VLOOKUP($B52&amp;"3",'Raw Data'!$A:$X,F$41,FALSE), NA())</f>
         <v>#N/A</v>
       </c>
       <c r="G52" s="73" t="e">
-        <f>VLOOKUP($B52&amp;"3",'Raw Data'!$A:$X,G$41,FALSE)</f>
+        <f>IFERROR(VLOOKUP($B52&amp;"3",'Raw Data'!$A:$X,G$41,FALSE), NA())</f>
         <v>#N/A</v>
       </c>
       <c r="H52" s="73" t="e">
-        <f>VLOOKUP($B52&amp;"3",'Raw Data'!$A:$X,H$41,FALSE)</f>
+        <f>IFERROR(VLOOKUP($B52&amp;"3",'Raw Data'!$A:$X,H$41,FALSE), NA())</f>
         <v>#N/A</v>
       </c>
       <c r="I52" s="73" t="e">
-        <f>VLOOKUP($B52&amp;"3",'Raw Data'!$A:$X,I$41,FALSE)</f>
+        <f>IFERROR(VLOOKUP($B52&amp;"3",'Raw Data'!$A:$X,I$41,FALSE), NA())</f>
         <v>#N/A</v>
       </c>
       <c r="J52" s="15"/>
@@ -17875,7 +18673,7 @@
     </row>
     <row r="53" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A53" s="15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="B53" s="45" t="s">
@@ -17893,19 +18691,19 @@
         <v>#N/A</v>
       </c>
       <c r="F53" s="73" t="e">
-        <f>VLOOKUP($B53&amp;"3",'Raw Data'!$A:$X,F$41,FALSE)</f>
+        <f>IFERROR(VLOOKUP($B53&amp;"3",'Raw Data'!$A:$X,F$41,FALSE), NA())</f>
         <v>#N/A</v>
       </c>
       <c r="G53" s="73" t="e">
-        <f>VLOOKUP($B53&amp;"3",'Raw Data'!$A:$X,G$41,FALSE)</f>
+        <f>IFERROR(VLOOKUP($B53&amp;"3",'Raw Data'!$A:$X,G$41,FALSE), NA())</f>
         <v>#N/A</v>
       </c>
       <c r="H53" s="73" t="e">
-        <f>VLOOKUP($B53&amp;"3",'Raw Data'!$A:$X,H$41,FALSE)</f>
+        <f>IFERROR(VLOOKUP($B53&amp;"3",'Raw Data'!$A:$X,H$41,FALSE), NA())</f>
         <v>#N/A</v>
       </c>
       <c r="I53" s="73" t="e">
-        <f>VLOOKUP($B53&amp;"3",'Raw Data'!$A:$X,I$41,FALSE)</f>
+        <f>IFERROR(VLOOKUP($B53&amp;"3",'Raw Data'!$A:$X,I$41,FALSE), NA())</f>
         <v>#N/A</v>
       </c>
       <c r="J53" s="15"/>
@@ -17941,7 +18739,7 @@
     </row>
     <row r="54" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A54" s="15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="B54" s="45" t="s">
@@ -17959,19 +18757,19 @@
         <v>#N/A</v>
       </c>
       <c r="F54" s="73" t="e">
-        <f>VLOOKUP($B54&amp;"3",'Raw Data'!$A:$X,F$41,FALSE)</f>
+        <f>IFERROR(VLOOKUP($B54&amp;"3",'Raw Data'!$A:$X,F$41,FALSE), NA())</f>
         <v>#N/A</v>
       </c>
       <c r="G54" s="73" t="e">
-        <f>VLOOKUP($B54&amp;"3",'Raw Data'!$A:$X,G$41,FALSE)</f>
+        <f>IFERROR(VLOOKUP($B54&amp;"3",'Raw Data'!$A:$X,G$41,FALSE), NA())</f>
         <v>#N/A</v>
       </c>
       <c r="H54" s="73" t="e">
-        <f>VLOOKUP($B54&amp;"3",'Raw Data'!$A:$X,H$41,FALSE)</f>
+        <f>IFERROR(VLOOKUP($B54&amp;"3",'Raw Data'!$A:$X,H$41,FALSE), NA())</f>
         <v>#N/A</v>
       </c>
       <c r="I54" s="73" t="e">
-        <f>VLOOKUP($B54&amp;"3",'Raw Data'!$A:$X,I$41,FALSE)</f>
+        <f>IFERROR(VLOOKUP($B54&amp;"3",'Raw Data'!$A:$X,I$41,FALSE), NA())</f>
         <v>#N/A</v>
       </c>
       <c r="J54" s="15"/>
@@ -18007,7 +18805,7 @@
     </row>
     <row r="55" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A55" s="15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="B55" s="45" t="s">
@@ -18025,19 +18823,19 @@
         <v>#N/A</v>
       </c>
       <c r="F55" s="73" t="e">
-        <f>VLOOKUP($B55&amp;"3",'Raw Data'!$A:$X,F$41,FALSE)</f>
+        <f>IFERROR(VLOOKUP($B55&amp;"3",'Raw Data'!$A:$X,F$41,FALSE), NA())</f>
         <v>#N/A</v>
       </c>
       <c r="G55" s="73" t="e">
-        <f>VLOOKUP($B55&amp;"3",'Raw Data'!$A:$X,G$41,FALSE)</f>
+        <f>IFERROR(VLOOKUP($B55&amp;"3",'Raw Data'!$A:$X,G$41,FALSE), NA())</f>
         <v>#N/A</v>
       </c>
       <c r="H55" s="73" t="e">
-        <f>VLOOKUP($B55&amp;"3",'Raw Data'!$A:$X,H$41,FALSE)</f>
+        <f>IFERROR(VLOOKUP($B55&amp;"3",'Raw Data'!$A:$X,H$41,FALSE), NA())</f>
         <v>#N/A</v>
       </c>
       <c r="I55" s="73" t="e">
-        <f>VLOOKUP($B55&amp;"3",'Raw Data'!$A:$X,I$41,FALSE)</f>
+        <f>IFERROR(VLOOKUP($B55&amp;"3",'Raw Data'!$A:$X,I$41,FALSE), NA())</f>
         <v>#N/A</v>
       </c>
       <c r="J55" s="15"/>
@@ -18073,7 +18871,7 @@
     </row>
     <row r="56" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A56" s="15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="B56" s="45" t="s">
@@ -18091,19 +18889,19 @@
         <v>#N/A</v>
       </c>
       <c r="F56" s="73" t="e">
-        <f>VLOOKUP($B56&amp;"3",'Raw Data'!$A:$X,F$41,FALSE)</f>
+        <f>IFERROR(VLOOKUP($B56&amp;"3",'Raw Data'!$A:$X,F$41,FALSE), NA())</f>
         <v>#N/A</v>
       </c>
       <c r="G56" s="73" t="e">
-        <f>VLOOKUP($B56&amp;"3",'Raw Data'!$A:$X,G$41,FALSE)</f>
+        <f>IFERROR(VLOOKUP($B56&amp;"3",'Raw Data'!$A:$X,G$41,FALSE), NA())</f>
         <v>#N/A</v>
       </c>
       <c r="H56" s="73" t="e">
-        <f>VLOOKUP($B56&amp;"3",'Raw Data'!$A:$X,H$41,FALSE)</f>
+        <f>IFERROR(VLOOKUP($B56&amp;"3",'Raw Data'!$A:$X,H$41,FALSE), NA())</f>
         <v>#N/A</v>
       </c>
       <c r="I56" s="73" t="e">
-        <f>VLOOKUP($B56&amp;"3",'Raw Data'!$A:$X,I$41,FALSE)</f>
+        <f>IFERROR(VLOOKUP($B56&amp;"3",'Raw Data'!$A:$X,I$41,FALSE), NA())</f>
         <v>#N/A</v>
       </c>
       <c r="J56" s="15"/>
@@ -18139,7 +18937,7 @@
     </row>
     <row r="57" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A57" s="15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="B57" s="45" t="s">
@@ -18157,19 +18955,19 @@
         <v>#N/A</v>
       </c>
       <c r="F57" s="73" t="e">
-        <f>VLOOKUP($B57&amp;"3",'Raw Data'!$A:$X,F$41,FALSE)</f>
+        <f>IFERROR(VLOOKUP($B57&amp;"3",'Raw Data'!$A:$X,F$41,FALSE), NA())</f>
         <v>#N/A</v>
       </c>
       <c r="G57" s="73" t="e">
-        <f>VLOOKUP($B57&amp;"3",'Raw Data'!$A:$X,G$41,FALSE)</f>
+        <f>IFERROR(VLOOKUP($B57&amp;"3",'Raw Data'!$A:$X,G$41,FALSE), NA())</f>
         <v>#N/A</v>
       </c>
       <c r="H57" s="73" t="e">
-        <f>VLOOKUP($B57&amp;"3",'Raw Data'!$A:$X,H$41,FALSE)</f>
+        <f>IFERROR(VLOOKUP($B57&amp;"3",'Raw Data'!$A:$X,H$41,FALSE), NA())</f>
         <v>#N/A</v>
       </c>
       <c r="I57" s="73" t="e">
-        <f>VLOOKUP($B57&amp;"3",'Raw Data'!$A:$X,I$41,FALSE)</f>
+        <f>IFERROR(VLOOKUP($B57&amp;"3",'Raw Data'!$A:$X,I$41,FALSE), NA())</f>
         <v>#N/A</v>
       </c>
       <c r="J57" s="15"/>
@@ -18205,7 +19003,7 @@
     </row>
     <row r="58" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A58" s="15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="B58" s="45" t="s">
@@ -18223,19 +19021,19 @@
         <v>#N/A</v>
       </c>
       <c r="F58" s="73" t="e">
-        <f>VLOOKUP($B58&amp;"3",'Raw Data'!$A:$X,F$41,FALSE)</f>
+        <f>IFERROR(VLOOKUP($B58&amp;"3",'Raw Data'!$A:$X,F$41,FALSE), NA())</f>
         <v>#N/A</v>
       </c>
       <c r="G58" s="73" t="e">
-        <f>VLOOKUP($B58&amp;"3",'Raw Data'!$A:$X,G$41,FALSE)</f>
+        <f>IFERROR(VLOOKUP($B58&amp;"3",'Raw Data'!$A:$X,G$41,FALSE), NA())</f>
         <v>#N/A</v>
       </c>
       <c r="H58" s="73" t="e">
-        <f>VLOOKUP($B58&amp;"3",'Raw Data'!$A:$X,H$41,FALSE)</f>
+        <f>IFERROR(VLOOKUP($B58&amp;"3",'Raw Data'!$A:$X,H$41,FALSE), NA())</f>
         <v>#N/A</v>
       </c>
       <c r="I58" s="73" t="e">
-        <f>VLOOKUP($B58&amp;"3",'Raw Data'!$A:$X,I$41,FALSE)</f>
+        <f>IFERROR(VLOOKUP($B58&amp;"3",'Raw Data'!$A:$X,I$41,FALSE), NA())</f>
         <v>#N/A</v>
       </c>
       <c r="J58" s="15"/>
@@ -18271,7 +19069,7 @@
     </row>
     <row r="59" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A59" s="15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="B59" s="45" t="s">
@@ -18289,19 +19087,19 @@
         <v>#N/A</v>
       </c>
       <c r="F59" s="73" t="e">
-        <f>VLOOKUP($B59&amp;"3",'Raw Data'!$A:$X,F$41,FALSE)</f>
+        <f>IFERROR(VLOOKUP($B59&amp;"3",'Raw Data'!$A:$X,F$41,FALSE), NA())</f>
         <v>#N/A</v>
       </c>
       <c r="G59" s="73" t="e">
-        <f>VLOOKUP($B59&amp;"3",'Raw Data'!$A:$X,G$41,FALSE)</f>
+        <f>IFERROR(VLOOKUP($B59&amp;"3",'Raw Data'!$A:$X,G$41,FALSE), NA())</f>
         <v>#N/A</v>
       </c>
       <c r="H59" s="73" t="e">
-        <f>VLOOKUP($B59&amp;"3",'Raw Data'!$A:$X,H$41,FALSE)</f>
+        <f>IFERROR(VLOOKUP($B59&amp;"3",'Raw Data'!$A:$X,H$41,FALSE), NA())</f>
         <v>#N/A</v>
       </c>
       <c r="I59" s="73" t="e">
-        <f>VLOOKUP($B59&amp;"3",'Raw Data'!$A:$X,I$41,FALSE)</f>
+        <f>IFERROR(VLOOKUP($B59&amp;"3",'Raw Data'!$A:$X,I$41,FALSE), NA())</f>
         <v>#N/A</v>
       </c>
       <c r="J59" s="15"/>
@@ -18337,7 +19135,7 @@
     </row>
     <row r="60" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A60" s="15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="B60" s="45" t="s">
@@ -18355,19 +19153,19 @@
         <v>#N/A</v>
       </c>
       <c r="F60" s="73" t="e">
-        <f>VLOOKUP($B60&amp;"3",'Raw Data'!$A:$X,F$41,FALSE)</f>
+        <f>IFERROR(VLOOKUP($B60&amp;"3",'Raw Data'!$A:$X,F$41,FALSE), NA())</f>
         <v>#N/A</v>
       </c>
       <c r="G60" s="73" t="e">
-        <f>VLOOKUP($B60&amp;"3",'Raw Data'!$A:$X,G$41,FALSE)</f>
+        <f>IFERROR(VLOOKUP($B60&amp;"3",'Raw Data'!$A:$X,G$41,FALSE), NA())</f>
         <v>#N/A</v>
       </c>
       <c r="H60" s="73" t="e">
-        <f>VLOOKUP($B60&amp;"3",'Raw Data'!$A:$X,H$41,FALSE)</f>
+        <f>IFERROR(VLOOKUP($B60&amp;"3",'Raw Data'!$A:$X,H$41,FALSE), NA())</f>
         <v>#N/A</v>
       </c>
       <c r="I60" s="73" t="e">
-        <f>VLOOKUP($B60&amp;"3",'Raw Data'!$A:$X,I$41,FALSE)</f>
+        <f>IFERROR(VLOOKUP($B60&amp;"3",'Raw Data'!$A:$X,I$41,FALSE), NA())</f>
         <v>#N/A</v>
       </c>
       <c r="J60" s="15"/>
@@ -18403,7 +19201,7 @@
     </row>
     <row r="61" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A61" s="15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="B61" s="45" t="s">
@@ -18421,19 +19219,19 @@
         <v>#N/A</v>
       </c>
       <c r="F61" s="73" t="e">
-        <f>VLOOKUP($B61&amp;"3",'Raw Data'!$A:$X,F$41,FALSE)</f>
+        <f>IFERROR(VLOOKUP($B61&amp;"3",'Raw Data'!$A:$X,F$41,FALSE), NA())</f>
         <v>#N/A</v>
       </c>
       <c r="G61" s="73" t="e">
-        <f>VLOOKUP($B61&amp;"3",'Raw Data'!$A:$X,G$41,FALSE)</f>
+        <f>IFERROR(VLOOKUP($B61&amp;"3",'Raw Data'!$A:$X,G$41,FALSE), NA())</f>
         <v>#N/A</v>
       </c>
       <c r="H61" s="73" t="e">
-        <f>VLOOKUP($B61&amp;"3",'Raw Data'!$A:$X,H$41,FALSE)</f>
+        <f>IFERROR(VLOOKUP($B61&amp;"3",'Raw Data'!$A:$X,H$41,FALSE), NA())</f>
         <v>#N/A</v>
       </c>
       <c r="I61" s="73" t="e">
-        <f>VLOOKUP($B61&amp;"3",'Raw Data'!$A:$X,I$41,FALSE)</f>
+        <f>IFERROR(VLOOKUP($B61&amp;"3",'Raw Data'!$A:$X,I$41,FALSE), NA())</f>
         <v>#N/A</v>
       </c>
       <c r="J61" s="15"/>
@@ -18469,7 +19267,7 @@
     </row>
     <row r="62" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A62" s="15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="B62" s="45" t="s">
@@ -18487,19 +19285,19 @@
         <v>#N/A</v>
       </c>
       <c r="F62" s="73" t="e">
-        <f>VLOOKUP($B62&amp;"3",'Raw Data'!$A:$X,F$41,FALSE)</f>
+        <f>IFERROR(VLOOKUP($B62&amp;"3",'Raw Data'!$A:$X,F$41,FALSE), NA())</f>
         <v>#N/A</v>
       </c>
       <c r="G62" s="73" t="e">
-        <f>VLOOKUP($B62&amp;"3",'Raw Data'!$A:$X,G$41,FALSE)</f>
+        <f>IFERROR(VLOOKUP($B62&amp;"3",'Raw Data'!$A:$X,G$41,FALSE), NA())</f>
         <v>#N/A</v>
       </c>
       <c r="H62" s="73" t="e">
-        <f>VLOOKUP($B62&amp;"3",'Raw Data'!$A:$X,H$41,FALSE)</f>
+        <f>IFERROR(VLOOKUP($B62&amp;"3",'Raw Data'!$A:$X,H$41,FALSE), NA())</f>
         <v>#N/A</v>
       </c>
       <c r="I62" s="73" t="e">
-        <f>VLOOKUP($B62&amp;"3",'Raw Data'!$A:$X,I$41,FALSE)</f>
+        <f>IFERROR(VLOOKUP($B62&amp;"3",'Raw Data'!$A:$X,I$41,FALSE), NA())</f>
         <v>#N/A</v>
       </c>
       <c r="J62" s="15"/>
@@ -18535,7 +19333,7 @@
     </row>
     <row r="63" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A63" s="15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="B63" s="45" t="s">
@@ -18553,19 +19351,19 @@
         <v>#N/A</v>
       </c>
       <c r="F63" s="73" t="e">
-        <f>VLOOKUP($B63&amp;"3",'Raw Data'!$A:$X,F$41,FALSE)</f>
+        <f>IFERROR(VLOOKUP($B63&amp;"3",'Raw Data'!$A:$X,F$41,FALSE), NA())</f>
         <v>#N/A</v>
       </c>
       <c r="G63" s="73" t="e">
-        <f>VLOOKUP($B63&amp;"3",'Raw Data'!$A:$X,G$41,FALSE)</f>
+        <f>IFERROR(VLOOKUP($B63&amp;"3",'Raw Data'!$A:$X,G$41,FALSE), NA())</f>
         <v>#N/A</v>
       </c>
       <c r="H63" s="73" t="e">
-        <f>VLOOKUP($B63&amp;"3",'Raw Data'!$A:$X,H$41,FALSE)</f>
+        <f>IFERROR(VLOOKUP($B63&amp;"3",'Raw Data'!$A:$X,H$41,FALSE), NA())</f>
         <v>#N/A</v>
       </c>
       <c r="I63" s="73" t="e">
-        <f>VLOOKUP($B63&amp;"3",'Raw Data'!$A:$X,I$41,FALSE)</f>
+        <f>IFERROR(VLOOKUP($B63&amp;"3",'Raw Data'!$A:$X,I$41,FALSE), NA())</f>
         <v>#N/A</v>
       </c>
       <c r="J63" s="15"/>
@@ -18601,7 +19399,7 @@
     </row>
     <row r="64" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A64" s="15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="B64" s="45" t="s">
@@ -18619,19 +19417,19 @@
         <v>#N/A</v>
       </c>
       <c r="F64" s="73" t="e">
-        <f>VLOOKUP($B64&amp;"3",'Raw Data'!$A:$X,F$41,FALSE)</f>
+        <f>IFERROR(VLOOKUP($B64&amp;"3",'Raw Data'!$A:$X,F$41,FALSE), NA())</f>
         <v>#N/A</v>
       </c>
       <c r="G64" s="73" t="e">
-        <f>VLOOKUP($B64&amp;"3",'Raw Data'!$A:$X,G$41,FALSE)</f>
+        <f>IFERROR(VLOOKUP($B64&amp;"3",'Raw Data'!$A:$X,G$41,FALSE), NA())</f>
         <v>#N/A</v>
       </c>
       <c r="H64" s="73" t="e">
-        <f>VLOOKUP($B64&amp;"3",'Raw Data'!$A:$X,H$41,FALSE)</f>
+        <f>IFERROR(VLOOKUP($B64&amp;"3",'Raw Data'!$A:$X,H$41,FALSE), NA())</f>
         <v>#N/A</v>
       </c>
       <c r="I64" s="73" t="e">
-        <f>VLOOKUP($B64&amp;"3",'Raw Data'!$A:$X,I$41,FALSE)</f>
+        <f>IFERROR(VLOOKUP($B64&amp;"3",'Raw Data'!$A:$X,I$41,FALSE), NA())</f>
         <v>#N/A</v>
       </c>
       <c r="J64" s="15"/>
@@ -18667,7 +19465,7 @@
     </row>
     <row r="65" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A65" s="15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="B65" s="45" t="s">
@@ -18685,19 +19483,19 @@
         <v>#N/A</v>
       </c>
       <c r="F65" s="73" t="e">
-        <f>VLOOKUP($B65&amp;"3",'Raw Data'!$A:$X,F$41,FALSE)</f>
+        <f>IFERROR(VLOOKUP($B65&amp;"3",'Raw Data'!$A:$X,F$41,FALSE), NA())</f>
         <v>#N/A</v>
       </c>
       <c r="G65" s="73" t="e">
-        <f>VLOOKUP($B65&amp;"3",'Raw Data'!$A:$X,G$41,FALSE)</f>
+        <f>IFERROR(VLOOKUP($B65&amp;"3",'Raw Data'!$A:$X,G$41,FALSE), NA())</f>
         <v>#N/A</v>
       </c>
       <c r="H65" s="73" t="e">
-        <f>VLOOKUP($B65&amp;"3",'Raw Data'!$A:$X,H$41,FALSE)</f>
+        <f>IFERROR(VLOOKUP($B65&amp;"3",'Raw Data'!$A:$X,H$41,FALSE), NA())</f>
         <v>#N/A</v>
       </c>
       <c r="I65" s="73" t="e">
-        <f>VLOOKUP($B65&amp;"3",'Raw Data'!$A:$X,I$41,FALSE)</f>
+        <f>IFERROR(VLOOKUP($B65&amp;"3",'Raw Data'!$A:$X,I$41,FALSE), NA())</f>
         <v>#N/A</v>
       </c>
       <c r="J65" s="15"/>
@@ -18733,7 +19531,7 @@
     </row>
     <row r="66" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A66" s="15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="B66" s="45" t="s">
@@ -18751,19 +19549,19 @@
         <v>#N/A</v>
       </c>
       <c r="F66" s="73" t="e">
-        <f>VLOOKUP($B66&amp;"3",'Raw Data'!$A:$X,F$41,FALSE)</f>
+        <f>IFERROR(VLOOKUP($B66&amp;"3",'Raw Data'!$A:$X,F$41,FALSE), NA())</f>
         <v>#N/A</v>
       </c>
       <c r="G66" s="73" t="e">
-        <f>VLOOKUP($B66&amp;"3",'Raw Data'!$A:$X,G$41,FALSE)</f>
+        <f>IFERROR(VLOOKUP($B66&amp;"3",'Raw Data'!$A:$X,G$41,FALSE), NA())</f>
         <v>#N/A</v>
       </c>
       <c r="H66" s="73" t="e">
-        <f>VLOOKUP($B66&amp;"3",'Raw Data'!$A:$X,H$41,FALSE)</f>
+        <f>IFERROR(VLOOKUP($B66&amp;"3",'Raw Data'!$A:$X,H$41,FALSE), NA())</f>
         <v>#N/A</v>
       </c>
       <c r="I66" s="73" t="e">
-        <f>VLOOKUP($B66&amp;"3",'Raw Data'!$A:$X,I$41,FALSE)</f>
+        <f>IFERROR(VLOOKUP($B66&amp;"3",'Raw Data'!$A:$X,I$41,FALSE), NA())</f>
         <v>#N/A</v>
       </c>
       <c r="J66" s="15"/>
@@ -18799,7 +19597,7 @@
     </row>
     <row r="67" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A67" s="15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="B67" s="45" t="s">
@@ -18817,19 +19615,19 @@
         <v>#N/A</v>
       </c>
       <c r="F67" s="73" t="e">
-        <f>VLOOKUP($B67&amp;"3",'Raw Data'!$A:$X,F$41,FALSE)</f>
+        <f>IFERROR(VLOOKUP($B67&amp;"3",'Raw Data'!$A:$X,F$41,FALSE), NA())</f>
         <v>#N/A</v>
       </c>
       <c r="G67" s="73" t="e">
-        <f>VLOOKUP($B67&amp;"3",'Raw Data'!$A:$X,G$41,FALSE)</f>
+        <f>IFERROR(VLOOKUP($B67&amp;"3",'Raw Data'!$A:$X,G$41,FALSE), NA())</f>
         <v>#N/A</v>
       </c>
       <c r="H67" s="73" t="e">
-        <f>VLOOKUP($B67&amp;"3",'Raw Data'!$A:$X,H$41,FALSE)</f>
+        <f>IFERROR(VLOOKUP($B67&amp;"3",'Raw Data'!$A:$X,H$41,FALSE), NA())</f>
         <v>#N/A</v>
       </c>
       <c r="I67" s="73" t="e">
-        <f>VLOOKUP($B67&amp;"3",'Raw Data'!$A:$X,I$41,FALSE)</f>
+        <f>IFERROR(VLOOKUP($B67&amp;"3",'Raw Data'!$A:$X,I$41,FALSE), NA())</f>
         <v>#N/A</v>
       </c>
       <c r="J67" s="15"/>
@@ -18865,7 +19663,7 @@
     </row>
     <row r="68" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A68" s="15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="B68" s="45" t="s">
@@ -18883,19 +19681,19 @@
         <v>#N/A</v>
       </c>
       <c r="F68" s="73" t="e">
-        <f>VLOOKUP($B68&amp;"3",'Raw Data'!$A:$X,F$41,FALSE)</f>
+        <f>IFERROR(VLOOKUP($B68&amp;"3",'Raw Data'!$A:$X,F$41,FALSE), NA())</f>
         <v>#N/A</v>
       </c>
       <c r="G68" s="73" t="e">
-        <f>VLOOKUP($B68&amp;"3",'Raw Data'!$A:$X,G$41,FALSE)</f>
+        <f>IFERROR(VLOOKUP($B68&amp;"3",'Raw Data'!$A:$X,G$41,FALSE), NA())</f>
         <v>#N/A</v>
       </c>
       <c r="H68" s="73" t="e">
-        <f>VLOOKUP($B68&amp;"3",'Raw Data'!$A:$X,H$41,FALSE)</f>
+        <f>IFERROR(VLOOKUP($B68&amp;"3",'Raw Data'!$A:$X,H$41,FALSE), NA())</f>
         <v>#N/A</v>
       </c>
       <c r="I68" s="73" t="e">
-        <f>VLOOKUP($B68&amp;"3",'Raw Data'!$A:$X,I$41,FALSE)</f>
+        <f>IFERROR(VLOOKUP($B68&amp;"3",'Raw Data'!$A:$X,I$41,FALSE), NA())</f>
         <v>#N/A</v>
       </c>
       <c r="J68" s="15"/>
@@ -18931,7 +19729,7 @@
     </row>
     <row r="69" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A69" s="15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="B69" s="45" t="s">
@@ -18949,19 +19747,19 @@
         <v>#N/A</v>
       </c>
       <c r="F69" s="73" t="e">
-        <f>VLOOKUP($B69&amp;"3",'Raw Data'!$A:$X,F$41,FALSE)</f>
+        <f>IFERROR(VLOOKUP($B69&amp;"3",'Raw Data'!$A:$X,F$41,FALSE), NA())</f>
         <v>#N/A</v>
       </c>
       <c r="G69" s="73" t="e">
-        <f>VLOOKUP($B69&amp;"3",'Raw Data'!$A:$X,G$41,FALSE)</f>
+        <f>IFERROR(VLOOKUP($B69&amp;"3",'Raw Data'!$A:$X,G$41,FALSE), NA())</f>
         <v>#N/A</v>
       </c>
       <c r="H69" s="73" t="e">
-        <f>VLOOKUP($B69&amp;"3",'Raw Data'!$A:$X,H$41,FALSE)</f>
+        <f>IFERROR(VLOOKUP($B69&amp;"3",'Raw Data'!$A:$X,H$41,FALSE), NA())</f>
         <v>#N/A</v>
       </c>
       <c r="I69" s="73" t="e">
-        <f>VLOOKUP($B69&amp;"3",'Raw Data'!$A:$X,I$41,FALSE)</f>
+        <f>IFERROR(VLOOKUP($B69&amp;"3",'Raw Data'!$A:$X,I$41,FALSE), NA())</f>
         <v>#N/A</v>
       </c>
       <c r="J69" s="15"/>
@@ -18997,7 +19795,7 @@
     </row>
     <row r="70" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A70" s="15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="B70" s="45" t="s">
@@ -19015,19 +19813,19 @@
         <v>#N/A</v>
       </c>
       <c r="F70" s="73" t="e">
-        <f>VLOOKUP($B70&amp;"3",'Raw Data'!$A:$X,F$41,FALSE)</f>
+        <f>IFERROR(VLOOKUP($B70&amp;"3",'Raw Data'!$A:$X,F$41,FALSE), NA())</f>
         <v>#N/A</v>
       </c>
       <c r="G70" s="73" t="e">
-        <f>VLOOKUP($B70&amp;"3",'Raw Data'!$A:$X,G$41,FALSE)</f>
+        <f>IFERROR(VLOOKUP($B70&amp;"3",'Raw Data'!$A:$X,G$41,FALSE), NA())</f>
         <v>#N/A</v>
       </c>
       <c r="H70" s="73" t="e">
-        <f>VLOOKUP($B70&amp;"3",'Raw Data'!$A:$X,H$41,FALSE)</f>
+        <f>IFERROR(VLOOKUP($B70&amp;"3",'Raw Data'!$A:$X,H$41,FALSE), NA())</f>
         <v>#N/A</v>
       </c>
       <c r="I70" s="73" t="e">
-        <f>VLOOKUP($B70&amp;"3",'Raw Data'!$A:$X,I$41,FALSE)</f>
+        <f>IFERROR(VLOOKUP($B70&amp;"3",'Raw Data'!$A:$X,I$41,FALSE), NA())</f>
         <v>#N/A</v>
       </c>
       <c r="J70" s="15"/>
@@ -19063,7 +19861,7 @@
     </row>
     <row r="71" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A71" s="15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="B71" s="15" t="s">
@@ -19081,19 +19879,19 @@
         <v>#N/A</v>
       </c>
       <c r="F71" s="73" t="e">
-        <f>VLOOKUP($B71&amp;"3",'Raw Data'!$A:$X,F$41,FALSE)</f>
+        <f>IFERROR(VLOOKUP($B71&amp;"3",'Raw Data'!$A:$X,F$41,FALSE), NA())</f>
         <v>#N/A</v>
       </c>
       <c r="G71" s="73" t="e">
-        <f>VLOOKUP($B71&amp;"3",'Raw Data'!$A:$X,G$41,FALSE)</f>
+        <f>IFERROR(VLOOKUP($B71&amp;"3",'Raw Data'!$A:$X,G$41,FALSE), NA())</f>
         <v>#N/A</v>
       </c>
       <c r="H71" s="73" t="e">
-        <f>VLOOKUP($B71&amp;"3",'Raw Data'!$A:$X,H$41,FALSE)</f>
+        <f>IFERROR(VLOOKUP($B71&amp;"3",'Raw Data'!$A:$X,H$41,FALSE), NA())</f>
         <v>#N/A</v>
       </c>
       <c r="I71" s="73" t="e">
-        <f>VLOOKUP($B71&amp;"3",'Raw Data'!$A:$X,I$41,FALSE)</f>
+        <f>IFERROR(VLOOKUP($B71&amp;"3",'Raw Data'!$A:$X,I$41,FALSE), NA())</f>
         <v>#N/A</v>
       </c>
       <c r="J71" s="15"/>
@@ -19129,7 +19927,7 @@
     </row>
     <row r="72" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A72" s="15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="B72" s="15" t="s">
@@ -19147,19 +19945,19 @@
         <v>#N/A</v>
       </c>
       <c r="F72" s="73" t="e">
-        <f>VLOOKUP($B72&amp;"3",'Raw Data'!$A:$X,F$41,FALSE)</f>
+        <f>IFERROR(VLOOKUP($B72&amp;"3",'Raw Data'!$A:$X,F$41,FALSE), NA())</f>
         <v>#N/A</v>
       </c>
       <c r="G72" s="73" t="e">
-        <f>VLOOKUP($B72&amp;"3",'Raw Data'!$A:$X,G$41,FALSE)</f>
+        <f>IFERROR(VLOOKUP($B72&amp;"3",'Raw Data'!$A:$X,G$41,FALSE), NA())</f>
         <v>#N/A</v>
       </c>
       <c r="H72" s="73" t="e">
-        <f>VLOOKUP($B72&amp;"3",'Raw Data'!$A:$X,H$41,FALSE)</f>
+        <f>IFERROR(VLOOKUP($B72&amp;"3",'Raw Data'!$A:$X,H$41,FALSE), NA())</f>
         <v>#N/A</v>
       </c>
       <c r="I72" s="73" t="e">
-        <f>VLOOKUP($B72&amp;"3",'Raw Data'!$A:$X,I$41,FALSE)</f>
+        <f>IFERROR(VLOOKUP($B72&amp;"3",'Raw Data'!$A:$X,I$41,FALSE), NA())</f>
         <v>#N/A</v>
       </c>
       <c r="J72" s="15"/>
@@ -19195,7 +19993,7 @@
     </row>
     <row r="73" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A73" s="15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="B73" s="15" t="s">
@@ -19213,19 +20011,19 @@
         <v>#N/A</v>
       </c>
       <c r="F73" s="73" t="e">
-        <f>VLOOKUP($B73&amp;"3",'Raw Data'!$A:$X,F$41,FALSE)</f>
+        <f>IFERROR(VLOOKUP($B73&amp;"3",'Raw Data'!$A:$X,F$41,FALSE), NA())</f>
         <v>#N/A</v>
       </c>
       <c r="G73" s="73" t="e">
-        <f>VLOOKUP($B73&amp;"3",'Raw Data'!$A:$X,G$41,FALSE)</f>
+        <f>IFERROR(VLOOKUP($B73&amp;"3",'Raw Data'!$A:$X,G$41,FALSE), NA())</f>
         <v>#N/A</v>
       </c>
       <c r="H73" s="73" t="e">
-        <f>VLOOKUP($B73&amp;"3",'Raw Data'!$A:$X,H$41,FALSE)</f>
+        <f>IFERROR(VLOOKUP($B73&amp;"3",'Raw Data'!$A:$X,H$41,FALSE), NA())</f>
         <v>#N/A</v>
       </c>
       <c r="I73" s="73" t="e">
-        <f>VLOOKUP($B73&amp;"3",'Raw Data'!$A:$X,I$41,FALSE)</f>
+        <f>IFERROR(VLOOKUP($B73&amp;"3",'Raw Data'!$A:$X,I$41,FALSE), NA())</f>
         <v>#N/A</v>
       </c>
       <c r="J73" s="15"/>
@@ -19507,44 +20305,44 @@
     </row>
     <row r="80" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A80" s="15"/>
-      <c r="B80" s="16"/>
-      <c r="C80" s="16"/>
-      <c r="D80" s="16"/>
-      <c r="E80" s="16"/>
-      <c r="F80" s="16"/>
-      <c r="G80" s="16"/>
-      <c r="H80" s="16"/>
-      <c r="I80" s="16"/>
-      <c r="J80" s="16"/>
-      <c r="K80" s="16"/>
-      <c r="L80" s="16"/>
-      <c r="M80" s="16"/>
-      <c r="N80" s="16"/>
-      <c r="O80" s="16"/>
-      <c r="P80" s="16"/>
-      <c r="Q80" s="16"/>
-      <c r="R80" s="16"/>
-      <c r="S80" s="16"/>
-      <c r="T80" s="16"/>
-      <c r="U80" s="16"/>
-      <c r="V80" s="16"/>
-      <c r="W80" s="16"/>
-      <c r="X80" s="16"/>
-      <c r="Y80" s="16"/>
-      <c r="Z80" s="16"/>
-      <c r="AA80" s="16"/>
-      <c r="AB80" s="16"/>
-      <c r="AC80" s="16"/>
-      <c r="AD80" s="16"/>
-      <c r="AE80" s="16"/>
-      <c r="AF80" s="16"/>
-      <c r="AG80" s="16"/>
-      <c r="AH80" s="16"/>
-      <c r="AI80" s="16"/>
-      <c r="AJ80" s="16"/>
-      <c r="AK80" s="16"/>
-      <c r="AL80" s="16"/>
-      <c r="AM80" s="16"/>
+      <c r="B80" s="15"/>
+      <c r="C80" s="15"/>
+      <c r="D80" s="15"/>
+      <c r="E80" s="15"/>
+      <c r="F80" s="15"/>
+      <c r="G80" s="15"/>
+      <c r="H80" s="15"/>
+      <c r="I80" s="15"/>
+      <c r="J80" s="15"/>
+      <c r="K80" s="15"/>
+      <c r="L80" s="15"/>
+      <c r="M80" s="15"/>
+      <c r="N80" s="15"/>
+      <c r="O80" s="15"/>
+      <c r="P80" s="15"/>
+      <c r="Q80" s="15"/>
+      <c r="R80" s="15"/>
+      <c r="S80" s="15"/>
+      <c r="T80" s="15"/>
+      <c r="U80" s="15"/>
+      <c r="V80" s="15"/>
+      <c r="W80" s="15"/>
+      <c r="X80" s="15"/>
+      <c r="Y80" s="15"/>
+      <c r="Z80" s="15"/>
+      <c r="AA80" s="15"/>
+      <c r="AB80" s="15"/>
+      <c r="AC80" s="15"/>
+      <c r="AD80" s="15"/>
+      <c r="AE80" s="15"/>
+      <c r="AF80" s="15"/>
+      <c r="AG80" s="15"/>
+      <c r="AH80" s="15"/>
+      <c r="AI80" s="15"/>
+      <c r="AJ80" s="15"/>
+      <c r="AK80" s="15"/>
+      <c r="AL80" s="15"/>
+      <c r="AM80" s="15"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -19552,7 +20350,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:H32"/>
   <sheetViews>
@@ -19860,7 +20658,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1"/>
   <sheetViews>
